--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -403,7 +403,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +488,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="80">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1489,6 +1507,140 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1529,7 +1681,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1540,7 +1694,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1591,7 +1747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1990,6 +2146,79 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2008,47 +2237,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2058,10 +2246,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800080"/>
+      <color rgb="FF333399"/>
       <color rgb="FF008000"/>
-      <color rgb="FF333399"/>
       <color rgb="FF003300"/>
-      <color rgb="FF800080"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -2363,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2379,41 +2567,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="203"/>
-      <c r="AA1" s="203"/>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="203"/>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="232"/>
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="232"/>
+      <c r="AG1" s="232"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3139,41 +3327,41 @@
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="202" t="s">
+      <c r="A19" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="203"/>
-      <c r="S19" s="203"/>
-      <c r="T19" s="203"/>
-      <c r="U19" s="203"/>
-      <c r="V19" s="203"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="203"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="203"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="203"/>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="203"/>
-      <c r="AF19" s="203"/>
-      <c r="AG19" s="203"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="232"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="232"/>
+      <c r="W19" s="232"/>
+      <c r="X19" s="232"/>
+      <c r="Y19" s="232"/>
+      <c r="Z19" s="232"/>
+      <c r="AA19" s="232"/>
+      <c r="AB19" s="232"/>
+      <c r="AC19" s="232"/>
+      <c r="AD19" s="232"/>
+      <c r="AE19" s="232"/>
+      <c r="AF19" s="232"/>
+      <c r="AG19" s="232"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -19651,11 +19839,11 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="211"/>
+      <c r="T21" s="210"/>
       <c r="U21" s="31"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="65"/>
+      <c r="X21" s="213"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="31"/>
@@ -19694,14 +19882,14 @@
       <c r="N22" s="198"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
-      <c r="Q22" s="208"/>
+      <c r="Q22" s="191"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="43"/>
       <c r="U22" s="31"/>
       <c r="V22" s="49"/>
       <c r="W22" s="49"/>
-      <c r="X22" s="65"/>
+      <c r="X22" s="31"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
@@ -19740,14 +19928,14 @@
       <c r="N23" s="198"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
-      <c r="Q23" s="208"/>
+      <c r="Q23" s="191"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="43"/>
       <c r="U23" s="31"/>
       <c r="V23" s="49"/>
       <c r="W23" s="49"/>
-      <c r="X23" s="65"/>
+      <c r="X23" s="31"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="31"/>
@@ -19786,14 +19974,14 @@
       <c r="N24" s="198"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="208"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="210"/>
-      <c r="U24" s="212"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="208"/>
+      <c r="U24" s="211"/>
       <c r="V24" s="49"/>
       <c r="W24" s="49"/>
-      <c r="X24" s="212"/>
+      <c r="X24" s="230"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -19834,12 +20022,12 @@
       <c r="P25" s="49"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
-      <c r="U25" s="212"/>
+      <c r="S25" s="207"/>
+      <c r="T25" s="208"/>
+      <c r="U25" s="211"/>
       <c r="V25" s="49"/>
       <c r="W25" s="49"/>
-      <c r="X25" s="212"/>
+      <c r="X25" s="230"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="31"/>
       <c r="AA25" s="31"/>
@@ -19878,14 +20066,14 @@
       <c r="N26" s="200"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-      <c r="Q26" s="208"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="210"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="209"/>
       <c r="U26" s="212"/>
       <c r="V26" s="72"/>
       <c r="W26" s="72"/>
-      <c r="X26" s="212"/>
+      <c r="X26" s="230"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="73"/>
       <c r="AA26" s="73"/>
@@ -20430,7 +20618,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
-      <c r="Q38" s="213"/>
+      <c r="Q38" s="202"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -20476,7 +20664,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="81"/>
       <c r="P39" s="81"/>
-      <c r="Q39" s="213"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -20522,11 +20710,11 @@
       <c r="N40" s="8"/>
       <c r="O40" s="82"/>
       <c r="P40" s="82"/>
-      <c r="Q40" s="214"/>
-      <c r="R40" s="214"/>
-      <c r="S40" s="214"/>
-      <c r="T40" s="214"/>
-      <c r="U40" s="214"/>
+      <c r="Q40" s="203"/>
+      <c r="R40" s="203"/>
+      <c r="S40" s="203"/>
+      <c r="T40" s="203"/>
+      <c r="U40" s="204"/>
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
       <c r="X40" s="88"/>
@@ -20568,11 +20756,11 @@
       <c r="N41" s="8"/>
       <c r="O41" s="82"/>
       <c r="P41" s="82"/>
-      <c r="Q41" s="214"/>
-      <c r="R41" s="214"/>
-      <c r="S41" s="214"/>
-      <c r="T41" s="214"/>
-      <c r="U41" s="214"/>
+      <c r="Q41" s="203"/>
+      <c r="R41" s="203"/>
+      <c r="S41" s="203"/>
+      <c r="T41" s="203"/>
+      <c r="U41" s="204"/>
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
       <c r="X41" s="88"/>
@@ -20614,11 +20802,11 @@
       <c r="N42" s="8"/>
       <c r="O42" s="82"/>
       <c r="P42" s="82"/>
-      <c r="Q42" s="214"/>
-      <c r="R42" s="214"/>
-      <c r="S42" s="214"/>
-      <c r="T42" s="214"/>
-      <c r="U42" s="214"/>
+      <c r="Q42" s="203"/>
+      <c r="R42" s="203"/>
+      <c r="S42" s="203"/>
+      <c r="T42" s="203"/>
+      <c r="U42" s="204"/>
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
       <c r="X42" s="88"/>
@@ -20752,11 +20940,11 @@
       <c r="N45" s="11"/>
       <c r="O45" s="83"/>
       <c r="P45" s="83"/>
-      <c r="Q45" s="215"/>
-      <c r="R45" s="215"/>
-      <c r="S45" s="215"/>
-      <c r="T45" s="215"/>
-      <c r="U45" s="216"/>
+      <c r="Q45" s="205"/>
+      <c r="R45" s="205"/>
+      <c r="S45" s="205"/>
+      <c r="T45" s="205"/>
+      <c r="U45" s="206"/>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
       <c r="X45" s="88"/>
@@ -20858,9 +21046,9 @@
       <c r="AB47" s="65"/>
       <c r="AC47" s="49"/>
       <c r="AD47" s="49"/>
-      <c r="AE47" s="213"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="96"/>
+      <c r="AE47" s="215"/>
+      <c r="AF47" s="93"/>
+      <c r="AG47" s="214"/>
       <c r="AH47" s="156"/>
       <c r="AI47" s="155"/>
       <c r="AJ47" s="155"/>
@@ -20904,9 +21092,9 @@
       <c r="AB48" s="65"/>
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
-      <c r="AE48" s="214"/>
-      <c r="AF48" s="214"/>
-      <c r="AG48" s="87"/>
+      <c r="AE48" s="216"/>
+      <c r="AF48" s="216"/>
+      <c r="AG48" s="216"/>
       <c r="AH48" s="156"/>
       <c r="AI48" s="155"/>
       <c r="AJ48" s="155"/>
@@ -20950,9 +21138,9 @@
       <c r="AB49" s="65"/>
       <c r="AC49" s="49"/>
       <c r="AD49" s="49"/>
-      <c r="AE49" s="214"/>
-      <c r="AF49" s="214"/>
-      <c r="AG49" s="87"/>
+      <c r="AE49" s="216"/>
+      <c r="AF49" s="216"/>
+      <c r="AG49" s="216"/>
       <c r="AH49" s="156"/>
       <c r="AI49" s="155"/>
       <c r="AJ49" s="155"/>
@@ -20996,9 +21184,9 @@
       <c r="AB50" s="65"/>
       <c r="AC50" s="49"/>
       <c r="AD50" s="49"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="71"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
       <c r="AH50" s="156"/>
       <c r="AI50" s="155"/>
       <c r="AJ50" s="155"/>
@@ -21042,9 +21230,9 @@
       <c r="AB51" s="65"/>
       <c r="AC51" s="49"/>
       <c r="AD51" s="49"/>
-      <c r="AE51" s="224"/>
-      <c r="AF51" s="215"/>
-      <c r="AG51" s="91"/>
+      <c r="AE51" s="217"/>
+      <c r="AF51" s="218"/>
+      <c r="AG51" s="219"/>
       <c r="AH51" s="156"/>
       <c r="AI51" s="155"/>
       <c r="AJ51" s="155"/>
@@ -21054,41 +21242,41 @@
       <c r="AN51" s="155"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="204" t="s">
+      <c r="A52" s="233" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="205"/>
-      <c r="K52" s="205"/>
-      <c r="L52" s="205"/>
-      <c r="M52" s="205"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="205"/>
-      <c r="P52" s="205"/>
-      <c r="Q52" s="205"/>
-      <c r="R52" s="205"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="205"/>
-      <c r="U52" s="205"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="205"/>
-      <c r="X52" s="205"/>
-      <c r="Y52" s="205"/>
-      <c r="Z52" s="205"/>
-      <c r="AA52" s="205"/>
-      <c r="AB52" s="205"/>
-      <c r="AC52" s="205"/>
-      <c r="AD52" s="205"/>
-      <c r="AE52" s="205"/>
-      <c r="AF52" s="205"/>
-      <c r="AG52" s="205"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="234"/>
+      <c r="D52" s="234"/>
+      <c r="E52" s="234"/>
+      <c r="F52" s="234"/>
+      <c r="G52" s="234"/>
+      <c r="H52" s="234"/>
+      <c r="I52" s="234"/>
+      <c r="J52" s="234"/>
+      <c r="K52" s="234"/>
+      <c r="L52" s="234"/>
+      <c r="M52" s="234"/>
+      <c r="N52" s="234"/>
+      <c r="O52" s="234"/>
+      <c r="P52" s="234"/>
+      <c r="Q52" s="234"/>
+      <c r="R52" s="234"/>
+      <c r="S52" s="234"/>
+      <c r="T52" s="234"/>
+      <c r="U52" s="234"/>
+      <c r="V52" s="234"/>
+      <c r="W52" s="234"/>
+      <c r="X52" s="234"/>
+      <c r="Y52" s="234"/>
+      <c r="Z52" s="234"/>
+      <c r="AA52" s="234"/>
+      <c r="AB52" s="234"/>
+      <c r="AC52" s="234"/>
+      <c r="AD52" s="234"/>
+      <c r="AE52" s="234"/>
+      <c r="AF52" s="234"/>
+      <c r="AG52" s="234"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21198,7 +21386,7 @@
       <c r="B54" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="28"/>
+      <c r="C54" s="220"/>
       <c r="D54" s="69"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -21206,7 +21394,7 @@
       <c r="H54" s="74"/>
       <c r="I54" s="145"/>
       <c r="J54" s="74"/>
-      <c r="K54" s="223"/>
+      <c r="K54" s="221"/>
       <c r="L54" s="75"/>
       <c r="M54" s="75"/>
       <c r="N54" s="61"/>
@@ -21244,7 +21432,7 @@
       <c r="B55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="222"/>
       <c r="D55" s="70"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -21290,13 +21478,13 @@
       <c r="B56" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="214"/>
+      <c r="C56" s="216"/>
       <c r="D56" s="87"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="88"/>
       <c r="H56" s="88"/>
-      <c r="I56" s="219"/>
+      <c r="I56" s="223"/>
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
       <c r="L56" s="77"/>
@@ -21336,13 +21524,13 @@
       <c r="B57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="214"/>
+      <c r="C57" s="216"/>
       <c r="D57" s="87"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="88"/>
       <c r="H57" s="88"/>
-      <c r="I57" s="219"/>
+      <c r="I57" s="223"/>
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
       <c r="L57" s="77"/>
@@ -21382,7 +21570,7 @@
       <c r="B58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -21428,15 +21616,15 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="217"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="220"/>
-      <c r="K59" s="222"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="228"/>
+      <c r="J59" s="227"/>
+      <c r="K59" s="229"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="66"/>
@@ -22020,41 +22208,41 @@
       <c r="AN71" s="155"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="204" t="s">
+      <c r="A72" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
-      <c r="E72" s="205"/>
-      <c r="F72" s="205"/>
-      <c r="G72" s="205"/>
-      <c r="H72" s="205"/>
-      <c r="I72" s="205"/>
-      <c r="J72" s="205"/>
-      <c r="K72" s="205"/>
-      <c r="L72" s="205"/>
-      <c r="M72" s="205"/>
-      <c r="N72" s="205"/>
-      <c r="O72" s="205"/>
-      <c r="P72" s="205"/>
-      <c r="Q72" s="205"/>
-      <c r="R72" s="205"/>
-      <c r="S72" s="205"/>
-      <c r="T72" s="205"/>
-      <c r="U72" s="205"/>
-      <c r="V72" s="205"/>
-      <c r="W72" s="205"/>
-      <c r="X72" s="205"/>
-      <c r="Y72" s="205"/>
-      <c r="Z72" s="205"/>
-      <c r="AA72" s="205"/>
-      <c r="AB72" s="205"/>
-      <c r="AC72" s="205"/>
-      <c r="AD72" s="205"/>
-      <c r="AE72" s="205"/>
-      <c r="AF72" s="205"/>
-      <c r="AG72" s="205"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="234"/>
+      <c r="G72" s="234"/>
+      <c r="H72" s="234"/>
+      <c r="I72" s="234"/>
+      <c r="J72" s="234"/>
+      <c r="K72" s="234"/>
+      <c r="L72" s="234"/>
+      <c r="M72" s="234"/>
+      <c r="N72" s="234"/>
+      <c r="O72" s="234"/>
+      <c r="P72" s="234"/>
+      <c r="Q72" s="234"/>
+      <c r="R72" s="234"/>
+      <c r="S72" s="234"/>
+      <c r="T72" s="234"/>
+      <c r="U72" s="234"/>
+      <c r="V72" s="234"/>
+      <c r="W72" s="234"/>
+      <c r="X72" s="234"/>
+      <c r="Y72" s="234"/>
+      <c r="Z72" s="234"/>
+      <c r="AA72" s="234"/>
+      <c r="AB72" s="234"/>
+      <c r="AC72" s="234"/>
+      <c r="AD72" s="234"/>
+      <c r="AE72" s="234"/>
+      <c r="AF72" s="234"/>
+      <c r="AG72" s="234"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22663,41 +22851,41 @@
       <c r="AG86" s="127"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="206" t="s">
+      <c r="A87" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="207"/>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="207"/>
-      <c r="F87" s="207"/>
-      <c r="G87" s="207"/>
-      <c r="H87" s="207"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="207"/>
-      <c r="K87" s="207"/>
-      <c r="L87" s="207"/>
-      <c r="M87" s="207"/>
-      <c r="N87" s="207"/>
-      <c r="O87" s="207"/>
-      <c r="P87" s="207"/>
-      <c r="Q87" s="207"/>
-      <c r="R87" s="207"/>
-      <c r="S87" s="207"/>
-      <c r="T87" s="207"/>
-      <c r="U87" s="207"/>
-      <c r="V87" s="207"/>
-      <c r="W87" s="207"/>
-      <c r="X87" s="207"/>
-      <c r="Y87" s="207"/>
-      <c r="Z87" s="207"/>
-      <c r="AA87" s="207"/>
-      <c r="AB87" s="207"/>
-      <c r="AC87" s="207"/>
-      <c r="AD87" s="207"/>
-      <c r="AE87" s="207"/>
-      <c r="AF87" s="207"/>
-      <c r="AG87" s="207"/>
+      <c r="B87" s="236"/>
+      <c r="C87" s="236"/>
+      <c r="D87" s="236"/>
+      <c r="E87" s="236"/>
+      <c r="F87" s="236"/>
+      <c r="G87" s="236"/>
+      <c r="H87" s="236"/>
+      <c r="I87" s="236"/>
+      <c r="J87" s="236"/>
+      <c r="K87" s="236"/>
+      <c r="L87" s="236"/>
+      <c r="M87" s="236"/>
+      <c r="N87" s="236"/>
+      <c r="O87" s="236"/>
+      <c r="P87" s="236"/>
+      <c r="Q87" s="236"/>
+      <c r="R87" s="236"/>
+      <c r="S87" s="236"/>
+      <c r="T87" s="236"/>
+      <c r="U87" s="236"/>
+      <c r="V87" s="236"/>
+      <c r="W87" s="236"/>
+      <c r="X87" s="236"/>
+      <c r="Y87" s="236"/>
+      <c r="Z87" s="236"/>
+      <c r="AA87" s="236"/>
+      <c r="AB87" s="236"/>
+      <c r="AC87" s="236"/>
+      <c r="AD87" s="236"/>
+      <c r="AE87" s="236"/>
+      <c r="AF87" s="236"/>
+      <c r="AG87" s="236"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -403,7 +403,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,14 +500,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="88">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1628,21 +1622,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1747,7 +1726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2167,10 +2146,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,28 +2182,19 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,10 +2203,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2246,10 +2230,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF800080"/>
       <color rgb="FF333399"/>
       <color rgb="FF008000"/>
       <color rgb="FF003300"/>
+      <color rgb="FF800080"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -2551,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2567,41 +2551,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="232"/>
-      <c r="AB1" s="232"/>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="233"/>
+      <c r="AC1" s="233"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="233"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3327,41 +3311,41 @@
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="232"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="232"/>
-      <c r="V19" s="232"/>
-      <c r="W19" s="232"/>
-      <c r="X19" s="232"/>
-      <c r="Y19" s="232"/>
-      <c r="Z19" s="232"/>
-      <c r="AA19" s="232"/>
-      <c r="AB19" s="232"/>
-      <c r="AC19" s="232"/>
-      <c r="AD19" s="232"/>
-      <c r="AE19" s="232"/>
-      <c r="AF19" s="232"/>
-      <c r="AG19" s="232"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="233"/>
+      <c r="Y19" s="233"/>
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="233"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="233"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="233"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="233"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -19843,7 +19827,7 @@
       <c r="U21" s="31"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="213"/>
+      <c r="X21" s="214"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="31"/>
@@ -19981,7 +19965,7 @@
       <c r="U24" s="211"/>
       <c r="V24" s="49"/>
       <c r="W24" s="49"/>
-      <c r="X24" s="230"/>
+      <c r="X24" s="211"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -20027,7 +20011,7 @@
       <c r="U25" s="211"/>
       <c r="V25" s="49"/>
       <c r="W25" s="49"/>
-      <c r="X25" s="230"/>
+      <c r="X25" s="211"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="31"/>
       <c r="AA25" s="31"/>
@@ -20073,7 +20057,7 @@
       <c r="U26" s="212"/>
       <c r="V26" s="72"/>
       <c r="W26" s="72"/>
-      <c r="X26" s="230"/>
+      <c r="X26" s="212"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="73"/>
       <c r="AA26" s="73"/>
@@ -20583,7 +20567,7 @@
       <c r="Y37" s="74"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
-      <c r="AB37" s="89"/>
+      <c r="AB37" s="215"/>
       <c r="AC37" s="84"/>
       <c r="AD37" s="84"/>
       <c r="AE37" s="74"/>
@@ -20717,11 +20701,11 @@
       <c r="U40" s="204"/>
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
+      <c r="X40" s="213"/>
+      <c r="Y40" s="213"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="213"/>
+      <c r="AB40" s="213"/>
       <c r="AC40" s="49"/>
       <c r="AD40" s="49"/>
       <c r="AE40" s="65"/>
@@ -20763,11 +20747,11 @@
       <c r="U41" s="204"/>
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
+      <c r="X41" s="213"/>
+      <c r="Y41" s="213"/>
+      <c r="Z41" s="213"/>
+      <c r="AA41" s="213"/>
+      <c r="AB41" s="213"/>
       <c r="AC41" s="49"/>
       <c r="AD41" s="49"/>
       <c r="AE41" s="65"/>
@@ -20809,11 +20793,11 @@
       <c r="U42" s="204"/>
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
+      <c r="X42" s="213"/>
+      <c r="Y42" s="213"/>
+      <c r="Z42" s="213"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="213"/>
       <c r="AC42" s="49"/>
       <c r="AD42" s="49"/>
       <c r="AE42" s="65"/>
@@ -20859,7 +20843,7 @@
       <c r="Y43" s="65"/>
       <c r="Z43" s="65"/>
       <c r="AA43" s="65"/>
-      <c r="AB43" s="88"/>
+      <c r="AB43" s="213"/>
       <c r="AC43" s="49"/>
       <c r="AD43" s="49"/>
       <c r="AE43" s="65"/>
@@ -20905,7 +20889,7 @@
       <c r="Y44" s="65"/>
       <c r="Z44" s="65"/>
       <c r="AA44" s="65"/>
-      <c r="AB44" s="88"/>
+      <c r="AB44" s="213"/>
       <c r="AC44" s="49"/>
       <c r="AD44" s="49"/>
       <c r="AE44" s="65"/>
@@ -20947,11 +20931,11 @@
       <c r="U45" s="206"/>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
+      <c r="X45" s="213"/>
+      <c r="Y45" s="213"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="213"/>
       <c r="AC45" s="49"/>
       <c r="AD45" s="49"/>
       <c r="AE45" s="65"/>
@@ -21046,9 +21030,9 @@
       <c r="AB47" s="65"/>
       <c r="AC47" s="49"/>
       <c r="AD47" s="49"/>
-      <c r="AE47" s="215"/>
+      <c r="AE47" s="221"/>
       <c r="AF47" s="93"/>
-      <c r="AG47" s="214"/>
+      <c r="AG47" s="216"/>
       <c r="AH47" s="156"/>
       <c r="AI47" s="155"/>
       <c r="AJ47" s="155"/>
@@ -21092,9 +21076,9 @@
       <c r="AB48" s="65"/>
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
-      <c r="AE48" s="216"/>
-      <c r="AF48" s="216"/>
-      <c r="AG48" s="216"/>
+      <c r="AE48" s="222"/>
+      <c r="AF48" s="222"/>
+      <c r="AG48" s="222"/>
       <c r="AH48" s="156"/>
       <c r="AI48" s="155"/>
       <c r="AJ48" s="155"/>
@@ -21138,9 +21122,9 @@
       <c r="AB49" s="65"/>
       <c r="AC49" s="49"/>
       <c r="AD49" s="49"/>
-      <c r="AE49" s="216"/>
-      <c r="AF49" s="216"/>
-      <c r="AG49" s="216"/>
+      <c r="AE49" s="222"/>
+      <c r="AF49" s="222"/>
+      <c r="AG49" s="222"/>
       <c r="AH49" s="156"/>
       <c r="AI49" s="155"/>
       <c r="AJ49" s="155"/>
@@ -21230,9 +21214,9 @@
       <c r="AB51" s="65"/>
       <c r="AC51" s="49"/>
       <c r="AD51" s="49"/>
-      <c r="AE51" s="217"/>
-      <c r="AF51" s="218"/>
-      <c r="AG51" s="219"/>
+      <c r="AE51" s="223"/>
+      <c r="AF51" s="224"/>
+      <c r="AG51" s="225"/>
       <c r="AH51" s="156"/>
       <c r="AI51" s="155"/>
       <c r="AJ51" s="155"/>
@@ -21242,41 +21226,41 @@
       <c r="AN51" s="155"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="233" t="s">
+      <c r="A52" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="234"/>
-      <c r="J52" s="234"/>
-      <c r="K52" s="234"/>
-      <c r="L52" s="234"/>
-      <c r="M52" s="234"/>
-      <c r="N52" s="234"/>
-      <c r="O52" s="234"/>
-      <c r="P52" s="234"/>
-      <c r="Q52" s="234"/>
-      <c r="R52" s="234"/>
-      <c r="S52" s="234"/>
-      <c r="T52" s="234"/>
-      <c r="U52" s="234"/>
-      <c r="V52" s="234"/>
-      <c r="W52" s="234"/>
-      <c r="X52" s="234"/>
-      <c r="Y52" s="234"/>
-      <c r="Z52" s="234"/>
-      <c r="AA52" s="234"/>
-      <c r="AB52" s="234"/>
-      <c r="AC52" s="234"/>
-      <c r="AD52" s="234"/>
-      <c r="AE52" s="234"/>
-      <c r="AF52" s="234"/>
-      <c r="AG52" s="234"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="235"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="235"/>
+      <c r="L52" s="235"/>
+      <c r="M52" s="235"/>
+      <c r="N52" s="235"/>
+      <c r="O52" s="235"/>
+      <c r="P52" s="235"/>
+      <c r="Q52" s="235"/>
+      <c r="R52" s="235"/>
+      <c r="S52" s="235"/>
+      <c r="T52" s="235"/>
+      <c r="U52" s="235"/>
+      <c r="V52" s="235"/>
+      <c r="W52" s="235"/>
+      <c r="X52" s="235"/>
+      <c r="Y52" s="235"/>
+      <c r="Z52" s="235"/>
+      <c r="AA52" s="235"/>
+      <c r="AB52" s="235"/>
+      <c r="AC52" s="235"/>
+      <c r="AD52" s="235"/>
+      <c r="AE52" s="235"/>
+      <c r="AF52" s="235"/>
+      <c r="AG52" s="235"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21386,7 +21370,7 @@
       <c r="B54" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="220"/>
+      <c r="C54" s="217"/>
       <c r="D54" s="69"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -21394,7 +21378,7 @@
       <c r="H54" s="74"/>
       <c r="I54" s="145"/>
       <c r="J54" s="74"/>
-      <c r="K54" s="221"/>
+      <c r="K54" s="218"/>
       <c r="L54" s="75"/>
       <c r="M54" s="75"/>
       <c r="N54" s="61"/>
@@ -21432,7 +21416,7 @@
       <c r="B55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="222"/>
+      <c r="C55" s="219"/>
       <c r="D55" s="70"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -21478,13 +21462,13 @@
       <c r="B56" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="216"/>
+      <c r="C56" s="222"/>
       <c r="D56" s="87"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="88"/>
       <c r="H56" s="88"/>
-      <c r="I56" s="223"/>
+      <c r="I56" s="228"/>
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
       <c r="L56" s="77"/>
@@ -21524,13 +21508,13 @@
       <c r="B57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="216"/>
+      <c r="C57" s="222"/>
       <c r="D57" s="87"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="88"/>
       <c r="H57" s="88"/>
-      <c r="I57" s="223"/>
+      <c r="I57" s="228"/>
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
       <c r="L57" s="77"/>
@@ -21616,15 +21600,15 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="226"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="228"/>
-      <c r="J59" s="227"/>
-      <c r="K59" s="229"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="220"/>
+      <c r="G59" s="229"/>
+      <c r="H59" s="229"/>
+      <c r="I59" s="230"/>
+      <c r="J59" s="229"/>
+      <c r="K59" s="231"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="66"/>
@@ -22208,41 +22192,41 @@
       <c r="AN71" s="155"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="233" t="s">
+      <c r="A72" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="234"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="234"/>
-      <c r="H72" s="234"/>
-      <c r="I72" s="234"/>
-      <c r="J72" s="234"/>
-      <c r="K72" s="234"/>
-      <c r="L72" s="234"/>
-      <c r="M72" s="234"/>
-      <c r="N72" s="234"/>
-      <c r="O72" s="234"/>
-      <c r="P72" s="234"/>
-      <c r="Q72" s="234"/>
-      <c r="R72" s="234"/>
-      <c r="S72" s="234"/>
-      <c r="T72" s="234"/>
-      <c r="U72" s="234"/>
-      <c r="V72" s="234"/>
-      <c r="W72" s="234"/>
-      <c r="X72" s="234"/>
-      <c r="Y72" s="234"/>
-      <c r="Z72" s="234"/>
-      <c r="AA72" s="234"/>
-      <c r="AB72" s="234"/>
-      <c r="AC72" s="234"/>
-      <c r="AD72" s="234"/>
-      <c r="AE72" s="234"/>
-      <c r="AF72" s="234"/>
-      <c r="AG72" s="234"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="235"/>
+      <c r="H72" s="235"/>
+      <c r="I72" s="235"/>
+      <c r="J72" s="235"/>
+      <c r="K72" s="235"/>
+      <c r="L72" s="235"/>
+      <c r="M72" s="235"/>
+      <c r="N72" s="235"/>
+      <c r="O72" s="235"/>
+      <c r="P72" s="235"/>
+      <c r="Q72" s="235"/>
+      <c r="R72" s="235"/>
+      <c r="S72" s="235"/>
+      <c r="T72" s="235"/>
+      <c r="U72" s="235"/>
+      <c r="V72" s="235"/>
+      <c r="W72" s="235"/>
+      <c r="X72" s="235"/>
+      <c r="Y72" s="235"/>
+      <c r="Z72" s="235"/>
+      <c r="AA72" s="235"/>
+      <c r="AB72" s="235"/>
+      <c r="AC72" s="235"/>
+      <c r="AD72" s="235"/>
+      <c r="AE72" s="235"/>
+      <c r="AF72" s="235"/>
+      <c r="AG72" s="235"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22851,41 +22835,41 @@
       <c r="AG86" s="127"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="235" t="s">
+      <c r="A87" s="236" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="236"/>
-      <c r="C87" s="236"/>
-      <c r="D87" s="236"/>
-      <c r="E87" s="236"/>
-      <c r="F87" s="236"/>
-      <c r="G87" s="236"/>
-      <c r="H87" s="236"/>
-      <c r="I87" s="236"/>
-      <c r="J87" s="236"/>
-      <c r="K87" s="236"/>
-      <c r="L87" s="236"/>
-      <c r="M87" s="236"/>
-      <c r="N87" s="236"/>
-      <c r="O87" s="236"/>
-      <c r="P87" s="236"/>
-      <c r="Q87" s="236"/>
-      <c r="R87" s="236"/>
-      <c r="S87" s="236"/>
-      <c r="T87" s="236"/>
-      <c r="U87" s="236"/>
-      <c r="V87" s="236"/>
-      <c r="W87" s="236"/>
-      <c r="X87" s="236"/>
-      <c r="Y87" s="236"/>
-      <c r="Z87" s="236"/>
-      <c r="AA87" s="236"/>
-      <c r="AB87" s="236"/>
-      <c r="AC87" s="236"/>
-      <c r="AD87" s="236"/>
-      <c r="AE87" s="236"/>
-      <c r="AF87" s="236"/>
-      <c r="AG87" s="236"/>
+      <c r="B87" s="237"/>
+      <c r="C87" s="237"/>
+      <c r="D87" s="237"/>
+      <c r="E87" s="237"/>
+      <c r="F87" s="237"/>
+      <c r="G87" s="237"/>
+      <c r="H87" s="237"/>
+      <c r="I87" s="237"/>
+      <c r="J87" s="237"/>
+      <c r="K87" s="237"/>
+      <c r="L87" s="237"/>
+      <c r="M87" s="237"/>
+      <c r="N87" s="237"/>
+      <c r="O87" s="237"/>
+      <c r="P87" s="237"/>
+      <c r="Q87" s="237"/>
+      <c r="R87" s="237"/>
+      <c r="S87" s="237"/>
+      <c r="T87" s="237"/>
+      <c r="U87" s="237"/>
+      <c r="V87" s="237"/>
+      <c r="W87" s="237"/>
+      <c r="X87" s="237"/>
+      <c r="Y87" s="237"/>
+      <c r="Z87" s="237"/>
+      <c r="AA87" s="237"/>
+      <c r="AB87" s="237"/>
+      <c r="AC87" s="237"/>
+      <c r="AD87" s="237"/>
+      <c r="AE87" s="237"/>
+      <c r="AF87" s="237"/>
+      <c r="AG87" s="237"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -403,7 +403,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,37 +1626,7 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1660,12 +1636,40 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1674,9 +1678,11 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1726,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2155,40 +2161,28 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2535,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG42" sqref="AG42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2551,41 +2545,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="233"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3311,41 +3305,41 @@
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="233"/>
-      <c r="R19" s="233"/>
-      <c r="S19" s="233"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="233"/>
-      <c r="V19" s="233"/>
-      <c r="W19" s="233"/>
-      <c r="X19" s="233"/>
-      <c r="Y19" s="233"/>
-      <c r="Z19" s="233"/>
-      <c r="AA19" s="233"/>
-      <c r="AB19" s="233"/>
-      <c r="AC19" s="233"/>
-      <c r="AD19" s="233"/>
-      <c r="AE19" s="233"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="233"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="229"/>
+      <c r="M19" s="229"/>
+      <c r="N19" s="229"/>
+      <c r="O19" s="229"/>
+      <c r="P19" s="229"/>
+      <c r="Q19" s="229"/>
+      <c r="R19" s="229"/>
+      <c r="S19" s="229"/>
+      <c r="T19" s="229"/>
+      <c r="U19" s="229"/>
+      <c r="V19" s="229"/>
+      <c r="W19" s="229"/>
+      <c r="X19" s="229"/>
+      <c r="Y19" s="229"/>
+      <c r="Z19" s="229"/>
+      <c r="AA19" s="229"/>
+      <c r="AB19" s="229"/>
+      <c r="AC19" s="229"/>
+      <c r="AD19" s="229"/>
+      <c r="AE19" s="229"/>
+      <c r="AF19" s="229"/>
+      <c r="AG19" s="229"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -21030,9 +21024,9 @@
       <c r="AB47" s="65"/>
       <c r="AC47" s="49"/>
       <c r="AD47" s="49"/>
-      <c r="AE47" s="221"/>
-      <c r="AF47" s="93"/>
-      <c r="AG47" s="216"/>
+      <c r="AE47" s="220"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="96"/>
       <c r="AH47" s="156"/>
       <c r="AI47" s="155"/>
       <c r="AJ47" s="155"/>
@@ -21076,9 +21070,9 @@
       <c r="AB48" s="65"/>
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
-      <c r="AE48" s="222"/>
-      <c r="AF48" s="222"/>
-      <c r="AG48" s="222"/>
+      <c r="AE48" s="218"/>
+      <c r="AF48" s="218"/>
+      <c r="AG48" s="219"/>
       <c r="AH48" s="156"/>
       <c r="AI48" s="155"/>
       <c r="AJ48" s="155"/>
@@ -21122,9 +21116,9 @@
       <c r="AB49" s="65"/>
       <c r="AC49" s="49"/>
       <c r="AD49" s="49"/>
-      <c r="AE49" s="222"/>
-      <c r="AF49" s="222"/>
-      <c r="AG49" s="222"/>
+      <c r="AE49" s="218"/>
+      <c r="AF49" s="218"/>
+      <c r="AG49" s="219"/>
       <c r="AH49" s="156"/>
       <c r="AI49" s="155"/>
       <c r="AJ49" s="155"/>
@@ -21168,9 +21162,9 @@
       <c r="AB50" s="65"/>
       <c r="AC50" s="49"/>
       <c r="AD50" s="49"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="71"/>
       <c r="AH50" s="156"/>
       <c r="AI50" s="155"/>
       <c r="AJ50" s="155"/>
@@ -21214,9 +21208,9 @@
       <c r="AB51" s="65"/>
       <c r="AC51" s="49"/>
       <c r="AD51" s="49"/>
-      <c r="AE51" s="223"/>
-      <c r="AF51" s="224"/>
-      <c r="AG51" s="225"/>
+      <c r="AE51" s="221"/>
+      <c r="AF51" s="221"/>
+      <c r="AG51" s="222"/>
       <c r="AH51" s="156"/>
       <c r="AI51" s="155"/>
       <c r="AJ51" s="155"/>
@@ -21226,41 +21220,41 @@
       <c r="AN51" s="155"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="235"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="235"/>
-      <c r="E52" s="235"/>
-      <c r="F52" s="235"/>
-      <c r="G52" s="235"/>
-      <c r="H52" s="235"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="235"/>
-      <c r="L52" s="235"/>
-      <c r="M52" s="235"/>
-      <c r="N52" s="235"/>
-      <c r="O52" s="235"/>
-      <c r="P52" s="235"/>
-      <c r="Q52" s="235"/>
-      <c r="R52" s="235"/>
-      <c r="S52" s="235"/>
-      <c r="T52" s="235"/>
-      <c r="U52" s="235"/>
-      <c r="V52" s="235"/>
-      <c r="W52" s="235"/>
-      <c r="X52" s="235"/>
-      <c r="Y52" s="235"/>
-      <c r="Z52" s="235"/>
-      <c r="AA52" s="235"/>
-      <c r="AB52" s="235"/>
-      <c r="AC52" s="235"/>
-      <c r="AD52" s="235"/>
-      <c r="AE52" s="235"/>
-      <c r="AF52" s="235"/>
-      <c r="AG52" s="235"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="231"/>
+      <c r="K52" s="231"/>
+      <c r="L52" s="231"/>
+      <c r="M52" s="231"/>
+      <c r="N52" s="231"/>
+      <c r="O52" s="231"/>
+      <c r="P52" s="231"/>
+      <c r="Q52" s="231"/>
+      <c r="R52" s="231"/>
+      <c r="S52" s="231"/>
+      <c r="T52" s="231"/>
+      <c r="U52" s="231"/>
+      <c r="V52" s="231"/>
+      <c r="W52" s="231"/>
+      <c r="X52" s="231"/>
+      <c r="Y52" s="231"/>
+      <c r="Z52" s="231"/>
+      <c r="AA52" s="231"/>
+      <c r="AB52" s="231"/>
+      <c r="AC52" s="231"/>
+      <c r="AD52" s="231"/>
+      <c r="AE52" s="231"/>
+      <c r="AF52" s="231"/>
+      <c r="AG52" s="231"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21370,7 +21364,7 @@
       <c r="B54" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="217"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="69"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -21378,7 +21372,7 @@
       <c r="H54" s="74"/>
       <c r="I54" s="145"/>
       <c r="J54" s="74"/>
-      <c r="K54" s="218"/>
+      <c r="K54" s="223"/>
       <c r="L54" s="75"/>
       <c r="M54" s="75"/>
       <c r="N54" s="61"/>
@@ -21416,7 +21410,7 @@
       <c r="B55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="219"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="70"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -21462,13 +21456,13 @@
       <c r="B56" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="222"/>
-      <c r="D56" s="87"/>
+      <c r="C56" s="218"/>
+      <c r="D56" s="219"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="88"/>
       <c r="H56" s="88"/>
-      <c r="I56" s="228"/>
+      <c r="I56" s="224"/>
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
       <c r="L56" s="77"/>
@@ -21508,13 +21502,13 @@
       <c r="B57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="87"/>
+      <c r="C57" s="218"/>
+      <c r="D57" s="219"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="88"/>
       <c r="H57" s="88"/>
-      <c r="I57" s="228"/>
+      <c r="I57" s="224"/>
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
       <c r="L57" s="77"/>
@@ -21554,7 +21548,7 @@
       <c r="B58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -21600,15 +21594,15 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="226"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="230"/>
-      <c r="J59" s="229"/>
-      <c r="K59" s="231"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="225"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="226"/>
+      <c r="J59" s="225"/>
+      <c r="K59" s="227"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="66"/>
@@ -22192,41 +22186,41 @@
       <c r="AN71" s="155"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="234" t="s">
+      <c r="A72" s="230" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="235"/>
-      <c r="C72" s="235"/>
-      <c r="D72" s="235"/>
-      <c r="E72" s="235"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="235"/>
-      <c r="H72" s="235"/>
-      <c r="I72" s="235"/>
-      <c r="J72" s="235"/>
-      <c r="K72" s="235"/>
-      <c r="L72" s="235"/>
-      <c r="M72" s="235"/>
-      <c r="N72" s="235"/>
-      <c r="O72" s="235"/>
-      <c r="P72" s="235"/>
-      <c r="Q72" s="235"/>
-      <c r="R72" s="235"/>
-      <c r="S72" s="235"/>
-      <c r="T72" s="235"/>
-      <c r="U72" s="235"/>
-      <c r="V72" s="235"/>
-      <c r="W72" s="235"/>
-      <c r="X72" s="235"/>
-      <c r="Y72" s="235"/>
-      <c r="Z72" s="235"/>
-      <c r="AA72" s="235"/>
-      <c r="AB72" s="235"/>
-      <c r="AC72" s="235"/>
-      <c r="AD72" s="235"/>
-      <c r="AE72" s="235"/>
-      <c r="AF72" s="235"/>
-      <c r="AG72" s="235"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="231"/>
+      <c r="D72" s="231"/>
+      <c r="E72" s="231"/>
+      <c r="F72" s="231"/>
+      <c r="G72" s="231"/>
+      <c r="H72" s="231"/>
+      <c r="I72" s="231"/>
+      <c r="J72" s="231"/>
+      <c r="K72" s="231"/>
+      <c r="L72" s="231"/>
+      <c r="M72" s="231"/>
+      <c r="N72" s="231"/>
+      <c r="O72" s="231"/>
+      <c r="P72" s="231"/>
+      <c r="Q72" s="231"/>
+      <c r="R72" s="231"/>
+      <c r="S72" s="231"/>
+      <c r="T72" s="231"/>
+      <c r="U72" s="231"/>
+      <c r="V72" s="231"/>
+      <c r="W72" s="231"/>
+      <c r="X72" s="231"/>
+      <c r="Y72" s="231"/>
+      <c r="Z72" s="231"/>
+      <c r="AA72" s="231"/>
+      <c r="AB72" s="231"/>
+      <c r="AC72" s="231"/>
+      <c r="AD72" s="231"/>
+      <c r="AE72" s="231"/>
+      <c r="AF72" s="231"/>
+      <c r="AG72" s="231"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22835,41 +22829,41 @@
       <c r="AG86" s="127"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="236" t="s">
+      <c r="A87" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="237"/>
-      <c r="C87" s="237"/>
-      <c r="D87" s="237"/>
-      <c r="E87" s="237"/>
-      <c r="F87" s="237"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="237"/>
-      <c r="I87" s="237"/>
-      <c r="J87" s="237"/>
-      <c r="K87" s="237"/>
-      <c r="L87" s="237"/>
-      <c r="M87" s="237"/>
-      <c r="N87" s="237"/>
-      <c r="O87" s="237"/>
-      <c r="P87" s="237"/>
-      <c r="Q87" s="237"/>
-      <c r="R87" s="237"/>
-      <c r="S87" s="237"/>
-      <c r="T87" s="237"/>
-      <c r="U87" s="237"/>
-      <c r="V87" s="237"/>
-      <c r="W87" s="237"/>
-      <c r="X87" s="237"/>
-      <c r="Y87" s="237"/>
-      <c r="Z87" s="237"/>
-      <c r="AA87" s="237"/>
-      <c r="AB87" s="237"/>
-      <c r="AC87" s="237"/>
-      <c r="AD87" s="237"/>
-      <c r="AE87" s="237"/>
-      <c r="AF87" s="237"/>
-      <c r="AG87" s="237"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="233"/>
+      <c r="D87" s="233"/>
+      <c r="E87" s="233"/>
+      <c r="F87" s="233"/>
+      <c r="G87" s="233"/>
+      <c r="H87" s="233"/>
+      <c r="I87" s="233"/>
+      <c r="J87" s="233"/>
+      <c r="K87" s="233"/>
+      <c r="L87" s="233"/>
+      <c r="M87" s="233"/>
+      <c r="N87" s="233"/>
+      <c r="O87" s="233"/>
+      <c r="P87" s="233"/>
+      <c r="Q87" s="233"/>
+      <c r="R87" s="233"/>
+      <c r="S87" s="233"/>
+      <c r="T87" s="233"/>
+      <c r="U87" s="233"/>
+      <c r="V87" s="233"/>
+      <c r="W87" s="233"/>
+      <c r="X87" s="233"/>
+      <c r="Y87" s="233"/>
+      <c r="Z87" s="233"/>
+      <c r="AA87" s="233"/>
+      <c r="AB87" s="233"/>
+      <c r="AC87" s="233"/>
+      <c r="AD87" s="233"/>
+      <c r="AE87" s="233"/>
+      <c r="AF87" s="233"/>
+      <c r="AG87" s="233"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -507,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1684,7 +1684,24 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1697,9 +1714,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1710,9 +1729,26 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1720,19 +1756,21 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2182,19 +2220,22 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG59" sqref="AG59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2545,41 +2586,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="230"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3305,41 +3346,41 @@
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="229"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="229"/>
-      <c r="L19" s="229"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="229"/>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="229"/>
-      <c r="R19" s="229"/>
-      <c r="S19" s="229"/>
-      <c r="T19" s="229"/>
-      <c r="U19" s="229"/>
-      <c r="V19" s="229"/>
-      <c r="W19" s="229"/>
-      <c r="X19" s="229"/>
-      <c r="Y19" s="229"/>
-      <c r="Z19" s="229"/>
-      <c r="AA19" s="229"/>
-      <c r="AB19" s="229"/>
-      <c r="AC19" s="229"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="229"/>
-      <c r="AF19" s="229"/>
-      <c r="AG19" s="229"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="230"/>
+      <c r="S19" s="230"/>
+      <c r="T19" s="230"/>
+      <c r="U19" s="230"/>
+      <c r="V19" s="230"/>
+      <c r="W19" s="230"/>
+      <c r="X19" s="230"/>
+      <c r="Y19" s="230"/>
+      <c r="Z19" s="230"/>
+      <c r="AA19" s="230"/>
+      <c r="AB19" s="230"/>
+      <c r="AC19" s="230"/>
+      <c r="AD19" s="230"/>
+      <c r="AE19" s="230"/>
+      <c r="AF19" s="230"/>
+      <c r="AG19" s="230"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -21220,41 +21261,41 @@
       <c r="AN51" s="155"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="230" t="s">
+      <c r="A52" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="231"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="231"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="231"/>
-      <c r="K52" s="231"/>
-      <c r="L52" s="231"/>
-      <c r="M52" s="231"/>
-      <c r="N52" s="231"/>
-      <c r="O52" s="231"/>
-      <c r="P52" s="231"/>
-      <c r="Q52" s="231"/>
-      <c r="R52" s="231"/>
-      <c r="S52" s="231"/>
-      <c r="T52" s="231"/>
-      <c r="U52" s="231"/>
-      <c r="V52" s="231"/>
-      <c r="W52" s="231"/>
-      <c r="X52" s="231"/>
-      <c r="Y52" s="231"/>
-      <c r="Z52" s="231"/>
-      <c r="AA52" s="231"/>
-      <c r="AB52" s="231"/>
-      <c r="AC52" s="231"/>
-      <c r="AD52" s="231"/>
-      <c r="AE52" s="231"/>
-      <c r="AF52" s="231"/>
-      <c r="AG52" s="231"/>
+      <c r="B52" s="232"/>
+      <c r="C52" s="232"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="232"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="232"/>
+      <c r="I52" s="232"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="232"/>
+      <c r="L52" s="232"/>
+      <c r="M52" s="232"/>
+      <c r="N52" s="232"/>
+      <c r="O52" s="232"/>
+      <c r="P52" s="232"/>
+      <c r="Q52" s="232"/>
+      <c r="R52" s="232"/>
+      <c r="S52" s="232"/>
+      <c r="T52" s="232"/>
+      <c r="U52" s="232"/>
+      <c r="V52" s="232"/>
+      <c r="W52" s="232"/>
+      <c r="X52" s="232"/>
+      <c r="Y52" s="232"/>
+      <c r="Z52" s="232"/>
+      <c r="AA52" s="232"/>
+      <c r="AB52" s="232"/>
+      <c r="AC52" s="232"/>
+      <c r="AD52" s="232"/>
+      <c r="AE52" s="232"/>
+      <c r="AF52" s="232"/>
+      <c r="AG52" s="232"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21372,7 +21413,7 @@
       <c r="H54" s="74"/>
       <c r="I54" s="145"/>
       <c r="J54" s="74"/>
-      <c r="K54" s="223"/>
+      <c r="K54" s="228"/>
       <c r="L54" s="75"/>
       <c r="M54" s="75"/>
       <c r="N54" s="61"/>
@@ -21460,11 +21501,11 @@
       <c r="D56" s="219"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="224"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
+      <c r="I56" s="227"/>
+      <c r="J56" s="226"/>
+      <c r="K56" s="226"/>
       <c r="L56" s="77"/>
       <c r="M56" s="77"/>
       <c r="N56" s="63"/>
@@ -21506,11 +21547,11 @@
       <c r="D57" s="219"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="224"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
+      <c r="I57" s="227"/>
+      <c r="J57" s="226"/>
+      <c r="K57" s="226"/>
       <c r="L57" s="77"/>
       <c r="M57" s="77"/>
       <c r="N57" s="63"/>
@@ -21556,7 +21597,7 @@
       <c r="H58" s="65"/>
       <c r="I58" s="98"/>
       <c r="J58" s="65"/>
-      <c r="K58" s="88"/>
+      <c r="K58" s="226"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="64"/>
@@ -21598,11 +21639,11 @@
       <c r="D59" s="217"/>
       <c r="E59" s="72"/>
       <c r="F59" s="72"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="226"/>
-      <c r="J59" s="225"/>
-      <c r="K59" s="227"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="224"/>
+      <c r="J59" s="223"/>
+      <c r="K59" s="225"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="66"/>
@@ -22186,41 +22227,41 @@
       <c r="AN71" s="155"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="230" t="s">
+      <c r="A72" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="231"/>
-      <c r="C72" s="231"/>
-      <c r="D72" s="231"/>
-      <c r="E72" s="231"/>
-      <c r="F72" s="231"/>
-      <c r="G72" s="231"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="231"/>
-      <c r="J72" s="231"/>
-      <c r="K72" s="231"/>
-      <c r="L72" s="231"/>
-      <c r="M72" s="231"/>
-      <c r="N72" s="231"/>
-      <c r="O72" s="231"/>
-      <c r="P72" s="231"/>
-      <c r="Q72" s="231"/>
-      <c r="R72" s="231"/>
-      <c r="S72" s="231"/>
-      <c r="T72" s="231"/>
-      <c r="U72" s="231"/>
-      <c r="V72" s="231"/>
-      <c r="W72" s="231"/>
-      <c r="X72" s="231"/>
-      <c r="Y72" s="231"/>
-      <c r="Z72" s="231"/>
-      <c r="AA72" s="231"/>
-      <c r="AB72" s="231"/>
-      <c r="AC72" s="231"/>
-      <c r="AD72" s="231"/>
-      <c r="AE72" s="231"/>
-      <c r="AF72" s="231"/>
-      <c r="AG72" s="231"/>
+      <c r="B72" s="232"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="232"/>
+      <c r="E72" s="232"/>
+      <c r="F72" s="232"/>
+      <c r="G72" s="232"/>
+      <c r="H72" s="232"/>
+      <c r="I72" s="232"/>
+      <c r="J72" s="232"/>
+      <c r="K72" s="232"/>
+      <c r="L72" s="232"/>
+      <c r="M72" s="232"/>
+      <c r="N72" s="232"/>
+      <c r="O72" s="232"/>
+      <c r="P72" s="232"/>
+      <c r="Q72" s="232"/>
+      <c r="R72" s="232"/>
+      <c r="S72" s="232"/>
+      <c r="T72" s="232"/>
+      <c r="U72" s="232"/>
+      <c r="V72" s="232"/>
+      <c r="W72" s="232"/>
+      <c r="X72" s="232"/>
+      <c r="Y72" s="232"/>
+      <c r="Z72" s="232"/>
+      <c r="AA72" s="232"/>
+      <c r="AB72" s="232"/>
+      <c r="AC72" s="232"/>
+      <c r="AD72" s="232"/>
+      <c r="AE72" s="232"/>
+      <c r="AF72" s="232"/>
+      <c r="AG72" s="232"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22829,41 +22870,41 @@
       <c r="AG86" s="127"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="232" t="s">
+      <c r="A87" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="233"/>
-      <c r="C87" s="233"/>
-      <c r="D87" s="233"/>
-      <c r="E87" s="233"/>
-      <c r="F87" s="233"/>
-      <c r="G87" s="233"/>
-      <c r="H87" s="233"/>
-      <c r="I87" s="233"/>
-      <c r="J87" s="233"/>
-      <c r="K87" s="233"/>
-      <c r="L87" s="233"/>
-      <c r="M87" s="233"/>
-      <c r="N87" s="233"/>
-      <c r="O87" s="233"/>
-      <c r="P87" s="233"/>
-      <c r="Q87" s="233"/>
-      <c r="R87" s="233"/>
-      <c r="S87" s="233"/>
-      <c r="T87" s="233"/>
-      <c r="U87" s="233"/>
-      <c r="V87" s="233"/>
-      <c r="W87" s="233"/>
-      <c r="X87" s="233"/>
-      <c r="Y87" s="233"/>
-      <c r="Z87" s="233"/>
-      <c r="AA87" s="233"/>
-      <c r="AB87" s="233"/>
-      <c r="AC87" s="233"/>
-      <c r="AD87" s="233"/>
-      <c r="AE87" s="233"/>
-      <c r="AF87" s="233"/>
-      <c r="AG87" s="233"/>
+      <c r="B87" s="234"/>
+      <c r="C87" s="234"/>
+      <c r="D87" s="234"/>
+      <c r="E87" s="234"/>
+      <c r="F87" s="234"/>
+      <c r="G87" s="234"/>
+      <c r="H87" s="234"/>
+      <c r="I87" s="234"/>
+      <c r="J87" s="234"/>
+      <c r="K87" s="234"/>
+      <c r="L87" s="234"/>
+      <c r="M87" s="234"/>
+      <c r="N87" s="234"/>
+      <c r="O87" s="234"/>
+      <c r="P87" s="234"/>
+      <c r="Q87" s="234"/>
+      <c r="R87" s="234"/>
+      <c r="S87" s="234"/>
+      <c r="T87" s="234"/>
+      <c r="U87" s="234"/>
+      <c r="V87" s="234"/>
+      <c r="W87" s="234"/>
+      <c r="X87" s="234"/>
+      <c r="Y87" s="234"/>
+      <c r="Z87" s="234"/>
+      <c r="AA87" s="234"/>
+      <c r="AB87" s="234"/>
+      <c r="AC87" s="234"/>
+      <c r="AD87" s="234"/>
+      <c r="AE87" s="234"/>
+      <c r="AF87" s="234"/>
+      <c r="AG87" s="234"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG57" sqref="AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -21738,7 +21738,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="76"/>
       <c r="M61" s="76"/>
-      <c r="N61" s="85"/>
+      <c r="N61" s="220"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
@@ -21784,11 +21784,11 @@
       <c r="K62" s="7"/>
       <c r="L62" s="77"/>
       <c r="M62" s="77"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="86"/>
-      <c r="P62" s="86"/>
-      <c r="Q62" s="86"/>
-      <c r="R62" s="87"/>
+      <c r="N62" s="218"/>
+      <c r="O62" s="218"/>
+      <c r="P62" s="218"/>
+      <c r="Q62" s="218"/>
+      <c r="R62" s="219"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
       <c r="U62" s="88"/>
@@ -21830,11 +21830,11 @@
       <c r="K63" s="7"/>
       <c r="L63" s="77"/>
       <c r="M63" s="77"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
-      <c r="P63" s="86"/>
-      <c r="Q63" s="86"/>
-      <c r="R63" s="87"/>
+      <c r="N63" s="218"/>
+      <c r="O63" s="218"/>
+      <c r="P63" s="218"/>
+      <c r="Q63" s="218"/>
+      <c r="R63" s="219"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
       <c r="U63" s="88"/>
@@ -21922,11 +21922,11 @@
       <c r="K65" s="11"/>
       <c r="L65" s="79"/>
       <c r="M65" s="79"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="91"/>
+      <c r="N65" s="221"/>
+      <c r="O65" s="221"/>
+      <c r="P65" s="221"/>
+      <c r="Q65" s="221"/>
+      <c r="R65" s="222"/>
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
       <c r="U65" s="88"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG57" sqref="AG57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U65" activeCellId="3" sqref="Y60 U62:Y63 Y64 U65:Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -21703,7 +21703,7 @@
       <c r="V60" s="74"/>
       <c r="W60" s="74"/>
       <c r="X60" s="74"/>
-      <c r="Y60" s="89"/>
+      <c r="Y60" s="215"/>
       <c r="Z60" s="84"/>
       <c r="AA60" s="84"/>
       <c r="AB60" s="74"/>
@@ -21791,11 +21791,11 @@
       <c r="R62" s="219"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
+      <c r="U62" s="226"/>
+      <c r="V62" s="226"/>
+      <c r="W62" s="226"/>
+      <c r="X62" s="226"/>
+      <c r="Y62" s="226"/>
       <c r="Z62" s="49"/>
       <c r="AA62" s="49"/>
       <c r="AB62" s="65"/>
@@ -21837,11 +21837,11 @@
       <c r="R63" s="219"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
+      <c r="U63" s="226"/>
+      <c r="V63" s="226"/>
+      <c r="W63" s="226"/>
+      <c r="X63" s="226"/>
+      <c r="Y63" s="226"/>
       <c r="Z63" s="49"/>
       <c r="AA63" s="49"/>
       <c r="AB63" s="65"/>
@@ -21887,7 +21887,7 @@
       <c r="V64" s="65"/>
       <c r="W64" s="65"/>
       <c r="X64" s="65"/>
-      <c r="Y64" s="88"/>
+      <c r="Y64" s="226"/>
       <c r="Z64" s="49"/>
       <c r="AA64" s="49"/>
       <c r="AB64" s="65"/>
@@ -21929,11 +21929,11 @@
       <c r="R65" s="222"/>
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
+      <c r="U65" s="226"/>
+      <c r="V65" s="226"/>
+      <c r="W65" s="226"/>
+      <c r="X65" s="226"/>
+      <c r="Y65" s="226"/>
       <c r="Z65" s="49"/>
       <c r="AA65" s="49"/>
       <c r="AB65" s="65"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>Activity</t>
   </si>
@@ -239,27 +239,6 @@
   </si>
   <si>
     <t>October</t>
-  </si>
-  <si>
-    <t>Milestone 8</t>
-  </si>
-  <si>
-    <t>8.a</t>
-  </si>
-  <si>
-    <t>8.b</t>
-  </si>
-  <si>
-    <t>8.c</t>
-  </si>
-  <si>
-    <t>8.d</t>
-  </si>
-  <si>
-    <t>8.e</t>
-  </si>
-  <si>
-    <t>8.x</t>
   </si>
   <si>
     <t>Identify basic interface requirements of components</t>
@@ -507,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1765,6 +1744,23 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1946,25 +1942,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,6 +2236,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2570,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U65" activeCellId="3" sqref="Y60 U62:Y63 Y64 U65:Y65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB68" activeCellId="1" sqref="AB67 AB68:AF69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2586,41 +2582,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2716,7 +2712,7 @@
       <c r="AE2" s="35">
         <v>29</v>
       </c>
-      <c r="AF2" s="100">
+      <c r="AF2" s="95">
         <v>30</v>
       </c>
       <c r="AG2" s="47"/>
@@ -2725,7 +2721,7 @@
       <c r="A3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="133" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="47"/>
@@ -2757,14 +2753,14 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="36"/>
-      <c r="AF3" s="118"/>
+      <c r="AF3" s="113"/>
       <c r="AG3" s="47"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="134" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="47"/>
@@ -2790,20 +2786,20 @@
       <c r="W4" s="47"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="47"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="192"/>
-      <c r="AB4" s="192"/>
-      <c r="AC4" s="192"/>
-      <c r="AD4" s="192"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="187"/>
       <c r="AE4" s="37"/>
-      <c r="AF4" s="118"/>
+      <c r="AF4" s="113"/>
       <c r="AG4" s="47"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="134" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="47"/>
@@ -2829,20 +2825,20 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="192"/>
-      <c r="AB5" s="192"/>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="192"/>
+      <c r="Z5" s="186"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="187"/>
       <c r="AE5" s="37"/>
-      <c r="AF5" s="118"/>
+      <c r="AF5" s="113"/>
       <c r="AG5" s="47"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="47"/>
@@ -2874,14 +2870,14 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="36"/>
-      <c r="AF6" s="118"/>
+      <c r="AF6" s="113"/>
       <c r="AG6" s="47"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="134" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="47"/>
@@ -2913,14 +2909,14 @@
       <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="36"/>
-      <c r="AF7" s="118"/>
+      <c r="AF7" s="113"/>
       <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="135" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="47"/>
@@ -2946,13 +2942,13 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="47"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187"/>
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187"/>
       <c r="AE8" s="38"/>
-      <c r="AF8" s="136"/>
+      <c r="AF8" s="131"/>
       <c r="AG8" s="47"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2991,15 +2987,15 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="43"/>
       <c r="AE9" s="49"/>
-      <c r="AF9" s="137"/>
+      <c r="AF9" s="132"/>
       <c r="AG9" s="47"/>
     </row>
     <row r="10" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="139" t="s">
-        <v>81</v>
+      <c r="B10" s="134" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -3024,21 +3020,21 @@
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="47"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="193"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="188"/>
       <c r="AE10" s="49"/>
-      <c r="AF10" s="137"/>
+      <c r="AF10" s="132"/>
       <c r="AG10" s="47"/>
     </row>
     <row r="11" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="139" t="s">
-        <v>93</v>
+      <c r="B11" s="134" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -3063,21 +3059,21 @@
       <c r="W11" s="47"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="47"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="192"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="193"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="188"/>
       <c r="AE11" s="49"/>
-      <c r="AF11" s="137"/>
+      <c r="AF11" s="132"/>
       <c r="AG11" s="47"/>
     </row>
     <row r="12" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="139" t="s">
-        <v>94</v>
+      <c r="B12" s="134" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -3102,21 +3098,21 @@
       <c r="W12" s="47"/>
       <c r="X12" s="47"/>
       <c r="Y12" s="47"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="193"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="188"/>
       <c r="AE12" s="49"/>
-      <c r="AF12" s="137"/>
+      <c r="AF12" s="132"/>
       <c r="AG12" s="47"/>
     </row>
     <row r="13" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="139" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="B13" s="134" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -3141,21 +3137,21 @@
       <c r="W13" s="47"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="193"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="188"/>
       <c r="AE13" s="49"/>
-      <c r="AF13" s="137"/>
+      <c r="AF13" s="132"/>
       <c r="AG13" s="47"/>
     </row>
     <row r="14" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="B14" s="134" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -3180,21 +3176,21 @@
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="192"/>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="193"/>
+      <c r="Z14" s="186"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="188"/>
       <c r="AE14" s="49"/>
-      <c r="AF14" s="137"/>
+      <c r="AF14" s="132"/>
       <c r="AG14" s="47"/>
     </row>
     <row r="15" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="139" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -3219,21 +3215,21 @@
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="47"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="193"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="188"/>
       <c r="AE15" s="49"/>
-      <c r="AF15" s="137"/>
+      <c r="AF15" s="132"/>
       <c r="AG15" s="47"/>
     </row>
     <row r="16" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="139" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -3264,15 +3260,15 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="49"/>
-      <c r="AF16" s="137"/>
+      <c r="AF16" s="132"/>
       <c r="AG16" s="47"/>
     </row>
     <row r="17" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="139" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -3303,14 +3299,14 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="49"/>
-      <c r="AF17" s="137"/>
+      <c r="AF17" s="132"/>
       <c r="AG17" s="47"/>
     </row>
     <row r="18" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="134" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="47"/>
@@ -3336,51 +3332,51 @@
       <c r="W18" s="47"/>
       <c r="X18" s="47"/>
       <c r="Y18" s="47"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="193"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="188"/>
       <c r="AE18" s="49"/>
-      <c r="AF18" s="137"/>
+      <c r="AF18" s="132"/>
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="229" t="s">
+      <c r="A19" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="230"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="230"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="230"/>
-      <c r="Y19" s="230"/>
-      <c r="Z19" s="230"/>
-      <c r="AA19" s="230"/>
-      <c r="AB19" s="230"/>
-      <c r="AC19" s="230"/>
-      <c r="AD19" s="230"/>
-      <c r="AE19" s="230"/>
-      <c r="AF19" s="230"/>
-      <c r="AG19" s="230"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="225"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="225"/>
+      <c r="R19" s="225"/>
+      <c r="S19" s="225"/>
+      <c r="T19" s="225"/>
+      <c r="U19" s="225"/>
+      <c r="V19" s="225"/>
+      <c r="W19" s="225"/>
+      <c r="X19" s="225"/>
+      <c r="Y19" s="225"/>
+      <c r="Z19" s="225"/>
+      <c r="AA19" s="225"/>
+      <c r="AB19" s="225"/>
+      <c r="AC19" s="225"/>
+      <c r="AD19" s="225"/>
+      <c r="AE19" s="225"/>
+      <c r="AF19" s="225"/>
+      <c r="AG19" s="225"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -19858,11 +19854,11 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="210"/>
+      <c r="T21" s="205"/>
       <c r="U21" s="31"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="214"/>
+      <c r="X21" s="209"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="31"/>
@@ -19872,13 +19868,13 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="71"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="155"/>
-      <c r="AK21" s="155"/>
-      <c r="AL21" s="155"/>
-      <c r="AM21" s="155"/>
-      <c r="AN21" s="155"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="150"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="150"/>
     </row>
     <row r="22" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -19887,21 +19883,21 @@
       <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
       <c r="F22" s="49"/>
-      <c r="G22" s="192"/>
+      <c r="G22" s="187"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="198"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="193"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
-      <c r="Q22" s="191"/>
+      <c r="Q22" s="186"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="43"/>
@@ -19918,13 +19914,13 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
       <c r="AG22" s="71"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="155"/>
-      <c r="AJ22" s="155"/>
-      <c r="AK22" s="155"/>
-      <c r="AL22" s="155"/>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="155"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="150"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="150"/>
     </row>
     <row r="23" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -19933,21 +19929,21 @@
       <c r="B23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
       <c r="F23" s="49"/>
-      <c r="G23" s="192"/>
+      <c r="G23" s="187"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="198"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="193"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
-      <c r="Q23" s="191"/>
+      <c r="Q23" s="186"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="43"/>
@@ -19964,13 +19960,13 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="71"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="155"/>
-      <c r="AJ23" s="155"/>
-      <c r="AK23" s="155"/>
-      <c r="AL23" s="155"/>
-      <c r="AM23" s="155"/>
-      <c r="AN23" s="155"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="150"/>
+      <c r="AJ23" s="150"/>
+      <c r="AK23" s="150"/>
+      <c r="AL23" s="150"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="150"/>
     </row>
     <row r="24" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -19990,17 +19986,17 @@
       <c r="K24" s="16"/>
       <c r="L24" s="43"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="198"/>
+      <c r="N24" s="193"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="208"/>
-      <c r="U24" s="211"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="202"/>
+      <c r="S24" s="202"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="206"/>
       <c r="V24" s="49"/>
       <c r="W24" s="49"/>
-      <c r="X24" s="211"/>
+      <c r="X24" s="206"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -20010,13 +20006,13 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="71"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="155"/>
-      <c r="AJ24" s="155"/>
-      <c r="AK24" s="155"/>
-      <c r="AL24" s="155"/>
-      <c r="AM24" s="155"/>
-      <c r="AN24" s="155"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="150"/>
+      <c r="AJ24" s="150"/>
+      <c r="AK24" s="150"/>
+      <c r="AL24" s="150"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="150"/>
     </row>
     <row r="25" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -20041,12 +20037,12 @@
       <c r="P25" s="49"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="207"/>
-      <c r="T25" s="208"/>
-      <c r="U25" s="211"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="203"/>
+      <c r="U25" s="206"/>
       <c r="V25" s="49"/>
       <c r="W25" s="49"/>
-      <c r="X25" s="211"/>
+      <c r="X25" s="206"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="31"/>
       <c r="AA25" s="31"/>
@@ -20056,13 +20052,13 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="71"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="155"/>
-      <c r="AJ25" s="155"/>
-      <c r="AK25" s="155"/>
-      <c r="AL25" s="155"/>
-      <c r="AM25" s="155"/>
-      <c r="AN25" s="155"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="150"/>
+      <c r="AJ25" s="150"/>
+      <c r="AK25" s="150"/>
+      <c r="AL25" s="150"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="150"/>
     </row>
     <row r="26" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -20071,28 +20067,28 @@
       <c r="B26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="195"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="196"/>
+      <c r="G26" s="191"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="200"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="195"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="192"/>
-      <c r="T26" s="209"/>
-      <c r="U26" s="212"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="207"/>
       <c r="V26" s="72"/>
       <c r="W26" s="72"/>
-      <c r="X26" s="212"/>
+      <c r="X26" s="207"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="73"/>
       <c r="AA26" s="73"/>
@@ -20101,25 +20097,25 @@
       <c r="AD26" s="72"/>
       <c r="AE26" s="73"/>
       <c r="AF26" s="73"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="156"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="155"/>
-      <c r="AK26" s="155"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="155"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="150"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="150"/>
     </row>
     <row r="27" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="185" t="s">
+      <c r="B27" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
       <c r="F27" s="49"/>
       <c r="G27" s="43"/>
       <c r="H27" s="49"/>
@@ -20128,7 +20124,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="43"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="190"/>
+      <c r="N27" s="185"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="45"/>
@@ -20148,32 +20144,32 @@
       <c r="AE27" s="31"/>
       <c r="AF27" s="31"/>
       <c r="AG27" s="71"/>
-      <c r="AH27" s="156"/>
-      <c r="AI27" s="155"/>
-      <c r="AJ27" s="155"/>
-      <c r="AK27" s="155"/>
-      <c r="AL27" s="155"/>
-      <c r="AM27" s="155"/>
-      <c r="AN27" s="155"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="150"/>
+      <c r="AJ27" s="150"/>
+      <c r="AK27" s="150"/>
+      <c r="AL27" s="150"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="150"/>
     </row>
     <row r="28" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
+      <c r="B28" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
       <c r="F28" s="49"/>
-      <c r="G28" s="193"/>
+      <c r="G28" s="188"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="148"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="143"/>
       <c r="N28" s="57"/>
       <c r="O28" s="60"/>
       <c r="P28" s="59"/>
@@ -20194,32 +20190,32 @@
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
       <c r="AG28" s="71"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="150"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="150"/>
     </row>
     <row r="29" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
+      <c r="B29" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
       <c r="F29" s="49"/>
-      <c r="G29" s="193"/>
+      <c r="G29" s="188"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="148"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="143"/>
       <c r="N29" s="57"/>
       <c r="O29" s="60"/>
       <c r="P29" s="59"/>
@@ -20240,32 +20236,32 @@
       <c r="AE29" s="31"/>
       <c r="AF29" s="31"/>
       <c r="AG29" s="71"/>
-      <c r="AH29" s="156"/>
-      <c r="AI29" s="155"/>
-      <c r="AJ29" s="155"/>
-      <c r="AK29" s="155"/>
-      <c r="AL29" s="155"/>
-      <c r="AM29" s="155"/>
-      <c r="AN29" s="155"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="150"/>
+      <c r="AJ29" s="150"/>
+      <c r="AK29" s="150"/>
+      <c r="AL29" s="150"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="150"/>
     </row>
     <row r="30" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
+      <c r="B30" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="49"/>
-      <c r="G30" s="193"/>
+      <c r="G30" s="188"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="148"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="143"/>
       <c r="N30" s="57"/>
       <c r="O30" s="60"/>
       <c r="P30" s="59"/>
@@ -20286,32 +20282,32 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
       <c r="AG30" s="71"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="155"/>
-      <c r="AK30" s="155"/>
-      <c r="AL30" s="155"/>
-      <c r="AM30" s="155"/>
-      <c r="AN30" s="155"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="150"/>
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="150"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="150"/>
     </row>
     <row r="31" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
+        <v>88</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
       <c r="F31" s="49"/>
-      <c r="G31" s="193"/>
+      <c r="G31" s="188"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="149"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="144"/>
       <c r="N31" s="52"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
@@ -20332,32 +20328,32 @@
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
       <c r="AG31" s="71"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="155"/>
-      <c r="AJ31" s="155"/>
-      <c r="AK31" s="155"/>
-      <c r="AL31" s="155"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="155"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="150"/>
+      <c r="AJ31" s="150"/>
+      <c r="AK31" s="150"/>
+      <c r="AL31" s="150"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="150"/>
     </row>
     <row r="32" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
+        <v>89</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
       <c r="F32" s="49"/>
-      <c r="G32" s="193"/>
+      <c r="G32" s="188"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="149"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="144"/>
       <c r="N32" s="52"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
@@ -20378,32 +20374,32 @@
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="71"/>
-      <c r="AH32" s="156"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="155"/>
-      <c r="AK32" s="155"/>
-      <c r="AL32" s="155"/>
-      <c r="AM32" s="155"/>
-      <c r="AN32" s="155"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="150"/>
+      <c r="AJ32" s="150"/>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="150"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="150"/>
     </row>
     <row r="33" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
+        <v>90</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
       <c r="F33" s="49"/>
-      <c r="G33" s="193"/>
+      <c r="G33" s="188"/>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="149"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="144"/>
       <c r="N33" s="52"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
@@ -20424,33 +20420,33 @@
       <c r="AE33" s="31"/>
       <c r="AF33" s="31"/>
       <c r="AG33" s="71"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="155"/>
-      <c r="AJ33" s="155"/>
-      <c r="AK33" s="155"/>
-      <c r="AL33" s="155"/>
-      <c r="AM33" s="155"/>
-      <c r="AN33" s="155"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="150"/>
+      <c r="AK33" s="150"/>
+      <c r="AL33" s="150"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="150"/>
     </row>
     <row r="34" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="135"/>
+        <v>94</v>
+      </c>
+      <c r="B34" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="49"/>
       <c r="G34" s="43"/>
       <c r="H34" s="49"/>
       <c r="I34" s="49"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="193"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="198"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="193"/>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="45"/>
@@ -20470,33 +20466,33 @@
       <c r="AE34" s="31"/>
       <c r="AF34" s="31"/>
       <c r="AG34" s="71"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="155"/>
-      <c r="AJ34" s="155"/>
-      <c r="AK34" s="155"/>
-      <c r="AL34" s="155"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="155"/>
+      <c r="AH34" s="151"/>
+      <c r="AI34" s="150"/>
+      <c r="AJ34" s="150"/>
+      <c r="AK34" s="150"/>
+      <c r="AL34" s="150"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="150"/>
     </row>
     <row r="35" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="135"/>
+        <v>95</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="49"/>
       <c r="G35" s="43"/>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="198"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="193"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="45"/>
@@ -20516,33 +20512,33 @@
       <c r="AE35" s="31"/>
       <c r="AF35" s="31"/>
       <c r="AG35" s="71"/>
-      <c r="AH35" s="156"/>
-      <c r="AI35" s="155"/>
-      <c r="AJ35" s="155"/>
-      <c r="AK35" s="155"/>
-      <c r="AL35" s="155"/>
-      <c r="AM35" s="155"/>
-      <c r="AN35" s="155"/>
+      <c r="AH35" s="151"/>
+      <c r="AI35" s="150"/>
+      <c r="AJ35" s="150"/>
+      <c r="AK35" s="150"/>
+      <c r="AL35" s="150"/>
+      <c r="AM35" s="150"/>
+      <c r="AN35" s="150"/>
     </row>
     <row r="36" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
       <c r="F36" s="49"/>
-      <c r="G36" s="193"/>
+      <c r="G36" s="188"/>
       <c r="H36" s="49"/>
       <c r="I36" s="49"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="198"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="193"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="58"/>
@@ -20562,28 +20558,28 @@
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
       <c r="AG36" s="71"/>
-      <c r="AH36" s="156"/>
-      <c r="AI36" s="155"/>
-      <c r="AJ36" s="155"/>
-      <c r="AK36" s="155"/>
-      <c r="AL36" s="155"/>
-      <c r="AM36" s="155"/>
-      <c r="AN36" s="155"/>
+      <c r="AH36" s="151"/>
+      <c r="AI36" s="150"/>
+      <c r="AJ36" s="150"/>
+      <c r="AK36" s="150"/>
+      <c r="AL36" s="150"/>
+      <c r="AM36" s="150"/>
+      <c r="AN36" s="150"/>
     </row>
     <row r="37" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
       <c r="F37" s="75"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
@@ -20602,19 +20598,19 @@
       <c r="Y37" s="74"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
-      <c r="AB37" s="215"/>
+      <c r="AB37" s="210"/>
       <c r="AC37" s="84"/>
       <c r="AD37" s="84"/>
       <c r="AE37" s="74"/>
       <c r="AF37" s="31"/>
       <c r="AG37" s="71"/>
-      <c r="AH37" s="156"/>
-      <c r="AI37" s="155"/>
-      <c r="AJ37" s="155"/>
-      <c r="AK37" s="155"/>
-      <c r="AL37" s="155"/>
-      <c r="AM37" s="155"/>
-      <c r="AN37" s="155"/>
+      <c r="AH37" s="151"/>
+      <c r="AI37" s="150"/>
+      <c r="AJ37" s="150"/>
+      <c r="AK37" s="150"/>
+      <c r="AL37" s="150"/>
+      <c r="AM37" s="150"/>
+      <c r="AN37" s="150"/>
     </row>
     <row r="38" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -20628,8 +20624,8 @@
       <c r="E38" s="45"/>
       <c r="F38" s="76"/>
       <c r="G38" s="45"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
@@ -20637,7 +20633,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
-      <c r="Q38" s="202"/>
+      <c r="Q38" s="197"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -20654,28 +20650,28 @@
       <c r="AE38" s="65"/>
       <c r="AF38" s="31"/>
       <c r="AG38" s="71"/>
-      <c r="AH38" s="156"/>
-      <c r="AI38" s="155"/>
-      <c r="AJ38" s="155"/>
-      <c r="AK38" s="155"/>
-      <c r="AL38" s="155"/>
-      <c r="AM38" s="155"/>
-      <c r="AN38" s="155"/>
+      <c r="AH38" s="151"/>
+      <c r="AI38" s="150"/>
+      <c r="AJ38" s="150"/>
+      <c r="AK38" s="150"/>
+      <c r="AL38" s="150"/>
+      <c r="AM38" s="150"/>
+      <c r="AN38" s="150"/>
     </row>
     <row r="39" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="76"/>
       <c r="G39" s="45"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
@@ -20683,7 +20679,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="81"/>
       <c r="P39" s="81"/>
-      <c r="Q39" s="202"/>
+      <c r="Q39" s="197"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -20700,28 +20696,28 @@
       <c r="AE39" s="65"/>
       <c r="AF39" s="31"/>
       <c r="AG39" s="71"/>
-      <c r="AH39" s="156"/>
-      <c r="AI39" s="155"/>
-      <c r="AJ39" s="155"/>
-      <c r="AK39" s="155"/>
-      <c r="AL39" s="155"/>
-      <c r="AM39" s="155"/>
-      <c r="AN39" s="155"/>
+      <c r="AH39" s="151"/>
+      <c r="AI39" s="150"/>
+      <c r="AJ39" s="150"/>
+      <c r="AK39" s="150"/>
+      <c r="AL39" s="150"/>
+      <c r="AM39" s="150"/>
+      <c r="AN39" s="150"/>
     </row>
     <row r="40" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
       <c r="F40" s="77"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8"/>
@@ -20729,45 +20725,45 @@
       <c r="N40" s="8"/>
       <c r="O40" s="82"/>
       <c r="P40" s="82"/>
-      <c r="Q40" s="203"/>
-      <c r="R40" s="203"/>
-      <c r="S40" s="203"/>
-      <c r="T40" s="203"/>
-      <c r="U40" s="204"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="198"/>
+      <c r="S40" s="198"/>
+      <c r="T40" s="198"/>
+      <c r="U40" s="199"/>
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
-      <c r="X40" s="213"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="213"/>
+      <c r="X40" s="208"/>
+      <c r="Y40" s="208"/>
+      <c r="Z40" s="208"/>
+      <c r="AA40" s="208"/>
+      <c r="AB40" s="208"/>
       <c r="AC40" s="49"/>
       <c r="AD40" s="49"/>
       <c r="AE40" s="65"/>
       <c r="AF40" s="31"/>
       <c r="AG40" s="71"/>
-      <c r="AH40" s="156"/>
-      <c r="AI40" s="155"/>
-      <c r="AJ40" s="155"/>
-      <c r="AK40" s="155"/>
-      <c r="AL40" s="155"/>
-      <c r="AM40" s="155"/>
-      <c r="AN40" s="155"/>
+      <c r="AH40" s="151"/>
+      <c r="AI40" s="150"/>
+      <c r="AJ40" s="150"/>
+      <c r="AK40" s="150"/>
+      <c r="AL40" s="150"/>
+      <c r="AM40" s="150"/>
+      <c r="AN40" s="150"/>
     </row>
     <row r="41" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
+        <v>96</v>
+      </c>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
       <c r="F41" s="77"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8"/>
@@ -20775,45 +20771,45 @@
       <c r="N41" s="8"/>
       <c r="O41" s="82"/>
       <c r="P41" s="82"/>
-      <c r="Q41" s="203"/>
-      <c r="R41" s="203"/>
-      <c r="S41" s="203"/>
-      <c r="T41" s="203"/>
-      <c r="U41" s="204"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="198"/>
+      <c r="S41" s="198"/>
+      <c r="T41" s="198"/>
+      <c r="U41" s="199"/>
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
-      <c r="X41" s="213"/>
-      <c r="Y41" s="213"/>
-      <c r="Z41" s="213"/>
-      <c r="AA41" s="213"/>
-      <c r="AB41" s="213"/>
+      <c r="X41" s="208"/>
+      <c r="Y41" s="208"/>
+      <c r="Z41" s="208"/>
+      <c r="AA41" s="208"/>
+      <c r="AB41" s="208"/>
       <c r="AC41" s="49"/>
       <c r="AD41" s="49"/>
       <c r="AE41" s="65"/>
       <c r="AF41" s="31"/>
       <c r="AG41" s="71"/>
-      <c r="AH41" s="156"/>
-      <c r="AI41" s="155"/>
-      <c r="AJ41" s="155"/>
-      <c r="AK41" s="155"/>
-      <c r="AL41" s="155"/>
-      <c r="AM41" s="155"/>
-      <c r="AN41" s="155"/>
+      <c r="AH41" s="151"/>
+      <c r="AI41" s="150"/>
+      <c r="AJ41" s="150"/>
+      <c r="AK41" s="150"/>
+      <c r="AL41" s="150"/>
+      <c r="AM41" s="150"/>
+      <c r="AN41" s="150"/>
     </row>
     <row r="42" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
+        <v>100</v>
+      </c>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
       <c r="F42" s="77"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8"/>
@@ -20821,34 +20817,34 @@
       <c r="N42" s="8"/>
       <c r="O42" s="82"/>
       <c r="P42" s="82"/>
-      <c r="Q42" s="203"/>
-      <c r="R42" s="203"/>
-      <c r="S42" s="203"/>
-      <c r="T42" s="203"/>
-      <c r="U42" s="204"/>
+      <c r="Q42" s="198"/>
+      <c r="R42" s="198"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="198"/>
+      <c r="U42" s="199"/>
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
-      <c r="X42" s="213"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="213"/>
+      <c r="X42" s="208"/>
+      <c r="Y42" s="208"/>
+      <c r="Z42" s="208"/>
+      <c r="AA42" s="208"/>
+      <c r="AB42" s="208"/>
       <c r="AC42" s="49"/>
       <c r="AD42" s="49"/>
       <c r="AE42" s="65"/>
       <c r="AF42" s="31"/>
       <c r="AG42" s="71"/>
-      <c r="AH42" s="156"/>
-      <c r="AI42" s="155"/>
-      <c r="AJ42" s="155"/>
-      <c r="AK42" s="155"/>
-      <c r="AL42" s="155"/>
-      <c r="AM42" s="155"/>
-      <c r="AN42" s="155"/>
+      <c r="AH42" s="151"/>
+      <c r="AI42" s="150"/>
+      <c r="AJ42" s="150"/>
+      <c r="AK42" s="150"/>
+      <c r="AL42" s="150"/>
+      <c r="AM42" s="150"/>
+      <c r="AN42" s="150"/>
     </row>
     <row r="43" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>47</v>
@@ -20878,26 +20874,26 @@
       <c r="Y43" s="65"/>
       <c r="Z43" s="65"/>
       <c r="AA43" s="65"/>
-      <c r="AB43" s="213"/>
+      <c r="AB43" s="208"/>
       <c r="AC43" s="49"/>
       <c r="AD43" s="49"/>
       <c r="AE43" s="65"/>
       <c r="AF43" s="31"/>
       <c r="AG43" s="71"/>
-      <c r="AH43" s="156"/>
-      <c r="AI43" s="155"/>
-      <c r="AJ43" s="155"/>
-      <c r="AK43" s="155"/>
-      <c r="AL43" s="155"/>
-      <c r="AM43" s="155"/>
-      <c r="AN43" s="155"/>
+      <c r="AH43" s="151"/>
+      <c r="AI43" s="150"/>
+      <c r="AJ43" s="150"/>
+      <c r="AK43" s="150"/>
+      <c r="AL43" s="150"/>
+      <c r="AM43" s="150"/>
+      <c r="AN43" s="150"/>
     </row>
     <row r="44" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
@@ -20924,19 +20920,19 @@
       <c r="Y44" s="65"/>
       <c r="Z44" s="65"/>
       <c r="AA44" s="65"/>
-      <c r="AB44" s="213"/>
+      <c r="AB44" s="208"/>
       <c r="AC44" s="49"/>
       <c r="AD44" s="49"/>
       <c r="AE44" s="65"/>
       <c r="AF44" s="31"/>
       <c r="AG44" s="71"/>
-      <c r="AH44" s="156"/>
-      <c r="AI44" s="155"/>
-      <c r="AJ44" s="155"/>
-      <c r="AK44" s="155"/>
-      <c r="AL44" s="155"/>
-      <c r="AM44" s="155"/>
-      <c r="AN44" s="155"/>
+      <c r="AH44" s="151"/>
+      <c r="AI44" s="150"/>
+      <c r="AJ44" s="150"/>
+      <c r="AK44" s="150"/>
+      <c r="AL44" s="150"/>
+      <c r="AM44" s="150"/>
+      <c r="AN44" s="150"/>
     </row>
     <row r="45" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -20945,13 +20941,13 @@
       <c r="B45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
       <c r="F45" s="79"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -20959,30 +20955,30 @@
       <c r="N45" s="11"/>
       <c r="O45" s="83"/>
       <c r="P45" s="83"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="206"/>
+      <c r="Q45" s="200"/>
+      <c r="R45" s="200"/>
+      <c r="S45" s="200"/>
+      <c r="T45" s="200"/>
+      <c r="U45" s="201"/>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
-      <c r="X45" s="213"/>
-      <c r="Y45" s="213"/>
-      <c r="Z45" s="213"/>
-      <c r="AA45" s="213"/>
-      <c r="AB45" s="213"/>
+      <c r="X45" s="208"/>
+      <c r="Y45" s="208"/>
+      <c r="Z45" s="208"/>
+      <c r="AA45" s="208"/>
+      <c r="AB45" s="208"/>
       <c r="AC45" s="49"/>
       <c r="AD45" s="49"/>
       <c r="AE45" s="65"/>
       <c r="AF45" s="31"/>
       <c r="AG45" s="71"/>
-      <c r="AH45" s="156"/>
-      <c r="AI45" s="155"/>
-      <c r="AJ45" s="155"/>
-      <c r="AK45" s="155"/>
-      <c r="AL45" s="155"/>
-      <c r="AM45" s="155"/>
-      <c r="AN45" s="155"/>
+      <c r="AH45" s="151"/>
+      <c r="AI45" s="150"/>
+      <c r="AJ45" s="150"/>
+      <c r="AK45" s="150"/>
+      <c r="AL45" s="150"/>
+      <c r="AM45" s="150"/>
+      <c r="AN45" s="150"/>
     </row>
     <row r="46" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
@@ -20996,8 +20992,8 @@
       <c r="E46" s="44"/>
       <c r="F46" s="75"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
@@ -21009,7 +21005,7 @@
       <c r="R46" s="61"/>
       <c r="S46" s="61"/>
       <c r="T46" s="61"/>
-      <c r="U46" s="95"/>
+      <c r="U46" s="90"/>
       <c r="V46" s="84"/>
       <c r="W46" s="84"/>
       <c r="X46" s="74"/>
@@ -21022,13 +21018,13 @@
       <c r="AE46" s="28"/>
       <c r="AF46" s="28"/>
       <c r="AG46" s="69"/>
-      <c r="AH46" s="157"/>
-      <c r="AI46" s="154"/>
-      <c r="AJ46" s="155"/>
-      <c r="AK46" s="155"/>
-      <c r="AL46" s="154"/>
-      <c r="AM46" s="154"/>
-      <c r="AN46" s="154"/>
+      <c r="AH46" s="152"/>
+      <c r="AI46" s="149"/>
+      <c r="AJ46" s="150"/>
+      <c r="AK46" s="150"/>
+      <c r="AL46" s="149"/>
+      <c r="AM46" s="149"/>
+      <c r="AN46" s="149"/>
     </row>
     <row r="47" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -21042,8 +21038,8 @@
       <c r="E47" s="45"/>
       <c r="F47" s="76"/>
       <c r="G47" s="45"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
@@ -21055,7 +21051,7 @@
       <c r="R47" s="62"/>
       <c r="S47" s="62"/>
       <c r="T47" s="62"/>
-      <c r="U47" s="96"/>
+      <c r="U47" s="91"/>
       <c r="V47" s="49"/>
       <c r="W47" s="49"/>
       <c r="X47" s="65"/>
@@ -21065,31 +21061,31 @@
       <c r="AB47" s="65"/>
       <c r="AC47" s="49"/>
       <c r="AD47" s="49"/>
-      <c r="AE47" s="220"/>
+      <c r="AE47" s="215"/>
       <c r="AF47" s="62"/>
-      <c r="AG47" s="96"/>
-      <c r="AH47" s="156"/>
-      <c r="AI47" s="155"/>
-      <c r="AJ47" s="155"/>
-      <c r="AK47" s="155"/>
-      <c r="AL47" s="155"/>
-      <c r="AM47" s="155"/>
-      <c r="AN47" s="155"/>
+      <c r="AG47" s="91"/>
+      <c r="AH47" s="151"/>
+      <c r="AI47" s="150"/>
+      <c r="AJ47" s="150"/>
+      <c r="AK47" s="150"/>
+      <c r="AL47" s="150"/>
+      <c r="AM47" s="150"/>
+      <c r="AN47" s="150"/>
     </row>
     <row r="48" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
+        <v>83</v>
+      </c>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="77"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8"/>
@@ -21101,7 +21097,7 @@
       <c r="R48" s="63"/>
       <c r="S48" s="63"/>
       <c r="T48" s="63"/>
-      <c r="U48" s="97"/>
+      <c r="U48" s="92"/>
       <c r="V48" s="49"/>
       <c r="W48" s="49"/>
       <c r="X48" s="65"/>
@@ -21111,31 +21107,31 @@
       <c r="AB48" s="65"/>
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
-      <c r="AE48" s="218"/>
-      <c r="AF48" s="218"/>
-      <c r="AG48" s="219"/>
-      <c r="AH48" s="156"/>
-      <c r="AI48" s="155"/>
-      <c r="AJ48" s="155"/>
-      <c r="AK48" s="155"/>
-      <c r="AL48" s="155"/>
-      <c r="AM48" s="155"/>
-      <c r="AN48" s="155"/>
+      <c r="AE48" s="213"/>
+      <c r="AF48" s="213"/>
+      <c r="AG48" s="214"/>
+      <c r="AH48" s="151"/>
+      <c r="AI48" s="150"/>
+      <c r="AJ48" s="150"/>
+      <c r="AK48" s="150"/>
+      <c r="AL48" s="150"/>
+      <c r="AM48" s="150"/>
+      <c r="AN48" s="150"/>
     </row>
     <row r="49" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
+        <v>84</v>
+      </c>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="8"/>
@@ -21147,7 +21143,7 @@
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
       <c r="T49" s="63"/>
-      <c r="U49" s="97"/>
+      <c r="U49" s="92"/>
       <c r="V49" s="49"/>
       <c r="W49" s="49"/>
       <c r="X49" s="65"/>
@@ -21157,16 +21153,16 @@
       <c r="AB49" s="65"/>
       <c r="AC49" s="49"/>
       <c r="AD49" s="49"/>
-      <c r="AE49" s="218"/>
-      <c r="AF49" s="218"/>
-      <c r="AG49" s="219"/>
-      <c r="AH49" s="156"/>
-      <c r="AI49" s="155"/>
-      <c r="AJ49" s="155"/>
-      <c r="AK49" s="155"/>
-      <c r="AL49" s="155"/>
-      <c r="AM49" s="155"/>
-      <c r="AN49" s="155"/>
+      <c r="AE49" s="213"/>
+      <c r="AF49" s="213"/>
+      <c r="AG49" s="214"/>
+      <c r="AH49" s="151"/>
+      <c r="AI49" s="150"/>
+      <c r="AJ49" s="150"/>
+      <c r="AK49" s="150"/>
+      <c r="AL49" s="150"/>
+      <c r="AM49" s="150"/>
+      <c r="AN49" s="150"/>
     </row>
     <row r="50" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -21193,7 +21189,7 @@
       <c r="R50" s="64"/>
       <c r="S50" s="64"/>
       <c r="T50" s="64"/>
-      <c r="U50" s="98"/>
+      <c r="U50" s="93"/>
       <c r="V50" s="49"/>
       <c r="W50" s="49"/>
       <c r="X50" s="65"/>
@@ -21206,13 +21202,13 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="71"/>
-      <c r="AH50" s="156"/>
-      <c r="AI50" s="155"/>
-      <c r="AJ50" s="155"/>
-      <c r="AK50" s="155"/>
-      <c r="AL50" s="155"/>
-      <c r="AM50" s="155"/>
-      <c r="AN50" s="155"/>
+      <c r="AH50" s="151"/>
+      <c r="AI50" s="150"/>
+      <c r="AJ50" s="150"/>
+      <c r="AK50" s="150"/>
+      <c r="AL50" s="150"/>
+      <c r="AM50" s="150"/>
+      <c r="AN50" s="150"/>
     </row>
     <row r="51" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -21221,13 +21217,13 @@
       <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
       <c r="F51" s="79"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -21239,7 +21235,7 @@
       <c r="R51" s="66"/>
       <c r="S51" s="66"/>
       <c r="T51" s="66"/>
-      <c r="U51" s="99"/>
+      <c r="U51" s="94"/>
       <c r="V51" s="49"/>
       <c r="W51" s="49"/>
       <c r="X51" s="65"/>
@@ -21249,53 +21245,53 @@
       <c r="AB51" s="65"/>
       <c r="AC51" s="49"/>
       <c r="AD51" s="49"/>
-      <c r="AE51" s="221"/>
-      <c r="AF51" s="221"/>
-      <c r="AG51" s="222"/>
-      <c r="AH51" s="156"/>
-      <c r="AI51" s="155"/>
-      <c r="AJ51" s="155"/>
-      <c r="AK51" s="155"/>
-      <c r="AL51" s="155"/>
-      <c r="AM51" s="155"/>
-      <c r="AN51" s="155"/>
+      <c r="AE51" s="216"/>
+      <c r="AF51" s="216"/>
+      <c r="AG51" s="217"/>
+      <c r="AH51" s="151"/>
+      <c r="AI51" s="150"/>
+      <c r="AJ51" s="150"/>
+      <c r="AK51" s="150"/>
+      <c r="AL51" s="150"/>
+      <c r="AM51" s="150"/>
+      <c r="AN51" s="150"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="231" t="s">
+      <c r="A52" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="232"/>
-      <c r="K52" s="232"/>
-      <c r="L52" s="232"/>
-      <c r="M52" s="232"/>
-      <c r="N52" s="232"/>
-      <c r="O52" s="232"/>
-      <c r="P52" s="232"/>
-      <c r="Q52" s="232"/>
-      <c r="R52" s="232"/>
-      <c r="S52" s="232"/>
-      <c r="T52" s="232"/>
-      <c r="U52" s="232"/>
-      <c r="V52" s="232"/>
-      <c r="W52" s="232"/>
-      <c r="X52" s="232"/>
-      <c r="Y52" s="232"/>
-      <c r="Z52" s="232"/>
-      <c r="AA52" s="232"/>
-      <c r="AB52" s="232"/>
-      <c r="AC52" s="232"/>
-      <c r="AD52" s="232"/>
-      <c r="AE52" s="232"/>
-      <c r="AF52" s="232"/>
-      <c r="AG52" s="232"/>
+      <c r="B52" s="227"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227"/>
+      <c r="J52" s="227"/>
+      <c r="K52" s="227"/>
+      <c r="L52" s="227"/>
+      <c r="M52" s="227"/>
+      <c r="N52" s="227"/>
+      <c r="O52" s="227"/>
+      <c r="P52" s="227"/>
+      <c r="Q52" s="227"/>
+      <c r="R52" s="227"/>
+      <c r="S52" s="227"/>
+      <c r="T52" s="227"/>
+      <c r="U52" s="227"/>
+      <c r="V52" s="227"/>
+      <c r="W52" s="227"/>
+      <c r="X52" s="227"/>
+      <c r="Y52" s="227"/>
+      <c r="Z52" s="227"/>
+      <c r="AA52" s="227"/>
+      <c r="AB52" s="227"/>
+      <c r="AC52" s="227"/>
+      <c r="AD52" s="227"/>
+      <c r="AE52" s="227"/>
+      <c r="AF52" s="227"/>
+      <c r="AG52" s="227"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21310,7 +21306,7 @@
       <c r="D53" s="15">
         <v>2</v>
       </c>
-      <c r="E53" s="100">
+      <c r="E53" s="95">
         <v>3</v>
       </c>
       <c r="F53" s="48">
@@ -21319,16 +21315,16 @@
       <c r="G53" s="51">
         <v>5</v>
       </c>
-      <c r="H53" s="101">
+      <c r="H53" s="96">
         <v>6</v>
       </c>
-      <c r="I53" s="101">
+      <c r="I53" s="96">
         <v>7</v>
       </c>
-      <c r="J53" s="102">
+      <c r="J53" s="97">
         <v>8</v>
       </c>
-      <c r="K53" s="103">
+      <c r="K53" s="98">
         <v>9</v>
       </c>
       <c r="L53" s="35">
@@ -21337,19 +21333,19 @@
       <c r="M53" s="35">
         <v>11</v>
       </c>
-      <c r="N53" s="104">
+      <c r="N53" s="99">
         <v>12</v>
       </c>
-      <c r="O53" s="104">
+      <c r="O53" s="99">
         <v>13</v>
       </c>
-      <c r="P53" s="104">
+      <c r="P53" s="99">
         <v>14</v>
       </c>
-      <c r="Q53" s="104">
+      <c r="Q53" s="99">
         <v>15</v>
       </c>
-      <c r="R53" s="104">
+      <c r="R53" s="99">
         <v>16</v>
       </c>
       <c r="S53" s="56">
@@ -21358,19 +21354,19 @@
       <c r="T53" s="56">
         <v>18</v>
       </c>
-      <c r="U53" s="104">
+      <c r="U53" s="99">
         <v>19</v>
       </c>
-      <c r="V53" s="104">
+      <c r="V53" s="99">
         <v>20</v>
       </c>
-      <c r="W53" s="104">
+      <c r="W53" s="99">
         <v>21</v>
       </c>
-      <c r="X53" s="104">
+      <c r="X53" s="99">
         <v>22</v>
       </c>
-      <c r="Y53" s="104">
+      <c r="Y53" s="99">
         <v>23</v>
       </c>
       <c r="Z53" s="56">
@@ -21379,22 +21375,22 @@
       <c r="AA53" s="56">
         <v>25</v>
       </c>
-      <c r="AB53" s="104">
+      <c r="AB53" s="99">
         <v>26</v>
       </c>
-      <c r="AC53" s="104">
+      <c r="AC53" s="99">
         <v>27</v>
       </c>
-      <c r="AD53" s="104">
+      <c r="AD53" s="99">
         <v>28</v>
       </c>
-      <c r="AE53" s="104">
+      <c r="AE53" s="99">
         <v>29</v>
       </c>
-      <c r="AF53" s="105">
+      <c r="AF53" s="100">
         <v>30</v>
       </c>
-      <c r="AG53" s="150">
+      <c r="AG53" s="145">
         <v>31</v>
       </c>
     </row>
@@ -21411,19 +21407,19 @@
       <c r="F54" s="49"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="145"/>
+      <c r="I54" s="140"/>
       <c r="J54" s="74"/>
-      <c r="K54" s="228"/>
+      <c r="K54" s="223"/>
       <c r="L54" s="75"/>
       <c r="M54" s="75"/>
       <c r="N54" s="61"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="92"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="87"/>
       <c r="Q54" s="61"/>
       <c r="R54" s="61"/>
       <c r="S54" s="75"/>
       <c r="T54" s="75"/>
-      <c r="U54" s="95"/>
+      <c r="U54" s="90"/>
       <c r="V54" s="74"/>
       <c r="W54" s="74"/>
       <c r="X54" s="74"/>
@@ -21435,14 +21431,14 @@
       <c r="AD54" s="74"/>
       <c r="AE54" s="61"/>
       <c r="AF54" s="61"/>
-      <c r="AG54" s="165"/>
-      <c r="AH54" s="157"/>
-      <c r="AI54" s="154"/>
-      <c r="AJ54" s="155"/>
-      <c r="AK54" s="155"/>
-      <c r="AL54" s="154"/>
-      <c r="AM54" s="154"/>
-      <c r="AN54" s="154"/>
+      <c r="AG54" s="160"/>
+      <c r="AH54" s="152"/>
+      <c r="AI54" s="149"/>
+      <c r="AJ54" s="150"/>
+      <c r="AK54" s="150"/>
+      <c r="AL54" s="149"/>
+      <c r="AM54" s="149"/>
+      <c r="AN54" s="149"/>
     </row>
     <row r="55" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
@@ -21457,19 +21453,19 @@
       <c r="F55" s="49"/>
       <c r="G55" s="65"/>
       <c r="H55" s="65"/>
-      <c r="I55" s="98"/>
+      <c r="I55" s="93"/>
       <c r="J55" s="65"/>
       <c r="K55" s="65"/>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
       <c r="N55" s="62"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="S55" s="76"/>
       <c r="T55" s="76"/>
-      <c r="U55" s="96"/>
+      <c r="U55" s="91"/>
       <c r="V55" s="65"/>
       <c r="W55" s="65"/>
       <c r="X55" s="65"/>
@@ -21481,41 +21477,41 @@
       <c r="AD55" s="65"/>
       <c r="AE55" s="62"/>
       <c r="AF55" s="62"/>
-      <c r="AG55" s="119"/>
-      <c r="AH55" s="156"/>
-      <c r="AI55" s="155"/>
-      <c r="AJ55" s="155"/>
-      <c r="AK55" s="155"/>
-      <c r="AL55" s="155"/>
-      <c r="AM55" s="155"/>
-      <c r="AN55" s="155"/>
+      <c r="AG55" s="114"/>
+      <c r="AH55" s="151"/>
+      <c r="AI55" s="150"/>
+      <c r="AJ55" s="150"/>
+      <c r="AK55" s="150"/>
+      <c r="AL55" s="150"/>
+      <c r="AM55" s="150"/>
+      <c r="AN55" s="150"/>
     </row>
     <row r="56" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="218"/>
-      <c r="D56" s="219"/>
+        <v>83</v>
+      </c>
+      <c r="C56" s="213"/>
+      <c r="D56" s="214"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="226"/>
-      <c r="H56" s="226"/>
-      <c r="I56" s="227"/>
-      <c r="J56" s="226"/>
-      <c r="K56" s="226"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="222"/>
+      <c r="J56" s="221"/>
+      <c r="K56" s="221"/>
       <c r="L56" s="77"/>
       <c r="M56" s="77"/>
       <c r="N56" s="63"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
       <c r="Q56" s="63"/>
       <c r="R56" s="63"/>
       <c r="S56" s="77"/>
       <c r="T56" s="77"/>
-      <c r="U56" s="97"/>
+      <c r="U56" s="92"/>
       <c r="V56" s="65"/>
       <c r="W56" s="65"/>
       <c r="X56" s="65"/>
@@ -21527,41 +21523,41 @@
       <c r="AD56" s="65"/>
       <c r="AE56" s="63"/>
       <c r="AF56" s="63"/>
-      <c r="AG56" s="166"/>
-      <c r="AH56" s="156"/>
-      <c r="AI56" s="155"/>
-      <c r="AJ56" s="155"/>
-      <c r="AK56" s="155"/>
-      <c r="AL56" s="155"/>
-      <c r="AM56" s="155"/>
-      <c r="AN56" s="155"/>
+      <c r="AG56" s="161"/>
+      <c r="AH56" s="151"/>
+      <c r="AI56" s="150"/>
+      <c r="AJ56" s="150"/>
+      <c r="AK56" s="150"/>
+      <c r="AL56" s="150"/>
+      <c r="AM56" s="150"/>
+      <c r="AN56" s="150"/>
     </row>
     <row r="57" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="218"/>
-      <c r="D57" s="219"/>
+        <v>84</v>
+      </c>
+      <c r="C57" s="213"/>
+      <c r="D57" s="214"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
-      <c r="I57" s="227"/>
-      <c r="J57" s="226"/>
-      <c r="K57" s="226"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="221"/>
+      <c r="I57" s="222"/>
+      <c r="J57" s="221"/>
+      <c r="K57" s="221"/>
       <c r="L57" s="77"/>
       <c r="M57" s="77"/>
       <c r="N57" s="63"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
       <c r="Q57" s="63"/>
       <c r="R57" s="63"/>
       <c r="S57" s="77"/>
       <c r="T57" s="77"/>
-      <c r="U57" s="97"/>
+      <c r="U57" s="92"/>
       <c r="V57" s="65"/>
       <c r="W57" s="65"/>
       <c r="X57" s="65"/>
@@ -21573,14 +21569,14 @@
       <c r="AD57" s="65"/>
       <c r="AE57" s="63"/>
       <c r="AF57" s="63"/>
-      <c r="AG57" s="166"/>
-      <c r="AH57" s="156"/>
-      <c r="AI57" s="155"/>
-      <c r="AJ57" s="155"/>
-      <c r="AK57" s="155"/>
-      <c r="AL57" s="155"/>
-      <c r="AM57" s="155"/>
-      <c r="AN57" s="155"/>
+      <c r="AG57" s="161"/>
+      <c r="AH57" s="151"/>
+      <c r="AI57" s="150"/>
+      <c r="AJ57" s="150"/>
+      <c r="AK57" s="150"/>
+      <c r="AL57" s="150"/>
+      <c r="AM57" s="150"/>
+      <c r="AN57" s="150"/>
     </row>
     <row r="58" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -21595,9 +21591,9 @@
       <c r="F58" s="49"/>
       <c r="G58" s="65"/>
       <c r="H58" s="65"/>
-      <c r="I58" s="98"/>
+      <c r="I58" s="93"/>
       <c r="J58" s="65"/>
-      <c r="K58" s="226"/>
+      <c r="K58" s="221"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="64"/>
@@ -21607,7 +21603,7 @@
       <c r="R58" s="64"/>
       <c r="S58" s="78"/>
       <c r="T58" s="78"/>
-      <c r="U58" s="98"/>
+      <c r="U58" s="93"/>
       <c r="V58" s="65"/>
       <c r="W58" s="65"/>
       <c r="X58" s="65"/>
@@ -21619,14 +21615,14 @@
       <c r="AD58" s="65"/>
       <c r="AE58" s="64"/>
       <c r="AF58" s="64"/>
-      <c r="AG58" s="137"/>
-      <c r="AH58" s="156"/>
-      <c r="AI58" s="155"/>
-      <c r="AJ58" s="155"/>
-      <c r="AK58" s="155"/>
-      <c r="AL58" s="155"/>
-      <c r="AM58" s="155"/>
-      <c r="AN58" s="155"/>
+      <c r="AG58" s="132"/>
+      <c r="AH58" s="151"/>
+      <c r="AI58" s="150"/>
+      <c r="AJ58" s="150"/>
+      <c r="AK58" s="150"/>
+      <c r="AL58" s="150"/>
+      <c r="AM58" s="150"/>
+      <c r="AN58" s="150"/>
     </row>
     <row r="59" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -21635,15 +21631,15 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="212"/>
       <c r="E59" s="72"/>
       <c r="F59" s="72"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="223"/>
-      <c r="I59" s="224"/>
-      <c r="J59" s="223"/>
-      <c r="K59" s="225"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
+      <c r="I59" s="219"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="220"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="66"/>
@@ -21653,7 +21649,7 @@
       <c r="R59" s="66"/>
       <c r="S59" s="79"/>
       <c r="T59" s="79"/>
-      <c r="U59" s="99"/>
+      <c r="U59" s="94"/>
       <c r="V59" s="65"/>
       <c r="W59" s="65"/>
       <c r="X59" s="65"/>
@@ -21665,14 +21661,14 @@
       <c r="AD59" s="65"/>
       <c r="AE59" s="66"/>
       <c r="AF59" s="66"/>
-      <c r="AG59" s="167"/>
-      <c r="AH59" s="156"/>
-      <c r="AI59" s="155"/>
-      <c r="AJ59" s="155"/>
-      <c r="AK59" s="155"/>
-      <c r="AL59" s="155"/>
-      <c r="AM59" s="155"/>
-      <c r="AN59" s="155"/>
+      <c r="AG59" s="162"/>
+      <c r="AH59" s="151"/>
+      <c r="AI59" s="150"/>
+      <c r="AJ59" s="150"/>
+      <c r="AK59" s="150"/>
+      <c r="AL59" s="150"/>
+      <c r="AM59" s="150"/>
+      <c r="AN59" s="150"/>
     </row>
     <row r="60" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
@@ -21683,8 +21679,8 @@
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="151"/>
-      <c r="F60" s="151"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
@@ -21703,7 +21699,7 @@
       <c r="V60" s="74"/>
       <c r="W60" s="74"/>
       <c r="X60" s="74"/>
-      <c r="Y60" s="215"/>
+      <c r="Y60" s="210"/>
       <c r="Z60" s="84"/>
       <c r="AA60" s="84"/>
       <c r="AB60" s="74"/>
@@ -21711,14 +21707,14 @@
       <c r="AD60" s="31"/>
       <c r="AE60" s="31"/>
       <c r="AF60" s="31"/>
-      <c r="AG60" s="137"/>
-      <c r="AH60" s="156"/>
-      <c r="AI60" s="155"/>
-      <c r="AJ60" s="155"/>
-      <c r="AK60" s="155"/>
-      <c r="AL60" s="155"/>
-      <c r="AM60" s="155"/>
-      <c r="AN60" s="155"/>
+      <c r="AG60" s="132"/>
+      <c r="AH60" s="151"/>
+      <c r="AI60" s="150"/>
+      <c r="AJ60" s="150"/>
+      <c r="AK60" s="150"/>
+      <c r="AL60" s="150"/>
+      <c r="AM60" s="150"/>
+      <c r="AN60" s="150"/>
     </row>
     <row r="61" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
@@ -21729,8 +21725,8 @@
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
@@ -21738,7 +21734,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="76"/>
       <c r="M61" s="76"/>
-      <c r="N61" s="220"/>
+      <c r="N61" s="215"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
@@ -21757,45 +21753,45 @@
       <c r="AD61" s="31"/>
       <c r="AE61" s="31"/>
       <c r="AF61" s="31"/>
-      <c r="AG61" s="137"/>
-      <c r="AH61" s="156"/>
-      <c r="AI61" s="155"/>
-      <c r="AJ61" s="155"/>
-      <c r="AK61" s="155"/>
-      <c r="AL61" s="155"/>
-      <c r="AM61" s="155"/>
-      <c r="AN61" s="155"/>
+      <c r="AG61" s="132"/>
+      <c r="AH61" s="151"/>
+      <c r="AI61" s="150"/>
+      <c r="AJ61" s="150"/>
+      <c r="AK61" s="150"/>
+      <c r="AL61" s="150"/>
+      <c r="AM61" s="150"/>
+      <c r="AN61" s="150"/>
     </row>
     <row r="62" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
+        <v>81</v>
+      </c>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="77"/>
       <c r="M62" s="77"/>
-      <c r="N62" s="218"/>
-      <c r="O62" s="218"/>
-      <c r="P62" s="218"/>
-      <c r="Q62" s="218"/>
-      <c r="R62" s="219"/>
+      <c r="N62" s="213"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="213"/>
+      <c r="R62" s="214"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
-      <c r="U62" s="226"/>
-      <c r="V62" s="226"/>
-      <c r="W62" s="226"/>
-      <c r="X62" s="226"/>
-      <c r="Y62" s="226"/>
+      <c r="U62" s="221"/>
+      <c r="V62" s="221"/>
+      <c r="W62" s="221"/>
+      <c r="X62" s="221"/>
+      <c r="Y62" s="221"/>
       <c r="Z62" s="49"/>
       <c r="AA62" s="49"/>
       <c r="AB62" s="65"/>
@@ -21803,45 +21799,45 @@
       <c r="AD62" s="31"/>
       <c r="AE62" s="31"/>
       <c r="AF62" s="31"/>
-      <c r="AG62" s="137"/>
-      <c r="AH62" s="156"/>
-      <c r="AI62" s="155"/>
-      <c r="AJ62" s="155"/>
-      <c r="AK62" s="155"/>
-      <c r="AL62" s="155"/>
-      <c r="AM62" s="155"/>
-      <c r="AN62" s="155"/>
+      <c r="AG62" s="132"/>
+      <c r="AH62" s="151"/>
+      <c r="AI62" s="150"/>
+      <c r="AJ62" s="150"/>
+      <c r="AK62" s="150"/>
+      <c r="AL62" s="150"/>
+      <c r="AM62" s="150"/>
+      <c r="AN62" s="150"/>
     </row>
     <row r="63" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
+        <v>82</v>
+      </c>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="77"/>
       <c r="M63" s="77"/>
-      <c r="N63" s="218"/>
-      <c r="O63" s="218"/>
-      <c r="P63" s="218"/>
-      <c r="Q63" s="218"/>
-      <c r="R63" s="219"/>
+      <c r="N63" s="213"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="213"/>
+      <c r="R63" s="214"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
-      <c r="U63" s="226"/>
-      <c r="V63" s="226"/>
-      <c r="W63" s="226"/>
-      <c r="X63" s="226"/>
-      <c r="Y63" s="226"/>
+      <c r="U63" s="221"/>
+      <c r="V63" s="221"/>
+      <c r="W63" s="221"/>
+      <c r="X63" s="221"/>
+      <c r="Y63" s="221"/>
       <c r="Z63" s="49"/>
       <c r="AA63" s="49"/>
       <c r="AB63" s="65"/>
@@ -21849,14 +21845,14 @@
       <c r="AD63" s="31"/>
       <c r="AE63" s="31"/>
       <c r="AF63" s="31"/>
-      <c r="AG63" s="137"/>
-      <c r="AH63" s="156"/>
-      <c r="AI63" s="155"/>
-      <c r="AJ63" s="155"/>
-      <c r="AK63" s="155"/>
-      <c r="AL63" s="155"/>
-      <c r="AM63" s="155"/>
-      <c r="AN63" s="155"/>
+      <c r="AG63" s="132"/>
+      <c r="AH63" s="151"/>
+      <c r="AI63" s="150"/>
+      <c r="AJ63" s="150"/>
+      <c r="AK63" s="150"/>
+      <c r="AL63" s="150"/>
+      <c r="AM63" s="150"/>
+      <c r="AN63" s="150"/>
     </row>
     <row r="64" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -21887,7 +21883,7 @@
       <c r="V64" s="65"/>
       <c r="W64" s="65"/>
       <c r="X64" s="65"/>
-      <c r="Y64" s="226"/>
+      <c r="Y64" s="221"/>
       <c r="Z64" s="49"/>
       <c r="AA64" s="49"/>
       <c r="AB64" s="65"/>
@@ -21895,14 +21891,14 @@
       <c r="AD64" s="31"/>
       <c r="AE64" s="31"/>
       <c r="AF64" s="31"/>
-      <c r="AG64" s="137"/>
-      <c r="AH64" s="156"/>
-      <c r="AI64" s="155"/>
-      <c r="AJ64" s="155"/>
-      <c r="AK64" s="155"/>
-      <c r="AL64" s="155"/>
-      <c r="AM64" s="155"/>
-      <c r="AN64" s="155"/>
+      <c r="AG64" s="132"/>
+      <c r="AH64" s="151"/>
+      <c r="AI64" s="150"/>
+      <c r="AJ64" s="150"/>
+      <c r="AK64" s="150"/>
+      <c r="AL64" s="150"/>
+      <c r="AM64" s="150"/>
+      <c r="AN64" s="150"/>
     </row>
     <row r="65" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -21911,29 +21907,29 @@
       <c r="B65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="79"/>
       <c r="M65" s="79"/>
-      <c r="N65" s="221"/>
-      <c r="O65" s="221"/>
-      <c r="P65" s="221"/>
-      <c r="Q65" s="221"/>
-      <c r="R65" s="222"/>
+      <c r="N65" s="216"/>
+      <c r="O65" s="216"/>
+      <c r="P65" s="216"/>
+      <c r="Q65" s="216"/>
+      <c r="R65" s="217"/>
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
-      <c r="U65" s="226"/>
-      <c r="V65" s="226"/>
-      <c r="W65" s="226"/>
-      <c r="X65" s="226"/>
-      <c r="Y65" s="226"/>
+      <c r="U65" s="221"/>
+      <c r="V65" s="221"/>
+      <c r="W65" s="221"/>
+      <c r="X65" s="221"/>
+      <c r="Y65" s="221"/>
       <c r="Z65" s="49"/>
       <c r="AA65" s="49"/>
       <c r="AB65" s="65"/>
@@ -21941,14 +21937,14 @@
       <c r="AD65" s="31"/>
       <c r="AE65" s="31"/>
       <c r="AF65" s="31"/>
-      <c r="AG65" s="137"/>
-      <c r="AH65" s="156"/>
-      <c r="AI65" s="155"/>
-      <c r="AJ65" s="155"/>
-      <c r="AK65" s="155"/>
-      <c r="AL65" s="155"/>
-      <c r="AM65" s="155"/>
-      <c r="AN65" s="155"/>
+      <c r="AG65" s="132"/>
+      <c r="AH65" s="151"/>
+      <c r="AI65" s="150"/>
+      <c r="AJ65" s="150"/>
+      <c r="AK65" s="150"/>
+      <c r="AL65" s="150"/>
+      <c r="AM65" s="150"/>
+      <c r="AN65" s="150"/>
     </row>
     <row r="66" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
@@ -21959,8 +21955,8 @@
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="151"/>
-      <c r="F66" s="151"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
@@ -21987,14 +21983,14 @@
       <c r="AD66" s="28"/>
       <c r="AE66" s="28"/>
       <c r="AF66" s="69"/>
-      <c r="AG66" s="137"/>
-      <c r="AH66" s="156"/>
-      <c r="AI66" s="154"/>
-      <c r="AJ66" s="154"/>
-      <c r="AK66" s="154"/>
-      <c r="AL66" s="154"/>
-      <c r="AM66" s="154"/>
-      <c r="AN66" s="155"/>
+      <c r="AG66" s="132"/>
+      <c r="AH66" s="151"/>
+      <c r="AI66" s="149"/>
+      <c r="AJ66" s="149"/>
+      <c r="AK66" s="149"/>
+      <c r="AL66" s="149"/>
+      <c r="AM66" s="149"/>
+      <c r="AN66" s="150"/>
     </row>
     <row r="67" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -22005,8 +22001,8 @@
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
@@ -22028,34 +22024,34 @@
       <c r="Y67" s="31"/>
       <c r="Z67" s="49"/>
       <c r="AA67" s="49"/>
-      <c r="AB67" s="85"/>
+      <c r="AB67" s="232"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="70"/>
-      <c r="AG67" s="137"/>
-      <c r="AH67" s="156"/>
-      <c r="AI67" s="155"/>
-      <c r="AJ67" s="155"/>
-      <c r="AK67" s="155"/>
-      <c r="AL67" s="155"/>
-      <c r="AM67" s="155"/>
-      <c r="AN67" s="155"/>
+      <c r="AG67" s="132"/>
+      <c r="AH67" s="151"/>
+      <c r="AI67" s="150"/>
+      <c r="AJ67" s="150"/>
+      <c r="AK67" s="150"/>
+      <c r="AL67" s="150"/>
+      <c r="AM67" s="150"/>
+      <c r="AN67" s="150"/>
     </row>
     <row r="68" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
+        <v>79</v>
+      </c>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="141"/>
+      <c r="I68" s="141"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="77"/>
@@ -22074,34 +22070,34 @@
       <c r="Y68" s="31"/>
       <c r="Z68" s="49"/>
       <c r="AA68" s="49"/>
-      <c r="AB68" s="86"/>
-      <c r="AC68" s="86"/>
-      <c r="AD68" s="86"/>
-      <c r="AE68" s="86"/>
-      <c r="AF68" s="87"/>
-      <c r="AG68" s="137"/>
-      <c r="AH68" s="156"/>
-      <c r="AI68" s="155"/>
-      <c r="AJ68" s="155"/>
-      <c r="AK68" s="155"/>
-      <c r="AL68" s="155"/>
-      <c r="AM68" s="155"/>
-      <c r="AN68" s="155"/>
+      <c r="AB68" s="213"/>
+      <c r="AC68" s="233"/>
+      <c r="AD68" s="233"/>
+      <c r="AE68" s="233"/>
+      <c r="AF68" s="234"/>
+      <c r="AG68" s="132"/>
+      <c r="AH68" s="151"/>
+      <c r="AI68" s="150"/>
+      <c r="AJ68" s="150"/>
+      <c r="AK68" s="150"/>
+      <c r="AL68" s="150"/>
+      <c r="AM68" s="150"/>
+      <c r="AN68" s="150"/>
     </row>
     <row r="69" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
+        <v>80</v>
+      </c>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="141"/>
+      <c r="I69" s="141"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="77"/>
@@ -22120,23 +22116,23 @@
       <c r="Y69" s="31"/>
       <c r="Z69" s="49"/>
       <c r="AA69" s="49"/>
-      <c r="AB69" s="86"/>
-      <c r="AC69" s="86"/>
-      <c r="AD69" s="86"/>
-      <c r="AE69" s="86"/>
-      <c r="AF69" s="87"/>
-      <c r="AG69" s="137"/>
-      <c r="AH69" s="156"/>
-      <c r="AI69" s="155"/>
-      <c r="AJ69" s="155"/>
-      <c r="AK69" s="155"/>
-      <c r="AL69" s="155"/>
-      <c r="AM69" s="155"/>
-      <c r="AN69" s="155"/>
+      <c r="AB69" s="213"/>
+      <c r="AC69" s="233"/>
+      <c r="AD69" s="233"/>
+      <c r="AE69" s="233"/>
+      <c r="AF69" s="234"/>
+      <c r="AG69" s="132"/>
+      <c r="AH69" s="151"/>
+      <c r="AI69" s="150"/>
+      <c r="AJ69" s="150"/>
+      <c r="AK69" s="150"/>
+      <c r="AL69" s="150"/>
+      <c r="AM69" s="150"/>
+      <c r="AN69" s="150"/>
     </row>
     <row r="70" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>64</v>
@@ -22171,14 +22167,14 @@
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
       <c r="AF70" s="71"/>
-      <c r="AG70" s="137"/>
-      <c r="AH70" s="156"/>
-      <c r="AI70" s="155"/>
-      <c r="AJ70" s="155"/>
-      <c r="AK70" s="155"/>
-      <c r="AL70" s="155"/>
-      <c r="AM70" s="155"/>
-      <c r="AN70" s="155"/>
+      <c r="AG70" s="132"/>
+      <c r="AH70" s="151"/>
+      <c r="AI70" s="150"/>
+      <c r="AJ70" s="150"/>
+      <c r="AK70" s="150"/>
+      <c r="AL70" s="150"/>
+      <c r="AM70" s="150"/>
+      <c r="AN70" s="150"/>
     </row>
     <row r="71" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
@@ -22187,13 +22183,13 @@
       <c r="B71" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="153"/>
-      <c r="F71" s="153"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="79"/>
@@ -22212,56 +22208,56 @@
       <c r="Y71" s="31"/>
       <c r="Z71" s="49"/>
       <c r="AA71" s="49"/>
-      <c r="AB71" s="90"/>
-      <c r="AC71" s="90"/>
-      <c r="AD71" s="90"/>
-      <c r="AE71" s="90"/>
-      <c r="AF71" s="91"/>
-      <c r="AG71" s="137"/>
-      <c r="AH71" s="156"/>
-      <c r="AI71" s="155"/>
-      <c r="AJ71" s="155"/>
-      <c r="AK71" s="155"/>
-      <c r="AL71" s="155"/>
-      <c r="AM71" s="155"/>
-      <c r="AN71" s="155"/>
+      <c r="AB71" s="230"/>
+      <c r="AC71" s="216"/>
+      <c r="AD71" s="216"/>
+      <c r="AE71" s="216"/>
+      <c r="AF71" s="231"/>
+      <c r="AG71" s="132"/>
+      <c r="AH71" s="151"/>
+      <c r="AI71" s="150"/>
+      <c r="AJ71" s="150"/>
+      <c r="AK71" s="150"/>
+      <c r="AL71" s="150"/>
+      <c r="AM71" s="150"/>
+      <c r="AN71" s="150"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="231" t="s">
+      <c r="A72" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="232"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="232"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="232"/>
-      <c r="G72" s="232"/>
-      <c r="H72" s="232"/>
-      <c r="I72" s="232"/>
-      <c r="J72" s="232"/>
-      <c r="K72" s="232"/>
-      <c r="L72" s="232"/>
-      <c r="M72" s="232"/>
-      <c r="N72" s="232"/>
-      <c r="O72" s="232"/>
-      <c r="P72" s="232"/>
-      <c r="Q72" s="232"/>
-      <c r="R72" s="232"/>
-      <c r="S72" s="232"/>
-      <c r="T72" s="232"/>
-      <c r="U72" s="232"/>
-      <c r="V72" s="232"/>
-      <c r="W72" s="232"/>
-      <c r="X72" s="232"/>
-      <c r="Y72" s="232"/>
-      <c r="Z72" s="232"/>
-      <c r="AA72" s="232"/>
-      <c r="AB72" s="232"/>
-      <c r="AC72" s="232"/>
-      <c r="AD72" s="232"/>
-      <c r="AE72" s="232"/>
-      <c r="AF72" s="232"/>
-      <c r="AG72" s="232"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="227"/>
+      <c r="G72" s="227"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="227"/>
+      <c r="J72" s="227"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="227"/>
+      <c r="M72" s="227"/>
+      <c r="N72" s="227"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="227"/>
+      <c r="R72" s="227"/>
+      <c r="S72" s="227"/>
+      <c r="T72" s="227"/>
+      <c r="U72" s="227"/>
+      <c r="V72" s="227"/>
+      <c r="W72" s="227"/>
+      <c r="X72" s="227"/>
+      <c r="Y72" s="227"/>
+      <c r="Z72" s="227"/>
+      <c r="AA72" s="227"/>
+      <c r="AB72" s="227"/>
+      <c r="AC72" s="227"/>
+      <c r="AD72" s="227"/>
+      <c r="AE72" s="227"/>
+      <c r="AF72" s="227"/>
+      <c r="AG72" s="227"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22276,58 +22272,58 @@
       <c r="D73" s="35">
         <v>2</v>
       </c>
-      <c r="E73" s="110">
+      <c r="E73" s="105">
         <v>3</v>
       </c>
-      <c r="F73" s="101">
+      <c r="F73" s="96">
         <v>4</v>
       </c>
-      <c r="G73" s="111">
+      <c r="G73" s="106">
         <v>5</v>
       </c>
-      <c r="H73" s="101">
+      <c r="H73" s="96">
         <v>6</v>
       </c>
-      <c r="I73" s="106">
+      <c r="I73" s="101">
         <v>7</v>
       </c>
-      <c r="J73" s="117">
+      <c r="J73" s="112">
         <v>8</v>
       </c>
-      <c r="K73" s="104">
+      <c r="K73" s="99">
         <v>9</v>
       </c>
-      <c r="L73" s="103">
+      <c r="L73" s="98">
         <v>10</v>
       </c>
-      <c r="M73" s="103">
+      <c r="M73" s="98">
         <v>11</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="99">
         <v>12</v>
       </c>
-      <c r="O73" s="105">
+      <c r="O73" s="100">
         <v>13</v>
       </c>
-      <c r="P73" s="106">
+      <c r="P73" s="101">
         <v>14</v>
       </c>
-      <c r="Q73" s="117">
+      <c r="Q73" s="112">
         <v>15</v>
       </c>
-      <c r="R73" s="104">
+      <c r="R73" s="99">
         <v>16</v>
       </c>
-      <c r="S73" s="104">
+      <c r="S73" s="99">
         <v>17</v>
       </c>
-      <c r="T73" s="104">
+      <c r="T73" s="99">
         <v>18</v>
       </c>
-      <c r="U73" s="104">
+      <c r="U73" s="99">
         <v>19</v>
       </c>
-      <c r="V73" s="105">
+      <c r="V73" s="100">
         <v>20</v>
       </c>
       <c r="W73" s="48">
@@ -22336,31 +22332,31 @@
       <c r="X73" s="48">
         <v>22</v>
       </c>
-      <c r="Y73" s="101">
+      <c r="Y73" s="96">
         <v>23</v>
       </c>
-      <c r="Z73" s="114">
+      <c r="Z73" s="109">
         <v>24</v>
       </c>
-      <c r="AA73" s="104">
+      <c r="AA73" s="99">
         <v>25</v>
       </c>
-      <c r="AB73" s="104">
+      <c r="AB73" s="99">
         <v>26</v>
       </c>
-      <c r="AC73" s="105">
+      <c r="AC73" s="100">
         <v>27</v>
       </c>
       <c r="AD73" s="48">
         <v>28</v>
       </c>
-      <c r="AE73" s="114">
+      <c r="AE73" s="109">
         <v>29</v>
       </c>
-      <c r="AF73" s="105">
+      <c r="AF73" s="100">
         <v>30</v>
       </c>
-      <c r="AG73" s="127"/>
+      <c r="AG73" s="122"/>
     </row>
     <row r="74" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
@@ -22377,29 +22373,29 @@
       <c r="H74" s="74"/>
       <c r="I74" s="49"/>
       <c r="J74" s="48"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="159"/>
-      <c r="M74" s="159"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="105"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="154"/>
+      <c r="M74" s="154"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="100"/>
       <c r="P74" s="48"/>
       <c r="Q74" s="48"/>
-      <c r="R74" s="101"/>
-      <c r="S74" s="114"/>
-      <c r="T74" s="104"/>
-      <c r="U74" s="104"/>
-      <c r="V74" s="105"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="109"/>
+      <c r="T74" s="99"/>
+      <c r="U74" s="99"/>
+      <c r="V74" s="100"/>
       <c r="W74" s="48"/>
       <c r="X74" s="48"/>
-      <c r="Y74" s="101"/>
-      <c r="Z74" s="114"/>
-      <c r="AA74" s="104"/>
-      <c r="AB74" s="104"/>
-      <c r="AC74" s="105"/>
+      <c r="Y74" s="96"/>
+      <c r="Z74" s="109"/>
+      <c r="AA74" s="99"/>
+      <c r="AB74" s="99"/>
+      <c r="AC74" s="100"/>
       <c r="AD74" s="48"/>
       <c r="AE74" s="48"/>
-      <c r="AF74" s="164"/>
-      <c r="AG74" s="160"/>
+      <c r="AF74" s="159"/>
+      <c r="AG74" s="155"/>
     </row>
     <row r="75" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
@@ -22417,110 +22413,110 @@
       <c r="I75" s="49"/>
       <c r="J75" s="48"/>
       <c r="K75" s="65"/>
-      <c r="L75" s="159"/>
-      <c r="M75" s="159"/>
-      <c r="N75" s="104"/>
-      <c r="O75" s="105"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="154"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="100"/>
       <c r="P75" s="48"/>
       <c r="Q75" s="48"/>
-      <c r="R75" s="101"/>
-      <c r="S75" s="114"/>
-      <c r="T75" s="104"/>
-      <c r="U75" s="104"/>
-      <c r="V75" s="105"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="109"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="99"/>
+      <c r="V75" s="100"/>
       <c r="W75" s="48"/>
       <c r="X75" s="48"/>
-      <c r="Y75" s="101"/>
-      <c r="Z75" s="114"/>
-      <c r="AA75" s="104"/>
-      <c r="AB75" s="104"/>
-      <c r="AC75" s="105"/>
+      <c r="Y75" s="96"/>
+      <c r="Z75" s="109"/>
+      <c r="AA75" s="99"/>
+      <c r="AB75" s="99"/>
+      <c r="AC75" s="100"/>
       <c r="AD75" s="48"/>
       <c r="AE75" s="48"/>
-      <c r="AF75" s="164"/>
-      <c r="AG75" s="160"/>
+      <c r="AF75" s="159"/>
+      <c r="AG75" s="155"/>
     </row>
     <row r="76" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
       <c r="I76" s="49"/>
       <c r="J76" s="48"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="159"/>
-      <c r="M76" s="159"/>
-      <c r="N76" s="104"/>
-      <c r="O76" s="105"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="154"/>
+      <c r="M76" s="154"/>
+      <c r="N76" s="99"/>
+      <c r="O76" s="100"/>
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
-      <c r="R76" s="101"/>
-      <c r="S76" s="114"/>
-      <c r="T76" s="104"/>
-      <c r="U76" s="104"/>
-      <c r="V76" s="105"/>
+      <c r="R76" s="96"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="99"/>
+      <c r="U76" s="99"/>
+      <c r="V76" s="100"/>
       <c r="W76" s="48"/>
       <c r="X76" s="48"/>
-      <c r="Y76" s="101"/>
-      <c r="Z76" s="114"/>
-      <c r="AA76" s="104"/>
-      <c r="AB76" s="104"/>
-      <c r="AC76" s="105"/>
+      <c r="Y76" s="96"/>
+      <c r="Z76" s="109"/>
+      <c r="AA76" s="99"/>
+      <c r="AB76" s="99"/>
+      <c r="AC76" s="100"/>
       <c r="AD76" s="48"/>
       <c r="AE76" s="48"/>
-      <c r="AF76" s="164"/>
-      <c r="AG76" s="160"/>
+      <c r="AF76" s="159"/>
+      <c r="AG76" s="155"/>
     </row>
     <row r="77" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
       <c r="I77" s="49"/>
       <c r="J77" s="48"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="105"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="154"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="100"/>
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
-      <c r="R77" s="101"/>
-      <c r="S77" s="114"/>
-      <c r="T77" s="104"/>
-      <c r="U77" s="104"/>
-      <c r="V77" s="105"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="109"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="100"/>
       <c r="W77" s="48"/>
       <c r="X77" s="48"/>
-      <c r="Y77" s="101"/>
-      <c r="Z77" s="114"/>
-      <c r="AA77" s="104"/>
-      <c r="AB77" s="104"/>
-      <c r="AC77" s="105"/>
+      <c r="Y77" s="96"/>
+      <c r="Z77" s="109"/>
+      <c r="AA77" s="99"/>
+      <c r="AB77" s="99"/>
+      <c r="AC77" s="100"/>
       <c r="AD77" s="48"/>
       <c r="AE77" s="48"/>
-      <c r="AF77" s="164"/>
-      <c r="AG77" s="160"/>
+      <c r="AF77" s="159"/>
+      <c r="AG77" s="155"/>
     </row>
     <row r="78" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>64</v>
@@ -22533,29 +22529,29 @@
       <c r="H78" s="65"/>
       <c r="I78" s="49"/>
       <c r="J78" s="48"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="159"/>
-      <c r="M78" s="159"/>
-      <c r="N78" s="104"/>
-      <c r="O78" s="105"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="154"/>
+      <c r="M78" s="154"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="100"/>
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
-      <c r="R78" s="101"/>
-      <c r="S78" s="114"/>
-      <c r="T78" s="104"/>
-      <c r="U78" s="104"/>
-      <c r="V78" s="105"/>
+      <c r="R78" s="96"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="99"/>
+      <c r="U78" s="99"/>
+      <c r="V78" s="100"/>
       <c r="W78" s="48"/>
       <c r="X78" s="48"/>
-      <c r="Y78" s="101"/>
-      <c r="Z78" s="114"/>
-      <c r="AA78" s="104"/>
-      <c r="AB78" s="104"/>
-      <c r="AC78" s="105"/>
+      <c r="Y78" s="96"/>
+      <c r="Z78" s="109"/>
+      <c r="AA78" s="99"/>
+      <c r="AB78" s="99"/>
+      <c r="AC78" s="100"/>
       <c r="AD78" s="48"/>
       <c r="AE78" s="48"/>
-      <c r="AF78" s="164"/>
-      <c r="AG78" s="160"/>
+      <c r="AF78" s="159"/>
+      <c r="AG78" s="155"/>
     </row>
     <row r="79" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
@@ -22566,35 +22562,35 @@
       </c>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
       <c r="I79" s="49"/>
       <c r="J79" s="48"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="159"/>
-      <c r="M79" s="159"/>
-      <c r="N79" s="105"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="171"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="154"/>
+      <c r="M79" s="154"/>
+      <c r="N79" s="100"/>
+      <c r="O79" s="96"/>
+      <c r="P79" s="166"/>
       <c r="Q79" s="48"/>
-      <c r="R79" s="101"/>
-      <c r="S79" s="114"/>
-      <c r="T79" s="104"/>
-      <c r="U79" s="104"/>
-      <c r="V79" s="101"/>
+      <c r="R79" s="96"/>
+      <c r="S79" s="109"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="96"/>
       <c r="W79" s="48"/>
       <c r="X79" s="48"/>
-      <c r="Y79" s="101"/>
-      <c r="Z79" s="114"/>
-      <c r="AA79" s="104"/>
-      <c r="AB79" s="105"/>
-      <c r="AC79" s="105"/>
+      <c r="Y79" s="96"/>
+      <c r="Z79" s="109"/>
+      <c r="AA79" s="99"/>
+      <c r="AB79" s="100"/>
+      <c r="AC79" s="100"/>
       <c r="AD79" s="48"/>
       <c r="AE79" s="48"/>
-      <c r="AF79" s="164"/>
-      <c r="AG79" s="160"/>
+      <c r="AF79" s="159"/>
+      <c r="AG79" s="155"/>
     </row>
     <row r="80" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
@@ -22603,29 +22599,29 @@
       <c r="B80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="168"/>
-      <c r="D80" s="168"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="163"/>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
-      <c r="I80" s="161"/>
+      <c r="I80" s="156"/>
       <c r="J80" s="36"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="43"/>
       <c r="O80" s="65"/>
-      <c r="P80" s="172"/>
-      <c r="Q80" s="162"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="157"/>
       <c r="R80" s="45"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="43"/>
-      <c r="V80" s="129"/>
+      <c r="V80" s="124"/>
       <c r="W80" s="49"/>
-      <c r="X80" s="163"/>
-      <c r="Y80" s="129"/>
+      <c r="X80" s="158"/>
+      <c r="Y80" s="124"/>
       <c r="Z80" s="16"/>
       <c r="AA80" s="16"/>
       <c r="AB80" s="43"/>
@@ -22633,7 +22629,7 @@
       <c r="AD80" s="49"/>
       <c r="AE80" s="49"/>
       <c r="AF80" s="43"/>
-      <c r="AG80" s="127"/>
+      <c r="AG80" s="122"/>
     </row>
     <row r="81" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
@@ -22642,19 +22638,19 @@
       <c r="B81" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="169"/>
-      <c r="D81" s="169"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="164"/>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="K81" s="148"/>
+      <c r="K81" s="143"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
-      <c r="O81" s="173"/>
+      <c r="O81" s="168"/>
       <c r="P81" s="50"/>
       <c r="Q81" s="49"/>
       <c r="R81" s="18"/>
@@ -22663,7 +22659,7 @@
       <c r="U81" s="43"/>
       <c r="V81" s="22"/>
       <c r="W81" s="49"/>
-      <c r="X81" s="121"/>
+      <c r="X81" s="116"/>
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
       <c r="AA81" s="22"/>
@@ -22672,7 +22668,7 @@
       <c r="AD81" s="49"/>
       <c r="AE81" s="49"/>
       <c r="AF81" s="68"/>
-      <c r="AG81" s="127"/>
+      <c r="AG81" s="122"/>
     </row>
     <row r="82" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -22681,28 +22677,28 @@
       <c r="B82" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="K82" s="149"/>
+      <c r="K82" s="144"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="65"/>
-      <c r="P82" s="118"/>
+      <c r="P82" s="113"/>
       <c r="Q82" s="49"/>
-      <c r="R82" s="181"/>
+      <c r="R82" s="176"/>
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
-      <c r="U82" s="141"/>
+      <c r="U82" s="136"/>
       <c r="V82" s="22"/>
       <c r="W82" s="49"/>
-      <c r="X82" s="121"/>
+      <c r="X82" s="116"/>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
       <c r="AA82" s="22"/>
@@ -22711,7 +22707,7 @@
       <c r="AD82" s="49"/>
       <c r="AE82" s="49"/>
       <c r="AF82" s="68"/>
-      <c r="AG82" s="127"/>
+      <c r="AG82" s="122"/>
     </row>
     <row r="83" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
@@ -22720,20 +22716,20 @@
       <c r="B83" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="K83" s="179"/>
+      <c r="K83" s="174"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
       <c r="O83" s="65"/>
-      <c r="P83" s="118"/>
+      <c r="P83" s="113"/>
       <c r="Q83" s="49"/>
       <c r="R83" s="58"/>
       <c r="S83" s="22"/>
@@ -22741,16 +22737,16 @@
       <c r="U83" s="41"/>
       <c r="V83" s="18"/>
       <c r="W83" s="49"/>
-      <c r="X83" s="121"/>
+      <c r="X83" s="116"/>
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
       <c r="AA83" s="18"/>
-      <c r="AB83" s="182"/>
+      <c r="AB83" s="177"/>
       <c r="AC83" s="22"/>
       <c r="AD83" s="49"/>
-      <c r="AE83" s="124"/>
+      <c r="AE83" s="119"/>
       <c r="AF83" s="68"/>
-      <c r="AG83" s="127"/>
+      <c r="AG83" s="122"/>
     </row>
     <row r="84" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
@@ -22759,152 +22755,152 @@
       <c r="B84" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
       <c r="K84" s="62"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="65"/>
-      <c r="P84" s="119"/>
+      <c r="P84" s="114"/>
       <c r="Q84" s="49"/>
-      <c r="R84" s="112"/>
+      <c r="R84" s="107"/>
       <c r="S84" s="5"/>
       <c r="T84" s="16"/>
       <c r="U84" s="43"/>
       <c r="V84" s="16"/>
       <c r="W84" s="49"/>
-      <c r="X84" s="122"/>
+      <c r="X84" s="117"/>
       <c r="Y84" s="16"/>
       <c r="Z84" s="16"/>
       <c r="AA84" s="16"/>
-      <c r="AB84" s="148"/>
+      <c r="AB84" s="143"/>
       <c r="AC84" s="18"/>
       <c r="AD84" s="49"/>
-      <c r="AE84" s="124"/>
+      <c r="AE84" s="119"/>
       <c r="AF84" s="42"/>
-      <c r="AG84" s="127"/>
+      <c r="AG84" s="122"/>
     </row>
     <row r="85" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="107" t="s">
+      <c r="A85" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
+      <c r="C85" s="164"/>
+      <c r="D85" s="164"/>
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="108"/>
+      <c r="I85" s="103"/>
+      <c r="J85" s="103"/>
       <c r="K85" s="62"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="65"/>
-      <c r="P85" s="119"/>
+      <c r="P85" s="114"/>
       <c r="Q85" s="49"/>
-      <c r="R85" s="112"/>
+      <c r="R85" s="107"/>
       <c r="S85" s="5"/>
       <c r="T85" s="4"/>
-      <c r="U85" s="115"/>
+      <c r="U85" s="110"/>
       <c r="V85" s="4"/>
       <c r="W85" s="49"/>
-      <c r="X85" s="122"/>
+      <c r="X85" s="117"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="49"/>
-      <c r="AE85" s="124"/>
-      <c r="AF85" s="115"/>
-      <c r="AG85" s="127"/>
+      <c r="AE85" s="119"/>
+      <c r="AF85" s="110"/>
+      <c r="AG85" s="122"/>
     </row>
     <row r="86" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="107" t="s">
+      <c r="A86" s="102" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="170"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="158"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="180"/>
-      <c r="L86" s="143"/>
-      <c r="M86" s="143"/>
-      <c r="N86" s="143"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="120"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="153"/>
+      <c r="F86" s="153"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="175"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="115"/>
       <c r="Q86" s="49"/>
-      <c r="R86" s="113"/>
+      <c r="R86" s="108"/>
       <c r="S86" s="13"/>
       <c r="T86" s="6"/>
-      <c r="U86" s="116"/>
+      <c r="U86" s="111"/>
       <c r="V86" s="6"/>
       <c r="W86" s="49"/>
-      <c r="X86" s="123"/>
+      <c r="X86" s="118"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="49"/>
-      <c r="AE86" s="124"/>
-      <c r="AF86" s="116"/>
-      <c r="AG86" s="127"/>
+      <c r="AE86" s="119"/>
+      <c r="AF86" s="111"/>
+      <c r="AG86" s="122"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="233" t="s">
+      <c r="A87" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="234"/>
-      <c r="C87" s="234"/>
-      <c r="D87" s="234"/>
-      <c r="E87" s="234"/>
-      <c r="F87" s="234"/>
-      <c r="G87" s="234"/>
-      <c r="H87" s="234"/>
-      <c r="I87" s="234"/>
-      <c r="J87" s="234"/>
-      <c r="K87" s="234"/>
-      <c r="L87" s="234"/>
-      <c r="M87" s="234"/>
-      <c r="N87" s="234"/>
-      <c r="O87" s="234"/>
-      <c r="P87" s="234"/>
-      <c r="Q87" s="234"/>
-      <c r="R87" s="234"/>
-      <c r="S87" s="234"/>
-      <c r="T87" s="234"/>
-      <c r="U87" s="234"/>
-      <c r="V87" s="234"/>
-      <c r="W87" s="234"/>
-      <c r="X87" s="234"/>
-      <c r="Y87" s="234"/>
-      <c r="Z87" s="234"/>
-      <c r="AA87" s="234"/>
-      <c r="AB87" s="234"/>
-      <c r="AC87" s="234"/>
-      <c r="AD87" s="234"/>
-      <c r="AE87" s="234"/>
-      <c r="AF87" s="234"/>
-      <c r="AG87" s="234"/>
+      <c r="B87" s="229"/>
+      <c r="C87" s="229"/>
+      <c r="D87" s="229"/>
+      <c r="E87" s="229"/>
+      <c r="F87" s="229"/>
+      <c r="G87" s="229"/>
+      <c r="H87" s="229"/>
+      <c r="I87" s="229"/>
+      <c r="J87" s="229"/>
+      <c r="K87" s="229"/>
+      <c r="L87" s="229"/>
+      <c r="M87" s="229"/>
+      <c r="N87" s="229"/>
+      <c r="O87" s="229"/>
+      <c r="P87" s="229"/>
+      <c r="Q87" s="229"/>
+      <c r="R87" s="229"/>
+      <c r="S87" s="229"/>
+      <c r="T87" s="229"/>
+      <c r="U87" s="229"/>
+      <c r="V87" s="229"/>
+      <c r="W87" s="229"/>
+      <c r="X87" s="229"/>
+      <c r="Y87" s="229"/>
+      <c r="Z87" s="229"/>
+      <c r="AA87" s="229"/>
+      <c r="AB87" s="229"/>
+      <c r="AC87" s="229"/>
+      <c r="AD87" s="229"/>
+      <c r="AE87" s="229"/>
+      <c r="AF87" s="229"/>
+      <c r="AG87" s="229"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
@@ -22931,19 +22927,19 @@
       <c r="H88" s="59">
         <v>6</v>
       </c>
-      <c r="I88" s="175">
+      <c r="I88" s="170">
         <v>7</v>
       </c>
-      <c r="J88" s="176">
+      <c r="J88" s="171">
         <v>8</v>
       </c>
-      <c r="K88" s="135">
+      <c r="K88" s="130">
         <v>9</v>
       </c>
-      <c r="L88" s="135">
+      <c r="L88" s="130">
         <v>10</v>
       </c>
-      <c r="M88" s="135">
+      <c r="M88" s="130">
         <v>11</v>
       </c>
       <c r="N88" s="59">
@@ -22952,19 +22948,19 @@
       <c r="O88" s="59">
         <v>13</v>
       </c>
-      <c r="P88" s="135">
+      <c r="P88" s="130">
         <v>14</v>
       </c>
-      <c r="Q88" s="135">
+      <c r="Q88" s="130">
         <v>15</v>
       </c>
-      <c r="R88" s="135">
+      <c r="R88" s="130">
         <v>16</v>
       </c>
-      <c r="S88" s="135">
+      <c r="S88" s="130">
         <v>17</v>
       </c>
-      <c r="T88" s="135">
+      <c r="T88" s="130">
         <v>18</v>
       </c>
       <c r="U88" s="59">
@@ -22973,19 +22969,19 @@
       <c r="V88" s="59">
         <v>20</v>
       </c>
-      <c r="W88" s="135">
+      <c r="W88" s="130">
         <v>21</v>
       </c>
-      <c r="X88" s="135">
+      <c r="X88" s="130">
         <v>22</v>
       </c>
-      <c r="Y88" s="135">
+      <c r="Y88" s="130">
         <v>23</v>
       </c>
-      <c r="Z88" s="135">
+      <c r="Z88" s="130">
         <v>24</v>
       </c>
-      <c r="AA88" s="135">
+      <c r="AA88" s="130">
         <v>25</v>
       </c>
       <c r="AB88" s="59">
@@ -22994,22 +22990,22 @@
       <c r="AC88" s="59">
         <v>27</v>
       </c>
-      <c r="AD88" s="135">
+      <c r="AD88" s="130">
         <v>28</v>
       </c>
-      <c r="AE88" s="135">
+      <c r="AE88" s="130">
         <v>29</v>
       </c>
-      <c r="AF88" s="135">
+      <c r="AF88" s="130">
         <v>30</v>
       </c>
-      <c r="AG88" s="135">
+      <c r="AG88" s="130">
         <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>30</v>
@@ -23019,43 +23015,43 @@
       <c r="E89" s="16"/>
       <c r="F89" s="43"/>
       <c r="G89" s="49"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="135"/>
-      <c r="J89" s="135"/>
-      <c r="K89" s="174"/>
-      <c r="L89" s="183"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="131"/>
-      <c r="O89" s="132"/>
-      <c r="P89" s="131"/>
-      <c r="Q89" s="131"/>
-      <c r="R89" s="132"/>
-      <c r="S89" s="131"/>
-      <c r="T89" s="131"/>
-      <c r="U89" s="132"/>
-      <c r="V89" s="132"/>
-      <c r="W89" s="132"/>
-      <c r="X89" s="132"/>
-      <c r="Y89" s="132"/>
-      <c r="Z89" s="132"/>
-      <c r="AA89" s="133"/>
-      <c r="AB89" s="132"/>
-      <c r="AC89" s="132"/>
-      <c r="AD89" s="134"/>
-      <c r="AE89" s="132"/>
-      <c r="AF89" s="132"/>
-      <c r="AG89" s="132"/>
-      <c r="AH89" s="156"/>
-      <c r="AI89" s="155"/>
-      <c r="AJ89" s="155"/>
-      <c r="AK89" s="155"/>
-      <c r="AL89" s="155"/>
-      <c r="AM89" s="155"/>
-      <c r="AN89" s="155"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="178"/>
+      <c r="M89" s="125"/>
+      <c r="N89" s="126"/>
+      <c r="O89" s="127"/>
+      <c r="P89" s="126"/>
+      <c r="Q89" s="126"/>
+      <c r="R89" s="127"/>
+      <c r="S89" s="126"/>
+      <c r="T89" s="126"/>
+      <c r="U89" s="127"/>
+      <c r="V89" s="127"/>
+      <c r="W89" s="127"/>
+      <c r="X89" s="127"/>
+      <c r="Y89" s="127"/>
+      <c r="Z89" s="127"/>
+      <c r="AA89" s="128"/>
+      <c r="AB89" s="127"/>
+      <c r="AC89" s="127"/>
+      <c r="AD89" s="129"/>
+      <c r="AE89" s="127"/>
+      <c r="AF89" s="127"/>
+      <c r="AG89" s="127"/>
+      <c r="AH89" s="151"/>
+      <c r="AI89" s="150"/>
+      <c r="AJ89" s="150"/>
+      <c r="AK89" s="150"/>
+      <c r="AL89" s="150"/>
+      <c r="AM89" s="150"/>
+      <c r="AN89" s="150"/>
     </row>
     <row r="90" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>32</v>
@@ -23065,89 +23061,89 @@
       <c r="E90" s="16"/>
       <c r="F90" s="43"/>
       <c r="G90" s="49"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="135"/>
-      <c r="J90" s="135"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
       <c r="K90" s="45"/>
       <c r="L90" s="43"/>
       <c r="M90" s="43"/>
-      <c r="N90" s="126"/>
+      <c r="N90" s="121"/>
       <c r="O90" s="47"/>
-      <c r="P90" s="126"/>
-      <c r="Q90" s="126"/>
+      <c r="P90" s="121"/>
+      <c r="Q90" s="121"/>
       <c r="R90" s="47"/>
-      <c r="S90" s="126"/>
-      <c r="T90" s="126"/>
+      <c r="S90" s="121"/>
+      <c r="T90" s="121"/>
       <c r="U90" s="47"/>
       <c r="V90" s="47"/>
       <c r="W90" s="47"/>
       <c r="X90" s="47"/>
       <c r="Y90" s="47"/>
       <c r="Z90" s="47"/>
-      <c r="AA90" s="127"/>
+      <c r="AA90" s="122"/>
       <c r="AB90" s="47"/>
       <c r="AC90" s="47"/>
-      <c r="AD90" s="128"/>
+      <c r="AD90" s="123"/>
       <c r="AE90" s="47"/>
       <c r="AF90" s="47"/>
       <c r="AG90" s="47"/>
-      <c r="AH90" s="156"/>
-      <c r="AI90" s="155"/>
-      <c r="AJ90" s="155"/>
-      <c r="AK90" s="155"/>
-      <c r="AL90" s="155"/>
-      <c r="AM90" s="155"/>
-      <c r="AN90" s="155"/>
+      <c r="AH90" s="151"/>
+      <c r="AI90" s="150"/>
+      <c r="AJ90" s="150"/>
+      <c r="AK90" s="150"/>
+      <c r="AL90" s="150"/>
+      <c r="AM90" s="150"/>
+      <c r="AN90" s="150"/>
     </row>
     <row r="91" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="16"/>
-      <c r="E91" s="142"/>
+      <c r="E91" s="137"/>
       <c r="F91" s="43"/>
       <c r="G91" s="49"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="135"/>
-      <c r="J91" s="135"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="130"/>
+      <c r="J91" s="130"/>
       <c r="K91" s="45"/>
       <c r="L91" s="43"/>
       <c r="M91" s="43"/>
-      <c r="N91" s="126"/>
+      <c r="N91" s="121"/>
       <c r="O91" s="47"/>
-      <c r="P91" s="126"/>
-      <c r="Q91" s="126"/>
+      <c r="P91" s="121"/>
+      <c r="Q91" s="121"/>
       <c r="R91" s="47"/>
-      <c r="S91" s="126"/>
-      <c r="T91" s="126"/>
+      <c r="S91" s="121"/>
+      <c r="T91" s="121"/>
       <c r="U91" s="47"/>
       <c r="V91" s="47"/>
       <c r="W91" s="47"/>
       <c r="X91" s="47"/>
       <c r="Y91" s="47"/>
       <c r="Z91" s="47"/>
-      <c r="AA91" s="127"/>
+      <c r="AA91" s="122"/>
       <c r="AB91" s="47"/>
       <c r="AC91" s="47"/>
-      <c r="AD91" s="128"/>
+      <c r="AD91" s="123"/>
       <c r="AE91" s="47"/>
       <c r="AF91" s="47"/>
       <c r="AG91" s="47"/>
-      <c r="AH91" s="156"/>
-      <c r="AI91" s="155"/>
-      <c r="AJ91" s="155"/>
-      <c r="AK91" s="155"/>
-      <c r="AL91" s="155"/>
-      <c r="AM91" s="155"/>
-      <c r="AN91" s="155"/>
+      <c r="AH91" s="151"/>
+      <c r="AI91" s="150"/>
+      <c r="AJ91" s="150"/>
+      <c r="AK91" s="150"/>
+      <c r="AL91" s="150"/>
+      <c r="AM91" s="150"/>
+      <c r="AN91" s="150"/>
     </row>
     <row r="92" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>36</v>
@@ -23157,43 +23153,43 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="49"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="135"/>
-      <c r="J92" s="135"/>
+      <c r="H92" s="119"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
       <c r="K92" s="45"/>
       <c r="L92" s="43"/>
       <c r="M92" s="43"/>
-      <c r="N92" s="126"/>
+      <c r="N92" s="121"/>
       <c r="O92" s="47"/>
-      <c r="P92" s="126"/>
-      <c r="Q92" s="126"/>
+      <c r="P92" s="121"/>
+      <c r="Q92" s="121"/>
       <c r="R92" s="47"/>
-      <c r="S92" s="126"/>
-      <c r="T92" s="126"/>
+      <c r="S92" s="121"/>
+      <c r="T92" s="121"/>
       <c r="U92" s="47"/>
       <c r="V92" s="47"/>
       <c r="W92" s="47"/>
       <c r="X92" s="47"/>
       <c r="Y92" s="47"/>
       <c r="Z92" s="47"/>
-      <c r="AA92" s="127"/>
+      <c r="AA92" s="122"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
-      <c r="AD92" s="128"/>
+      <c r="AD92" s="123"/>
       <c r="AE92" s="47"/>
       <c r="AF92" s="47"/>
       <c r="AG92" s="47"/>
-      <c r="AH92" s="156"/>
-      <c r="AI92" s="155"/>
-      <c r="AJ92" s="155"/>
-      <c r="AK92" s="155"/>
-      <c r="AL92" s="155"/>
-      <c r="AM92" s="155"/>
-      <c r="AN92" s="155"/>
+      <c r="AH92" s="151"/>
+      <c r="AI92" s="150"/>
+      <c r="AJ92" s="150"/>
+      <c r="AK92" s="150"/>
+      <c r="AL92" s="150"/>
+      <c r="AM92" s="150"/>
+      <c r="AN92" s="150"/>
     </row>
     <row r="93" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>38</v>
@@ -23203,58 +23199,58 @@
       <c r="E93" s="42"/>
       <c r="F93" s="18"/>
       <c r="G93" s="49"/>
-      <c r="H93" s="124"/>
-      <c r="I93" s="177"/>
-      <c r="J93" s="177"/>
+      <c r="H93" s="119"/>
+      <c r="I93" s="172"/>
+      <c r="J93" s="172"/>
       <c r="K93" s="46"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
-      <c r="N93" s="126"/>
+      <c r="N93" s="121"/>
       <c r="O93" s="47"/>
-      <c r="P93" s="126"/>
-      <c r="Q93" s="126"/>
+      <c r="P93" s="121"/>
+      <c r="Q93" s="121"/>
       <c r="R93" s="47"/>
-      <c r="S93" s="126"/>
-      <c r="T93" s="126"/>
+      <c r="S93" s="121"/>
+      <c r="T93" s="121"/>
       <c r="U93" s="47"/>
       <c r="V93" s="47"/>
       <c r="W93" s="47"/>
       <c r="X93" s="47"/>
       <c r="Y93" s="47"/>
       <c r="Z93" s="47"/>
-      <c r="AA93" s="127"/>
+      <c r="AA93" s="122"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="128"/>
+      <c r="AD93" s="123"/>
       <c r="AE93" s="47"/>
       <c r="AF93" s="47"/>
       <c r="AG93" s="47"/>
-      <c r="AH93" s="156"/>
-      <c r="AI93" s="155"/>
-      <c r="AJ93" s="155"/>
-      <c r="AK93" s="155"/>
-      <c r="AL93" s="155"/>
-      <c r="AM93" s="155"/>
-      <c r="AN93" s="155"/>
+      <c r="AH93" s="151"/>
+      <c r="AI93" s="150"/>
+      <c r="AJ93" s="150"/>
+      <c r="AK93" s="150"/>
+      <c r="AL93" s="150"/>
+      <c r="AM93" s="150"/>
+      <c r="AN93" s="150"/>
     </row>
     <row r="94" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="115"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="184"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="179"/>
       <c r="G94" s="49"/>
-      <c r="H94" s="124"/>
-      <c r="I94" s="178"/>
-      <c r="J94" s="178"/>
-      <c r="K94" s="125"/>
-      <c r="L94" s="116"/>
-      <c r="M94" s="116"/>
+      <c r="H94" s="119"/>
+      <c r="I94" s="173"/>
+      <c r="J94" s="173"/>
+      <c r="K94" s="120"/>
+      <c r="L94" s="111"/>
+      <c r="M94" s="111"/>
       <c r="N94" s="47"/>
       <c r="O94" s="47"/>
       <c r="P94" s="47"/>
@@ -23268,39 +23264,39 @@
       <c r="X94" s="47"/>
       <c r="Y94" s="47"/>
       <c r="Z94" s="47"/>
-      <c r="AA94" s="127"/>
+      <c r="AA94" s="122"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="128"/>
+      <c r="AD94" s="123"/>
       <c r="AE94" s="47"/>
       <c r="AF94" s="47"/>
       <c r="AG94" s="47"/>
-      <c r="AH94" s="156"/>
-      <c r="AI94" s="155"/>
-      <c r="AJ94" s="155"/>
-      <c r="AK94" s="155"/>
-      <c r="AL94" s="155"/>
-      <c r="AM94" s="155"/>
-      <c r="AN94" s="155"/>
+      <c r="AH94" s="151"/>
+      <c r="AI94" s="150"/>
+      <c r="AJ94" s="150"/>
+      <c r="AK94" s="150"/>
+      <c r="AL94" s="150"/>
+      <c r="AM94" s="150"/>
+      <c r="AN94" s="150"/>
     </row>
     <row r="95" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="116"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="116"/>
+      <c r="E95" s="111"/>
       <c r="F95" s="6"/>
       <c r="G95" s="49"/>
-      <c r="H95" s="124"/>
-      <c r="I95" s="178"/>
-      <c r="J95" s="178"/>
-      <c r="K95" s="125"/>
-      <c r="L95" s="116"/>
-      <c r="M95" s="116"/>
+      <c r="H95" s="119"/>
+      <c r="I95" s="173"/>
+      <c r="J95" s="173"/>
+      <c r="K95" s="120"/>
+      <c r="L95" s="111"/>
+      <c r="M95" s="111"/>
       <c r="N95" s="47"/>
       <c r="O95" s="47"/>
       <c r="P95" s="47"/>
@@ -23314,20 +23310,20 @@
       <c r="X95" s="47"/>
       <c r="Y95" s="47"/>
       <c r="Z95" s="47"/>
-      <c r="AA95" s="127"/>
+      <c r="AA95" s="122"/>
       <c r="AB95" s="47"/>
       <c r="AC95" s="47"/>
-      <c r="AD95" s="128"/>
+      <c r="AD95" s="123"/>
       <c r="AE95" s="47"/>
       <c r="AF95" s="47"/>
       <c r="AG95" s="47"/>
-      <c r="AH95" s="156"/>
-      <c r="AI95" s="155"/>
-      <c r="AJ95" s="155"/>
-      <c r="AK95" s="155"/>
-      <c r="AL95" s="155"/>
-      <c r="AM95" s="155"/>
-      <c r="AN95" s="155"/>
+      <c r="AH95" s="151"/>
+      <c r="AI95" s="150"/>
+      <c r="AJ95" s="150"/>
+      <c r="AK95" s="150"/>
+      <c r="AL95" s="150"/>
+      <c r="AM95" s="150"/>
+      <c r="AN95" s="150"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t>Activity</t>
   </si>
@@ -121,9 +121,6 @@
     <t>5.b</t>
   </si>
   <si>
-    <t>Run the specified tests</t>
-  </si>
-  <si>
     <t>5.c</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
   </si>
   <si>
     <t>7.a</t>
-  </si>
-  <si>
-    <t>7.b</t>
   </si>
   <si>
     <t>7.c</t>
@@ -327,6 +321,30 @@
   <si>
     <t>3.g</t>
   </si>
+  <si>
+    <t>Identify targets for Sprint 5</t>
+  </si>
+  <si>
+    <t>7.g (added)</t>
+  </si>
+  <si>
+    <t>7.f (added)</t>
+  </si>
+  <si>
+    <t>Perform Sprint 5</t>
+  </si>
+  <si>
+    <t>7.h (added)</t>
+  </si>
+  <si>
+    <t>Review Sprint 5 objectives and deliverables</t>
+  </si>
+  <si>
+    <t>7.b (modified)</t>
+  </si>
+  <si>
+    <t>Perform authentication session collections</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,15 +1012,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,12 +1776,29 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1806,15 +1838,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1833,14 +1865,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1852,26 +1884,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1884,7 +1913,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,7 +1938,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,34 +1956,31 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,23 +1989,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,21 +2015,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2024,54 +2050,54 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,32 +2106,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2114,13 +2140,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2129,16 +2154,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2148,8 +2174,10 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2162,28 +2190,34 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,31 +2226,37 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,33 +2265,53 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,11 +2321,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF99FF99"/>
       <color rgb="FF333399"/>
       <color rgb="FF008000"/>
       <color rgb="FF003300"/>
       <color rgb="FF800080"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -2564,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD119"/>
+  <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB68" activeCellId="1" sqref="AB67 AB68:AF69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2582,41 +2643,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="224" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
+      <c r="A1" s="226" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2625,52 +2686,52 @@
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>2</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>3</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>4</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>5</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>6</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>7</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="52">
         <v>8</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="52">
         <v>9</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="52">
         <v>10</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="52">
         <v>11</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="52">
         <v>12</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="52">
         <v>13</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="52">
         <v>14</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="52">
         <v>15</v>
       </c>
-      <c r="R2" s="53">
+      <c r="R2" s="52">
         <v>16</v>
       </c>
       <c r="S2" s="15">
@@ -2712,16 +2773,16 @@
       <c r="AE2" s="35">
         <v>29</v>
       </c>
-      <c r="AF2" s="95">
+      <c r="AF2" s="93">
         <v>30</v>
       </c>
       <c r="AG2" s="47"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="131" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="47"/>
@@ -2753,14 +2814,14 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="36"/>
-      <c r="AF3" s="113"/>
+      <c r="AF3" s="111"/>
       <c r="AG3" s="47"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="132" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="47"/>
@@ -2786,20 +2847,20 @@
       <c r="W4" s="47"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="47"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="187"/>
-      <c r="AB4" s="187"/>
-      <c r="AC4" s="187"/>
-      <c r="AD4" s="187"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
       <c r="AE4" s="37"/>
-      <c r="AF4" s="113"/>
+      <c r="AF4" s="111"/>
       <c r="AG4" s="47"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="132" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="47"/>
@@ -2825,20 +2886,20 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="187"/>
-      <c r="AB5" s="187"/>
-      <c r="AC5" s="187"/>
-      <c r="AD5" s="187"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
       <c r="AE5" s="37"/>
-      <c r="AF5" s="113"/>
+      <c r="AF5" s="111"/>
       <c r="AG5" s="47"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="132" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="47"/>
@@ -2870,14 +2931,14 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="36"/>
-      <c r="AF6" s="113"/>
+      <c r="AF6" s="111"/>
       <c r="AG6" s="47"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="47"/>
@@ -2909,14 +2970,14 @@
       <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="36"/>
-      <c r="AF7" s="113"/>
+      <c r="AF7" s="111"/>
       <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="133" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="47"/>
@@ -2942,13 +3003,13 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="47"/>
-      <c r="Z8" s="186"/>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187"/>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187"/>
+      <c r="Z8" s="183"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
       <c r="AE8" s="38"/>
-      <c r="AF8" s="131"/>
+      <c r="AF8" s="129"/>
       <c r="AG8" s="47"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2956,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -2987,15 +3048,15 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="43"/>
       <c r="AE9" s="49"/>
-      <c r="AF9" s="132"/>
+      <c r="AF9" s="130"/>
       <c r="AG9" s="47"/>
     </row>
     <row r="10" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="134" t="s">
-        <v>74</v>
+      <c r="B10" s="132" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -3020,21 +3081,21 @@
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="47"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="188"/>
+      <c r="Z10" s="183"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="185"/>
       <c r="AE10" s="49"/>
-      <c r="AF10" s="132"/>
+      <c r="AF10" s="130"/>
       <c r="AG10" s="47"/>
     </row>
     <row r="11" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="134" t="s">
-        <v>86</v>
+      <c r="B11" s="132" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -3059,21 +3120,21 @@
       <c r="W11" s="47"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="47"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="188"/>
+      <c r="Z11" s="183"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="185"/>
       <c r="AE11" s="49"/>
-      <c r="AF11" s="132"/>
+      <c r="AF11" s="130"/>
       <c r="AG11" s="47"/>
     </row>
     <row r="12" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="134" t="s">
-        <v>87</v>
+      <c r="B12" s="132" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -3098,21 +3159,21 @@
       <c r="W12" s="47"/>
       <c r="X12" s="47"/>
       <c r="Y12" s="47"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="188"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="185"/>
       <c r="AE12" s="49"/>
-      <c r="AF12" s="132"/>
+      <c r="AF12" s="130"/>
       <c r="AG12" s="47"/>
     </row>
     <row r="13" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="134" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -3137,21 +3198,21 @@
       <c r="W13" s="47"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="188"/>
+      <c r="Z13" s="183"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="185"/>
       <c r="AE13" s="49"/>
-      <c r="AF13" s="132"/>
+      <c r="AF13" s="130"/>
       <c r="AG13" s="47"/>
     </row>
     <row r="14" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="134" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -3176,21 +3237,21 @@
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="188"/>
+      <c r="Z14" s="183"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="185"/>
       <c r="AE14" s="49"/>
-      <c r="AF14" s="132"/>
+      <c r="AF14" s="130"/>
       <c r="AG14" s="47"/>
     </row>
     <row r="15" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="134" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>89</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -3215,21 +3276,21 @@
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="47"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="188"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="184"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="185"/>
       <c r="AE15" s="49"/>
-      <c r="AF15" s="132"/>
+      <c r="AF15" s="130"/>
       <c r="AG15" s="47"/>
     </row>
     <row r="16" spans="1:33" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="134" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -3260,15 +3321,15 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="49"/>
-      <c r="AF16" s="132"/>
+      <c r="AF16" s="130"/>
       <c r="AG16" s="47"/>
     </row>
     <row r="17" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="134" t="s">
         <v>93</v>
+      </c>
+      <c r="B17" s="132" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -3299,14 +3360,14 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="49"/>
-      <c r="AF17" s="132"/>
+      <c r="AF17" s="130"/>
       <c r="AG17" s="47"/>
     </row>
     <row r="18" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="132" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="47"/>
@@ -3332,51 +3393,51 @@
       <c r="W18" s="47"/>
       <c r="X18" s="47"/>
       <c r="Y18" s="47"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="188"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="185"/>
       <c r="AE18" s="49"/>
-      <c r="AF18" s="132"/>
+      <c r="AF18" s="130"/>
       <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:16384" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="224" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="225"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="225"/>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="225"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="225"/>
-      <c r="R19" s="225"/>
-      <c r="S19" s="225"/>
-      <c r="T19" s="225"/>
-      <c r="U19" s="225"/>
-      <c r="V19" s="225"/>
-      <c r="W19" s="225"/>
-      <c r="X19" s="225"/>
-      <c r="Y19" s="225"/>
-      <c r="Z19" s="225"/>
-      <c r="AA19" s="225"/>
-      <c r="AB19" s="225"/>
-      <c r="AC19" s="225"/>
-      <c r="AD19" s="225"/>
-      <c r="AE19" s="225"/>
-      <c r="AF19" s="225"/>
-      <c r="AG19" s="225"/>
+      <c r="A19" s="226" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="227"/>
+      <c r="Q19" s="227"/>
+      <c r="R19" s="227"/>
+      <c r="S19" s="227"/>
+      <c r="T19" s="227"/>
+      <c r="U19" s="227"/>
+      <c r="V19" s="227"/>
+      <c r="W19" s="227"/>
+      <c r="X19" s="227"/>
+      <c r="Y19" s="227"/>
+      <c r="Z19" s="227"/>
+      <c r="AA19" s="227"/>
+      <c r="AB19" s="227"/>
+      <c r="AC19" s="227"/>
+      <c r="AD19" s="227"/>
+      <c r="AE19" s="227"/>
+      <c r="AF19" s="227"/>
+      <c r="AG19" s="227"/>
     </row>
     <row r="20" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -3397,7 +3458,7 @@
       <c r="F20" s="48">
         <v>4</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <v>5</v>
       </c>
       <c r="H20" s="48">
@@ -3418,64 +3479,64 @@
       <c r="M20" s="15">
         <v>11</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="52">
         <v>12</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="55">
         <v>13</v>
       </c>
-      <c r="P20" s="56">
+      <c r="P20" s="55">
         <v>14</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="52">
         <v>15</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="52">
         <v>16</v>
       </c>
-      <c r="S20" s="53">
+      <c r="S20" s="52">
         <v>17</v>
       </c>
-      <c r="T20" s="53">
+      <c r="T20" s="52">
         <v>18</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="52">
         <v>19</v>
       </c>
-      <c r="V20" s="56">
+      <c r="V20" s="55">
         <v>20</v>
       </c>
-      <c r="W20" s="56">
+      <c r="W20" s="55">
         <v>21</v>
       </c>
-      <c r="X20" s="53">
+      <c r="X20" s="52">
         <v>22</v>
       </c>
-      <c r="Y20" s="53">
+      <c r="Y20" s="52">
         <v>23</v>
       </c>
-      <c r="Z20" s="53">
+      <c r="Z20" s="52">
         <v>24</v>
       </c>
-      <c r="AA20" s="53">
+      <c r="AA20" s="52">
         <v>25</v>
       </c>
-      <c r="AB20" s="53">
+      <c r="AB20" s="52">
         <v>26</v>
       </c>
-      <c r="AC20" s="56">
+      <c r="AC20" s="55">
         <v>27</v>
       </c>
-      <c r="AD20" s="56">
+      <c r="AD20" s="55">
         <v>28</v>
       </c>
-      <c r="AE20" s="53">
+      <c r="AE20" s="52">
         <v>29</v>
       </c>
-      <c r="AF20" s="54">
+      <c r="AF20" s="53">
         <v>30</v>
       </c>
-      <c r="AG20" s="55">
+      <c r="AG20" s="54">
         <v>31</v>
       </c>
       <c r="AH20" s="40"/>
@@ -19832,7 +19893,7 @@
     </row>
     <row r="21" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>2</v>
@@ -19848,18 +19909,18 @@
       <c r="K21" s="16"/>
       <c r="L21" s="41"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="51"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="205"/>
+      <c r="T21" s="202"/>
       <c r="U21" s="31"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="65"/>
+      <c r="X21" s="206"/>
+      <c r="Y21" s="64"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="31"/>
       <c r="AB21" s="31"/>
@@ -19867,14 +19928,14 @@
       <c r="AD21" s="49"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="150"/>
-      <c r="AJ21" s="150"/>
-      <c r="AK21" s="150"/>
-      <c r="AL21" s="150"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="150"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="148"/>
+      <c r="AL21" s="148"/>
+      <c r="AM21" s="148"/>
+      <c r="AN21" s="148"/>
     </row>
     <row r="22" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -19883,21 +19944,21 @@
       <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
       <c r="F22" s="49"/>
-      <c r="G22" s="187"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="193"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="190"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
-      <c r="Q22" s="186"/>
+      <c r="Q22" s="183"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="43"/>
@@ -19905,7 +19966,7 @@
       <c r="V22" s="49"/>
       <c r="W22" s="49"/>
       <c r="X22" s="31"/>
-      <c r="Y22" s="65"/>
+      <c r="Y22" s="64"/>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="31"/>
@@ -19913,14 +19974,14 @@
       <c r="AD22" s="49"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="150"/>
-      <c r="AJ22" s="150"/>
-      <c r="AK22" s="150"/>
-      <c r="AL22" s="150"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="150"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="148"/>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="148"/>
+      <c r="AN22" s="148"/>
     </row>
     <row r="23" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -19929,21 +19990,21 @@
       <c r="B23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
       <c r="F23" s="49"/>
-      <c r="G23" s="187"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="193"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="190"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
-      <c r="Q23" s="186"/>
+      <c r="Q23" s="183"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="43"/>
@@ -19951,7 +20012,7 @@
       <c r="V23" s="49"/>
       <c r="W23" s="49"/>
       <c r="X23" s="31"/>
-      <c r="Y23" s="65"/>
+      <c r="Y23" s="64"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="31"/>
       <c r="AB23" s="31"/>
@@ -19959,14 +20020,14 @@
       <c r="AD23" s="49"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="150"/>
-      <c r="AJ23" s="150"/>
-      <c r="AK23" s="150"/>
-      <c r="AL23" s="150"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="150"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="148"/>
+      <c r="AL23" s="148"/>
+      <c r="AM23" s="148"/>
+      <c r="AN23" s="148"/>
     </row>
     <row r="24" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -19986,18 +20047,18 @@
       <c r="K24" s="16"/>
       <c r="L24" s="43"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="193"/>
+      <c r="N24" s="190"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="202"/>
-      <c r="S24" s="202"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="206"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="203"/>
       <c r="V24" s="49"/>
       <c r="W24" s="49"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="65"/>
+      <c r="X24" s="203"/>
+      <c r="Y24" s="64"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
       <c r="AB24" s="31"/>
@@ -20005,14 +20066,14 @@
       <c r="AD24" s="49"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="150"/>
-      <c r="AJ24" s="150"/>
-      <c r="AK24" s="150"/>
-      <c r="AL24" s="150"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="150"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="148"/>
+      <c r="AL24" s="148"/>
+      <c r="AM24" s="148"/>
+      <c r="AN24" s="148"/>
     </row>
     <row r="25" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -20032,18 +20093,18 @@
       <c r="K25" s="16"/>
       <c r="L25" s="43"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="51"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="202"/>
-      <c r="T25" s="203"/>
-      <c r="U25" s="206"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="203"/>
       <c r="V25" s="49"/>
       <c r="W25" s="49"/>
-      <c r="X25" s="206"/>
-      <c r="Y25" s="65"/>
+      <c r="X25" s="203"/>
+      <c r="Y25" s="64"/>
       <c r="Z25" s="31"/>
       <c r="AA25" s="31"/>
       <c r="AB25" s="31"/>
@@ -20051,14 +20112,14 @@
       <c r="AD25" s="49"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="150"/>
-      <c r="AJ25" s="150"/>
-      <c r="AK25" s="150"/>
-      <c r="AL25" s="150"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="150"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="148"/>
+      <c r="AJ25" s="148"/>
+      <c r="AK25" s="148"/>
+      <c r="AL25" s="148"/>
+      <c r="AM25" s="148"/>
+      <c r="AN25" s="148"/>
     </row>
     <row r="26" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -20067,55 +20128,55 @@
       <c r="B26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="191"/>
+      <c r="G26" s="188"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="194"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="195"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="192"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="207"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="207"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="139"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="150"/>
-      <c r="AJ26" s="150"/>
-      <c r="AK26" s="150"/>
-      <c r="AL26" s="150"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="150"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="201"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="148"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="148"/>
+      <c r="AN26" s="148"/>
     </row>
     <row r="27" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="180" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
+      <c r="B27" s="177" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="178"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
       <c r="F27" s="49"/>
       <c r="G27" s="43"/>
       <c r="H27" s="49"/>
@@ -20124,9 +20185,9 @@
       <c r="K27" s="16"/>
       <c r="L27" s="43"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -20143,41 +20204,41 @@
       <c r="AD27" s="49"/>
       <c r="AE27" s="31"/>
       <c r="AF27" s="31"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="150"/>
-      <c r="AJ27" s="150"/>
-      <c r="AK27" s="150"/>
-      <c r="AL27" s="150"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="150"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
+      <c r="AK27" s="148"/>
+      <c r="AL27" s="148"/>
+      <c r="AM27" s="148"/>
+      <c r="AN27" s="148"/>
     </row>
     <row r="28" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
+      <c r="B28" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
       <c r="F28" s="49"/>
-      <c r="G28" s="188"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="58"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="57"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-      <c r="U28" s="68"/>
+      <c r="U28" s="67"/>
       <c r="V28" s="49"/>
       <c r="W28" s="49"/>
       <c r="X28" s="31"/>
@@ -20189,41 +20250,41 @@
       <c r="AD28" s="49"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="150"/>
-      <c r="AJ28" s="150"/>
-      <c r="AK28" s="150"/>
-      <c r="AL28" s="150"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="150"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="148"/>
+      <c r="AL28" s="148"/>
+      <c r="AM28" s="148"/>
+      <c r="AN28" s="148"/>
     </row>
     <row r="29" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
+      <c r="B29" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
       <c r="F29" s="49"/>
-      <c r="G29" s="188"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="58"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
-      <c r="U29" s="68"/>
+      <c r="U29" s="67"/>
       <c r="V29" s="49"/>
       <c r="W29" s="49"/>
       <c r="X29" s="31"/>
@@ -20235,41 +20296,41 @@
       <c r="AD29" s="49"/>
       <c r="AE29" s="31"/>
       <c r="AF29" s="31"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="150"/>
-      <c r="AJ29" s="150"/>
-      <c r="AK29" s="150"/>
-      <c r="AL29" s="150"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="150"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="148"/>
+      <c r="AL29" s="148"/>
+      <c r="AM29" s="148"/>
+      <c r="AN29" s="148"/>
     </row>
     <row r="30" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
+      <c r="B30" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="49"/>
-      <c r="G30" s="188"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="58"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="57"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
-      <c r="U30" s="68"/>
+      <c r="U30" s="67"/>
       <c r="V30" s="49"/>
       <c r="W30" s="49"/>
       <c r="X30" s="31"/>
@@ -20281,36 +20342,36 @@
       <c r="AD30" s="49"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="150"/>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="150"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="148"/>
+      <c r="AL30" s="148"/>
+      <c r="AM30" s="148"/>
+      <c r="AN30" s="148"/>
     </row>
     <row r="31" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
+        <v>86</v>
+      </c>
+      <c r="B31" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
       <c r="F31" s="49"/>
-      <c r="G31" s="188"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="196"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
       <c r="Q31" s="45"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
@@ -20327,36 +20388,36 @@
       <c r="AD31" s="49"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="150"/>
-      <c r="AJ31" s="150"/>
-      <c r="AK31" s="150"/>
-      <c r="AL31" s="150"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="150"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
+      <c r="AK31" s="148"/>
+      <c r="AL31" s="148"/>
+      <c r="AM31" s="148"/>
+      <c r="AN31" s="148"/>
     </row>
     <row r="32" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
+        <v>87</v>
+      </c>
+      <c r="B32" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
       <c r="F32" s="49"/>
-      <c r="G32" s="188"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
@@ -20373,36 +20434,36 @@
       <c r="AD32" s="49"/>
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="150"/>
-      <c r="AJ32" s="150"/>
-      <c r="AK32" s="150"/>
-      <c r="AL32" s="150"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="150"/>
+      <c r="AG32" s="70"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
     </row>
     <row r="33" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
+        <v>88</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
       <c r="F33" s="49"/>
-      <c r="G33" s="188"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="193"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
@@ -20419,36 +20480,36 @@
       <c r="AD33" s="49"/>
       <c r="AE33" s="31"/>
       <c r="AF33" s="31"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="150"/>
-      <c r="AJ33" s="150"/>
-      <c r="AK33" s="150"/>
-      <c r="AL33" s="150"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="150"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="148"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="148"/>
+      <c r="AN33" s="148"/>
     </row>
     <row r="34" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="130"/>
+        <v>92</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="128"/>
       <c r="F34" s="49"/>
       <c r="G34" s="43"/>
       <c r="H34" s="49"/>
       <c r="I34" s="49"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="193"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="45"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
@@ -20465,36 +20526,36 @@
       <c r="AD34" s="49"/>
       <c r="AE34" s="31"/>
       <c r="AF34" s="31"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="150"/>
-      <c r="AJ34" s="150"/>
-      <c r="AK34" s="150"/>
-      <c r="AL34" s="150"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="150"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="148"/>
+      <c r="AL34" s="148"/>
+      <c r="AM34" s="148"/>
+      <c r="AN34" s="148"/>
     </row>
     <row r="35" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="49"/>
       <c r="G35" s="43"/>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="190"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
       <c r="Q35" s="45"/>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
@@ -20511,41 +20572,41 @@
       <c r="AD35" s="49"/>
       <c r="AE35" s="31"/>
       <c r="AF35" s="31"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="151"/>
-      <c r="AI35" s="150"/>
-      <c r="AJ35" s="150"/>
-      <c r="AK35" s="150"/>
-      <c r="AL35" s="150"/>
-      <c r="AM35" s="150"/>
-      <c r="AN35" s="150"/>
+      <c r="AG35" s="70"/>
+      <c r="AH35" s="149"/>
+      <c r="AI35" s="148"/>
+      <c r="AJ35" s="148"/>
+      <c r="AK35" s="148"/>
+      <c r="AL35" s="148"/>
+      <c r="AM35" s="148"/>
+      <c r="AN35" s="148"/>
     </row>
     <row r="36" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
       <c r="F36" s="49"/>
-      <c r="G36" s="188"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="49"/>
       <c r="I36" s="49"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="58"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="57"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
-      <c r="U36" s="68"/>
+      <c r="U36" s="67"/>
       <c r="V36" s="49"/>
       <c r="W36" s="49"/>
       <c r="X36" s="31"/>
@@ -20557,309 +20618,309 @@
       <c r="AD36" s="49"/>
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="151"/>
-      <c r="AI36" s="150"/>
-      <c r="AJ36" s="150"/>
-      <c r="AK36" s="150"/>
-      <c r="AL36" s="150"/>
-      <c r="AM36" s="150"/>
-      <c r="AN36" s="150"/>
+      <c r="AG36" s="70"/>
+      <c r="AH36" s="149"/>
+      <c r="AI36" s="148"/>
+      <c r="AJ36" s="148"/>
+      <c r="AK36" s="148"/>
+      <c r="AL36" s="148"/>
+      <c r="AM36" s="148"/>
+      <c r="AN36" s="148"/>
     </row>
     <row r="37" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="182" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="75"/>
+      <c r="B37" s="179" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
-      <c r="M37" s="61"/>
+      <c r="M37" s="60"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
       <c r="Q37" s="28"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="210"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="74"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="207"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="73"/>
       <c r="AF37" s="31"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="151"/>
-      <c r="AI37" s="150"/>
-      <c r="AJ37" s="150"/>
-      <c r="AK37" s="150"/>
-      <c r="AL37" s="150"/>
-      <c r="AM37" s="150"/>
-      <c r="AN37" s="150"/>
+      <c r="AG37" s="70"/>
+      <c r="AH37" s="149"/>
+      <c r="AI37" s="148"/>
+      <c r="AJ37" s="148"/>
+      <c r="AK37" s="148"/>
+      <c r="AL37" s="148"/>
+      <c r="AM37" s="148"/>
+      <c r="AN37" s="148"/>
     </row>
     <row r="38" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
-      <c r="F38" s="76"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="45"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="62"/>
+      <c r="M38" s="61"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="197"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="194"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="70"/>
+      <c r="U38" s="69"/>
       <c r="V38" s="49"/>
       <c r="W38" s="49"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
       <c r="AC38" s="49"/>
       <c r="AD38" s="49"/>
-      <c r="AE38" s="65"/>
+      <c r="AE38" s="64"/>
       <c r="AF38" s="31"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="151"/>
-      <c r="AI38" s="150"/>
-      <c r="AJ38" s="150"/>
-      <c r="AK38" s="150"/>
-      <c r="AL38" s="150"/>
-      <c r="AM38" s="150"/>
-      <c r="AN38" s="150"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="149"/>
+      <c r="AI38" s="148"/>
+      <c r="AJ38" s="148"/>
+      <c r="AK38" s="148"/>
+      <c r="AL38" s="148"/>
+      <c r="AM38" s="148"/>
+      <c r="AN38" s="148"/>
     </row>
     <row r="39" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
-      <c r="F39" s="76"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="45"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="62"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="197"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="194"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="70"/>
+      <c r="U39" s="69"/>
       <c r="V39" s="49"/>
       <c r="W39" s="49"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="65"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
       <c r="AC39" s="49"/>
       <c r="AD39" s="49"/>
-      <c r="AE39" s="65"/>
+      <c r="AE39" s="64"/>
       <c r="AF39" s="31"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="151"/>
-      <c r="AI39" s="150"/>
-      <c r="AJ39" s="150"/>
-      <c r="AK39" s="150"/>
-      <c r="AL39" s="150"/>
-      <c r="AM39" s="150"/>
-      <c r="AN39" s="150"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="149"/>
+      <c r="AI39" s="148"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="148"/>
+      <c r="AL39" s="148"/>
+      <c r="AM39" s="148"/>
+      <c r="AN39" s="148"/>
     </row>
     <row r="40" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
+        <v>76</v>
+      </c>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="63"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="198"/>
-      <c r="T40" s="198"/>
-      <c r="U40" s="199"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="195"/>
+      <c r="R40" s="195"/>
+      <c r="S40" s="195"/>
+      <c r="T40" s="195"/>
+      <c r="U40" s="196"/>
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
-      <c r="X40" s="208"/>
-      <c r="Y40" s="208"/>
-      <c r="Z40" s="208"/>
-      <c r="AA40" s="208"/>
-      <c r="AB40" s="208"/>
+      <c r="X40" s="205"/>
+      <c r="Y40" s="205"/>
+      <c r="Z40" s="205"/>
+      <c r="AA40" s="205"/>
+      <c r="AB40" s="205"/>
       <c r="AC40" s="49"/>
       <c r="AD40" s="49"/>
-      <c r="AE40" s="65"/>
+      <c r="AE40" s="64"/>
       <c r="AF40" s="31"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="151"/>
-      <c r="AI40" s="150"/>
-      <c r="AJ40" s="150"/>
-      <c r="AK40" s="150"/>
-      <c r="AL40" s="150"/>
-      <c r="AM40" s="150"/>
-      <c r="AN40" s="150"/>
+      <c r="AG40" s="70"/>
+      <c r="AH40" s="149"/>
+      <c r="AI40" s="148"/>
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="148"/>
+      <c r="AL40" s="148"/>
+      <c r="AM40" s="148"/>
+      <c r="AN40" s="148"/>
     </row>
     <row r="41" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+        <v>94</v>
+      </c>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="63"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="198"/>
-      <c r="R41" s="198"/>
-      <c r="S41" s="198"/>
-      <c r="T41" s="198"/>
-      <c r="U41" s="199"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="195"/>
+      <c r="R41" s="195"/>
+      <c r="S41" s="195"/>
+      <c r="T41" s="195"/>
+      <c r="U41" s="196"/>
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
-      <c r="X41" s="208"/>
-      <c r="Y41" s="208"/>
-      <c r="Z41" s="208"/>
-      <c r="AA41" s="208"/>
-      <c r="AB41" s="208"/>
+      <c r="X41" s="205"/>
+      <c r="Y41" s="205"/>
+      <c r="Z41" s="205"/>
+      <c r="AA41" s="205"/>
+      <c r="AB41" s="205"/>
       <c r="AC41" s="49"/>
       <c r="AD41" s="49"/>
-      <c r="AE41" s="65"/>
+      <c r="AE41" s="64"/>
       <c r="AF41" s="31"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="151"/>
-      <c r="AI41" s="150"/>
-      <c r="AJ41" s="150"/>
-      <c r="AK41" s="150"/>
-      <c r="AL41" s="150"/>
-      <c r="AM41" s="150"/>
-      <c r="AN41" s="150"/>
+      <c r="AG41" s="70"/>
+      <c r="AH41" s="149"/>
+      <c r="AI41" s="148"/>
+      <c r="AJ41" s="148"/>
+      <c r="AK41" s="148"/>
+      <c r="AL41" s="148"/>
+      <c r="AM41" s="148"/>
+      <c r="AN41" s="148"/>
     </row>
     <row r="42" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="63"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="198"/>
-      <c r="R42" s="198"/>
-      <c r="S42" s="198"/>
-      <c r="T42" s="198"/>
-      <c r="U42" s="199"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="195"/>
+      <c r="R42" s="195"/>
+      <c r="S42" s="195"/>
+      <c r="T42" s="195"/>
+      <c r="U42" s="196"/>
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
-      <c r="X42" s="208"/>
-      <c r="Y42" s="208"/>
-      <c r="Z42" s="208"/>
-      <c r="AA42" s="208"/>
-      <c r="AB42" s="208"/>
+      <c r="X42" s="205"/>
+      <c r="Y42" s="205"/>
+      <c r="Z42" s="205"/>
+      <c r="AA42" s="205"/>
+      <c r="AB42" s="205"/>
       <c r="AC42" s="49"/>
       <c r="AD42" s="49"/>
-      <c r="AE42" s="65"/>
+      <c r="AE42" s="64"/>
       <c r="AF42" s="31"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="151"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="150"/>
-      <c r="AM42" s="150"/>
-      <c r="AN42" s="150"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="149"/>
+      <c r="AI42" s="148"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="148"/>
+      <c r="AL42" s="148"/>
+      <c r="AM42" s="148"/>
+      <c r="AN42" s="148"/>
     </row>
     <row r="43" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="78"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="31"/>
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="64"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="9"/>
       <c r="O43" s="49"/>
       <c r="P43" s="49"/>
@@ -20867,45 +20928,45 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="71"/>
+      <c r="U43" s="70"/>
       <c r="V43" s="49"/>
       <c r="W43" s="49"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="208"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="205"/>
       <c r="AC43" s="49"/>
       <c r="AD43" s="49"/>
-      <c r="AE43" s="65"/>
+      <c r="AE43" s="64"/>
       <c r="AF43" s="31"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="151"/>
-      <c r="AI43" s="150"/>
-      <c r="AJ43" s="150"/>
-      <c r="AK43" s="150"/>
-      <c r="AL43" s="150"/>
-      <c r="AM43" s="150"/>
-      <c r="AN43" s="150"/>
+      <c r="AG43" s="70"/>
+      <c r="AH43" s="149"/>
+      <c r="AI43" s="148"/>
+      <c r="AJ43" s="148"/>
+      <c r="AK43" s="148"/>
+      <c r="AL43" s="148"/>
+      <c r="AM43" s="148"/>
+      <c r="AN43" s="148"/>
     </row>
     <row r="44" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="78"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="31"/>
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="64"/>
+      <c r="M44" s="63"/>
       <c r="N44" s="9"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
@@ -20913,26 +20974,26 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="71"/>
+      <c r="U44" s="70"/>
       <c r="V44" s="49"/>
       <c r="W44" s="49"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="208"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="205"/>
       <c r="AC44" s="49"/>
       <c r="AD44" s="49"/>
-      <c r="AE44" s="65"/>
+      <c r="AE44" s="64"/>
       <c r="AF44" s="31"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="151"/>
-      <c r="AI44" s="150"/>
-      <c r="AJ44" s="150"/>
-      <c r="AK44" s="150"/>
-      <c r="AL44" s="150"/>
-      <c r="AM44" s="150"/>
-      <c r="AN44" s="150"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="149"/>
+      <c r="AI44" s="148"/>
+      <c r="AJ44" s="148"/>
+      <c r="AK44" s="148"/>
+      <c r="AL44" s="148"/>
+      <c r="AM44" s="148"/>
+      <c r="AN44" s="148"/>
     </row>
     <row r="45" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -20941,274 +21002,274 @@
       <c r="B45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="66"/>
+      <c r="M45" s="65"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="200"/>
-      <c r="R45" s="200"/>
-      <c r="S45" s="200"/>
-      <c r="T45" s="200"/>
-      <c r="U45" s="201"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="197"/>
+      <c r="R45" s="197"/>
+      <c r="S45" s="197"/>
+      <c r="T45" s="197"/>
+      <c r="U45" s="198"/>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
-      <c r="X45" s="208"/>
-      <c r="Y45" s="208"/>
-      <c r="Z45" s="208"/>
-      <c r="AA45" s="208"/>
-      <c r="AB45" s="208"/>
+      <c r="X45" s="205"/>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="205"/>
+      <c r="AA45" s="205"/>
+      <c r="AB45" s="205"/>
       <c r="AC45" s="49"/>
       <c r="AD45" s="49"/>
-      <c r="AE45" s="65"/>
+      <c r="AE45" s="64"/>
       <c r="AF45" s="31"/>
-      <c r="AG45" s="71"/>
-      <c r="AH45" s="151"/>
-      <c r="AI45" s="150"/>
-      <c r="AJ45" s="150"/>
-      <c r="AK45" s="150"/>
-      <c r="AL45" s="150"/>
-      <c r="AM45" s="150"/>
-      <c r="AN45" s="150"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="149"/>
+      <c r="AI45" s="148"/>
+      <c r="AJ45" s="148"/>
+      <c r="AK45" s="148"/>
+      <c r="AL45" s="148"/>
+      <c r="AM45" s="148"/>
+      <c r="AN45" s="148"/>
     </row>
     <row r="46" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
-      <c r="F46" s="75"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
-      <c r="M46" s="61"/>
+      <c r="M46" s="60"/>
       <c r="N46" s="28"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="84"/>
-      <c r="AD46" s="84"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="83"/>
+      <c r="W46" s="83"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="83"/>
+      <c r="AD46" s="83"/>
       <c r="AE46" s="28"/>
       <c r="AF46" s="28"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="152"/>
-      <c r="AI46" s="149"/>
-      <c r="AJ46" s="150"/>
-      <c r="AK46" s="150"/>
-      <c r="AL46" s="149"/>
-      <c r="AM46" s="149"/>
-      <c r="AN46" s="149"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="150"/>
+      <c r="AI46" s="147"/>
+      <c r="AJ46" s="148"/>
+      <c r="AK46" s="148"/>
+      <c r="AL46" s="147"/>
+      <c r="AM46" s="147"/>
+      <c r="AN46" s="147"/>
     </row>
     <row r="47" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
-      <c r="F47" s="76"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="45"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="62"/>
+      <c r="M47" s="61"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="91"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="89"/>
       <c r="V47" s="49"/>
       <c r="W47" s="49"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
       <c r="AC47" s="49"/>
       <c r="AD47" s="49"/>
-      <c r="AE47" s="215"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="151"/>
-      <c r="AI47" s="150"/>
-      <c r="AJ47" s="150"/>
-      <c r="AK47" s="150"/>
-      <c r="AL47" s="150"/>
-      <c r="AM47" s="150"/>
-      <c r="AN47" s="150"/>
+      <c r="AE47" s="212"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="89"/>
+      <c r="AH47" s="149"/>
+      <c r="AI47" s="148"/>
+      <c r="AJ47" s="148"/>
+      <c r="AK47" s="148"/>
+      <c r="AL47" s="148"/>
+      <c r="AM47" s="148"/>
+      <c r="AN47" s="148"/>
     </row>
     <row r="48" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
+        <v>81</v>
+      </c>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="63"/>
+      <c r="M48" s="62"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="63"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="92"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="90"/>
       <c r="V48" s="49"/>
       <c r="W48" s="49"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="64"/>
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
-      <c r="AE48" s="213"/>
-      <c r="AF48" s="213"/>
-      <c r="AG48" s="214"/>
-      <c r="AH48" s="151"/>
-      <c r="AI48" s="150"/>
-      <c r="AJ48" s="150"/>
-      <c r="AK48" s="150"/>
-      <c r="AL48" s="150"/>
-      <c r="AM48" s="150"/>
-      <c r="AN48" s="150"/>
+      <c r="AE48" s="210"/>
+      <c r="AF48" s="210"/>
+      <c r="AG48" s="211"/>
+      <c r="AH48" s="149"/>
+      <c r="AI48" s="148"/>
+      <c r="AJ48" s="148"/>
+      <c r="AK48" s="148"/>
+      <c r="AL48" s="148"/>
+      <c r="AM48" s="148"/>
+      <c r="AN48" s="148"/>
     </row>
     <row r="49" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
+        <v>82</v>
+      </c>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="63"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="92"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="90"/>
       <c r="V49" s="49"/>
       <c r="W49" s="49"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="65"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="64"/>
       <c r="AC49" s="49"/>
       <c r="AD49" s="49"/>
-      <c r="AE49" s="213"/>
-      <c r="AF49" s="213"/>
-      <c r="AG49" s="214"/>
-      <c r="AH49" s="151"/>
-      <c r="AI49" s="150"/>
-      <c r="AJ49" s="150"/>
-      <c r="AK49" s="150"/>
-      <c r="AL49" s="150"/>
-      <c r="AM49" s="150"/>
-      <c r="AN49" s="150"/>
+      <c r="AE49" s="210"/>
+      <c r="AF49" s="210"/>
+      <c r="AG49" s="211"/>
+      <c r="AH49" s="149"/>
+      <c r="AI49" s="148"/>
+      <c r="AJ49" s="148"/>
+      <c r="AK49" s="148"/>
+      <c r="AL49" s="148"/>
+      <c r="AM49" s="148"/>
+      <c r="AN49" s="148"/>
     </row>
     <row r="50" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="78"/>
+      <c r="F50" s="77"/>
       <c r="G50" s="31"/>
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="64"/>
+      <c r="M50" s="63"/>
       <c r="N50" s="9"/>
       <c r="O50" s="49"/>
       <c r="P50" s="49"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="93"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="91"/>
       <c r="V50" s="49"/>
       <c r="W50" s="49"/>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64"/>
+      <c r="AB50" s="64"/>
       <c r="AC50" s="49"/>
       <c r="AD50" s="49"/>
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="151"/>
-      <c r="AI50" s="150"/>
-      <c r="AJ50" s="150"/>
-      <c r="AK50" s="150"/>
-      <c r="AL50" s="150"/>
-      <c r="AM50" s="150"/>
-      <c r="AN50" s="150"/>
+      <c r="AG50" s="70"/>
+      <c r="AH50" s="149"/>
+      <c r="AI50" s="148"/>
+      <c r="AJ50" s="148"/>
+      <c r="AK50" s="148"/>
+      <c r="AL50" s="148"/>
+      <c r="AM50" s="148"/>
+      <c r="AN50" s="148"/>
     </row>
     <row r="51" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -21217,81 +21278,81 @@
       <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="66"/>
+      <c r="M51" s="65"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
-      <c r="U51" s="94"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="92"/>
       <c r="V51" s="49"/>
       <c r="W51" s="49"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
       <c r="AC51" s="49"/>
       <c r="AD51" s="49"/>
-      <c r="AE51" s="216"/>
-      <c r="AF51" s="216"/>
-      <c r="AG51" s="217"/>
-      <c r="AH51" s="151"/>
-      <c r="AI51" s="150"/>
-      <c r="AJ51" s="150"/>
-      <c r="AK51" s="150"/>
-      <c r="AL51" s="150"/>
-      <c r="AM51" s="150"/>
-      <c r="AN51" s="150"/>
+      <c r="AE51" s="213"/>
+      <c r="AF51" s="213"/>
+      <c r="AG51" s="214"/>
+      <c r="AH51" s="149"/>
+      <c r="AI51" s="148"/>
+      <c r="AJ51" s="148"/>
+      <c r="AK51" s="148"/>
+      <c r="AL51" s="148"/>
+      <c r="AM51" s="148"/>
+      <c r="AN51" s="148"/>
     </row>
     <row r="52" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="227"/>
-      <c r="M52" s="227"/>
-      <c r="N52" s="227"/>
-      <c r="O52" s="227"/>
-      <c r="P52" s="227"/>
-      <c r="Q52" s="227"/>
-      <c r="R52" s="227"/>
-      <c r="S52" s="227"/>
-      <c r="T52" s="227"/>
-      <c r="U52" s="227"/>
-      <c r="V52" s="227"/>
-      <c r="W52" s="227"/>
-      <c r="X52" s="227"/>
-      <c r="Y52" s="227"/>
-      <c r="Z52" s="227"/>
-      <c r="AA52" s="227"/>
-      <c r="AB52" s="227"/>
-      <c r="AC52" s="227"/>
-      <c r="AD52" s="227"/>
-      <c r="AE52" s="227"/>
-      <c r="AF52" s="227"/>
-      <c r="AG52" s="227"/>
+      <c r="A52" s="228" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="229"/>
+      <c r="K52" s="229"/>
+      <c r="L52" s="229"/>
+      <c r="M52" s="229"/>
+      <c r="N52" s="229"/>
+      <c r="O52" s="229"/>
+      <c r="P52" s="229"/>
+      <c r="Q52" s="229"/>
+      <c r="R52" s="229"/>
+      <c r="S52" s="229"/>
+      <c r="T52" s="229"/>
+      <c r="U52" s="229"/>
+      <c r="V52" s="229"/>
+      <c r="W52" s="229"/>
+      <c r="X52" s="229"/>
+      <c r="Y52" s="229"/>
+      <c r="Z52" s="229"/>
+      <c r="AA52" s="229"/>
+      <c r="AB52" s="229"/>
+      <c r="AC52" s="229"/>
+      <c r="AD52" s="229"/>
+      <c r="AE52" s="229"/>
+      <c r="AF52" s="229"/>
+      <c r="AG52" s="229"/>
     </row>
     <row r="53" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21306,25 +21367,25 @@
       <c r="D53" s="15">
         <v>2</v>
       </c>
-      <c r="E53" s="95">
+      <c r="E53" s="93">
         <v>3</v>
       </c>
       <c r="F53" s="48">
         <v>4</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G53" s="50">
         <v>5</v>
       </c>
-      <c r="H53" s="96">
+      <c r="H53" s="94">
         <v>6</v>
       </c>
-      <c r="I53" s="96">
+      <c r="I53" s="94">
         <v>7</v>
       </c>
-      <c r="J53" s="97">
+      <c r="J53" s="95">
         <v>8</v>
       </c>
-      <c r="K53" s="98">
+      <c r="K53" s="96">
         <v>9</v>
       </c>
       <c r="L53" s="35">
@@ -21333,296 +21394,296 @@
       <c r="M53" s="35">
         <v>11</v>
       </c>
-      <c r="N53" s="99">
+      <c r="N53" s="97">
         <v>12</v>
       </c>
-      <c r="O53" s="99">
+      <c r="O53" s="97">
         <v>13</v>
       </c>
-      <c r="P53" s="99">
+      <c r="P53" s="97">
         <v>14</v>
       </c>
-      <c r="Q53" s="99">
+      <c r="Q53" s="97">
         <v>15</v>
       </c>
-      <c r="R53" s="99">
+      <c r="R53" s="97">
         <v>16</v>
       </c>
-      <c r="S53" s="56">
+      <c r="S53" s="55">
         <v>17</v>
       </c>
-      <c r="T53" s="56">
+      <c r="T53" s="55">
         <v>18</v>
       </c>
-      <c r="U53" s="99">
+      <c r="U53" s="97">
         <v>19</v>
       </c>
-      <c r="V53" s="99">
+      <c r="V53" s="97">
         <v>20</v>
       </c>
-      <c r="W53" s="99">
+      <c r="W53" s="97">
         <v>21</v>
       </c>
-      <c r="X53" s="99">
+      <c r="X53" s="97">
         <v>22</v>
       </c>
-      <c r="Y53" s="99">
+      <c r="Y53" s="97">
         <v>23</v>
       </c>
-      <c r="Z53" s="56">
+      <c r="Z53" s="55">
         <v>24</v>
       </c>
-      <c r="AA53" s="56">
+      <c r="AA53" s="55">
         <v>25</v>
       </c>
-      <c r="AB53" s="99">
+      <c r="AB53" s="97">
         <v>26</v>
       </c>
-      <c r="AC53" s="99">
+      <c r="AC53" s="97">
         <v>27</v>
       </c>
-      <c r="AD53" s="99">
+      <c r="AD53" s="97">
         <v>28</v>
       </c>
-      <c r="AE53" s="99">
+      <c r="AE53" s="97">
         <v>29</v>
       </c>
-      <c r="AF53" s="100">
+      <c r="AF53" s="98">
         <v>30</v>
       </c>
-      <c r="AG53" s="145">
+      <c r="AG53" s="143">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="C54" s="28"/>
-      <c r="D54" s="69"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="223"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="74"/>
-      <c r="Y54" s="74"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="74"/>
-      <c r="AC54" s="74"/>
-      <c r="AD54" s="74"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="160"/>
-      <c r="AH54" s="152"/>
-      <c r="AI54" s="149"/>
-      <c r="AJ54" s="150"/>
-      <c r="AK54" s="150"/>
-      <c r="AL54" s="149"/>
-      <c r="AM54" s="149"/>
-      <c r="AN54" s="149"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="138"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="220"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="83"/>
+      <c r="AA54" s="83"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="60"/>
+      <c r="AF54" s="60"/>
+      <c r="AG54" s="158"/>
+      <c r="AH54" s="150"/>
+      <c r="AI54" s="147"/>
+      <c r="AJ54" s="148"/>
+      <c r="AK54" s="148"/>
+      <c r="AL54" s="147"/>
+      <c r="AM54" s="147"/>
+      <c r="AN54" s="147"/>
     </row>
     <row r="55" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="70"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
-      <c r="AD55" s="65"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="114"/>
-      <c r="AH55" s="151"/>
-      <c r="AI55" s="150"/>
-      <c r="AJ55" s="150"/>
-      <c r="AK55" s="150"/>
-      <c r="AL55" s="150"/>
-      <c r="AM55" s="150"/>
-      <c r="AN55" s="150"/>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="64"/>
+      <c r="AD55" s="64"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="112"/>
+      <c r="AH55" s="149"/>
+      <c r="AI55" s="148"/>
+      <c r="AJ55" s="148"/>
+      <c r="AK55" s="148"/>
+      <c r="AL55" s="148"/>
+      <c r="AM55" s="148"/>
+      <c r="AN55" s="148"/>
     </row>
     <row r="56" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="213"/>
-      <c r="D56" s="214"/>
+        <v>81</v>
+      </c>
+      <c r="C56" s="210"/>
+      <c r="D56" s="211"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="222"/>
-      <c r="J56" s="221"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="92"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
+      <c r="G56" s="218"/>
+      <c r="H56" s="218"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="218"/>
+      <c r="K56" s="218"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="65"/>
-      <c r="AE56" s="63"/>
-      <c r="AF56" s="63"/>
-      <c r="AG56" s="161"/>
-      <c r="AH56" s="151"/>
-      <c r="AI56" s="150"/>
-      <c r="AJ56" s="150"/>
-      <c r="AK56" s="150"/>
-      <c r="AL56" s="150"/>
-      <c r="AM56" s="150"/>
-      <c r="AN56" s="150"/>
+      <c r="AB56" s="64"/>
+      <c r="AC56" s="64"/>
+      <c r="AD56" s="64"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="159"/>
+      <c r="AH56" s="149"/>
+      <c r="AI56" s="148"/>
+      <c r="AJ56" s="148"/>
+      <c r="AK56" s="148"/>
+      <c r="AL56" s="148"/>
+      <c r="AM56" s="148"/>
+      <c r="AN56" s="148"/>
     </row>
     <row r="57" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="213"/>
-      <c r="D57" s="214"/>
+        <v>82</v>
+      </c>
+      <c r="C57" s="210"/>
+      <c r="D57" s="211"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="221"/>
-      <c r="H57" s="221"/>
-      <c r="I57" s="222"/>
-      <c r="J57" s="221"/>
-      <c r="K57" s="221"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="89"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="92"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="218"/>
+      <c r="I57" s="219"/>
+      <c r="J57" s="218"/>
+      <c r="K57" s="218"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
       <c r="Z57" s="49"/>
       <c r="AA57" s="49"/>
-      <c r="AB57" s="65"/>
-      <c r="AC57" s="65"/>
-      <c r="AD57" s="65"/>
-      <c r="AE57" s="63"/>
-      <c r="AF57" s="63"/>
-      <c r="AG57" s="161"/>
-      <c r="AH57" s="151"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="150"/>
-      <c r="AL57" s="150"/>
-      <c r="AM57" s="150"/>
-      <c r="AN57" s="150"/>
+      <c r="AB57" s="64"/>
+      <c r="AC57" s="64"/>
+      <c r="AD57" s="64"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="159"/>
+      <c r="AH57" s="149"/>
+      <c r="AI57" s="148"/>
+      <c r="AJ57" s="148"/>
+      <c r="AK57" s="148"/>
+      <c r="AL57" s="148"/>
+      <c r="AM57" s="148"/>
+      <c r="AN57" s="148"/>
     </row>
     <row r="58" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="71"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="221"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="93"/>
-      <c r="V58" s="65"/>
-      <c r="W58" s="65"/>
-      <c r="X58" s="65"/>
-      <c r="Y58" s="65"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="218"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
       <c r="Z58" s="49"/>
       <c r="AA58" s="49"/>
-      <c r="AB58" s="65"/>
-      <c r="AC58" s="65"/>
-      <c r="AD58" s="65"/>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="64"/>
-      <c r="AG58" s="132"/>
-      <c r="AH58" s="151"/>
-      <c r="AI58" s="150"/>
-      <c r="AJ58" s="150"/>
-      <c r="AK58" s="150"/>
-      <c r="AL58" s="150"/>
-      <c r="AM58" s="150"/>
-      <c r="AN58" s="150"/>
+      <c r="AB58" s="64"/>
+      <c r="AC58" s="64"/>
+      <c r="AD58" s="64"/>
+      <c r="AE58" s="63"/>
+      <c r="AF58" s="63"/>
+      <c r="AG58" s="130"/>
+      <c r="AH58" s="149"/>
+      <c r="AI58" s="148"/>
+      <c r="AJ58" s="148"/>
+      <c r="AK58" s="148"/>
+      <c r="AL58" s="148"/>
+      <c r="AM58" s="148"/>
+      <c r="AN58" s="148"/>
     </row>
     <row r="59" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -21631,235 +21692,235 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="211"/>
-      <c r="D59" s="212"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="218"/>
-      <c r="H59" s="218"/>
-      <c r="I59" s="219"/>
-      <c r="J59" s="218"/>
-      <c r="K59" s="220"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="216"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="217"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="92"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
       <c r="Z59" s="49"/>
       <c r="AA59" s="49"/>
-      <c r="AB59" s="65"/>
-      <c r="AC59" s="65"/>
-      <c r="AD59" s="65"/>
-      <c r="AE59" s="66"/>
-      <c r="AF59" s="66"/>
-      <c r="AG59" s="162"/>
-      <c r="AH59" s="151"/>
-      <c r="AI59" s="150"/>
-      <c r="AJ59" s="150"/>
-      <c r="AK59" s="150"/>
-      <c r="AL59" s="150"/>
-      <c r="AM59" s="150"/>
-      <c r="AN59" s="150"/>
+      <c r="AB59" s="64"/>
+      <c r="AC59" s="64"/>
+      <c r="AD59" s="64"/>
+      <c r="AE59" s="65"/>
+      <c r="AF59" s="65"/>
+      <c r="AG59" s="160"/>
+      <c r="AH59" s="149"/>
+      <c r="AI59" s="148"/>
+      <c r="AJ59" s="148"/>
+      <c r="AK59" s="148"/>
+      <c r="AL59" s="148"/>
+      <c r="AM59" s="148"/>
+      <c r="AN59" s="148"/>
     </row>
     <row r="60" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
       <c r="Q60" s="28"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="210"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="84"/>
-      <c r="AB60" s="74"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="207"/>
+      <c r="Z60" s="83"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="73"/>
       <c r="AC60" s="31"/>
       <c r="AD60" s="31"/>
       <c r="AE60" s="31"/>
       <c r="AF60" s="31"/>
-      <c r="AG60" s="132"/>
-      <c r="AH60" s="151"/>
-      <c r="AI60" s="150"/>
-      <c r="AJ60" s="150"/>
-      <c r="AK60" s="150"/>
-      <c r="AL60" s="150"/>
-      <c r="AM60" s="150"/>
-      <c r="AN60" s="150"/>
+      <c r="AG60" s="130"/>
+      <c r="AH60" s="149"/>
+      <c r="AI60" s="148"/>
+      <c r="AJ60" s="148"/>
+      <c r="AK60" s="148"/>
+      <c r="AL60" s="148"/>
+      <c r="AM60" s="148"/>
+      <c r="AN60" s="148"/>
     </row>
     <row r="61" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="215"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="212"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="70"/>
+      <c r="R61" s="69"/>
       <c r="S61" s="49"/>
       <c r="T61" s="49"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
       <c r="Z61" s="49"/>
       <c r="AA61" s="49"/>
-      <c r="AB61" s="65"/>
+      <c r="AB61" s="64"/>
       <c r="AC61" s="31"/>
       <c r="AD61" s="31"/>
       <c r="AE61" s="31"/>
       <c r="AF61" s="31"/>
-      <c r="AG61" s="132"/>
-      <c r="AH61" s="151"/>
-      <c r="AI61" s="150"/>
-      <c r="AJ61" s="150"/>
-      <c r="AK61" s="150"/>
-      <c r="AL61" s="150"/>
-      <c r="AM61" s="150"/>
-      <c r="AN61" s="150"/>
+      <c r="AG61" s="130"/>
+      <c r="AH61" s="149"/>
+      <c r="AI61" s="148"/>
+      <c r="AJ61" s="148"/>
+      <c r="AK61" s="148"/>
+      <c r="AL61" s="148"/>
+      <c r="AM61" s="148"/>
+      <c r="AN61" s="148"/>
     </row>
     <row r="62" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="141"/>
+        <v>79</v>
+      </c>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="213"/>
-      <c r="O62" s="213"/>
-      <c r="P62" s="213"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="214"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="210"/>
+      <c r="O62" s="210"/>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="210"/>
+      <c r="R62" s="211"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
-      <c r="U62" s="221"/>
-      <c r="V62" s="221"/>
-      <c r="W62" s="221"/>
-      <c r="X62" s="221"/>
-      <c r="Y62" s="221"/>
+      <c r="U62" s="218"/>
+      <c r="V62" s="218"/>
+      <c r="W62" s="218"/>
+      <c r="X62" s="218"/>
+      <c r="Y62" s="218"/>
       <c r="Z62" s="49"/>
       <c r="AA62" s="49"/>
-      <c r="AB62" s="65"/>
+      <c r="AB62" s="64"/>
       <c r="AC62" s="31"/>
       <c r="AD62" s="31"/>
       <c r="AE62" s="31"/>
       <c r="AF62" s="31"/>
-      <c r="AG62" s="132"/>
-      <c r="AH62" s="151"/>
-      <c r="AI62" s="150"/>
-      <c r="AJ62" s="150"/>
-      <c r="AK62" s="150"/>
-      <c r="AL62" s="150"/>
-      <c r="AM62" s="150"/>
-      <c r="AN62" s="150"/>
+      <c r="AG62" s="130"/>
+      <c r="AH62" s="149"/>
+      <c r="AI62" s="148"/>
+      <c r="AJ62" s="148"/>
+      <c r="AK62" s="148"/>
+      <c r="AL62" s="148"/>
+      <c r="AM62" s="148"/>
+      <c r="AN62" s="148"/>
     </row>
     <row r="63" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
+        <v>80</v>
+      </c>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="139"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="214"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="210"/>
+      <c r="O63" s="210"/>
+      <c r="P63" s="210"/>
+      <c r="Q63" s="210"/>
+      <c r="R63" s="211"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
-      <c r="U63" s="221"/>
-      <c r="V63" s="221"/>
-      <c r="W63" s="221"/>
-      <c r="X63" s="221"/>
-      <c r="Y63" s="221"/>
+      <c r="U63" s="218"/>
+      <c r="V63" s="218"/>
+      <c r="W63" s="218"/>
+      <c r="X63" s="218"/>
+      <c r="Y63" s="218"/>
       <c r="Z63" s="49"/>
       <c r="AA63" s="49"/>
-      <c r="AB63" s="65"/>
+      <c r="AB63" s="64"/>
       <c r="AC63" s="31"/>
       <c r="AD63" s="31"/>
       <c r="AE63" s="31"/>
       <c r="AF63" s="31"/>
-      <c r="AG63" s="132"/>
-      <c r="AH63" s="151"/>
-      <c r="AI63" s="150"/>
-      <c r="AJ63" s="150"/>
-      <c r="AK63" s="150"/>
-      <c r="AL63" s="150"/>
-      <c r="AM63" s="150"/>
-      <c r="AN63" s="150"/>
+      <c r="AG63" s="130"/>
+      <c r="AH63" s="149"/>
+      <c r="AI63" s="148"/>
+      <c r="AJ63" s="148"/>
+      <c r="AK63" s="148"/>
+      <c r="AL63" s="148"/>
+      <c r="AM63" s="148"/>
+      <c r="AN63" s="148"/>
     </row>
     <row r="64" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
@@ -21870,146 +21931,146 @@
       <c r="I64" s="31"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="71"/>
+      <c r="R64" s="70"/>
       <c r="S64" s="49"/>
       <c r="T64" s="49"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="221"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="218"/>
       <c r="Z64" s="49"/>
       <c r="AA64" s="49"/>
-      <c r="AB64" s="65"/>
+      <c r="AB64" s="64"/>
       <c r="AC64" s="31"/>
       <c r="AD64" s="31"/>
       <c r="AE64" s="31"/>
       <c r="AF64" s="31"/>
-      <c r="AG64" s="132"/>
-      <c r="AH64" s="151"/>
-      <c r="AI64" s="150"/>
-      <c r="AJ64" s="150"/>
-      <c r="AK64" s="150"/>
-      <c r="AL64" s="150"/>
-      <c r="AM64" s="150"/>
-      <c r="AN64" s="150"/>
+      <c r="AG64" s="130"/>
+      <c r="AH64" s="149"/>
+      <c r="AI64" s="148"/>
+      <c r="AJ64" s="148"/>
+      <c r="AK64" s="148"/>
+      <c r="AL64" s="148"/>
+      <c r="AM64" s="148"/>
+      <c r="AN64" s="148"/>
     </row>
     <row r="65" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="216"/>
-      <c r="O65" s="216"/>
-      <c r="P65" s="216"/>
-      <c r="Q65" s="216"/>
-      <c r="R65" s="217"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="213"/>
+      <c r="O65" s="213"/>
+      <c r="P65" s="213"/>
+      <c r="Q65" s="213"/>
+      <c r="R65" s="214"/>
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
-      <c r="U65" s="221"/>
-      <c r="V65" s="221"/>
-      <c r="W65" s="221"/>
-      <c r="X65" s="221"/>
-      <c r="Y65" s="221"/>
+      <c r="U65" s="218"/>
+      <c r="V65" s="218"/>
+      <c r="W65" s="218"/>
+      <c r="X65" s="218"/>
+      <c r="Y65" s="218"/>
       <c r="Z65" s="49"/>
       <c r="AA65" s="49"/>
-      <c r="AB65" s="65"/>
+      <c r="AB65" s="64"/>
       <c r="AC65" s="31"/>
       <c r="AD65" s="31"/>
       <c r="AE65" s="31"/>
       <c r="AF65" s="31"/>
-      <c r="AG65" s="132"/>
-      <c r="AH65" s="151"/>
-      <c r="AI65" s="150"/>
-      <c r="AJ65" s="150"/>
-      <c r="AK65" s="150"/>
-      <c r="AL65" s="150"/>
-      <c r="AM65" s="150"/>
-      <c r="AN65" s="150"/>
+      <c r="AG65" s="130"/>
+      <c r="AH65" s="149"/>
+      <c r="AI65" s="148"/>
+      <c r="AJ65" s="148"/>
+      <c r="AK65" s="148"/>
+      <c r="AL65" s="148"/>
+      <c r="AM65" s="148"/>
+      <c r="AN65" s="148"/>
     </row>
     <row r="66" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="31"/>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
-      <c r="Z66" s="84"/>
-      <c r="AA66" s="84"/>
+      <c r="Z66" s="83"/>
+      <c r="AA66" s="83"/>
       <c r="AB66" s="28"/>
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
       <c r="AE66" s="28"/>
-      <c r="AF66" s="69"/>
-      <c r="AG66" s="132"/>
-      <c r="AH66" s="151"/>
-      <c r="AI66" s="149"/>
-      <c r="AJ66" s="149"/>
-      <c r="AK66" s="149"/>
-      <c r="AL66" s="149"/>
-      <c r="AM66" s="149"/>
-      <c r="AN66" s="150"/>
+      <c r="AF66" s="68"/>
+      <c r="AG66" s="130"/>
+      <c r="AH66" s="149"/>
+      <c r="AI66" s="147"/>
+      <c r="AJ66" s="147"/>
+      <c r="AK66" s="147"/>
+      <c r="AL66" s="147"/>
+      <c r="AM66" s="147"/>
+      <c r="AN66" s="148"/>
     </row>
     <row r="67" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
@@ -22024,38 +22085,38 @@
       <c r="Y67" s="31"/>
       <c r="Z67" s="49"/>
       <c r="AA67" s="49"/>
-      <c r="AB67" s="232"/>
+      <c r="AB67" s="223"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="70"/>
-      <c r="AG67" s="132"/>
-      <c r="AH67" s="151"/>
-      <c r="AI67" s="150"/>
-      <c r="AJ67" s="150"/>
-      <c r="AK67" s="150"/>
-      <c r="AL67" s="150"/>
-      <c r="AM67" s="150"/>
-      <c r="AN67" s="150"/>
+      <c r="AF67" s="69"/>
+      <c r="AG67" s="130"/>
+      <c r="AH67" s="149"/>
+      <c r="AI67" s="148"/>
+      <c r="AJ67" s="148"/>
+      <c r="AK67" s="148"/>
+      <c r="AL67" s="148"/>
+      <c r="AM67" s="148"/>
+      <c r="AN67" s="148"/>
     </row>
     <row r="68" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
+        <v>77</v>
+      </c>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="76"/>
       <c r="N68" s="31"/>
       <c r="O68" s="31"/>
       <c r="P68" s="31"/>
@@ -22070,38 +22131,38 @@
       <c r="Y68" s="31"/>
       <c r="Z68" s="49"/>
       <c r="AA68" s="49"/>
-      <c r="AB68" s="213"/>
-      <c r="AC68" s="233"/>
-      <c r="AD68" s="233"/>
-      <c r="AE68" s="233"/>
-      <c r="AF68" s="234"/>
-      <c r="AG68" s="132"/>
-      <c r="AH68" s="151"/>
-      <c r="AI68" s="150"/>
-      <c r="AJ68" s="150"/>
-      <c r="AK68" s="150"/>
-      <c r="AL68" s="150"/>
-      <c r="AM68" s="150"/>
-      <c r="AN68" s="150"/>
+      <c r="AB68" s="210"/>
+      <c r="AC68" s="224"/>
+      <c r="AD68" s="224"/>
+      <c r="AE68" s="224"/>
+      <c r="AF68" s="225"/>
+      <c r="AG68" s="130"/>
+      <c r="AH68" s="149"/>
+      <c r="AI68" s="148"/>
+      <c r="AJ68" s="148"/>
+      <c r="AK68" s="148"/>
+      <c r="AL68" s="148"/>
+      <c r="AM68" s="148"/>
+      <c r="AN68" s="148"/>
     </row>
     <row r="69" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="147"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
+        <v>78</v>
+      </c>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="145"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
       <c r="P69" s="31"/>
@@ -22116,26 +22177,26 @@
       <c r="Y69" s="31"/>
       <c r="Z69" s="49"/>
       <c r="AA69" s="49"/>
-      <c r="AB69" s="213"/>
-      <c r="AC69" s="233"/>
-      <c r="AD69" s="233"/>
-      <c r="AE69" s="233"/>
-      <c r="AF69" s="234"/>
-      <c r="AG69" s="132"/>
-      <c r="AH69" s="151"/>
-      <c r="AI69" s="150"/>
-      <c r="AJ69" s="150"/>
-      <c r="AK69" s="150"/>
-      <c r="AL69" s="150"/>
-      <c r="AM69" s="150"/>
-      <c r="AN69" s="150"/>
+      <c r="AB69" s="210"/>
+      <c r="AC69" s="224"/>
+      <c r="AD69" s="224"/>
+      <c r="AE69" s="224"/>
+      <c r="AF69" s="225"/>
+      <c r="AG69" s="130"/>
+      <c r="AH69" s="149"/>
+      <c r="AI69" s="148"/>
+      <c r="AJ69" s="148"/>
+      <c r="AK69" s="148"/>
+      <c r="AL69" s="148"/>
+      <c r="AM69" s="148"/>
+      <c r="AN69" s="148"/>
     </row>
     <row r="70" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
@@ -22146,8 +22207,8 @@
       <c r="I70" s="31"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
@@ -22166,34 +22227,34 @@
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
-      <c r="AF70" s="71"/>
-      <c r="AG70" s="132"/>
-      <c r="AH70" s="151"/>
-      <c r="AI70" s="150"/>
-      <c r="AJ70" s="150"/>
-      <c r="AK70" s="150"/>
-      <c r="AL70" s="150"/>
-      <c r="AM70" s="150"/>
-      <c r="AN70" s="150"/>
+      <c r="AF70" s="70"/>
+      <c r="AG70" s="130"/>
+      <c r="AH70" s="149"/>
+      <c r="AI70" s="148"/>
+      <c r="AJ70" s="148"/>
+      <c r="AK70" s="148"/>
+      <c r="AL70" s="148"/>
+      <c r="AM70" s="148"/>
+      <c r="AN70" s="148"/>
     </row>
     <row r="71" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="142"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
@@ -22208,56 +22269,56 @@
       <c r="Y71" s="31"/>
       <c r="Z71" s="49"/>
       <c r="AA71" s="49"/>
-      <c r="AB71" s="230"/>
-      <c r="AC71" s="216"/>
-      <c r="AD71" s="216"/>
-      <c r="AE71" s="216"/>
-      <c r="AF71" s="231"/>
-      <c r="AG71" s="132"/>
-      <c r="AH71" s="151"/>
-      <c r="AI71" s="150"/>
-      <c r="AJ71" s="150"/>
-      <c r="AK71" s="150"/>
-      <c r="AL71" s="150"/>
-      <c r="AM71" s="150"/>
-      <c r="AN71" s="150"/>
+      <c r="AB71" s="221"/>
+      <c r="AC71" s="213"/>
+      <c r="AD71" s="213"/>
+      <c r="AE71" s="213"/>
+      <c r="AF71" s="222"/>
+      <c r="AG71" s="130"/>
+      <c r="AH71" s="149"/>
+      <c r="AI71" s="148"/>
+      <c r="AJ71" s="148"/>
+      <c r="AK71" s="148"/>
+      <c r="AL71" s="148"/>
+      <c r="AM71" s="148"/>
+      <c r="AN71" s="148"/>
     </row>
     <row r="72" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="226" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="227"/>
-      <c r="E72" s="227"/>
-      <c r="F72" s="227"/>
-      <c r="G72" s="227"/>
-      <c r="H72" s="227"/>
-      <c r="I72" s="227"/>
-      <c r="J72" s="227"/>
-      <c r="K72" s="227"/>
-      <c r="L72" s="227"/>
-      <c r="M72" s="227"/>
-      <c r="N72" s="227"/>
-      <c r="O72" s="227"/>
-      <c r="P72" s="227"/>
-      <c r="Q72" s="227"/>
-      <c r="R72" s="227"/>
-      <c r="S72" s="227"/>
-      <c r="T72" s="227"/>
-      <c r="U72" s="227"/>
-      <c r="V72" s="227"/>
-      <c r="W72" s="227"/>
-      <c r="X72" s="227"/>
-      <c r="Y72" s="227"/>
-      <c r="Z72" s="227"/>
-      <c r="AA72" s="227"/>
-      <c r="AB72" s="227"/>
-      <c r="AC72" s="227"/>
-      <c r="AD72" s="227"/>
-      <c r="AE72" s="227"/>
-      <c r="AF72" s="227"/>
-      <c r="AG72" s="227"/>
+      <c r="A72" s="228" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="229"/>
+      <c r="C72" s="229"/>
+      <c r="D72" s="229"/>
+      <c r="E72" s="229"/>
+      <c r="F72" s="229"/>
+      <c r="G72" s="229"/>
+      <c r="H72" s="229"/>
+      <c r="I72" s="229"/>
+      <c r="J72" s="229"/>
+      <c r="K72" s="229"/>
+      <c r="L72" s="229"/>
+      <c r="M72" s="229"/>
+      <c r="N72" s="229"/>
+      <c r="O72" s="229"/>
+      <c r="P72" s="229"/>
+      <c r="Q72" s="229"/>
+      <c r="R72" s="229"/>
+      <c r="S72" s="229"/>
+      <c r="T72" s="229"/>
+      <c r="U72" s="229"/>
+      <c r="V72" s="229"/>
+      <c r="W72" s="229"/>
+      <c r="X72" s="229"/>
+      <c r="Y72" s="229"/>
+      <c r="Z72" s="229"/>
+      <c r="AA72" s="229"/>
+      <c r="AB72" s="229"/>
+      <c r="AC72" s="229"/>
+      <c r="AD72" s="229"/>
+      <c r="AE72" s="229"/>
+      <c r="AF72" s="229"/>
+      <c r="AG72" s="229"/>
     </row>
     <row r="73" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22272,58 +22333,58 @@
       <c r="D73" s="35">
         <v>2</v>
       </c>
-      <c r="E73" s="105">
+      <c r="E73" s="103">
         <v>3</v>
       </c>
-      <c r="F73" s="96">
+      <c r="F73" s="94">
         <v>4</v>
       </c>
-      <c r="G73" s="106">
+      <c r="G73" s="104">
         <v>5</v>
       </c>
-      <c r="H73" s="96">
+      <c r="H73" s="94">
         <v>6</v>
       </c>
-      <c r="I73" s="101">
+      <c r="I73" s="99">
         <v>7</v>
       </c>
-      <c r="J73" s="112">
+      <c r="J73" s="110">
         <v>8</v>
       </c>
-      <c r="K73" s="99">
+      <c r="K73" s="97">
         <v>9</v>
       </c>
-      <c r="L73" s="98">
+      <c r="L73" s="96">
         <v>10</v>
       </c>
-      <c r="M73" s="98">
+      <c r="M73" s="96">
         <v>11</v>
       </c>
-      <c r="N73" s="99">
+      <c r="N73" s="97">
         <v>12</v>
       </c>
-      <c r="O73" s="100">
+      <c r="O73" s="98">
         <v>13</v>
       </c>
-      <c r="P73" s="101">
+      <c r="P73" s="99">
         <v>14</v>
       </c>
-      <c r="Q73" s="112">
+      <c r="Q73" s="110">
         <v>15</v>
       </c>
-      <c r="R73" s="99">
+      <c r="R73" s="97">
         <v>16</v>
       </c>
-      <c r="S73" s="99">
+      <c r="S73" s="97">
         <v>17</v>
       </c>
-      <c r="T73" s="99">
+      <c r="T73" s="97">
         <v>18</v>
       </c>
-      <c r="U73" s="99">
+      <c r="U73" s="97">
         <v>19</v>
       </c>
-      <c r="V73" s="100">
+      <c r="V73" s="98">
         <v>20</v>
       </c>
       <c r="W73" s="48">
@@ -22332,296 +22393,296 @@
       <c r="X73" s="48">
         <v>22</v>
       </c>
-      <c r="Y73" s="96">
+      <c r="Y73" s="94">
         <v>23</v>
       </c>
-      <c r="Z73" s="109">
+      <c r="Z73" s="107">
         <v>24</v>
       </c>
-      <c r="AA73" s="99">
+      <c r="AA73" s="97">
         <v>25</v>
       </c>
-      <c r="AB73" s="99">
+      <c r="AB73" s="97">
         <v>26</v>
       </c>
-      <c r="AC73" s="100">
+      <c r="AC73" s="98">
         <v>27</v>
       </c>
       <c r="AD73" s="48">
         <v>28</v>
       </c>
-      <c r="AE73" s="109">
+      <c r="AE73" s="107">
         <v>29</v>
       </c>
-      <c r="AF73" s="100">
+      <c r="AF73" s="98">
         <v>30</v>
       </c>
-      <c r="AG73" s="122"/>
+      <c r="AG73" s="120"/>
     </row>
     <row r="74" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="49"/>
       <c r="D74" s="49"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
       <c r="I74" s="49"/>
       <c r="J74" s="48"/>
-      <c r="K74" s="86"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="154"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="100"/>
+      <c r="K74" s="235"/>
+      <c r="L74" s="152"/>
+      <c r="M74" s="236"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="98"/>
       <c r="P74" s="48"/>
       <c r="Q74" s="48"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="109"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="100"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="107"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="97"/>
+      <c r="V74" s="98"/>
       <c r="W74" s="48"/>
       <c r="X74" s="48"/>
-      <c r="Y74" s="96"/>
-      <c r="Z74" s="109"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="100"/>
+      <c r="Y74" s="94"/>
+      <c r="Z74" s="107"/>
+      <c r="AA74" s="97"/>
+      <c r="AB74" s="97"/>
+      <c r="AC74" s="98"/>
       <c r="AD74" s="48"/>
       <c r="AE74" s="48"/>
-      <c r="AF74" s="159"/>
-      <c r="AG74" s="155"/>
+      <c r="AF74" s="157"/>
+      <c r="AG74" s="153"/>
     </row>
     <row r="75" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="49"/>
       <c r="D75" s="49"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
       <c r="I75" s="49"/>
       <c r="J75" s="48"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="100"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="97"/>
+      <c r="O75" s="98"/>
       <c r="P75" s="48"/>
       <c r="Q75" s="48"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="109"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
-      <c r="V75" s="100"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="97"/>
+      <c r="U75" s="97"/>
+      <c r="V75" s="98"/>
       <c r="W75" s="48"/>
       <c r="X75" s="48"/>
-      <c r="Y75" s="96"/>
-      <c r="Z75" s="109"/>
-      <c r="AA75" s="99"/>
-      <c r="AB75" s="99"/>
-      <c r="AC75" s="100"/>
+      <c r="Y75" s="94"/>
+      <c r="Z75" s="107"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="98"/>
       <c r="AD75" s="48"/>
       <c r="AE75" s="48"/>
-      <c r="AF75" s="159"/>
-      <c r="AG75" s="155"/>
+      <c r="AF75" s="157"/>
+      <c r="AG75" s="153"/>
     </row>
     <row r="76" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
+      <c r="E76" s="232"/>
+      <c r="F76" s="232"/>
+      <c r="G76" s="232"/>
+      <c r="H76" s="232"/>
       <c r="I76" s="49"/>
       <c r="J76" s="48"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="100"/>
+      <c r="K76" s="232"/>
+      <c r="L76" s="233"/>
+      <c r="M76" s="233"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="98"/>
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
-      <c r="R76" s="96"/>
-      <c r="S76" s="109"/>
-      <c r="T76" s="99"/>
-      <c r="U76" s="99"/>
-      <c r="V76" s="100"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="97"/>
+      <c r="V76" s="98"/>
       <c r="W76" s="48"/>
       <c r="X76" s="48"/>
-      <c r="Y76" s="96"/>
-      <c r="Z76" s="109"/>
-      <c r="AA76" s="99"/>
-      <c r="AB76" s="99"/>
-      <c r="AC76" s="100"/>
+      <c r="Y76" s="94"/>
+      <c r="Z76" s="107"/>
+      <c r="AA76" s="97"/>
+      <c r="AB76" s="97"/>
+      <c r="AC76" s="98"/>
       <c r="AD76" s="48"/>
       <c r="AE76" s="48"/>
-      <c r="AF76" s="159"/>
-      <c r="AG76" s="155"/>
+      <c r="AF76" s="157"/>
+      <c r="AG76" s="153"/>
     </row>
     <row r="77" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
+      <c r="E77" s="232"/>
+      <c r="F77" s="232"/>
+      <c r="G77" s="232"/>
+      <c r="H77" s="232"/>
       <c r="I77" s="49"/>
       <c r="J77" s="48"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="154"/>
-      <c r="M77" s="154"/>
-      <c r="N77" s="99"/>
-      <c r="O77" s="100"/>
+      <c r="K77" s="232"/>
+      <c r="L77" s="233"/>
+      <c r="M77" s="233"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="98"/>
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="109"/>
-      <c r="T77" s="99"/>
-      <c r="U77" s="99"/>
-      <c r="V77" s="100"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="107"/>
+      <c r="T77" s="97"/>
+      <c r="U77" s="97"/>
+      <c r="V77" s="98"/>
       <c r="W77" s="48"/>
       <c r="X77" s="48"/>
-      <c r="Y77" s="96"/>
-      <c r="Z77" s="109"/>
-      <c r="AA77" s="99"/>
-      <c r="AB77" s="99"/>
-      <c r="AC77" s="100"/>
+      <c r="Y77" s="94"/>
+      <c r="Z77" s="107"/>
+      <c r="AA77" s="97"/>
+      <c r="AB77" s="97"/>
+      <c r="AC77" s="98"/>
       <c r="AD77" s="48"/>
       <c r="AE77" s="48"/>
-      <c r="AF77" s="159"/>
-      <c r="AG77" s="155"/>
+      <c r="AF77" s="157"/>
+      <c r="AG77" s="153"/>
     </row>
     <row r="78" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
       <c r="I78" s="49"/>
       <c r="J78" s="48"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="154"/>
-      <c r="M78" s="154"/>
-      <c r="N78" s="99"/>
-      <c r="O78" s="100"/>
+      <c r="K78" s="234"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="233"/>
+      <c r="N78" s="97"/>
+      <c r="O78" s="98"/>
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="99"/>
-      <c r="U78" s="99"/>
-      <c r="V78" s="100"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="97"/>
+      <c r="U78" s="97"/>
+      <c r="V78" s="98"/>
       <c r="W78" s="48"/>
       <c r="X78" s="48"/>
-      <c r="Y78" s="96"/>
-      <c r="Z78" s="109"/>
-      <c r="AA78" s="99"/>
-      <c r="AB78" s="99"/>
-      <c r="AC78" s="100"/>
+      <c r="Y78" s="94"/>
+      <c r="Z78" s="107"/>
+      <c r="AA78" s="97"/>
+      <c r="AB78" s="97"/>
+      <c r="AC78" s="98"/>
       <c r="AD78" s="48"/>
       <c r="AE78" s="48"/>
-      <c r="AF78" s="159"/>
-      <c r="AG78" s="155"/>
+      <c r="AF78" s="157"/>
+      <c r="AG78" s="153"/>
     </row>
     <row r="79" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
+      <c r="E79" s="232"/>
+      <c r="F79" s="232"/>
+      <c r="G79" s="232"/>
+      <c r="H79" s="232"/>
       <c r="I79" s="49"/>
       <c r="J79" s="48"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="154"/>
-      <c r="M79" s="154"/>
-      <c r="N79" s="100"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="166"/>
+      <c r="K79" s="232"/>
+      <c r="L79" s="233"/>
+      <c r="M79" s="233"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="94"/>
+      <c r="P79" s="164"/>
       <c r="Q79" s="48"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="109"/>
-      <c r="T79" s="99"/>
-      <c r="U79" s="99"/>
-      <c r="V79" s="96"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="107"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="97"/>
+      <c r="V79" s="94"/>
       <c r="W79" s="48"/>
       <c r="X79" s="48"/>
-      <c r="Y79" s="96"/>
-      <c r="Z79" s="109"/>
-      <c r="AA79" s="99"/>
-      <c r="AB79" s="100"/>
-      <c r="AC79" s="100"/>
+      <c r="Y79" s="94"/>
+      <c r="Z79" s="107"/>
+      <c r="AA79" s="97"/>
+      <c r="AB79" s="98"/>
+      <c r="AC79" s="98"/>
       <c r="AD79" s="48"/>
       <c r="AE79" s="48"/>
-      <c r="AF79" s="159"/>
-      <c r="AG79" s="155"/>
+      <c r="AF79" s="157"/>
+      <c r="AG79" s="153"/>
     </row>
     <row r="80" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="163"/>
-      <c r="D80" s="163"/>
+      <c r="C80" s="161"/>
+      <c r="D80" s="161"/>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
-      <c r="I80" s="156"/>
+      <c r="I80" s="154"/>
       <c r="J80" s="36"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="167"/>
-      <c r="Q80" s="157"/>
+      <c r="N80" s="242"/>
+      <c r="O80" s="243"/>
+      <c r="P80" s="240"/>
+      <c r="Q80" s="155"/>
       <c r="R80" s="45"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="43"/>
-      <c r="V80" s="124"/>
+      <c r="V80" s="122"/>
       <c r="W80" s="49"/>
-      <c r="X80" s="158"/>
-      <c r="Y80" s="124"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="122"/>
       <c r="Z80" s="16"/>
       <c r="AA80" s="16"/>
       <c r="AB80" s="43"/>
@@ -22629,628 +22690,607 @@
       <c r="AD80" s="49"/>
       <c r="AE80" s="49"/>
       <c r="AF80" s="43"/>
-      <c r="AG80" s="122"/>
+      <c r="AG80" s="120"/>
     </row>
     <row r="81" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="164"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="143"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="168"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="22"/>
+      <c r="A81" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="252" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="161"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="154"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="245"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="155"/>
+      <c r="R81" s="173"/>
+      <c r="S81" s="250"/>
+      <c r="T81" s="250"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="251"/>
       <c r="W81" s="49"/>
-      <c r="X81" s="116"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="22"/>
-      <c r="AB81" s="68"/>
-      <c r="AC81" s="68"/>
+      <c r="X81" s="156"/>
+      <c r="Y81" s="122"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
       <c r="AD81" s="49"/>
       <c r="AE81" s="49"/>
-      <c r="AF81" s="68"/>
-      <c r="AG81" s="122"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="120"/>
     </row>
     <row r="82" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="164"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="144"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="176"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="136"/>
-      <c r="V82" s="22"/>
+      <c r="A82" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="252" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="154"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="245"/>
+      <c r="O82" s="246"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="155"/>
+      <c r="R82" s="248"/>
+      <c r="S82" s="245"/>
+      <c r="T82" s="245"/>
+      <c r="U82" s="241"/>
+      <c r="V82" s="249"/>
       <c r="W82" s="49"/>
-      <c r="X82" s="116"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="68"/>
-      <c r="AC82" s="68"/>
+      <c r="X82" s="156"/>
+      <c r="Y82" s="122"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="43"/>
       <c r="AD82" s="49"/>
       <c r="AE82" s="49"/>
-      <c r="AF82" s="68"/>
-      <c r="AG82" s="122"/>
+      <c r="AF82" s="43"/>
+      <c r="AG82" s="120"/>
     </row>
     <row r="83" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="174"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="113"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="16"/>
+      <c r="A83" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="252" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="250"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="155"/>
+      <c r="R83" s="173"/>
+      <c r="S83" s="250"/>
+      <c r="T83" s="250"/>
       <c r="U83" s="41"/>
-      <c r="V83" s="18"/>
+      <c r="V83" s="249"/>
       <c r="W83" s="49"/>
-      <c r="X83" s="116"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
-      <c r="AB83" s="177"/>
-      <c r="AC83" s="22"/>
+      <c r="X83" s="156"/>
+      <c r="Y83" s="122"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="43"/>
+      <c r="AC83" s="43"/>
       <c r="AD83" s="49"/>
-      <c r="AE83" s="119"/>
-      <c r="AF83" s="68"/>
-      <c r="AG83" s="122"/>
+      <c r="AE83" s="49"/>
+      <c r="AF83" s="43"/>
+      <c r="AG83" s="120"/>
     </row>
     <row r="84" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="164"/>
-      <c r="D84" s="164"/>
+        <v>66</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="114"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="141"/>
+      <c r="L84" s="238"/>
+      <c r="M84" s="238"/>
+      <c r="N84" s="244"/>
+      <c r="O84" s="165"/>
+      <c r="P84" s="49"/>
       <c r="Q84" s="49"/>
-      <c r="R84" s="107"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="16"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="22"/>
       <c r="U84" s="43"/>
-      <c r="V84" s="16"/>
+      <c r="V84" s="22"/>
       <c r="W84" s="49"/>
-      <c r="X84" s="117"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="143"/>
-      <c r="AC84" s="18"/>
+      <c r="X84" s="114"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
       <c r="AD84" s="49"/>
-      <c r="AE84" s="119"/>
-      <c r="AF84" s="42"/>
-      <c r="AG84" s="122"/>
+      <c r="AE84" s="49"/>
+      <c r="AF84" s="67"/>
+      <c r="AG84" s="120"/>
     </row>
     <row r="85" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="164"/>
-      <c r="D85" s="164"/>
+      <c r="A85" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="114"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="142"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="247"/>
       <c r="Q85" s="49"/>
-      <c r="R85" s="107"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="110"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="49"/>
-      <c r="X85" s="117"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
+      <c r="R85" s="173"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="134"/>
+      <c r="V85" s="245"/>
+      <c r="W85" s="117"/>
+      <c r="X85" s="114"/>
+      <c r="Y85" s="245"/>
+      <c r="Z85" s="57"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="67"/>
+      <c r="AC85" s="67"/>
       <c r="AD85" s="49"/>
-      <c r="AE85" s="119"/>
-      <c r="AF85" s="110"/>
-      <c r="AG85" s="122"/>
+      <c r="AE85" s="49"/>
+      <c r="AF85" s="67"/>
+      <c r="AG85" s="120"/>
     </row>
     <row r="86" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="153"/>
-      <c r="F86" s="153"/>
-      <c r="G86" s="153"/>
-      <c r="H86" s="153"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="175"/>
-      <c r="L86" s="138"/>
-      <c r="M86" s="138"/>
-      <c r="N86" s="138"/>
-      <c r="O86" s="85"/>
-      <c r="P86" s="115"/>
+      <c r="A86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="162"/>
+      <c r="D86" s="162"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="111"/>
       <c r="Q86" s="49"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="111"/>
-      <c r="V86" s="6"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="237"/>
       <c r="W86" s="49"/>
-      <c r="X86" s="118"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
+      <c r="X86" s="114"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="174"/>
+      <c r="AC86" s="22"/>
       <c r="AD86" s="49"/>
-      <c r="AE86" s="119"/>
-      <c r="AF86" s="111"/>
-      <c r="AG86" s="122"/>
+      <c r="AE86" s="117"/>
+      <c r="AF86" s="67"/>
+      <c r="AG86" s="120"/>
     </row>
     <row r="87" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="228" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="229"/>
-      <c r="C87" s="229"/>
-      <c r="D87" s="229"/>
-      <c r="E87" s="229"/>
-      <c r="F87" s="229"/>
-      <c r="G87" s="229"/>
-      <c r="H87" s="229"/>
-      <c r="I87" s="229"/>
-      <c r="J87" s="229"/>
-      <c r="K87" s="229"/>
-      <c r="L87" s="229"/>
-      <c r="M87" s="229"/>
-      <c r="N87" s="229"/>
-      <c r="O87" s="229"/>
-      <c r="P87" s="229"/>
-      <c r="Q87" s="229"/>
-      <c r="R87" s="229"/>
-      <c r="S87" s="229"/>
-      <c r="T87" s="229"/>
-      <c r="U87" s="229"/>
-      <c r="V87" s="229"/>
-      <c r="W87" s="229"/>
-      <c r="X87" s="229"/>
-      <c r="Y87" s="229"/>
-      <c r="Z87" s="229"/>
-      <c r="AA87" s="229"/>
-      <c r="AB87" s="229"/>
-      <c r="AC87" s="229"/>
-      <c r="AD87" s="229"/>
-      <c r="AE87" s="229"/>
-      <c r="AF87" s="229"/>
-      <c r="AG87" s="229"/>
+      <c r="A87" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="101"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="105"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="115"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="141"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="49"/>
+      <c r="AE87" s="117"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="120"/>
     </row>
     <row r="88" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="16">
-        <v>1</v>
-      </c>
-      <c r="D88" s="16">
-        <v>2</v>
-      </c>
-      <c r="E88" s="16">
-        <v>3</v>
-      </c>
-      <c r="F88" s="43">
-        <v>4</v>
-      </c>
-      <c r="G88" s="59">
-        <v>5</v>
-      </c>
-      <c r="H88" s="59">
-        <v>6</v>
-      </c>
-      <c r="I88" s="170">
-        <v>7</v>
-      </c>
-      <c r="J88" s="171">
-        <v>8</v>
-      </c>
-      <c r="K88" s="130">
-        <v>9</v>
-      </c>
-      <c r="L88" s="130">
-        <v>10</v>
-      </c>
-      <c r="M88" s="130">
-        <v>11</v>
-      </c>
-      <c r="N88" s="59">
-        <v>12</v>
-      </c>
-      <c r="O88" s="59">
-        <v>13</v>
-      </c>
-      <c r="P88" s="130">
-        <v>14</v>
-      </c>
-      <c r="Q88" s="130">
-        <v>15</v>
-      </c>
-      <c r="R88" s="130">
-        <v>16</v>
-      </c>
-      <c r="S88" s="130">
-        <v>17</v>
-      </c>
-      <c r="T88" s="130">
-        <v>18</v>
-      </c>
-      <c r="U88" s="59">
-        <v>19</v>
-      </c>
-      <c r="V88" s="59">
-        <v>20</v>
-      </c>
-      <c r="W88" s="130">
-        <v>21</v>
-      </c>
-      <c r="X88" s="130">
-        <v>22</v>
-      </c>
-      <c r="Y88" s="130">
-        <v>23</v>
-      </c>
-      <c r="Z88" s="130">
-        <v>24</v>
-      </c>
-      <c r="AA88" s="130">
-        <v>25</v>
-      </c>
-      <c r="AB88" s="59">
-        <v>26</v>
-      </c>
-      <c r="AC88" s="59">
-        <v>27</v>
-      </c>
-      <c r="AD88" s="130">
-        <v>28</v>
-      </c>
-      <c r="AE88" s="130">
-        <v>29</v>
-      </c>
-      <c r="AF88" s="130">
-        <v>30</v>
-      </c>
-      <c r="AG88" s="130">
-        <v>31</v>
-      </c>
+      <c r="A88" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="105"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="108"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="115"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="49"/>
+      <c r="AE88" s="117"/>
+      <c r="AF88" s="108"/>
+      <c r="AG88" s="120"/>
     </row>
     <row r="89" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="119"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="169"/>
-      <c r="L89" s="178"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="126"/>
-      <c r="O89" s="127"/>
-      <c r="P89" s="126"/>
-      <c r="Q89" s="126"/>
-      <c r="R89" s="127"/>
-      <c r="S89" s="126"/>
-      <c r="T89" s="126"/>
-      <c r="U89" s="127"/>
-      <c r="V89" s="127"/>
-      <c r="W89" s="127"/>
-      <c r="X89" s="127"/>
-      <c r="Y89" s="127"/>
-      <c r="Z89" s="127"/>
-      <c r="AA89" s="128"/>
-      <c r="AB89" s="127"/>
-      <c r="AC89" s="127"/>
-      <c r="AD89" s="129"/>
-      <c r="AE89" s="127"/>
-      <c r="AF89" s="127"/>
-      <c r="AG89" s="127"/>
-      <c r="AH89" s="151"/>
-      <c r="AI89" s="150"/>
-      <c r="AJ89" s="150"/>
-      <c r="AK89" s="150"/>
-      <c r="AL89" s="150"/>
-      <c r="AM89" s="150"/>
-      <c r="AN89" s="150"/>
+      <c r="A89" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="163"/>
+      <c r="D89" s="163"/>
+      <c r="E89" s="151"/>
+      <c r="F89" s="151"/>
+      <c r="G89" s="151"/>
+      <c r="H89" s="151"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="102"/>
+      <c r="K89" s="172"/>
+      <c r="L89" s="239"/>
+      <c r="M89" s="239"/>
+      <c r="N89" s="136"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="113"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="106"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="109"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="49"/>
+      <c r="X89" s="116"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="49"/>
+      <c r="AE89" s="117"/>
+      <c r="AF89" s="109"/>
+      <c r="AG89" s="120"/>
     </row>
     <row r="90" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="130"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="121"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="121"/>
-      <c r="Q90" s="121"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="121"/>
-      <c r="T90" s="121"/>
-      <c r="U90" s="47"/>
-      <c r="V90" s="47"/>
-      <c r="W90" s="47"/>
-      <c r="X90" s="47"/>
-      <c r="Y90" s="47"/>
-      <c r="Z90" s="47"/>
-      <c r="AA90" s="122"/>
-      <c r="AB90" s="47"/>
-      <c r="AC90" s="47"/>
-      <c r="AD90" s="123"/>
-      <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-      <c r="AG90" s="47"/>
-      <c r="AH90" s="151"/>
-      <c r="AI90" s="150"/>
-      <c r="AJ90" s="150"/>
-      <c r="AK90" s="150"/>
-      <c r="AL90" s="150"/>
-      <c r="AM90" s="150"/>
-      <c r="AN90" s="150"/>
+      <c r="A90" s="230" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="231"/>
+      <c r="E90" s="231"/>
+      <c r="F90" s="231"/>
+      <c r="G90" s="231"/>
+      <c r="H90" s="231"/>
+      <c r="I90" s="231"/>
+      <c r="J90" s="231"/>
+      <c r="K90" s="231"/>
+      <c r="L90" s="231"/>
+      <c r="M90" s="231"/>
+      <c r="N90" s="231"/>
+      <c r="O90" s="231"/>
+      <c r="P90" s="231"/>
+      <c r="Q90" s="231"/>
+      <c r="R90" s="231"/>
+      <c r="S90" s="231"/>
+      <c r="T90" s="231"/>
+      <c r="U90" s="231"/>
+      <c r="V90" s="231"/>
+      <c r="W90" s="231"/>
+      <c r="X90" s="231"/>
+      <c r="Y90" s="231"/>
+      <c r="Z90" s="231"/>
+      <c r="AA90" s="231"/>
+      <c r="AB90" s="231"/>
+      <c r="AC90" s="231"/>
+      <c r="AD90" s="231"/>
+      <c r="AE90" s="231"/>
+      <c r="AF90" s="231"/>
+      <c r="AG90" s="231"/>
     </row>
     <row r="91" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="119"/>
-      <c r="I91" s="130"/>
-      <c r="J91" s="130"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="121"/>
-      <c r="O91" s="47"/>
-      <c r="P91" s="121"/>
-      <c r="Q91" s="121"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="121"/>
-      <c r="T91" s="121"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
-      <c r="X91" s="47"/>
-      <c r="Y91" s="47"/>
-      <c r="Z91" s="47"/>
-      <c r="AA91" s="122"/>
-      <c r="AB91" s="47"/>
-      <c r="AC91" s="47"/>
-      <c r="AD91" s="123"/>
-      <c r="AE91" s="47"/>
-      <c r="AF91" s="47"/>
-      <c r="AG91" s="47"/>
-      <c r="AH91" s="151"/>
-      <c r="AI91" s="150"/>
-      <c r="AJ91" s="150"/>
-      <c r="AK91" s="150"/>
-      <c r="AL91" s="150"/>
-      <c r="AM91" s="150"/>
-      <c r="AN91" s="150"/>
+      <c r="A91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="16">
+        <v>1</v>
+      </c>
+      <c r="D91" s="16">
+        <v>2</v>
+      </c>
+      <c r="E91" s="16">
+        <v>3</v>
+      </c>
+      <c r="F91" s="43">
+        <v>4</v>
+      </c>
+      <c r="G91" s="58">
+        <v>5</v>
+      </c>
+      <c r="H91" s="58">
+        <v>6</v>
+      </c>
+      <c r="I91" s="167">
+        <v>7</v>
+      </c>
+      <c r="J91" s="168">
+        <v>8</v>
+      </c>
+      <c r="K91" s="128">
+        <v>9</v>
+      </c>
+      <c r="L91" s="128">
+        <v>10</v>
+      </c>
+      <c r="M91" s="128">
+        <v>11</v>
+      </c>
+      <c r="N91" s="58">
+        <v>12</v>
+      </c>
+      <c r="O91" s="58">
+        <v>13</v>
+      </c>
+      <c r="P91" s="128">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="128">
+        <v>15</v>
+      </c>
+      <c r="R91" s="128">
+        <v>16</v>
+      </c>
+      <c r="S91" s="128">
+        <v>17</v>
+      </c>
+      <c r="T91" s="128">
+        <v>18</v>
+      </c>
+      <c r="U91" s="58">
+        <v>19</v>
+      </c>
+      <c r="V91" s="58">
+        <v>20</v>
+      </c>
+      <c r="W91" s="128">
+        <v>21</v>
+      </c>
+      <c r="X91" s="128">
+        <v>22</v>
+      </c>
+      <c r="Y91" s="128">
+        <v>23</v>
+      </c>
+      <c r="Z91" s="128">
+        <v>24</v>
+      </c>
+      <c r="AA91" s="128">
+        <v>25</v>
+      </c>
+      <c r="AB91" s="58">
+        <v>26</v>
+      </c>
+      <c r="AC91" s="58">
+        <v>27</v>
+      </c>
+      <c r="AD91" s="128">
+        <v>28</v>
+      </c>
+      <c r="AE91" s="128">
+        <v>29</v>
+      </c>
+      <c r="AF91" s="128">
+        <v>30</v>
+      </c>
+      <c r="AG91" s="128">
+        <v>31</v>
+      </c>
     </row>
     <row r="92" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="43"/>
+      <c r="A92" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="49"/>
-      <c r="H92" s="119"/>
-      <c r="I92" s="130"/>
-      <c r="J92" s="130"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="121"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="121"/>
-      <c r="Q92" s="121"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="121"/>
-      <c r="T92" s="121"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="122"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="123"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="151"/>
-      <c r="AI92" s="150"/>
-      <c r="AJ92" s="150"/>
-      <c r="AK92" s="150"/>
-      <c r="AL92" s="150"/>
-      <c r="AM92" s="150"/>
-      <c r="AN92" s="150"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="175"/>
+      <c r="M92" s="123"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="125"/>
+      <c r="P92" s="124"/>
+      <c r="Q92" s="124"/>
+      <c r="R92" s="125"/>
+      <c r="S92" s="124"/>
+      <c r="T92" s="124"/>
+      <c r="U92" s="125"/>
+      <c r="V92" s="125"/>
+      <c r="W92" s="125"/>
+      <c r="X92" s="125"/>
+      <c r="Y92" s="125"/>
+      <c r="Z92" s="125"/>
+      <c r="AA92" s="126"/>
+      <c r="AB92" s="125"/>
+      <c r="AC92" s="125"/>
+      <c r="AD92" s="127"/>
+      <c r="AE92" s="125"/>
+      <c r="AF92" s="125"/>
+      <c r="AG92" s="125"/>
+      <c r="AH92" s="149"/>
+      <c r="AI92" s="148"/>
+      <c r="AJ92" s="148"/>
+      <c r="AK92" s="148"/>
+      <c r="AL92" s="148"/>
+      <c r="AM92" s="148"/>
+      <c r="AN92" s="148"/>
     </row>
     <row r="93" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="42"/>
       <c r="D93" s="18"/>
       <c r="E93" s="42"/>
       <c r="F93" s="18"/>
       <c r="G93" s="49"/>
-      <c r="H93" s="119"/>
-      <c r="I93" s="172"/>
-      <c r="J93" s="172"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="169"/>
+      <c r="J93" s="169"/>
       <c r="K93" s="46"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
-      <c r="N93" s="121"/>
+      <c r="N93" s="119"/>
       <c r="O93" s="47"/>
-      <c r="P93" s="121"/>
-      <c r="Q93" s="121"/>
+      <c r="P93" s="119"/>
+      <c r="Q93" s="119"/>
       <c r="R93" s="47"/>
-      <c r="S93" s="121"/>
-      <c r="T93" s="121"/>
+      <c r="S93" s="119"/>
+      <c r="T93" s="119"/>
       <c r="U93" s="47"/>
       <c r="V93" s="47"/>
       <c r="W93" s="47"/>
       <c r="X93" s="47"/>
       <c r="Y93" s="47"/>
       <c r="Z93" s="47"/>
-      <c r="AA93" s="122"/>
+      <c r="AA93" s="120"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="123"/>
+      <c r="AD93" s="121"/>
       <c r="AE93" s="47"/>
       <c r="AF93" s="47"/>
       <c r="AG93" s="47"/>
-      <c r="AH93" s="151"/>
-      <c r="AI93" s="150"/>
-      <c r="AJ93" s="150"/>
-      <c r="AK93" s="150"/>
-      <c r="AL93" s="150"/>
-      <c r="AM93" s="150"/>
-      <c r="AN93" s="150"/>
+      <c r="AH93" s="149"/>
+      <c r="AI93" s="148"/>
+      <c r="AJ93" s="148"/>
+      <c r="AK93" s="148"/>
+      <c r="AL93" s="148"/>
+      <c r="AM93" s="148"/>
+      <c r="AN93" s="148"/>
     </row>
     <row r="94" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="110"/>
+        <v>38</v>
+      </c>
+      <c r="C94" s="108"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="179"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="176"/>
       <c r="G94" s="49"/>
-      <c r="H94" s="119"/>
-      <c r="I94" s="173"/>
-      <c r="J94" s="173"/>
-      <c r="K94" s="120"/>
-      <c r="L94" s="111"/>
-      <c r="M94" s="111"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="170"/>
+      <c r="K94" s="118"/>
+      <c r="L94" s="109"/>
+      <c r="M94" s="109"/>
       <c r="N94" s="47"/>
       <c r="O94" s="47"/>
       <c r="P94" s="47"/>
@@ -23264,39 +23304,39 @@
       <c r="X94" s="47"/>
       <c r="Y94" s="47"/>
       <c r="Z94" s="47"/>
-      <c r="AA94" s="122"/>
+      <c r="AA94" s="120"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="123"/>
+      <c r="AD94" s="121"/>
       <c r="AE94" s="47"/>
       <c r="AF94" s="47"/>
       <c r="AG94" s="47"/>
-      <c r="AH94" s="151"/>
-      <c r="AI94" s="150"/>
-      <c r="AJ94" s="150"/>
-      <c r="AK94" s="150"/>
-      <c r="AL94" s="150"/>
-      <c r="AM94" s="150"/>
-      <c r="AN94" s="150"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="148"/>
+      <c r="AJ94" s="148"/>
+      <c r="AK94" s="148"/>
+      <c r="AL94" s="148"/>
+      <c r="AM94" s="148"/>
+      <c r="AN94" s="148"/>
     </row>
     <row r="95" spans="1:40" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="111"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="111"/>
+      <c r="E95" s="109"/>
       <c r="F95" s="6"/>
       <c r="G95" s="49"/>
-      <c r="H95" s="119"/>
-      <c r="I95" s="173"/>
-      <c r="J95" s="173"/>
-      <c r="K95" s="120"/>
-      <c r="L95" s="111"/>
-      <c r="M95" s="111"/>
+      <c r="H95" s="117"/>
+      <c r="I95" s="170"/>
+      <c r="J95" s="170"/>
+      <c r="K95" s="118"/>
+      <c r="L95" s="109"/>
+      <c r="M95" s="109"/>
       <c r="N95" s="47"/>
       <c r="O95" s="47"/>
       <c r="P95" s="47"/>
@@ -23310,20 +23350,20 @@
       <c r="X95" s="47"/>
       <c r="Y95" s="47"/>
       <c r="Z95" s="47"/>
-      <c r="AA95" s="122"/>
+      <c r="AA95" s="120"/>
       <c r="AB95" s="47"/>
       <c r="AC95" s="47"/>
-      <c r="AD95" s="123"/>
+      <c r="AD95" s="121"/>
       <c r="AE95" s="47"/>
       <c r="AF95" s="47"/>
       <c r="AG95" s="47"/>
-      <c r="AH95" s="151"/>
-      <c r="AI95" s="150"/>
-      <c r="AJ95" s="150"/>
-      <c r="AK95" s="150"/>
-      <c r="AL95" s="150"/>
-      <c r="AM95" s="150"/>
-      <c r="AN95" s="150"/>
+      <c r="AH95" s="149"/>
+      <c r="AI95" s="148"/>
+      <c r="AJ95" s="148"/>
+      <c r="AK95" s="148"/>
+      <c r="AL95" s="148"/>
+      <c r="AM95" s="148"/>
+      <c r="AN95" s="148"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23349,13 +23389,16 @@
     <row r="117" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A19:AG19"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A52:AG52"/>
     <mergeCell ref="A72:AG72"/>
-    <mergeCell ref="A87:AG87"/>
+    <mergeCell ref="A90:AG90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -418,7 +418,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,18 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1879,7 +1867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1904,10 +1892,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1927,25 +1915,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1953,11 +1940,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1979,17 +1966,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1998,34 +1985,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,69 +2039,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2133,10 +2111,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,36 +2133,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2198,160 +2173,160 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,7 +2341,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99:O101"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y96" sqref="Y96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2698,41 +2673,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="241"/>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="241"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2741,52 +2716,52 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>2</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>3</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <v>4</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <v>5</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="47">
         <v>6</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="47">
         <v>7</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="47">
         <v>8</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <v>9</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="47">
         <v>10</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="47">
         <v>11</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="47">
         <v>12</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="47">
         <v>13</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="47">
         <v>14</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="47">
         <v>15</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="47">
         <v>16</v>
       </c>
       <c r="S2" s="13">
@@ -2828,244 +2803,244 @@
       <c r="AE2" s="32">
         <v>29</v>
       </c>
-      <c r="AF2" s="88">
+      <c r="AF2" s="87">
         <v>30</v>
       </c>
-      <c r="AG2" s="43"/>
+      <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="33"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="43"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="42"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
       <c r="AE4" s="34"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="43"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="42"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
       <c r="AE5" s="34"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="43"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="42"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="33"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="43"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="42"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="33"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="43"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="42"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
-      <c r="AD8" s="169"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
       <c r="AE8" s="35"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="43"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="42"/>
     </row>
     <row r="9" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
@@ -3074,425 +3049,425 @@
       <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="41"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="43"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="42"/>
     </row>
     <row r="10" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="169"/>
-      <c r="AB10" s="169"/>
-      <c r="AC10" s="169"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="42"/>
     </row>
     <row r="11" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="42"/>
     </row>
     <row r="12" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="42"/>
     </row>
     <row r="13" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="169"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="163"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="42"/>
     </row>
     <row r="14" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="169"/>
-      <c r="AB14" s="169"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="43"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="42"/>
     </row>
     <row r="15" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="169"/>
-      <c r="AB15" s="169"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="42"/>
     </row>
     <row r="16" spans="1:33" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="41"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="43"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="42"/>
     </row>
     <row r="17" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="41"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="43"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="42"/>
     </row>
     <row r="18" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="42"/>
     </row>
     <row r="19" spans="1:16384" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="240" t="s">
+      <c r="A19" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="241"/>
-      <c r="M19" s="241"/>
-      <c r="N19" s="241"/>
-      <c r="O19" s="241"/>
-      <c r="P19" s="241"/>
-      <c r="Q19" s="241"/>
-      <c r="R19" s="241"/>
-      <c r="S19" s="241"/>
-      <c r="T19" s="241"/>
-      <c r="U19" s="241"/>
-      <c r="V19" s="241"/>
-      <c r="W19" s="241"/>
-      <c r="X19" s="241"/>
-      <c r="Y19" s="241"/>
-      <c r="Z19" s="241"/>
-      <c r="AA19" s="241"/>
-      <c r="AB19" s="241"/>
-      <c r="AC19" s="241"/>
-      <c r="AD19" s="241"/>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="241"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="236"/>
+      <c r="N19" s="236"/>
+      <c r="O19" s="236"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="236"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="236"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="236"/>
+      <c r="AC19" s="236"/>
+      <c r="AD19" s="236"/>
+      <c r="AE19" s="236"/>
+      <c r="AF19" s="236"/>
+      <c r="AG19" s="236"/>
     </row>
     <row r="20" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -3510,19 +3485,19 @@
       <c r="E20" s="36">
         <v>3</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="43">
         <v>6</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="43">
         <v>7</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="40">
         <v>8</v>
       </c>
       <c r="K20" s="13">
@@ -3534,64 +3509,64 @@
       <c r="M20" s="13">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="50">
         <v>13</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="50">
         <v>14</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="47">
         <v>15</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="47">
         <v>16</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="47">
         <v>17</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="47">
         <v>18</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="47">
         <v>19</v>
       </c>
-      <c r="V20" s="51">
+      <c r="V20" s="50">
         <v>20</v>
       </c>
-      <c r="W20" s="51">
+      <c r="W20" s="50">
         <v>21</v>
       </c>
-      <c r="X20" s="48">
+      <c r="X20" s="47">
         <v>22</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="47">
         <v>23</v>
       </c>
-      <c r="Z20" s="48">
+      <c r="Z20" s="47">
         <v>24</v>
       </c>
-      <c r="AA20" s="48">
+      <c r="AA20" s="47">
         <v>25</v>
       </c>
-      <c r="AB20" s="48">
+      <c r="AB20" s="47">
         <v>26</v>
       </c>
-      <c r="AC20" s="51">
+      <c r="AC20" s="50">
         <v>27</v>
       </c>
-      <c r="AD20" s="51">
+      <c r="AD20" s="50">
         <v>28</v>
       </c>
-      <c r="AE20" s="48">
+      <c r="AE20" s="47">
         <v>29</v>
       </c>
-      <c r="AF20" s="49">
+      <c r="AF20" s="48">
         <v>30</v>
       </c>
-      <c r="AG20" s="50">
+      <c r="AG20" s="49">
         <v>31</v>
       </c>
       <c r="AH20" s="37"/>
@@ -19953,10 +19928,10 @@
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="14"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -19964,33 +19939,33 @@
       <c r="K21" s="14"/>
       <c r="L21" s="38"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="42"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="187"/>
+      <c r="T21" s="182"/>
       <c r="U21" s="28"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="191"/>
-      <c r="Y21" s="60"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="59"/>
       <c r="Z21" s="28"/>
       <c r="AA21" s="28"/>
       <c r="AB21" s="28"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="136"/>
-      <c r="AL21" s="136"/>
-      <c r="AM21" s="136"/>
-      <c r="AN21" s="136"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="132"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="132"/>
     </row>
     <row r="22" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -19999,44 +19974,44 @@
       <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="169"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="164"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="168"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="163"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22" s="40"/>
+      <c r="T22" s="39"/>
       <c r="U22" s="28"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="28"/>
-      <c r="Y22" s="60"/>
+      <c r="Y22" s="59"/>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
       <c r="AB22" s="28"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="137"/>
-      <c r="AI22" s="136"/>
-      <c r="AJ22" s="136"/>
-      <c r="AK22" s="136"/>
-      <c r="AL22" s="136"/>
-      <c r="AM22" s="136"/>
-      <c r="AN22" s="136"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="133"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="132"/>
+      <c r="AK22" s="132"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
     </row>
     <row r="23" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -20045,44 +20020,44 @@
       <c r="B23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="169"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="164"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="168"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="163"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="40"/>
+      <c r="T23" s="39"/>
       <c r="U23" s="28"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="28"/>
-      <c r="Y23" s="60"/>
+      <c r="Y23" s="59"/>
       <c r="Z23" s="28"/>
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
       <c r="AE23" s="28"/>
       <c r="AF23" s="28"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="137"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="133"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
     </row>
     <row r="24" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -20091,44 +20066,44 @@
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="14"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="40"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="60"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="179"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="59"/>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
       <c r="AB24" s="28"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="137"/>
-      <c r="AI24" s="136"/>
-      <c r="AJ24" s="136"/>
-      <c r="AK24" s="136"/>
-      <c r="AL24" s="136"/>
-      <c r="AM24" s="136"/>
-      <c r="AN24" s="136"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="133"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="132"/>
+      <c r="AK24" s="132"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
     </row>
     <row r="25" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -20137,44 +20112,44 @@
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="45"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="14"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="40"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="42"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="188"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="60"/>
+      <c r="S25" s="179"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="59"/>
       <c r="Z25" s="28"/>
       <c r="AA25" s="28"/>
       <c r="AB25" s="28"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
       <c r="AE25" s="28"/>
       <c r="AF25" s="28"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="136"/>
-      <c r="AJ25" s="136"/>
-      <c r="AK25" s="136"/>
-      <c r="AL25" s="136"/>
-      <c r="AM25" s="136"/>
-      <c r="AN25" s="136"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="133"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
     </row>
     <row r="26" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -20183,550 +20158,550 @@
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="173"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="189"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="137"/>
-      <c r="AI26" s="136"/>
-      <c r="AJ26" s="136"/>
-      <c r="AK26" s="136"/>
-      <c r="AL26" s="136"/>
-      <c r="AM26" s="136"/>
-      <c r="AN26" s="136"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="133"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
     </row>
     <row r="27" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="40"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="42"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="41"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
       <c r="AA27" s="28"/>
       <c r="AB27" s="28"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
       <c r="AE27" s="28"/>
       <c r="AF27" s="28"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="136"/>
-      <c r="AJ27" s="136"/>
-      <c r="AK27" s="136"/>
-      <c r="AL27" s="136"/>
-      <c r="AM27" s="136"/>
-      <c r="AN27" s="136"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="133"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="132"/>
+      <c r="AL27" s="132"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="132"/>
     </row>
     <row r="28" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="53"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
       <c r="AA28" s="28"/>
       <c r="AB28" s="28"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
       <c r="AE28" s="28"/>
       <c r="AF28" s="28"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="136"/>
-      <c r="AJ28" s="136"/>
-      <c r="AK28" s="136"/>
-      <c r="AL28" s="136"/>
-      <c r="AM28" s="136"/>
-      <c r="AN28" s="136"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="133"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="132"/>
     </row>
     <row r="29" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="53"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="52"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
       <c r="X29" s="28"/>
       <c r="Y29" s="28"/>
       <c r="Z29" s="28"/>
       <c r="AA29" s="28"/>
       <c r="AB29" s="28"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
       <c r="AE29" s="28"/>
       <c r="AF29" s="28"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="136"/>
-      <c r="AJ29" s="136"/>
-      <c r="AK29" s="136"/>
-      <c r="AL29" s="136"/>
-      <c r="AM29" s="136"/>
-      <c r="AN29" s="136"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="133"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
     </row>
     <row r="30" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="53"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
       <c r="AA30" s="28"/>
       <c r="AB30" s="28"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="28"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="136"/>
-      <c r="AK30" s="136"/>
-      <c r="AL30" s="136"/>
-      <c r="AM30" s="136"/>
-      <c r="AN30" s="136"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="133"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
     </row>
     <row r="31" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="42"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="41"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
       <c r="Z31" s="28"/>
       <c r="AA31" s="28"/>
       <c r="AB31" s="28"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
       <c r="AE31" s="28"/>
       <c r="AF31" s="28"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="137"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="136"/>
-      <c r="AK31" s="136"/>
-      <c r="AL31" s="136"/>
-      <c r="AM31" s="136"/>
-      <c r="AN31" s="136"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="133"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
     </row>
     <row r="32" spans="1:16384" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="42"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
       <c r="X32" s="28"/>
       <c r="Y32" s="28"/>
       <c r="Z32" s="28"/>
       <c r="AA32" s="28"/>
       <c r="AB32" s="28"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
       <c r="AE32" s="28"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="137"/>
-      <c r="AI32" s="136"/>
-      <c r="AJ32" s="136"/>
-      <c r="AK32" s="136"/>
-      <c r="AL32" s="136"/>
-      <c r="AM32" s="136"/>
-      <c r="AN32" s="136"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="133"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
     </row>
     <row r="33" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="42"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="28"/>
       <c r="Y33" s="28"/>
       <c r="Z33" s="28"/>
       <c r="AA33" s="28"/>
       <c r="AB33" s="28"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="137"/>
-      <c r="AI33" s="136"/>
-      <c r="AJ33" s="136"/>
-      <c r="AK33" s="136"/>
-      <c r="AL33" s="136"/>
-      <c r="AM33" s="136"/>
-      <c r="AN33" s="136"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="133"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
     </row>
     <row r="34" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="42"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="41"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="28"/>
       <c r="Y34" s="28"/>
       <c r="Z34" s="28"/>
       <c r="AA34" s="28"/>
       <c r="AB34" s="28"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
       <c r="AE34" s="28"/>
       <c r="AF34" s="28"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="137"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="136"/>
-      <c r="AK34" s="136"/>
-      <c r="AL34" s="136"/>
-      <c r="AM34" s="136"/>
-      <c r="AN34" s="136"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="133"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
     </row>
     <row r="35" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="42"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="41"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="28"/>
       <c r="Y35" s="28"/>
       <c r="Z35" s="28"/>
       <c r="AA35" s="28"/>
       <c r="AB35" s="28"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
       <c r="AE35" s="28"/>
       <c r="AF35" s="28"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="137"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="136"/>
-      <c r="AK35" s="136"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="136"/>
-      <c r="AN35" s="136"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="133"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="132"/>
+      <c r="AK35" s="132"/>
+      <c r="AL35" s="132"/>
+      <c r="AM35" s="132"/>
+      <c r="AN35" s="132"/>
     </row>
     <row r="36" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="53"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="52"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
       <c r="X36" s="28"/>
       <c r="Y36" s="28"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
       <c r="AE36" s="28"/>
       <c r="AF36" s="28"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="137"/>
-      <c r="AI36" s="136"/>
-      <c r="AJ36" s="136"/>
-      <c r="AK36" s="136"/>
-      <c r="AL36" s="136"/>
-      <c r="AM36" s="136"/>
-      <c r="AN36" s="136"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="133"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
     </row>
     <row r="37" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
-      <c r="M37" s="56"/>
+      <c r="M37" s="55"/>
       <c r="N37" s="25"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="192"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="69"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="187"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="68"/>
       <c r="AF37" s="28"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="137"/>
-      <c r="AI37" s="136"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="136"/>
-      <c r="AL37" s="136"/>
-      <c r="AM37" s="136"/>
-      <c r="AN37" s="136"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="133"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
     </row>
     <row r="38" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -20735,44 +20710,44 @@
       <c r="B38" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="57"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="179"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="174"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="60"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="59"/>
       <c r="AF38" s="28"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="137"/>
-      <c r="AI38" s="136"/>
-      <c r="AJ38" s="136"/>
-      <c r="AK38" s="136"/>
-      <c r="AL38" s="136"/>
-      <c r="AM38" s="136"/>
-      <c r="AN38" s="136"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="133"/>
+      <c r="AI38" s="132"/>
+      <c r="AJ38" s="132"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="132"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
     </row>
     <row r="39" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -20781,44 +20756,44 @@
       <c r="B39" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="57"/>
+      <c r="M39" s="56"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="179"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="174"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="60"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="59"/>
       <c r="AF39" s="28"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="137"/>
-      <c r="AI39" s="136"/>
-      <c r="AJ39" s="136"/>
-      <c r="AK39" s="136"/>
-      <c r="AL39" s="136"/>
-      <c r="AM39" s="136"/>
-      <c r="AN39" s="136"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="133"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
     </row>
     <row r="40" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -20827,44 +20802,44 @@
       <c r="B40" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="58"/>
+      <c r="M40" s="57"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
-      <c r="S40" s="180"/>
-      <c r="T40" s="180"/>
-      <c r="U40" s="181"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="190"/>
-      <c r="Y40" s="190"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="190"/>
-      <c r="AB40" s="190"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="60"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="175"/>
+      <c r="T40" s="175"/>
+      <c r="U40" s="176"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="185"/>
+      <c r="Y40" s="185"/>
+      <c r="Z40" s="185"/>
+      <c r="AA40" s="185"/>
+      <c r="AB40" s="185"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="59"/>
       <c r="AF40" s="28"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="137"/>
-      <c r="AI40" s="136"/>
-      <c r="AJ40" s="136"/>
-      <c r="AK40" s="136"/>
-      <c r="AL40" s="136"/>
-      <c r="AM40" s="136"/>
-      <c r="AN40" s="136"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="133"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="132"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="132"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
     </row>
     <row r="41" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -20873,44 +20848,44 @@
       <c r="B41" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="58"/>
+      <c r="M41" s="57"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
-      <c r="S41" s="180"/>
-      <c r="T41" s="180"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="190"/>
-      <c r="Y41" s="190"/>
-      <c r="Z41" s="190"/>
-      <c r="AA41" s="190"/>
-      <c r="AB41" s="190"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="60"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="185"/>
+      <c r="Y41" s="185"/>
+      <c r="Z41" s="185"/>
+      <c r="AA41" s="185"/>
+      <c r="AB41" s="185"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="59"/>
       <c r="AF41" s="28"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="137"/>
-      <c r="AI41" s="136"/>
-      <c r="AJ41" s="136"/>
-      <c r="AK41" s="136"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="136"/>
-      <c r="AN41" s="136"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="133"/>
+      <c r="AI41" s="132"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="132"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="132"/>
     </row>
     <row r="42" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -20919,44 +20894,44 @@
       <c r="B42" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="58"/>
+      <c r="M42" s="57"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="180"/>
-      <c r="S42" s="180"/>
-      <c r="T42" s="180"/>
-      <c r="U42" s="181"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="190"/>
-      <c r="Y42" s="190"/>
-      <c r="Z42" s="190"/>
-      <c r="AA42" s="190"/>
-      <c r="AB42" s="190"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="60"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="175"/>
+      <c r="T42" s="175"/>
+      <c r="U42" s="176"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="185"/>
+      <c r="Y42" s="185"/>
+      <c r="Z42" s="185"/>
+      <c r="AA42" s="185"/>
+      <c r="AB42" s="185"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="59"/>
       <c r="AF42" s="28"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="137"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="136"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="136"/>
-      <c r="AM42" s="136"/>
-      <c r="AN42" s="136"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="133"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="132"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="132"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="132"/>
     </row>
     <row r="43" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -20968,41 +20943,41 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="73"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="59"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="190"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="60"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="185"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="59"/>
       <c r="AF43" s="28"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="136"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="136"/>
-      <c r="AN43" s="136"/>
+      <c r="AG43" s="65"/>
+      <c r="AH43" s="133"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="132"/>
+      <c r="AK43" s="132"/>
+      <c r="AL43" s="132"/>
+      <c r="AM43" s="132"/>
+      <c r="AN43" s="132"/>
     </row>
     <row r="44" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -21014,41 +20989,41 @@
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="73"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="59"/>
+      <c r="M44" s="58"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="190"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="60"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="185"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="59"/>
       <c r="AF44" s="28"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="137"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="136"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="136"/>
-      <c r="AN44" s="136"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="133"/>
+      <c r="AI44" s="132"/>
+      <c r="AJ44" s="132"/>
+      <c r="AK44" s="132"/>
+      <c r="AL44" s="132"/>
+      <c r="AM44" s="132"/>
+      <c r="AN44" s="132"/>
     </row>
     <row r="45" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -21057,44 +21032,44 @@
       <c r="B45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="61"/>
+      <c r="M45" s="60"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="183"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="190"/>
-      <c r="Y45" s="190"/>
-      <c r="Z45" s="190"/>
-      <c r="AA45" s="190"/>
-      <c r="AB45" s="190"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="60"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="177"/>
+      <c r="S45" s="177"/>
+      <c r="T45" s="177"/>
+      <c r="U45" s="178"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="185"/>
+      <c r="Y45" s="185"/>
+      <c r="Z45" s="185"/>
+      <c r="AA45" s="185"/>
+      <c r="AB45" s="185"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="59"/>
       <c r="AF45" s="28"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="137"/>
-      <c r="AI45" s="136"/>
-      <c r="AJ45" s="136"/>
-      <c r="AK45" s="136"/>
-      <c r="AL45" s="136"/>
-      <c r="AM45" s="136"/>
-      <c r="AN45" s="136"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="133"/>
+      <c r="AI45" s="132"/>
+      <c r="AJ45" s="132"/>
+      <c r="AK45" s="132"/>
+      <c r="AL45" s="132"/>
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="132"/>
     </row>
     <row r="46" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
@@ -21103,44 +21078,44 @@
       <c r="B46" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="56"/>
+      <c r="M46" s="55"/>
       <c r="N46" s="25"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="69"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="78"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="78"/>
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="138"/>
-      <c r="AI46" s="135"/>
-      <c r="AJ46" s="136"/>
-      <c r="AK46" s="136"/>
-      <c r="AL46" s="135"/>
-      <c r="AM46" s="135"/>
-      <c r="AN46" s="135"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="134"/>
+      <c r="AI46" s="131"/>
+      <c r="AJ46" s="132"/>
+      <c r="AK46" s="132"/>
+      <c r="AL46" s="131"/>
+      <c r="AM46" s="131"/>
+      <c r="AN46" s="131"/>
     </row>
     <row r="47" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -21149,44 +21124,44 @@
       <c r="B47" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="57"/>
+      <c r="M47" s="56"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="60"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="197"/>
-      <c r="AF47" s="57"/>
-      <c r="AG47" s="84"/>
-      <c r="AH47" s="137"/>
-      <c r="AI47" s="136"/>
-      <c r="AJ47" s="136"/>
-      <c r="AK47" s="136"/>
-      <c r="AL47" s="136"/>
-      <c r="AM47" s="136"/>
-      <c r="AN47" s="136"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
+      <c r="AA47" s="59"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="192"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="133"/>
+      <c r="AI47" s="132"/>
+      <c r="AJ47" s="132"/>
+      <c r="AK47" s="132"/>
+      <c r="AL47" s="132"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="132"/>
     </row>
     <row r="48" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
@@ -21195,44 +21170,44 @@
       <c r="B48" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="58"/>
+      <c r="M48" s="57"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="85"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="195"/>
-      <c r="AF48" s="195"/>
-      <c r="AG48" s="196"/>
-      <c r="AH48" s="137"/>
-      <c r="AI48" s="136"/>
-      <c r="AJ48" s="136"/>
-      <c r="AK48" s="136"/>
-      <c r="AL48" s="136"/>
-      <c r="AM48" s="136"/>
-      <c r="AN48" s="136"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="190"/>
+      <c r="AF48" s="190"/>
+      <c r="AG48" s="191"/>
+      <c r="AH48" s="133"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
     </row>
     <row r="49" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -21241,44 +21216,44 @@
       <c r="B49" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="58"/>
+      <c r="M49" s="57"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="60"/>
-      <c r="AA49" s="60"/>
-      <c r="AB49" s="60"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="195"/>
-      <c r="AF49" s="195"/>
-      <c r="AG49" s="196"/>
-      <c r="AH49" s="137"/>
-      <c r="AI49" s="136"/>
-      <c r="AJ49" s="136"/>
-      <c r="AK49" s="136"/>
-      <c r="AL49" s="136"/>
-      <c r="AM49" s="136"/>
-      <c r="AN49" s="136"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="59"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="190"/>
+      <c r="AF49" s="190"/>
+      <c r="AG49" s="191"/>
+      <c r="AH49" s="133"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="132"/>
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="132"/>
     </row>
     <row r="50" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -21290,41 +21265,41 @@
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="73"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="58"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="86"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="60"/>
-      <c r="AA50" s="60"/>
-      <c r="AB50" s="60"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="137"/>
-      <c r="AI50" s="136"/>
-      <c r="AJ50" s="136"/>
-      <c r="AK50" s="136"/>
-      <c r="AL50" s="136"/>
-      <c r="AM50" s="136"/>
-      <c r="AN50" s="136"/>
+      <c r="AG50" s="65"/>
+      <c r="AH50" s="133"/>
+      <c r="AI50" s="132"/>
+      <c r="AJ50" s="132"/>
+      <c r="AK50" s="132"/>
+      <c r="AL50" s="132"/>
+      <c r="AM50" s="132"/>
+      <c r="AN50" s="132"/>
     </row>
     <row r="51" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -21333,81 +21308,81 @@
       <c r="B51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="61"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="60"/>
-      <c r="AA51" s="60"/>
-      <c r="AB51" s="60"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="198"/>
-      <c r="AF51" s="198"/>
-      <c r="AG51" s="199"/>
-      <c r="AH51" s="137"/>
-      <c r="AI51" s="136"/>
-      <c r="AJ51" s="136"/>
-      <c r="AK51" s="136"/>
-      <c r="AL51" s="136"/>
-      <c r="AM51" s="136"/>
-      <c r="AN51" s="136"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="193"/>
+      <c r="AF51" s="193"/>
+      <c r="AG51" s="194"/>
+      <c r="AH51" s="133"/>
+      <c r="AI51" s="132"/>
+      <c r="AJ51" s="132"/>
+      <c r="AK51" s="132"/>
+      <c r="AL51" s="132"/>
+      <c r="AM51" s="132"/>
+      <c r="AN51" s="132"/>
     </row>
     <row r="52" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="242" t="s">
+      <c r="A52" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="243"/>
-      <c r="C52" s="243"/>
-      <c r="D52" s="243"/>
-      <c r="E52" s="243"/>
-      <c r="F52" s="243"/>
-      <c r="G52" s="243"/>
-      <c r="H52" s="243"/>
-      <c r="I52" s="243"/>
-      <c r="J52" s="243"/>
-      <c r="K52" s="243"/>
-      <c r="L52" s="243"/>
-      <c r="M52" s="243"/>
-      <c r="N52" s="243"/>
-      <c r="O52" s="243"/>
-      <c r="P52" s="243"/>
-      <c r="Q52" s="243"/>
-      <c r="R52" s="243"/>
-      <c r="S52" s="243"/>
-      <c r="T52" s="243"/>
-      <c r="U52" s="243"/>
-      <c r="V52" s="243"/>
-      <c r="W52" s="243"/>
-      <c r="X52" s="243"/>
-      <c r="Y52" s="243"/>
-      <c r="Z52" s="243"/>
-      <c r="AA52" s="243"/>
-      <c r="AB52" s="243"/>
-      <c r="AC52" s="243"/>
-      <c r="AD52" s="243"/>
-      <c r="AE52" s="243"/>
-      <c r="AF52" s="243"/>
-      <c r="AG52" s="243"/>
+      <c r="B52" s="238"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="238"/>
+      <c r="I52" s="238"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="238"/>
+      <c r="L52" s="238"/>
+      <c r="M52" s="238"/>
+      <c r="N52" s="238"/>
+      <c r="O52" s="238"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="238"/>
+      <c r="R52" s="238"/>
+      <c r="S52" s="238"/>
+      <c r="T52" s="238"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="238"/>
+      <c r="W52" s="238"/>
+      <c r="X52" s="238"/>
+      <c r="Y52" s="238"/>
+      <c r="Z52" s="238"/>
+      <c r="AA52" s="238"/>
+      <c r="AB52" s="238"/>
+      <c r="AC52" s="238"/>
+      <c r="AD52" s="238"/>
+      <c r="AE52" s="238"/>
+      <c r="AF52" s="238"/>
+      <c r="AG52" s="238"/>
     </row>
     <row r="53" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21422,25 +21397,25 @@
       <c r="D53" s="13">
         <v>2</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <v>3</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="43">
         <v>4</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="45">
         <v>5</v>
       </c>
-      <c r="H53" s="89">
+      <c r="H53" s="88">
         <v>6</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="88">
         <v>7</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53" s="89">
         <v>8</v>
       </c>
-      <c r="K53" s="91">
+      <c r="K53" s="90">
         <v>9</v>
       </c>
       <c r="L53" s="32">
@@ -21449,64 +21424,64 @@
       <c r="M53" s="32">
         <v>11</v>
       </c>
-      <c r="N53" s="92">
+      <c r="N53" s="91">
         <v>12</v>
       </c>
-      <c r="O53" s="92">
+      <c r="O53" s="91">
         <v>13</v>
       </c>
-      <c r="P53" s="92">
+      <c r="P53" s="91">
         <v>14</v>
       </c>
-      <c r="Q53" s="92">
+      <c r="Q53" s="91">
         <v>15</v>
       </c>
-      <c r="R53" s="92">
+      <c r="R53" s="91">
         <v>16</v>
       </c>
-      <c r="S53" s="51">
+      <c r="S53" s="50">
         <v>17</v>
       </c>
-      <c r="T53" s="51">
+      <c r="T53" s="50">
         <v>18</v>
       </c>
-      <c r="U53" s="92">
+      <c r="U53" s="91">
         <v>19</v>
       </c>
-      <c r="V53" s="92">
+      <c r="V53" s="91">
         <v>20</v>
       </c>
-      <c r="W53" s="92">
+      <c r="W53" s="91">
         <v>21</v>
       </c>
-      <c r="X53" s="92">
+      <c r="X53" s="91">
         <v>22</v>
       </c>
-      <c r="Y53" s="92">
+      <c r="Y53" s="91">
         <v>23</v>
       </c>
-      <c r="Z53" s="51">
+      <c r="Z53" s="50">
         <v>24</v>
       </c>
-      <c r="AA53" s="51">
+      <c r="AA53" s="50">
         <v>25</v>
       </c>
-      <c r="AB53" s="92">
+      <c r="AB53" s="91">
         <v>26</v>
       </c>
-      <c r="AC53" s="92">
+      <c r="AC53" s="91">
         <v>27</v>
       </c>
-      <c r="AD53" s="92">
+      <c r="AD53" s="91">
         <v>28</v>
       </c>
-      <c r="AE53" s="92">
+      <c r="AE53" s="91">
         <v>29</v>
       </c>
-      <c r="AF53" s="93">
+      <c r="AF53" s="92">
         <v>30</v>
       </c>
-      <c r="AG53" s="131">
+      <c r="AG53" s="127">
         <v>31</v>
       </c>
     </row>
@@ -21518,43 +21493,43 @@
         <v>48</v>
       </c>
       <c r="C54" s="25"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="205"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="69"/>
-      <c r="X54" s="69"/>
-      <c r="Y54" s="69"/>
-      <c r="Z54" s="79"/>
-      <c r="AA54" s="79"/>
-      <c r="AB54" s="69"/>
-      <c r="AC54" s="69"/>
-      <c r="AD54" s="69"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="146"/>
-      <c r="AH54" s="138"/>
-      <c r="AI54" s="135"/>
-      <c r="AJ54" s="136"/>
-      <c r="AK54" s="136"/>
-      <c r="AL54" s="135"/>
-      <c r="AM54" s="135"/>
-      <c r="AN54" s="135"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="200"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="134"/>
+      <c r="AI54" s="131"/>
+      <c r="AJ54" s="132"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="131"/>
+      <c r="AM54" s="131"/>
+      <c r="AN54" s="131"/>
     </row>
     <row r="55" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
@@ -21564,43 +21539,43 @@
         <v>49</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="60"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="60"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="60"/>
-      <c r="AC55" s="60"/>
-      <c r="AD55" s="60"/>
-      <c r="AE55" s="57"/>
-      <c r="AF55" s="57"/>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="137"/>
-      <c r="AI55" s="136"/>
-      <c r="AJ55" s="136"/>
-      <c r="AK55" s="136"/>
-      <c r="AL55" s="136"/>
-      <c r="AM55" s="136"/>
-      <c r="AN55" s="136"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="104"/>
+      <c r="AH55" s="133"/>
+      <c r="AI55" s="132"/>
+      <c r="AJ55" s="132"/>
+      <c r="AK55" s="132"/>
+      <c r="AL55" s="132"/>
+      <c r="AM55" s="132"/>
+      <c r="AN55" s="132"/>
     </row>
     <row r="56" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
@@ -21609,44 +21584,44 @@
       <c r="B56" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="195"/>
-      <c r="D56" s="196"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="203"/>
-      <c r="H56" s="203"/>
-      <c r="I56" s="204"/>
-      <c r="J56" s="203"/>
-      <c r="K56" s="203"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="60"/>
-      <c r="AC56" s="60"/>
-      <c r="AD56" s="60"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="58"/>
-      <c r="AG56" s="147"/>
-      <c r="AH56" s="137"/>
-      <c r="AI56" s="136"/>
-      <c r="AJ56" s="136"/>
-      <c r="AK56" s="136"/>
-      <c r="AL56" s="136"/>
-      <c r="AM56" s="136"/>
-      <c r="AN56" s="136"/>
+      <c r="C56" s="190"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="57"/>
+      <c r="AF56" s="57"/>
+      <c r="AG56" s="143"/>
+      <c r="AH56" s="133"/>
+      <c r="AI56" s="132"/>
+      <c r="AJ56" s="132"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="132"/>
+      <c r="AN56" s="132"/>
     </row>
     <row r="57" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
@@ -21655,44 +21630,44 @@
       <c r="B57" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="195"/>
-      <c r="D57" s="196"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="204"/>
-      <c r="J57" s="203"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="85"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="60"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="60"/>
-      <c r="AC57" s="60"/>
-      <c r="AD57" s="60"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="147"/>
-      <c r="AH57" s="137"/>
-      <c r="AI57" s="136"/>
-      <c r="AJ57" s="136"/>
-      <c r="AK57" s="136"/>
-      <c r="AL57" s="136"/>
-      <c r="AM57" s="136"/>
-      <c r="AN57" s="136"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="191"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="199"/>
+      <c r="J57" s="198"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="133"/>
+      <c r="AI57" s="132"/>
+      <c r="AJ57" s="132"/>
+      <c r="AK57" s="132"/>
+      <c r="AL57" s="132"/>
+      <c r="AM57" s="132"/>
+      <c r="AN57" s="132"/>
     </row>
     <row r="58" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -21702,43 +21677,43 @@
         <v>50</v>
       </c>
       <c r="C58" s="8"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="203"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="86"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="60"/>
-      <c r="AD58" s="60"/>
-      <c r="AE58" s="59"/>
-      <c r="AF58" s="59"/>
-      <c r="AG58" s="120"/>
-      <c r="AH58" s="137"/>
-      <c r="AI58" s="136"/>
-      <c r="AJ58" s="136"/>
-      <c r="AK58" s="136"/>
-      <c r="AL58" s="136"/>
-      <c r="AM58" s="136"/>
-      <c r="AN58" s="136"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="198"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="59"/>
+      <c r="AE58" s="58"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="116"/>
+      <c r="AH58" s="133"/>
+      <c r="AI58" s="132"/>
+      <c r="AJ58" s="132"/>
+      <c r="AK58" s="132"/>
+      <c r="AL58" s="132"/>
+      <c r="AM58" s="132"/>
+      <c r="AN58" s="132"/>
     </row>
     <row r="59" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -21747,44 +21722,44 @@
       <c r="B59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="193"/>
-      <c r="D59" s="194"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="201"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="202"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="60"/>
-      <c r="AC59" s="60"/>
-      <c r="AD59" s="60"/>
-      <c r="AE59" s="61"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="148"/>
-      <c r="AH59" s="137"/>
-      <c r="AI59" s="136"/>
-      <c r="AJ59" s="136"/>
-      <c r="AK59" s="136"/>
-      <c r="AL59" s="136"/>
-      <c r="AM59" s="136"/>
-      <c r="AN59" s="136"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="196"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="197"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="86"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="60"/>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="144"/>
+      <c r="AH59" s="133"/>
+      <c r="AI59" s="132"/>
+      <c r="AJ59" s="132"/>
+      <c r="AK59" s="132"/>
+      <c r="AL59" s="132"/>
+      <c r="AM59" s="132"/>
+      <c r="AN59" s="132"/>
     </row>
     <row r="60" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
@@ -21793,44 +21768,44 @@
       <c r="B60" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="69"/>
-      <c r="W60" s="69"/>
-      <c r="X60" s="69"/>
-      <c r="Y60" s="192"/>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="69"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="187"/>
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="68"/>
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
       <c r="AE60" s="28"/>
       <c r="AF60" s="28"/>
-      <c r="AG60" s="120"/>
-      <c r="AH60" s="137"/>
-      <c r="AI60" s="136"/>
-      <c r="AJ60" s="136"/>
-      <c r="AK60" s="136"/>
-      <c r="AL60" s="136"/>
-      <c r="AM60" s="136"/>
-      <c r="AN60" s="136"/>
+      <c r="AG60" s="116"/>
+      <c r="AH60" s="133"/>
+      <c r="AI60" s="132"/>
+      <c r="AJ60" s="132"/>
+      <c r="AK60" s="132"/>
+      <c r="AL60" s="132"/>
+      <c r="AM60" s="132"/>
+      <c r="AN60" s="132"/>
     </row>
     <row r="61" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
@@ -21839,44 +21814,44 @@
       <c r="B61" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="197"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="192"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="45"/>
-      <c r="AB61" s="60"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="59"/>
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
       <c r="AE61" s="28"/>
       <c r="AF61" s="28"/>
-      <c r="AG61" s="120"/>
-      <c r="AH61" s="137"/>
-      <c r="AI61" s="136"/>
-      <c r="AJ61" s="136"/>
-      <c r="AK61" s="136"/>
-      <c r="AL61" s="136"/>
-      <c r="AM61" s="136"/>
-      <c r="AN61" s="136"/>
+      <c r="AG61" s="116"/>
+      <c r="AH61" s="133"/>
+      <c r="AI61" s="132"/>
+      <c r="AJ61" s="132"/>
+      <c r="AK61" s="132"/>
+      <c r="AL61" s="132"/>
+      <c r="AM61" s="132"/>
+      <c r="AN61" s="132"/>
     </row>
     <row r="62" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -21885,44 +21860,44 @@
       <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="195"/>
-      <c r="O62" s="195"/>
-      <c r="P62" s="195"/>
-      <c r="Q62" s="195"/>
-      <c r="R62" s="196"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="203"/>
-      <c r="V62" s="203"/>
-      <c r="W62" s="203"/>
-      <c r="X62" s="203"/>
-      <c r="Y62" s="203"/>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="45"/>
-      <c r="AB62" s="60"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="190"/>
+      <c r="O62" s="190"/>
+      <c r="P62" s="190"/>
+      <c r="Q62" s="190"/>
+      <c r="R62" s="191"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="198"/>
+      <c r="V62" s="198"/>
+      <c r="W62" s="198"/>
+      <c r="X62" s="198"/>
+      <c r="Y62" s="198"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="59"/>
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
       <c r="AE62" s="28"/>
       <c r="AF62" s="28"/>
-      <c r="AG62" s="120"/>
-      <c r="AH62" s="137"/>
-      <c r="AI62" s="136"/>
-      <c r="AJ62" s="136"/>
-      <c r="AK62" s="136"/>
-      <c r="AL62" s="136"/>
-      <c r="AM62" s="136"/>
-      <c r="AN62" s="136"/>
+      <c r="AG62" s="116"/>
+      <c r="AH62" s="133"/>
+      <c r="AI62" s="132"/>
+      <c r="AJ62" s="132"/>
+      <c r="AK62" s="132"/>
+      <c r="AL62" s="132"/>
+      <c r="AM62" s="132"/>
+      <c r="AN62" s="132"/>
     </row>
     <row r="63" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -21931,44 +21906,44 @@
       <c r="B63" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="195"/>
-      <c r="O63" s="195"/>
-      <c r="P63" s="195"/>
-      <c r="Q63" s="195"/>
-      <c r="R63" s="196"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="203"/>
-      <c r="V63" s="203"/>
-      <c r="W63" s="203"/>
-      <c r="X63" s="203"/>
-      <c r="Y63" s="203"/>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="45"/>
-      <c r="AB63" s="60"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="190"/>
+      <c r="O63" s="190"/>
+      <c r="P63" s="190"/>
+      <c r="Q63" s="190"/>
+      <c r="R63" s="191"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="198"/>
+      <c r="V63" s="198"/>
+      <c r="W63" s="198"/>
+      <c r="X63" s="198"/>
+      <c r="Y63" s="198"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="59"/>
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
       <c r="AE63" s="28"/>
       <c r="AF63" s="28"/>
-      <c r="AG63" s="120"/>
-      <c r="AH63" s="137"/>
-      <c r="AI63" s="136"/>
-      <c r="AJ63" s="136"/>
-      <c r="AK63" s="136"/>
-      <c r="AL63" s="136"/>
-      <c r="AM63" s="136"/>
-      <c r="AN63" s="136"/>
+      <c r="AG63" s="116"/>
+      <c r="AH63" s="133"/>
+      <c r="AI63" s="132"/>
+      <c r="AJ63" s="132"/>
+      <c r="AK63" s="132"/>
+      <c r="AL63" s="132"/>
+      <c r="AM63" s="132"/>
+      <c r="AN63" s="132"/>
     </row>
     <row r="64" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -21979,42 +21954,42 @@
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="203"/>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="45"/>
-      <c r="AB64" s="60"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="198"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="59"/>
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
       <c r="AE64" s="28"/>
       <c r="AF64" s="28"/>
-      <c r="AG64" s="120"/>
-      <c r="AH64" s="137"/>
-      <c r="AI64" s="136"/>
-      <c r="AJ64" s="136"/>
-      <c r="AK64" s="136"/>
-      <c r="AL64" s="136"/>
-      <c r="AM64" s="136"/>
-      <c r="AN64" s="136"/>
+      <c r="AG64" s="116"/>
+      <c r="AH64" s="133"/>
+      <c r="AI64" s="132"/>
+      <c r="AJ64" s="132"/>
+      <c r="AK64" s="132"/>
+      <c r="AL64" s="132"/>
+      <c r="AM64" s="132"/>
+      <c r="AN64" s="132"/>
     </row>
     <row r="65" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -22023,44 +21998,44 @@
       <c r="B65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="128"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="198"/>
-      <c r="O65" s="198"/>
-      <c r="P65" s="198"/>
-      <c r="Q65" s="198"/>
-      <c r="R65" s="199"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="203"/>
-      <c r="V65" s="203"/>
-      <c r="W65" s="203"/>
-      <c r="X65" s="203"/>
-      <c r="Y65" s="203"/>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="60"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="193"/>
+      <c r="O65" s="193"/>
+      <c r="P65" s="193"/>
+      <c r="Q65" s="193"/>
+      <c r="R65" s="194"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="198"/>
+      <c r="V65" s="198"/>
+      <c r="W65" s="198"/>
+      <c r="X65" s="198"/>
+      <c r="Y65" s="198"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="59"/>
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
       <c r="AE65" s="28"/>
       <c r="AF65" s="28"/>
-      <c r="AG65" s="120"/>
-      <c r="AH65" s="137"/>
-      <c r="AI65" s="136"/>
-      <c r="AJ65" s="136"/>
-      <c r="AK65" s="136"/>
-      <c r="AL65" s="136"/>
-      <c r="AM65" s="136"/>
-      <c r="AN65" s="136"/>
+      <c r="AG65" s="116"/>
+      <c r="AH65" s="133"/>
+      <c r="AI65" s="132"/>
+      <c r="AJ65" s="132"/>
+      <c r="AK65" s="132"/>
+      <c r="AL65" s="132"/>
+      <c r="AM65" s="132"/>
+      <c r="AN65" s="132"/>
     </row>
     <row r="66" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
@@ -22069,44 +22044,44 @@
       <c r="B66" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
-      <c r="S66" s="79"/>
-      <c r="T66" s="79"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
       <c r="U66" s="28"/>
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28"/>
       <c r="Y66" s="28"/>
-      <c r="Z66" s="79"/>
-      <c r="AA66" s="79"/>
+      <c r="Z66" s="78"/>
+      <c r="AA66" s="78"/>
       <c r="AB66" s="25"/>
       <c r="AC66" s="25"/>
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="120"/>
-      <c r="AH66" s="137"/>
-      <c r="AI66" s="135"/>
-      <c r="AJ66" s="135"/>
-      <c r="AK66" s="135"/>
-      <c r="AL66" s="135"/>
-      <c r="AM66" s="135"/>
-      <c r="AN66" s="136"/>
+      <c r="AF66" s="63"/>
+      <c r="AG66" s="116"/>
+      <c r="AH66" s="133"/>
+      <c r="AI66" s="131"/>
+      <c r="AJ66" s="131"/>
+      <c r="AK66" s="131"/>
+      <c r="AL66" s="131"/>
+      <c r="AM66" s="131"/>
+      <c r="AN66" s="132"/>
     </row>
     <row r="67" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -22115,44 +22090,44 @@
       <c r="B67" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
       <c r="U67" s="28"/>
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
       <c r="Y67" s="28"/>
-      <c r="Z67" s="45"/>
-      <c r="AA67" s="45"/>
-      <c r="AB67" s="208"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="203"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="65"/>
-      <c r="AG67" s="120"/>
-      <c r="AH67" s="137"/>
-      <c r="AI67" s="136"/>
-      <c r="AJ67" s="136"/>
-      <c r="AK67" s="136"/>
-      <c r="AL67" s="136"/>
-      <c r="AM67" s="136"/>
-      <c r="AN67" s="136"/>
+      <c r="AF67" s="64"/>
+      <c r="AG67" s="116"/>
+      <c r="AH67" s="133"/>
+      <c r="AI67" s="132"/>
+      <c r="AJ67" s="132"/>
+      <c r="AK67" s="132"/>
+      <c r="AL67" s="132"/>
+      <c r="AM67" s="132"/>
+      <c r="AN67" s="132"/>
     </row>
     <row r="68" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
@@ -22161,44 +22136,44 @@
       <c r="B68" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="28"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="45"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
       <c r="U68" s="28"/>
       <c r="V68" s="28"/>
       <c r="W68" s="28"/>
       <c r="X68" s="28"/>
       <c r="Y68" s="28"/>
-      <c r="Z68" s="45"/>
-      <c r="AA68" s="45"/>
-      <c r="AB68" s="195"/>
-      <c r="AC68" s="209"/>
-      <c r="AD68" s="209"/>
-      <c r="AE68" s="209"/>
-      <c r="AF68" s="210"/>
-      <c r="AG68" s="120"/>
-      <c r="AH68" s="137"/>
-      <c r="AI68" s="136"/>
-      <c r="AJ68" s="136"/>
-      <c r="AK68" s="136"/>
-      <c r="AL68" s="136"/>
-      <c r="AM68" s="136"/>
-      <c r="AN68" s="136"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="190"/>
+      <c r="AC68" s="204"/>
+      <c r="AD68" s="204"/>
+      <c r="AE68" s="204"/>
+      <c r="AF68" s="205"/>
+      <c r="AG68" s="116"/>
+      <c r="AH68" s="133"/>
+      <c r="AI68" s="132"/>
+      <c r="AJ68" s="132"/>
+      <c r="AK68" s="132"/>
+      <c r="AL68" s="132"/>
+      <c r="AM68" s="132"/>
+      <c r="AN68" s="132"/>
     </row>
     <row r="69" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -22207,44 +22182,44 @@
       <c r="B69" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="28"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
       <c r="U69" s="28"/>
       <c r="V69" s="28"/>
       <c r="W69" s="28"/>
       <c r="X69" s="28"/>
       <c r="Y69" s="28"/>
-      <c r="Z69" s="45"/>
-      <c r="AA69" s="45"/>
-      <c r="AB69" s="195"/>
-      <c r="AC69" s="209"/>
-      <c r="AD69" s="209"/>
-      <c r="AE69" s="209"/>
-      <c r="AF69" s="210"/>
-      <c r="AG69" s="120"/>
-      <c r="AH69" s="137"/>
-      <c r="AI69" s="136"/>
-      <c r="AJ69" s="136"/>
-      <c r="AK69" s="136"/>
-      <c r="AL69" s="136"/>
-      <c r="AM69" s="136"/>
-      <c r="AN69" s="136"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="190"/>
+      <c r="AC69" s="204"/>
+      <c r="AD69" s="204"/>
+      <c r="AE69" s="204"/>
+      <c r="AF69" s="205"/>
+      <c r="AG69" s="116"/>
+      <c r="AH69" s="133"/>
+      <c r="AI69" s="132"/>
+      <c r="AJ69" s="132"/>
+      <c r="AK69" s="132"/>
+      <c r="AL69" s="132"/>
+      <c r="AM69" s="132"/>
+      <c r="AN69" s="132"/>
     </row>
     <row r="70" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -22255,42 +22230,42 @@
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="28"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
       <c r="U70" s="28"/>
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
       <c r="X70" s="28"/>
       <c r="Y70" s="28"/>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="45"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="44"/>
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
       <c r="AD70" s="8"/>
       <c r="AE70" s="8"/>
-      <c r="AF70" s="66"/>
-      <c r="AG70" s="120"/>
-      <c r="AH70" s="137"/>
-      <c r="AI70" s="136"/>
-      <c r="AJ70" s="136"/>
-      <c r="AK70" s="136"/>
-      <c r="AL70" s="136"/>
-      <c r="AM70" s="136"/>
-      <c r="AN70" s="136"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="116"/>
+      <c r="AH70" s="133"/>
+      <c r="AI70" s="132"/>
+      <c r="AJ70" s="132"/>
+      <c r="AK70" s="132"/>
+      <c r="AL70" s="132"/>
+      <c r="AM70" s="132"/>
+      <c r="AN70" s="132"/>
     </row>
     <row r="71" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
@@ -22299,81 +22274,81 @@
       <c r="B71" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="128"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="74"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
       <c r="Q71" s="28"/>
       <c r="R71" s="28"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
       <c r="U71" s="28"/>
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
       <c r="Y71" s="28"/>
-      <c r="Z71" s="45"/>
-      <c r="AA71" s="45"/>
-      <c r="AB71" s="206"/>
-      <c r="AC71" s="198"/>
-      <c r="AD71" s="198"/>
-      <c r="AE71" s="198"/>
-      <c r="AF71" s="207"/>
-      <c r="AG71" s="120"/>
-      <c r="AH71" s="137"/>
-      <c r="AI71" s="136"/>
-      <c r="AJ71" s="136"/>
-      <c r="AK71" s="136"/>
-      <c r="AL71" s="136"/>
-      <c r="AM71" s="136"/>
-      <c r="AN71" s="136"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="201"/>
+      <c r="AC71" s="193"/>
+      <c r="AD71" s="193"/>
+      <c r="AE71" s="193"/>
+      <c r="AF71" s="202"/>
+      <c r="AG71" s="116"/>
+      <c r="AH71" s="133"/>
+      <c r="AI71" s="132"/>
+      <c r="AJ71" s="132"/>
+      <c r="AK71" s="132"/>
+      <c r="AL71" s="132"/>
+      <c r="AM71" s="132"/>
+      <c r="AN71" s="132"/>
     </row>
     <row r="72" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="242" t="s">
+      <c r="A72" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="243"/>
-      <c r="C72" s="243"/>
-      <c r="D72" s="243"/>
-      <c r="E72" s="243"/>
-      <c r="F72" s="243"/>
-      <c r="G72" s="243"/>
-      <c r="H72" s="243"/>
-      <c r="I72" s="243"/>
-      <c r="J72" s="243"/>
-      <c r="K72" s="243"/>
-      <c r="L72" s="243"/>
-      <c r="M72" s="243"/>
-      <c r="N72" s="243"/>
-      <c r="O72" s="243"/>
-      <c r="P72" s="243"/>
-      <c r="Q72" s="243"/>
-      <c r="R72" s="243"/>
-      <c r="S72" s="243"/>
-      <c r="T72" s="243"/>
-      <c r="U72" s="243"/>
-      <c r="V72" s="243"/>
-      <c r="W72" s="243"/>
-      <c r="X72" s="243"/>
-      <c r="Y72" s="243"/>
-      <c r="Z72" s="243"/>
-      <c r="AA72" s="243"/>
-      <c r="AB72" s="243"/>
-      <c r="AC72" s="243"/>
-      <c r="AD72" s="243"/>
-      <c r="AE72" s="243"/>
-      <c r="AF72" s="243"/>
-      <c r="AG72" s="243"/>
+      <c r="B72" s="238"/>
+      <c r="C72" s="238"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="238"/>
+      <c r="F72" s="238"/>
+      <c r="G72" s="238"/>
+      <c r="H72" s="238"/>
+      <c r="I72" s="238"/>
+      <c r="J72" s="238"/>
+      <c r="K72" s="238"/>
+      <c r="L72" s="238"/>
+      <c r="M72" s="238"/>
+      <c r="N72" s="238"/>
+      <c r="O72" s="238"/>
+      <c r="P72" s="238"/>
+      <c r="Q72" s="238"/>
+      <c r="R72" s="238"/>
+      <c r="S72" s="238"/>
+      <c r="T72" s="238"/>
+      <c r="U72" s="238"/>
+      <c r="V72" s="238"/>
+      <c r="W72" s="238"/>
+      <c r="X72" s="238"/>
+      <c r="Y72" s="238"/>
+      <c r="Z72" s="238"/>
+      <c r="AA72" s="238"/>
+      <c r="AB72" s="238"/>
+      <c r="AC72" s="238"/>
+      <c r="AD72" s="238"/>
+      <c r="AE72" s="238"/>
+      <c r="AF72" s="238"/>
+      <c r="AG72" s="238"/>
     </row>
     <row r="73" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22388,91 +22363,91 @@
       <c r="D73" s="32">
         <v>2</v>
       </c>
-      <c r="E73" s="98">
+      <c r="E73" s="97">
         <v>3</v>
       </c>
-      <c r="F73" s="89">
+      <c r="F73" s="88">
         <v>4</v>
       </c>
-      <c r="G73" s="99">
+      <c r="G73" s="98">
         <v>5</v>
       </c>
-      <c r="H73" s="89">
+      <c r="H73" s="88">
         <v>6</v>
       </c>
-      <c r="I73" s="94">
+      <c r="I73" s="93">
         <v>7</v>
       </c>
-      <c r="J73" s="104">
+      <c r="J73" s="102">
         <v>8</v>
       </c>
-      <c r="K73" s="92">
+      <c r="K73" s="91">
         <v>9</v>
       </c>
-      <c r="L73" s="91">
+      <c r="L73" s="90">
         <v>10</v>
       </c>
-      <c r="M73" s="91">
+      <c r="M73" s="90">
         <v>11</v>
       </c>
-      <c r="N73" s="92">
+      <c r="N73" s="91">
         <v>12</v>
       </c>
-      <c r="O73" s="93">
+      <c r="O73" s="92">
         <v>13</v>
       </c>
-      <c r="P73" s="94">
+      <c r="P73" s="93">
         <v>14</v>
       </c>
-      <c r="Q73" s="104">
+      <c r="Q73" s="102">
         <v>15</v>
       </c>
-      <c r="R73" s="92">
+      <c r="R73" s="91">
         <v>16</v>
       </c>
-      <c r="S73" s="92">
+      <c r="S73" s="91">
         <v>17</v>
       </c>
-      <c r="T73" s="92">
+      <c r="T73" s="91">
         <v>18</v>
       </c>
-      <c r="U73" s="92">
+      <c r="U73" s="91">
         <v>19</v>
       </c>
-      <c r="V73" s="93">
+      <c r="V73" s="92">
         <v>20</v>
       </c>
-      <c r="W73" s="44">
+      <c r="W73" s="43">
         <v>21</v>
       </c>
-      <c r="X73" s="44">
+      <c r="X73" s="43">
         <v>22</v>
       </c>
-      <c r="Y73" s="89">
+      <c r="Y73" s="88">
         <v>23</v>
       </c>
-      <c r="Z73" s="101">
+      <c r="Z73" s="100">
         <v>24</v>
       </c>
-      <c r="AA73" s="92">
+      <c r="AA73" s="91">
         <v>25</v>
       </c>
-      <c r="AB73" s="92">
+      <c r="AB73" s="91">
         <v>26</v>
       </c>
-      <c r="AC73" s="93">
+      <c r="AC73" s="92">
         <v>27</v>
       </c>
-      <c r="AD73" s="44">
+      <c r="AD73" s="43">
         <v>28</v>
       </c>
-      <c r="AE73" s="101">
+      <c r="AE73" s="100">
         <v>29</v>
       </c>
-      <c r="AF73" s="93">
+      <c r="AF73" s="92">
         <v>30</v>
       </c>
-      <c r="AG73" s="113"/>
+      <c r="AG73" s="110"/>
     </row>
     <row r="74" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
@@ -22481,37 +22456,37 @@
       <c r="B74" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="214"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="215"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="101"/>
-      <c r="T74" s="92"/>
-      <c r="U74" s="92"/>
-      <c r="V74" s="93"/>
-      <c r="W74" s="44"/>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="101"/>
-      <c r="AA74" s="92"/>
-      <c r="AB74" s="92"/>
-      <c r="AC74" s="93"/>
-      <c r="AD74" s="44"/>
-      <c r="AE74" s="44"/>
-      <c r="AF74" s="145"/>
-      <c r="AG74" s="141"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="92"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="100"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="92"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="88"/>
+      <c r="Z74" s="100"/>
+      <c r="AA74" s="91"/>
+      <c r="AB74" s="91"/>
+      <c r="AC74" s="92"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="141"/>
+      <c r="AG74" s="137"/>
     </row>
     <row r="75" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
@@ -22520,37 +22495,37 @@
       <c r="B75" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="92"/>
-      <c r="O75" s="93"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="101"/>
-      <c r="T75" s="92"/>
-      <c r="U75" s="92"/>
-      <c r="V75" s="93"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="89"/>
-      <c r="Z75" s="101"/>
-      <c r="AA75" s="92"/>
-      <c r="AB75" s="92"/>
-      <c r="AC75" s="93"/>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="145"/>
-      <c r="AG75" s="141"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="136"/>
+      <c r="M75" s="136"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="92"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="100"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="91"/>
+      <c r="V75" s="92"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="100"/>
+      <c r="AA75" s="91"/>
+      <c r="AB75" s="91"/>
+      <c r="AC75" s="92"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="141"/>
+      <c r="AG75" s="137"/>
     </row>
     <row r="76" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
@@ -22559,37 +22534,37 @@
       <c r="B76" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="211"/>
-      <c r="F76" s="211"/>
-      <c r="G76" s="211"/>
-      <c r="H76" s="211"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="211"/>
-      <c r="L76" s="212"/>
-      <c r="M76" s="212"/>
-      <c r="N76" s="92"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="89"/>
-      <c r="S76" s="101"/>
-      <c r="T76" s="92"/>
-      <c r="U76" s="92"/>
-      <c r="V76" s="93"/>
-      <c r="W76" s="44"/>
-      <c r="X76" s="44"/>
-      <c r="Y76" s="89"/>
-      <c r="Z76" s="101"/>
-      <c r="AA76" s="92"/>
-      <c r="AB76" s="92"/>
-      <c r="AC76" s="93"/>
-      <c r="AD76" s="44"/>
-      <c r="AE76" s="44"/>
-      <c r="AF76" s="145"/>
-      <c r="AG76" s="141"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="207"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="92"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="100"/>
+      <c r="T76" s="91"/>
+      <c r="U76" s="91"/>
+      <c r="V76" s="92"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="100"/>
+      <c r="AA76" s="91"/>
+      <c r="AB76" s="91"/>
+      <c r="AC76" s="92"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="141"/>
+      <c r="AG76" s="137"/>
     </row>
     <row r="77" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -22598,37 +22573,37 @@
       <c r="B77" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="211"/>
-      <c r="F77" s="211"/>
-      <c r="G77" s="211"/>
-      <c r="H77" s="211"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="211"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="92"/>
-      <c r="O77" s="93"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="101"/>
-      <c r="T77" s="92"/>
-      <c r="U77" s="92"/>
-      <c r="V77" s="93"/>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
-      <c r="Y77" s="89"/>
-      <c r="Z77" s="101"/>
-      <c r="AA77" s="92"/>
-      <c r="AB77" s="92"/>
-      <c r="AC77" s="93"/>
-      <c r="AD77" s="44"/>
-      <c r="AE77" s="44"/>
-      <c r="AF77" s="145"/>
-      <c r="AG77" s="141"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="206"/>
+      <c r="G77" s="206"/>
+      <c r="H77" s="206"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="206"/>
+      <c r="L77" s="207"/>
+      <c r="M77" s="207"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="100"/>
+      <c r="T77" s="91"/>
+      <c r="U77" s="91"/>
+      <c r="V77" s="92"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="100"/>
+      <c r="AA77" s="91"/>
+      <c r="AB77" s="91"/>
+      <c r="AC77" s="92"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="141"/>
+      <c r="AG77" s="137"/>
     </row>
     <row r="78" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -22637,37 +22612,37 @@
       <c r="B78" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="213"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="212"/>
-      <c r="N78" s="92"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="101"/>
-      <c r="T78" s="92"/>
-      <c r="U78" s="92"/>
-      <c r="V78" s="93"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="89"/>
-      <c r="Z78" s="101"/>
-      <c r="AA78" s="92"/>
-      <c r="AB78" s="92"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="44"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="145"/>
-      <c r="AG78" s="141"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="136"/>
+      <c r="M78" s="207"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="100"/>
+      <c r="T78" s="91"/>
+      <c r="U78" s="91"/>
+      <c r="V78" s="92"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="88"/>
+      <c r="Z78" s="100"/>
+      <c r="AA78" s="91"/>
+      <c r="AB78" s="91"/>
+      <c r="AC78" s="92"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="141"/>
+      <c r="AG78" s="137"/>
     </row>
     <row r="79" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
@@ -22676,37 +22651,37 @@
       <c r="B79" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="211"/>
-      <c r="F79" s="211"/>
-      <c r="G79" s="211"/>
-      <c r="H79" s="211"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="211"/>
-      <c r="L79" s="212"/>
-      <c r="M79" s="212"/>
-      <c r="N79" s="93"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="152"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="89"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="92"/>
-      <c r="U79" s="92"/>
-      <c r="V79" s="89"/>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
-      <c r="Y79" s="89"/>
-      <c r="Z79" s="101"/>
-      <c r="AA79" s="92"/>
-      <c r="AB79" s="93"/>
-      <c r="AC79" s="93"/>
-      <c r="AD79" s="44"/>
-      <c r="AE79" s="44"/>
-      <c r="AF79" s="145"/>
-      <c r="AG79" s="141"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="206"/>
+      <c r="G79" s="206"/>
+      <c r="H79" s="206"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="206"/>
+      <c r="L79" s="207"/>
+      <c r="M79" s="207"/>
+      <c r="N79" s="92"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="100"/>
+      <c r="T79" s="91"/>
+      <c r="U79" s="91"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="88"/>
+      <c r="Z79" s="100"/>
+      <c r="AA79" s="91"/>
+      <c r="AB79" s="92"/>
+      <c r="AC79" s="92"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="141"/>
+      <c r="AG79" s="137"/>
     </row>
     <row r="80" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
@@ -22715,271 +22690,271 @@
       <c r="B80" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="142"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="138"/>
       <c r="J80" s="33"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
-      <c r="N80" s="220"/>
-      <c r="O80" s="221"/>
-      <c r="P80" s="219"/>
-      <c r="Q80" s="143"/>
-      <c r="R80" s="42"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="216"/>
+      <c r="P80" s="214"/>
+      <c r="Q80" s="139"/>
+      <c r="R80" s="41"/>
       <c r="S80" s="14"/>
       <c r="T80" s="14"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="115"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="144"/>
-      <c r="Y80" s="115"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="111"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="140"/>
+      <c r="Y80" s="111"/>
       <c r="Z80" s="14"/>
       <c r="AA80" s="14"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="40"/>
-      <c r="AD80" s="45"/>
-      <c r="AE80" s="45"/>
-      <c r="AF80" s="40"/>
-      <c r="AG80" s="113"/>
+      <c r="AB80" s="39"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="44"/>
+      <c r="AE80" s="44"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="110"/>
     </row>
     <row r="81" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="226" t="s">
+      <c r="B81" s="221" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="149"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="142"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="138"/>
       <c r="J81" s="30"/>
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
       <c r="M81" s="27"/>
-      <c r="N81" s="231"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="143"/>
-      <c r="R81" s="159"/>
-      <c r="S81" s="224"/>
-      <c r="T81" s="224"/>
+      <c r="N81" s="226"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="139"/>
+      <c r="R81" s="154"/>
+      <c r="S81" s="219"/>
+      <c r="T81" s="219"/>
       <c r="U81" s="38"/>
-      <c r="V81" s="225"/>
-      <c r="W81" s="45"/>
-      <c r="X81" s="144"/>
-      <c r="Y81" s="115"/>
+      <c r="V81" s="220"/>
+      <c r="W81" s="44"/>
+      <c r="X81" s="140"/>
+      <c r="Y81" s="111"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="40"/>
-      <c r="AD81" s="45"/>
-      <c r="AE81" s="45"/>
-      <c r="AF81" s="40"/>
-      <c r="AG81" s="113"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="44"/>
+      <c r="AE81" s="44"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="110"/>
     </row>
     <row r="82" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="226" t="s">
+      <c r="B82" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="149"/>
-      <c r="D82" s="149"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="142"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="138"/>
       <c r="J82" s="30"/>
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
       <c r="M82" s="27"/>
-      <c r="N82" s="231"/>
-      <c r="O82" s="232"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="143"/>
-      <c r="R82" s="234"/>
-      <c r="S82" s="231"/>
-      <c r="T82" s="231"/>
-      <c r="U82" s="235"/>
-      <c r="V82" s="188"/>
-      <c r="W82" s="45"/>
-      <c r="X82" s="144"/>
-      <c r="Y82" s="115"/>
+      <c r="N82" s="226"/>
+      <c r="O82" s="227"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="229"/>
+      <c r="S82" s="226"/>
+      <c r="T82" s="226"/>
+      <c r="U82" s="230"/>
+      <c r="V82" s="183"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="140"/>
+      <c r="Y82" s="111"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="40"/>
-      <c r="AD82" s="45"/>
-      <c r="AE82" s="45"/>
-      <c r="AF82" s="40"/>
-      <c r="AG82" s="113"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="44"/>
+      <c r="AE82" s="44"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="110"/>
     </row>
     <row r="83" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="226" t="s">
+      <c r="B83" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="149"/>
-      <c r="D83" s="149"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="142"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="138"/>
       <c r="J83" s="30"/>
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
       <c r="M83" s="27"/>
-      <c r="N83" s="224"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="143"/>
-      <c r="R83" s="159"/>
-      <c r="S83" s="224"/>
-      <c r="T83" s="224"/>
+      <c r="N83" s="219"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="53"/>
+      <c r="Q83" s="139"/>
+      <c r="R83" s="154"/>
+      <c r="S83" s="219"/>
+      <c r="T83" s="219"/>
       <c r="U83" s="38"/>
-      <c r="V83" s="188"/>
-      <c r="W83" s="45"/>
-      <c r="X83" s="144"/>
-      <c r="Y83" s="115"/>
+      <c r="V83" s="183"/>
+      <c r="W83" s="44"/>
+      <c r="X83" s="140"/>
+      <c r="Y83" s="111"/>
       <c r="Z83" s="27"/>
       <c r="AA83" s="27"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="40"/>
-      <c r="AD83" s="45"/>
-      <c r="AE83" s="45"/>
-      <c r="AF83" s="40"/>
-      <c r="AG83" s="113"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="44"/>
+      <c r="AE83" s="44"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="110"/>
     </row>
     <row r="84" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="226" t="s">
+      <c r="B84" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="149"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="142"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="138"/>
       <c r="J84" s="30"/>
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
       <c r="M84" s="27"/>
-      <c r="N84" s="225"/>
-      <c r="O84" s="233"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="143"/>
-      <c r="R84" s="159"/>
-      <c r="S84" s="224"/>
-      <c r="T84" s="224"/>
+      <c r="N84" s="220"/>
+      <c r="O84" s="228"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="139"/>
+      <c r="R84" s="154"/>
+      <c r="S84" s="219"/>
+      <c r="T84" s="219"/>
       <c r="U84" s="38"/>
-      <c r="V84" s="236"/>
-      <c r="W84" s="45"/>
-      <c r="X84" s="144"/>
-      <c r="Y84" s="231"/>
+      <c r="V84" s="231"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="140"/>
+      <c r="Y84" s="226"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="40"/>
-      <c r="AC84" s="40"/>
-      <c r="AD84" s="45"/>
-      <c r="AE84" s="45"/>
-      <c r="AF84" s="40"/>
-      <c r="AG84" s="113"/>
+      <c r="AB84" s="39"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="44"/>
+      <c r="AE84" s="44"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="110"/>
     </row>
     <row r="85" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="226" t="s">
+      <c r="B85" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="149"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="142"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="138"/>
       <c r="J85" s="30"/>
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
-      <c r="N85" s="225"/>
-      <c r="O85" s="233"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="143"/>
-      <c r="R85" s="159"/>
-      <c r="S85" s="224"/>
-      <c r="T85" s="224"/>
+      <c r="N85" s="220"/>
+      <c r="O85" s="228"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="139"/>
+      <c r="R85" s="154"/>
+      <c r="S85" s="219"/>
+      <c r="T85" s="219"/>
       <c r="U85" s="38"/>
-      <c r="V85" s="225"/>
-      <c r="W85" s="45"/>
-      <c r="X85" s="144"/>
-      <c r="Y85" s="231"/>
-      <c r="Z85" s="231"/>
-      <c r="AA85" s="231"/>
-      <c r="AB85" s="235"/>
-      <c r="AC85" s="235"/>
-      <c r="AD85" s="45"/>
-      <c r="AE85" s="45"/>
-      <c r="AF85" s="235"/>
-      <c r="AG85" s="113"/>
+      <c r="V85" s="220"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="140"/>
+      <c r="Y85" s="226"/>
+      <c r="Z85" s="226"/>
+      <c r="AA85" s="226"/>
+      <c r="AB85" s="230"/>
+      <c r="AC85" s="230"/>
+      <c r="AD85" s="44"/>
+      <c r="AE85" s="44"/>
+      <c r="AF85" s="230"/>
+      <c r="AG85" s="110"/>
     </row>
     <row r="86" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="226" t="s">
+      <c r="B86" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="149"/>
-      <c r="D86" s="149"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="142"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="138"/>
       <c r="J86" s="30"/>
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
       <c r="M86" s="27"/>
-      <c r="N86" s="225"/>
-      <c r="O86" s="233"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="143"/>
-      <c r="R86" s="159"/>
-      <c r="S86" s="224"/>
-      <c r="T86" s="224"/>
+      <c r="N86" s="220"/>
+      <c r="O86" s="228"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="139"/>
+      <c r="R86" s="154"/>
+      <c r="S86" s="219"/>
+      <c r="T86" s="219"/>
       <c r="U86" s="38"/>
-      <c r="V86" s="225"/>
-      <c r="W86" s="45"/>
-      <c r="X86" s="144"/>
-      <c r="Y86" s="115"/>
+      <c r="V86" s="220"/>
+      <c r="W86" s="44"/>
+      <c r="X86" s="140"/>
+      <c r="Y86" s="111"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="40"/>
-      <c r="AD86" s="45"/>
-      <c r="AE86" s="45"/>
-      <c r="AF86" s="40"/>
-      <c r="AG86" s="113"/>
+      <c r="AB86" s="39"/>
+      <c r="AC86" s="39"/>
+      <c r="AD86" s="44"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="39"/>
+      <c r="AG86" s="110"/>
     </row>
     <row r="87" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -22988,37 +22963,37 @@
       <c r="B87" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="150"/>
-      <c r="D87" s="150"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
+      <c r="C87" s="146"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
-      <c r="K87" s="129"/>
-      <c r="L87" s="217"/>
-      <c r="M87" s="217"/>
-      <c r="N87" s="227"/>
-      <c r="O87" s="228"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="45"/>
-      <c r="R87" s="184"/>
+      <c r="K87" s="125"/>
+      <c r="L87" s="212"/>
+      <c r="M87" s="212"/>
+      <c r="N87" s="222"/>
+      <c r="O87" s="223"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="179"/>
       <c r="S87" s="14"/>
       <c r="T87" s="19"/>
-      <c r="U87" s="40"/>
+      <c r="U87" s="39"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="45"/>
-      <c r="X87" s="108"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="106"/>
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="19"/>
-      <c r="AB87" s="63"/>
-      <c r="AC87" s="63"/>
-      <c r="AD87" s="45"/>
-      <c r="AE87" s="45"/>
-      <c r="AF87" s="63"/>
-      <c r="AG87" s="113"/>
+      <c r="AB87" s="62"/>
+      <c r="AC87" s="62"/>
+      <c r="AD87" s="44"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="62"/>
+      <c r="AG87" s="110"/>
     </row>
     <row r="88" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
@@ -23027,37 +23002,37 @@
       <c r="B88" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
-      <c r="K88" s="130"/>
+      <c r="K88" s="126"/>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="223"/>
-      <c r="Q88" s="45"/>
-      <c r="R88" s="159"/>
-      <c r="S88" s="184"/>
-      <c r="T88" s="184"/>
-      <c r="U88" s="239"/>
-      <c r="V88" s="184"/>
-      <c r="W88" s="111"/>
-      <c r="X88" s="108"/>
-      <c r="Y88" s="179"/>
-      <c r="Z88" s="53"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="218"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="154"/>
+      <c r="S88" s="179"/>
+      <c r="T88" s="179"/>
+      <c r="U88" s="234"/>
+      <c r="V88" s="179"/>
+      <c r="W88" s="109"/>
+      <c r="X88" s="106"/>
+      <c r="Y88" s="174"/>
+      <c r="Z88" s="52"/>
       <c r="AA88" s="19"/>
-      <c r="AB88" s="63"/>
-      <c r="AC88" s="63"/>
-      <c r="AD88" s="45"/>
-      <c r="AE88" s="45"/>
-      <c r="AF88" s="63"/>
-      <c r="AG88" s="113"/>
+      <c r="AB88" s="62"/>
+      <c r="AC88" s="62"/>
+      <c r="AD88" s="44"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="62"/>
+      <c r="AG88" s="110"/>
     </row>
     <row r="89" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -23066,37 +23041,37 @@
       <c r="B89" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="150"/>
-      <c r="D89" s="150"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
-      <c r="K89" s="157"/>
+      <c r="K89" s="152"/>
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="105"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="53"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="103"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="52"/>
       <c r="S89" s="19"/>
       <c r="T89" s="14"/>
       <c r="U89" s="38"/>
-      <c r="V89" s="216"/>
-      <c r="W89" s="45"/>
-      <c r="X89" s="108"/>
-      <c r="Y89" s="179"/>
-      <c r="Z89" s="179"/>
-      <c r="AA89" s="179"/>
-      <c r="AB89" s="179"/>
-      <c r="AC89" s="179"/>
-      <c r="AD89" s="45"/>
-      <c r="AE89" s="111"/>
-      <c r="AF89" s="179"/>
-      <c r="AG89" s="113"/>
+      <c r="V89" s="211"/>
+      <c r="W89" s="44"/>
+      <c r="X89" s="106"/>
+      <c r="Y89" s="174"/>
+      <c r="Z89" s="174"/>
+      <c r="AA89" s="174"/>
+      <c r="AB89" s="174"/>
+      <c r="AC89" s="174"/>
+      <c r="AD89" s="44"/>
+      <c r="AE89" s="109"/>
+      <c r="AF89" s="174"/>
+      <c r="AG89" s="110"/>
     </row>
     <row r="90" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -23105,152 +23080,152 @@
       <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="150"/>
-      <c r="D90" s="150"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="57"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="95"/>
+      <c r="J90" s="95"/>
+      <c r="K90" s="56"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="100"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="104"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="99"/>
       <c r="S90" s="5"/>
       <c r="T90" s="14"/>
-      <c r="U90" s="40"/>
+      <c r="U90" s="39"/>
       <c r="V90" s="14"/>
-      <c r="W90" s="45"/>
-      <c r="X90" s="109"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="107"/>
       <c r="Y90" s="14"/>
       <c r="Z90" s="14"/>
       <c r="AA90" s="14"/>
-      <c r="AB90" s="129"/>
-      <c r="AC90" s="216"/>
-      <c r="AD90" s="45"/>
-      <c r="AE90" s="111"/>
-      <c r="AF90" s="216"/>
-      <c r="AG90" s="113"/>
+      <c r="AB90" s="125"/>
+      <c r="AC90" s="211"/>
+      <c r="AD90" s="44"/>
+      <c r="AE90" s="109"/>
+      <c r="AF90" s="211"/>
+      <c r="AG90" s="110"/>
     </row>
     <row r="91" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="94" t="s">
         <v>69</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="150"/>
-      <c r="D91" s="150"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="96"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="57"/>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="56"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="106"/>
-      <c r="Q91" s="45"/>
-      <c r="R91" s="100"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="104"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="99"/>
       <c r="S91" s="5"/>
       <c r="T91" s="4"/>
-      <c r="U91" s="102"/>
+      <c r="U91" s="101"/>
       <c r="V91" s="4"/>
-      <c r="W91" s="45"/>
-      <c r="X91" s="109"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="107"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="45"/>
-      <c r="AE91" s="111"/>
-      <c r="AF91" s="102"/>
-      <c r="AG91" s="113"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="109"/>
+      <c r="AF91" s="101"/>
+      <c r="AG91" s="110"/>
     </row>
     <row r="92" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="94" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="151"/>
-      <c r="D92" s="151"/>
-      <c r="E92" s="139"/>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="97"/>
-      <c r="J92" s="97"/>
-      <c r="K92" s="158"/>
-      <c r="L92" s="218"/>
-      <c r="M92" s="218"/>
-      <c r="N92" s="229"/>
-      <c r="O92" s="230"/>
-      <c r="P92" s="107"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="237"/>
-      <c r="S92" s="229"/>
-      <c r="T92" s="179"/>
-      <c r="U92" s="238"/>
-      <c r="V92" s="179"/>
-      <c r="W92" s="45"/>
-      <c r="X92" s="110"/>
-      <c r="Y92" s="179"/>
-      <c r="Z92" s="179"/>
-      <c r="AA92" s="179"/>
-      <c r="AB92" s="179"/>
-      <c r="AC92" s="179"/>
-      <c r="AD92" s="45"/>
-      <c r="AE92" s="111"/>
-      <c r="AF92" s="179"/>
-      <c r="AG92" s="113"/>
+      <c r="C92" s="147"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="135"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="153"/>
+      <c r="L92" s="213"/>
+      <c r="M92" s="213"/>
+      <c r="N92" s="224"/>
+      <c r="O92" s="225"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="232"/>
+      <c r="S92" s="224"/>
+      <c r="T92" s="174"/>
+      <c r="U92" s="233"/>
+      <c r="V92" s="174"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="108"/>
+      <c r="Y92" s="174"/>
+      <c r="Z92" s="174"/>
+      <c r="AA92" s="174"/>
+      <c r="AB92" s="174"/>
+      <c r="AC92" s="174"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="109"/>
+      <c r="AF92" s="174"/>
+      <c r="AG92" s="110"/>
     </row>
     <row r="93" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="244" t="s">
+      <c r="A93" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="245"/>
-      <c r="C93" s="245"/>
-      <c r="D93" s="245"/>
-      <c r="E93" s="245"/>
-      <c r="F93" s="245"/>
-      <c r="G93" s="245"/>
-      <c r="H93" s="245"/>
-      <c r="I93" s="245"/>
-      <c r="J93" s="245"/>
-      <c r="K93" s="245"/>
-      <c r="L93" s="245"/>
-      <c r="M93" s="245"/>
-      <c r="N93" s="245"/>
-      <c r="O93" s="245"/>
-      <c r="P93" s="245"/>
-      <c r="Q93" s="245"/>
-      <c r="R93" s="245"/>
-      <c r="S93" s="245"/>
-      <c r="T93" s="245"/>
-      <c r="U93" s="245"/>
-      <c r="V93" s="245"/>
-      <c r="W93" s="245"/>
-      <c r="X93" s="245"/>
-      <c r="Y93" s="245"/>
-      <c r="Z93" s="245"/>
-      <c r="AA93" s="245"/>
-      <c r="AB93" s="245"/>
-      <c r="AC93" s="245"/>
-      <c r="AD93" s="245"/>
-      <c r="AE93" s="245"/>
-      <c r="AF93" s="245"/>
-      <c r="AG93" s="245"/>
+      <c r="B93" s="240"/>
+      <c r="C93" s="240"/>
+      <c r="D93" s="240"/>
+      <c r="E93" s="240"/>
+      <c r="F93" s="240"/>
+      <c r="G93" s="240"/>
+      <c r="H93" s="240"/>
+      <c r="I93" s="240"/>
+      <c r="J93" s="240"/>
+      <c r="K93" s="240"/>
+      <c r="L93" s="240"/>
+      <c r="M93" s="240"/>
+      <c r="N93" s="240"/>
+      <c r="O93" s="240"/>
+      <c r="P93" s="240"/>
+      <c r="Q93" s="240"/>
+      <c r="R93" s="240"/>
+      <c r="S93" s="240"/>
+      <c r="T93" s="240"/>
+      <c r="U93" s="240"/>
+      <c r="V93" s="240"/>
+      <c r="W93" s="240"/>
+      <c r="X93" s="240"/>
+      <c r="Y93" s="240"/>
+      <c r="Z93" s="240"/>
+      <c r="AA93" s="240"/>
+      <c r="AB93" s="240"/>
+      <c r="AC93" s="240"/>
+      <c r="AD93" s="240"/>
+      <c r="AE93" s="240"/>
+      <c r="AF93" s="240"/>
+      <c r="AG93" s="240"/>
     </row>
     <row r="94" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
@@ -23268,88 +23243,88 @@
       <c r="E94" s="14">
         <v>3</v>
       </c>
-      <c r="F94" s="40">
+      <c r="F94" s="39">
         <v>4</v>
       </c>
-      <c r="G94" s="54">
+      <c r="G94" s="53">
         <v>5</v>
       </c>
-      <c r="H94" s="54">
+      <c r="H94" s="53">
         <v>6</v>
       </c>
-      <c r="I94" s="154">
+      <c r="I94" s="150">
         <v>7</v>
       </c>
-      <c r="J94" s="155">
+      <c r="J94" s="151">
         <v>8</v>
       </c>
-      <c r="K94" s="118">
+      <c r="K94" s="114">
         <v>9</v>
       </c>
-      <c r="L94" s="118">
+      <c r="L94" s="114">
         <v>10</v>
       </c>
-      <c r="M94" s="118">
+      <c r="M94" s="114">
         <v>11</v>
       </c>
-      <c r="N94" s="54">
+      <c r="N94" s="53">
         <v>12</v>
       </c>
-      <c r="O94" s="54">
+      <c r="O94" s="53">
         <v>13</v>
       </c>
-      <c r="P94" s="118">
+      <c r="P94" s="114">
         <v>14</v>
       </c>
-      <c r="Q94" s="118">
+      <c r="Q94" s="114">
         <v>15</v>
       </c>
-      <c r="R94" s="118">
+      <c r="R94" s="114">
         <v>16</v>
       </c>
-      <c r="S94" s="118">
+      <c r="S94" s="114">
         <v>17</v>
       </c>
-      <c r="T94" s="118">
+      <c r="T94" s="114">
         <v>18</v>
       </c>
-      <c r="U94" s="54">
+      <c r="U94" s="53">
         <v>19</v>
       </c>
-      <c r="V94" s="54">
+      <c r="V94" s="53">
         <v>20</v>
       </c>
-      <c r="W94" s="118">
+      <c r="W94" s="114">
         <v>21</v>
       </c>
-      <c r="X94" s="118">
+      <c r="X94" s="114">
         <v>22</v>
       </c>
-      <c r="Y94" s="118">
+      <c r="Y94" s="114">
         <v>23</v>
       </c>
-      <c r="Z94" s="118">
+      <c r="Z94" s="114">
         <v>24</v>
       </c>
-      <c r="AA94" s="118">
+      <c r="AA94" s="114">
         <v>25</v>
       </c>
-      <c r="AB94" s="54">
+      <c r="AB94" s="53">
         <v>26</v>
       </c>
-      <c r="AC94" s="54">
+      <c r="AC94" s="53">
         <v>27</v>
       </c>
-      <c r="AD94" s="118">
+      <c r="AD94" s="114">
         <v>28</v>
       </c>
-      <c r="AE94" s="118">
+      <c r="AE94" s="114">
         <v>29</v>
       </c>
-      <c r="AF94" s="118">
+      <c r="AF94" s="114">
         <v>30</v>
       </c>
-      <c r="AG94" s="118">
+      <c r="AG94" s="114">
         <v>31</v>
       </c>
     </row>
@@ -23363,119 +23338,119 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="111"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="153"/>
-      <c r="L95" s="160"/>
-      <c r="M95" s="214"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="111"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="116"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="43"/>
-      <c r="Z95" s="43"/>
-      <c r="AA95" s="113"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="114"/>
-      <c r="AE95" s="43"/>
-      <c r="AF95" s="43"/>
-      <c r="AG95" s="117"/>
-      <c r="AH95" s="137"/>
-      <c r="AI95" s="136"/>
-      <c r="AJ95" s="136"/>
-      <c r="AK95" s="136"/>
-      <c r="AL95" s="136"/>
-      <c r="AM95" s="136"/>
-      <c r="AN95" s="136"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="114"/>
+      <c r="K95" s="149"/>
+      <c r="L95" s="155"/>
+      <c r="M95" s="209"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="109"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="40"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="109"/>
+      <c r="W95" s="40"/>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
+      <c r="Z95" s="40"/>
+      <c r="AA95" s="40"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="109"/>
+      <c r="AD95" s="112"/>
+      <c r="AE95" s="42"/>
+      <c r="AF95" s="42"/>
+      <c r="AG95" s="113"/>
+      <c r="AH95" s="133"/>
+      <c r="AI95" s="132"/>
+      <c r="AJ95" s="132"/>
+      <c r="AK95" s="132"/>
+      <c r="AL95" s="132"/>
+      <c r="AM95" s="132"/>
+      <c r="AN95" s="132"/>
     </row>
     <row r="96" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="95" t="s">
+      <c r="A96" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="226" t="s">
+      <c r="B96" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="231"/>
-      <c r="D96" s="231"/>
-      <c r="E96" s="231"/>
-      <c r="F96" s="231"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="246"/>
-      <c r="J96" s="222"/>
-      <c r="K96" s="222"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="111"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="113"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="114"/>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="113"/>
+      <c r="C96" s="226"/>
+      <c r="D96" s="226"/>
+      <c r="E96" s="226"/>
+      <c r="F96" s="226"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="109"/>
+      <c r="I96" s="230"/>
+      <c r="J96" s="230"/>
+      <c r="K96" s="230"/>
+      <c r="L96" s="230"/>
+      <c r="M96" s="230"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="109"/>
+      <c r="P96" s="241"/>
+      <c r="Q96" s="217"/>
+      <c r="R96" s="217"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="109"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
+      <c r="Z96" s="40"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="109"/>
+      <c r="AD96" s="40"/>
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="110"/>
     </row>
     <row r="97" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="95" t="s">
+      <c r="A97" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="226" t="s">
+      <c r="B97" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="111"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="222"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="45"/>
-      <c r="O97" s="111"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="43"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="113"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="43"/>
-      <c r="AD97" s="114"/>
-      <c r="AE97" s="43"/>
-      <c r="AF97" s="43"/>
-      <c r="AG97" s="113"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="109"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="217"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="40"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="109"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="40"/>
+      <c r="Y97" s="40"/>
+      <c r="Z97" s="40"/>
+      <c r="AA97" s="40"/>
+      <c r="AB97" s="44"/>
+      <c r="AC97" s="109"/>
+      <c r="AD97" s="40"/>
+      <c r="AE97" s="42"/>
+      <c r="AF97" s="42"/>
+      <c r="AG97" s="110"/>
     </row>
     <row r="98" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -23484,37 +23459,37 @@
       <c r="B98" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="235"/>
-      <c r="D98" s="235"/>
-      <c r="E98" s="235"/>
-      <c r="F98" s="235"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="246"/>
-      <c r="J98" s="222"/>
-      <c r="K98" s="222"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="111"/>
-      <c r="O98" s="111"/>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="43"/>
-      <c r="Y98" s="43"/>
-      <c r="Z98" s="43"/>
-      <c r="AA98" s="113"/>
-      <c r="AB98" s="43"/>
-      <c r="AC98" s="43"/>
-      <c r="AD98" s="114"/>
-      <c r="AE98" s="43"/>
-      <c r="AF98" s="43"/>
-      <c r="AG98" s="113"/>
+      <c r="C98" s="230"/>
+      <c r="D98" s="230"/>
+      <c r="E98" s="230"/>
+      <c r="F98" s="230"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="230"/>
+      <c r="J98" s="230"/>
+      <c r="K98" s="230"/>
+      <c r="L98" s="230"/>
+      <c r="M98" s="230"/>
+      <c r="N98" s="109"/>
+      <c r="O98" s="109"/>
+      <c r="P98" s="241"/>
+      <c r="Q98" s="217"/>
+      <c r="R98" s="217"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="109"/>
+      <c r="V98" s="109"/>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="41"/>
+      <c r="Z98" s="41"/>
+      <c r="AA98" s="41"/>
+      <c r="AB98" s="109"/>
+      <c r="AC98" s="109"/>
+      <c r="AD98" s="41"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="42"/>
+      <c r="AG98" s="110"/>
     </row>
     <row r="99" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -23523,44 +23498,44 @@
       <c r="B99" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="213"/>
-      <c r="D99" s="213"/>
-      <c r="E99" s="213"/>
-      <c r="F99" s="213"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="213"/>
-      <c r="J99" s="213"/>
-      <c r="K99" s="213"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="222"/>
-      <c r="Q99" s="222"/>
-      <c r="R99" s="222"/>
-      <c r="S99" s="222"/>
-      <c r="T99" s="222"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
-      <c r="X99" s="43"/>
-      <c r="Y99" s="43"/>
-      <c r="Z99" s="43"/>
-      <c r="AA99" s="113"/>
-      <c r="AB99" s="43"/>
-      <c r="AC99" s="43"/>
-      <c r="AD99" s="114"/>
-      <c r="AE99" s="43"/>
-      <c r="AF99" s="43"/>
-      <c r="AG99" s="43"/>
-      <c r="AH99" s="137"/>
-      <c r="AI99" s="136"/>
-      <c r="AJ99" s="136"/>
-      <c r="AK99" s="136"/>
-      <c r="AL99" s="136"/>
-      <c r="AM99" s="136"/>
-      <c r="AN99" s="136"/>
+      <c r="C99" s="208"/>
+      <c r="D99" s="208"/>
+      <c r="E99" s="208"/>
+      <c r="F99" s="208"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="208"/>
+      <c r="J99" s="208"/>
+      <c r="K99" s="208"/>
+      <c r="L99" s="208"/>
+      <c r="M99" s="208"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="109"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="217"/>
+      <c r="S99" s="217"/>
+      <c r="T99" s="217"/>
+      <c r="U99" s="44"/>
+      <c r="V99" s="109"/>
+      <c r="W99" s="217"/>
+      <c r="X99" s="217"/>
+      <c r="Y99" s="217"/>
+      <c r="Z99" s="217"/>
+      <c r="AA99" s="217"/>
+      <c r="AB99" s="44"/>
+      <c r="AC99" s="109"/>
+      <c r="AD99" s="217"/>
+      <c r="AE99" s="42"/>
+      <c r="AF99" s="42"/>
+      <c r="AG99" s="42"/>
+      <c r="AH99" s="133"/>
+      <c r="AI99" s="132"/>
+      <c r="AJ99" s="132"/>
+      <c r="AK99" s="132"/>
+      <c r="AL99" s="132"/>
+      <c r="AM99" s="132"/>
+      <c r="AN99" s="132"/>
     </row>
     <row r="100" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -23569,44 +23544,44 @@
       <c r="B100" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="102"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="161"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="213"/>
-      <c r="J100" s="213"/>
-      <c r="K100" s="213"/>
-      <c r="L100" s="103"/>
-      <c r="M100" s="103"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="111"/>
-      <c r="P100" s="222"/>
-      <c r="Q100" s="222"/>
-      <c r="R100" s="222"/>
-      <c r="S100" s="222"/>
-      <c r="T100" s="222"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="43"/>
-      <c r="X100" s="43"/>
-      <c r="Y100" s="43"/>
-      <c r="Z100" s="43"/>
-      <c r="AA100" s="113"/>
-      <c r="AB100" s="43"/>
-      <c r="AC100" s="43"/>
-      <c r="AD100" s="114"/>
-      <c r="AE100" s="43"/>
-      <c r="AF100" s="43"/>
-      <c r="AG100" s="43"/>
-      <c r="AH100" s="137"/>
-      <c r="AI100" s="136"/>
-      <c r="AJ100" s="136"/>
-      <c r="AK100" s="136"/>
-      <c r="AL100" s="136"/>
-      <c r="AM100" s="136"/>
-      <c r="AN100" s="136"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="156"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="208"/>
+      <c r="J100" s="208"/>
+      <c r="K100" s="208"/>
+      <c r="L100" s="208"/>
+      <c r="M100" s="208"/>
+      <c r="N100" s="44"/>
+      <c r="O100" s="109"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="83"/>
+      <c r="R100" s="156"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="44"/>
+      <c r="V100" s="109"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="217"/>
+      <c r="Y100" s="217"/>
+      <c r="Z100" s="217"/>
+      <c r="AA100" s="217"/>
+      <c r="AB100" s="44"/>
+      <c r="AC100" s="109"/>
+      <c r="AD100" s="217"/>
+      <c r="AE100" s="42"/>
+      <c r="AF100" s="42"/>
+      <c r="AG100" s="42"/>
+      <c r="AH100" s="133"/>
+      <c r="AI100" s="132"/>
+      <c r="AJ100" s="132"/>
+      <c r="AK100" s="132"/>
+      <c r="AL100" s="132"/>
+      <c r="AM100" s="132"/>
+      <c r="AN100" s="132"/>
     </row>
     <row r="101" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -23615,44 +23590,44 @@
       <c r="B101" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="218"/>
-      <c r="D101" s="218"/>
-      <c r="E101" s="229"/>
-      <c r="F101" s="230"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="156"/>
-      <c r="J101" s="156"/>
-      <c r="K101" s="112"/>
-      <c r="L101" s="103"/>
-      <c r="M101" s="103"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="222"/>
-      <c r="Q101" s="222"/>
-      <c r="R101" s="222"/>
-      <c r="S101" s="222"/>
-      <c r="T101" s="222"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
-      <c r="W101" s="43"/>
-      <c r="X101" s="43"/>
-      <c r="Y101" s="43"/>
-      <c r="Z101" s="43"/>
-      <c r="AA101" s="113"/>
-      <c r="AB101" s="43"/>
-      <c r="AC101" s="43"/>
-      <c r="AD101" s="114"/>
-      <c r="AE101" s="43"/>
-      <c r="AF101" s="43"/>
-      <c r="AG101" s="43"/>
-      <c r="AH101" s="137"/>
-      <c r="AI101" s="136"/>
-      <c r="AJ101" s="136"/>
-      <c r="AK101" s="136"/>
-      <c r="AL101" s="136"/>
-      <c r="AM101" s="136"/>
-      <c r="AN101" s="136"/>
+      <c r="C101" s="213"/>
+      <c r="D101" s="213"/>
+      <c r="E101" s="224"/>
+      <c r="F101" s="225"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="213"/>
+      <c r="J101" s="213"/>
+      <c r="K101" s="213"/>
+      <c r="L101" s="213"/>
+      <c r="M101" s="213"/>
+      <c r="N101" s="109"/>
+      <c r="O101" s="109"/>
+      <c r="P101" s="217"/>
+      <c r="Q101" s="217"/>
+      <c r="R101" s="217"/>
+      <c r="S101" s="217"/>
+      <c r="T101" s="217"/>
+      <c r="U101" s="109"/>
+      <c r="V101" s="109"/>
+      <c r="W101" s="217"/>
+      <c r="X101" s="217"/>
+      <c r="Y101" s="217"/>
+      <c r="Z101" s="217"/>
+      <c r="AA101" s="217"/>
+      <c r="AB101" s="109"/>
+      <c r="AC101" s="109"/>
+      <c r="AD101" s="217"/>
+      <c r="AE101" s="42"/>
+      <c r="AF101" s="42"/>
+      <c r="AG101" s="42"/>
+      <c r="AH101" s="133"/>
+      <c r="AI101" s="132"/>
+      <c r="AJ101" s="132"/>
+      <c r="AK101" s="132"/>
+      <c r="AL101" s="132"/>
+      <c r="AM101" s="132"/>
+      <c r="AN101" s="132"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>Activity</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Review Sprint 6 objectives and deliverables</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2341,7 +2344,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2655,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD128"/>
+  <dimension ref="A1:XFD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y96" sqref="Y96"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -23362,10 +23364,10 @@
       <c r="AA95" s="40"/>
       <c r="AB95" s="44"/>
       <c r="AC95" s="109"/>
-      <c r="AD95" s="112"/>
-      <c r="AE95" s="42"/>
-      <c r="AF95" s="42"/>
-      <c r="AG95" s="113"/>
+      <c r="AD95" s="40"/>
+      <c r="AE95" s="40"/>
+      <c r="AF95" s="40"/>
+      <c r="AG95" s="40"/>
       <c r="AH95" s="133"/>
       <c r="AI95" s="132"/>
       <c r="AJ95" s="132"/>
@@ -23394,9 +23396,9 @@
       <c r="M96" s="230"/>
       <c r="N96" s="44"/>
       <c r="O96" s="109"/>
-      <c r="P96" s="241"/>
-      <c r="Q96" s="217"/>
-      <c r="R96" s="217"/>
+      <c r="P96" s="230"/>
+      <c r="Q96" s="230"/>
+      <c r="R96" s="230"/>
       <c r="S96" s="40"/>
       <c r="T96" s="40"/>
       <c r="U96" s="44"/>
@@ -23409,9 +23411,9 @@
       <c r="AB96" s="44"/>
       <c r="AC96" s="109"/>
       <c r="AD96" s="40"/>
-      <c r="AE96" s="42"/>
-      <c r="AF96" s="42"/>
-      <c r="AG96" s="110"/>
+      <c r="AE96" s="40"/>
+      <c r="AF96" s="40"/>
+      <c r="AG96" s="40"/>
     </row>
     <row r="97" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="94" t="s">
@@ -23435,7 +23437,7 @@
       <c r="O97" s="109"/>
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
-      <c r="R97" s="217"/>
+      <c r="R97" s="230"/>
       <c r="S97" s="40"/>
       <c r="T97" s="40"/>
       <c r="U97" s="44"/>
@@ -23448,9 +23450,9 @@
       <c r="AB97" s="44"/>
       <c r="AC97" s="109"/>
       <c r="AD97" s="40"/>
-      <c r="AE97" s="42"/>
-      <c r="AF97" s="42"/>
-      <c r="AG97" s="110"/>
+      <c r="AE97" s="40"/>
+      <c r="AF97" s="40"/>
+      <c r="AG97" s="40"/>
     </row>
     <row r="98" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -23472,24 +23474,24 @@
       <c r="M98" s="230"/>
       <c r="N98" s="109"/>
       <c r="O98" s="109"/>
-      <c r="P98" s="241"/>
-      <c r="Q98" s="217"/>
-      <c r="R98" s="217"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
+      <c r="P98" s="230"/>
+      <c r="Q98" s="230"/>
+      <c r="R98" s="230"/>
+      <c r="S98" s="230"/>
+      <c r="T98" s="230"/>
       <c r="U98" s="109"/>
       <c r="V98" s="109"/>
-      <c r="W98" s="41"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41"/>
+      <c r="W98" s="217"/>
+      <c r="X98" s="217"/>
+      <c r="Y98" s="217"/>
       <c r="Z98" s="41"/>
       <c r="AA98" s="41"/>
       <c r="AB98" s="109"/>
       <c r="AC98" s="109"/>
       <c r="AD98" s="41"/>
-      <c r="AE98" s="42"/>
-      <c r="AF98" s="42"/>
-      <c r="AG98" s="110"/>
+      <c r="AE98" s="41"/>
+      <c r="AF98" s="41"/>
+      <c r="AG98" s="41"/>
     </row>
     <row r="99" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -23513,22 +23515,22 @@
       <c r="O99" s="109"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
-      <c r="R99" s="217"/>
-      <c r="S99" s="217"/>
-      <c r="T99" s="217"/>
+      <c r="R99" s="156"/>
+      <c r="S99" s="156"/>
+      <c r="T99" s="156"/>
       <c r="U99" s="44"/>
       <c r="V99" s="109"/>
-      <c r="W99" s="217"/>
-      <c r="X99" s="217"/>
+      <c r="W99" s="156"/>
+      <c r="X99" s="156"/>
       <c r="Y99" s="217"/>
       <c r="Z99" s="217"/>
       <c r="AA99" s="217"/>
       <c r="AB99" s="44"/>
       <c r="AC99" s="109"/>
       <c r="AD99" s="217"/>
-      <c r="AE99" s="42"/>
-      <c r="AF99" s="42"/>
-      <c r="AG99" s="42"/>
+      <c r="AE99" s="217"/>
+      <c r="AF99" s="217"/>
+      <c r="AG99" s="217"/>
       <c r="AH99" s="133"/>
       <c r="AI99" s="132"/>
       <c r="AJ99" s="132"/>
@@ -23564,17 +23566,17 @@
       <c r="T100" s="4"/>
       <c r="U100" s="44"/>
       <c r="V100" s="109"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="217"/>
-      <c r="Y100" s="217"/>
-      <c r="Z100" s="217"/>
-      <c r="AA100" s="217"/>
+      <c r="W100" s="156"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
       <c r="AB100" s="44"/>
       <c r="AC100" s="109"/>
       <c r="AD100" s="217"/>
-      <c r="AE100" s="42"/>
-      <c r="AF100" s="42"/>
-      <c r="AG100" s="42"/>
+      <c r="AE100" s="217"/>
+      <c r="AF100" s="217"/>
+      <c r="AG100" s="217"/>
       <c r="AH100" s="133"/>
       <c r="AI100" s="132"/>
       <c r="AJ100" s="132"/>
@@ -23603,11 +23605,11 @@
       <c r="M101" s="213"/>
       <c r="N101" s="109"/>
       <c r="O101" s="109"/>
-      <c r="P101" s="217"/>
-      <c r="Q101" s="217"/>
-      <c r="R101" s="217"/>
-      <c r="S101" s="217"/>
-      <c r="T101" s="217"/>
+      <c r="P101" s="230"/>
+      <c r="Q101" s="230"/>
+      <c r="R101" s="230"/>
+      <c r="S101" s="230"/>
+      <c r="T101" s="230"/>
       <c r="U101" s="109"/>
       <c r="V101" s="109"/>
       <c r="W101" s="217"/>
@@ -23618,9 +23620,9 @@
       <c r="AB101" s="109"/>
       <c r="AC101" s="109"/>
       <c r="AD101" s="217"/>
-      <c r="AE101" s="42"/>
-      <c r="AF101" s="42"/>
-      <c r="AG101" s="42"/>
+      <c r="AE101" s="217"/>
+      <c r="AF101" s="217"/>
+      <c r="AG101" s="217"/>
       <c r="AH101" s="133"/>
       <c r="AI101" s="132"/>
       <c r="AJ101" s="132"/>
@@ -23629,14 +23631,366 @@
       <c r="AM101" s="132"/>
       <c r="AN101" s="132"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="239" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="240"/>
+      <c r="C102" s="240"/>
+      <c r="D102" s="240"/>
+      <c r="E102" s="240"/>
+      <c r="F102" s="240"/>
+      <c r="G102" s="240"/>
+      <c r="H102" s="240"/>
+      <c r="I102" s="240"/>
+      <c r="J102" s="240"/>
+      <c r="K102" s="240"/>
+      <c r="L102" s="240"/>
+      <c r="M102" s="240"/>
+      <c r="N102" s="240"/>
+      <c r="O102" s="240"/>
+      <c r="P102" s="240"/>
+      <c r="Q102" s="240"/>
+      <c r="R102" s="240"/>
+      <c r="S102" s="240"/>
+      <c r="T102" s="240"/>
+      <c r="U102" s="240"/>
+      <c r="V102" s="240"/>
+      <c r="W102" s="240"/>
+      <c r="X102" s="240"/>
+      <c r="Y102" s="240"/>
+      <c r="Z102" s="240"/>
+      <c r="AA102" s="240"/>
+      <c r="AB102" s="240"/>
+      <c r="AC102" s="240"/>
+      <c r="AD102" s="240"/>
+      <c r="AE102" s="240"/>
+      <c r="AF102" s="240"/>
+      <c r="AG102" s="240"/>
+    </row>
+    <row r="103" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="14">
+        <v>1</v>
+      </c>
+      <c r="D103" s="53">
+        <v>2</v>
+      </c>
+      <c r="E103" s="53">
+        <v>3</v>
+      </c>
+      <c r="F103" s="39">
+        <v>4</v>
+      </c>
+      <c r="G103" s="39">
+        <v>5</v>
+      </c>
+      <c r="H103" s="39">
+        <v>6</v>
+      </c>
+      <c r="I103" s="39">
+        <v>7</v>
+      </c>
+      <c r="J103" s="39">
+        <v>8</v>
+      </c>
+      <c r="K103" s="53">
+        <v>9</v>
+      </c>
+      <c r="L103" s="53">
+        <v>10</v>
+      </c>
+      <c r="M103" s="39">
+        <v>11</v>
+      </c>
+      <c r="N103" s="39">
+        <v>12</v>
+      </c>
+      <c r="O103" s="39">
+        <v>13</v>
+      </c>
+      <c r="P103" s="39">
+        <v>14</v>
+      </c>
+      <c r="Q103" s="39">
+        <v>15</v>
+      </c>
+      <c r="R103" s="53">
+        <v>16</v>
+      </c>
+      <c r="S103" s="53">
+        <v>17</v>
+      </c>
+      <c r="T103" s="39">
+        <v>18</v>
+      </c>
+      <c r="U103" s="39">
+        <v>19</v>
+      </c>
+      <c r="V103" s="39">
+        <v>20</v>
+      </c>
+      <c r="W103" s="39">
+        <v>21</v>
+      </c>
+      <c r="X103" s="39">
+        <v>22</v>
+      </c>
+      <c r="Y103" s="53">
+        <v>23</v>
+      </c>
+      <c r="Z103" s="53">
+        <v>24</v>
+      </c>
+      <c r="AA103" s="39">
+        <v>25</v>
+      </c>
+      <c r="AB103" s="39">
+        <v>26</v>
+      </c>
+      <c r="AC103" s="39">
+        <v>27</v>
+      </c>
+      <c r="AD103" s="114">
+        <v>28</v>
+      </c>
+      <c r="AE103" s="114">
+        <v>29</v>
+      </c>
+      <c r="AF103" s="53">
+        <v>30</v>
+      </c>
+      <c r="AG103" s="110"/>
+    </row>
+    <row r="104" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="112"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
+      <c r="X104" s="42"/>
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="42"/>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AC104" s="42"/>
+      <c r="AD104" s="42"/>
+      <c r="AE104" s="42"/>
+      <c r="AF104" s="42"/>
+      <c r="AG104" s="113"/>
+      <c r="AH104" s="133"/>
+      <c r="AI104" s="132"/>
+      <c r="AJ104" s="132"/>
+      <c r="AK104" s="132"/>
+      <c r="AL104" s="132"/>
+      <c r="AM104" s="132"/>
+      <c r="AN104" s="132"/>
+    </row>
+    <row r="105" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="41"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="42"/>
+      <c r="W105" s="42"/>
+      <c r="X105" s="42"/>
+      <c r="Y105" s="42"/>
+      <c r="Z105" s="42"/>
+      <c r="AA105" s="42"/>
+      <c r="AB105" s="42"/>
+      <c r="AC105" s="42"/>
+      <c r="AD105" s="42"/>
+      <c r="AE105" s="42"/>
+      <c r="AF105" s="42"/>
+      <c r="AG105" s="110"/>
+    </row>
+    <row r="106" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="217"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="109"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+      <c r="X106" s="42"/>
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="42"/>
+      <c r="AA106" s="42"/>
+      <c r="AB106" s="42"/>
+      <c r="AC106" s="42"/>
+      <c r="AD106" s="42"/>
+      <c r="AE106" s="42"/>
+      <c r="AF106" s="42"/>
+      <c r="AG106" s="42"/>
+      <c r="AH106" s="133"/>
+      <c r="AI106" s="132"/>
+      <c r="AJ106" s="132"/>
+      <c r="AK106" s="132"/>
+      <c r="AL106" s="132"/>
+      <c r="AM106" s="132"/>
+      <c r="AN106" s="132"/>
+    </row>
+    <row r="107" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="217"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="42"/>
+      <c r="AE107" s="42"/>
+      <c r="AF107" s="42"/>
+      <c r="AG107" s="42"/>
+      <c r="AH107" s="133"/>
+      <c r="AI107" s="132"/>
+      <c r="AJ107" s="132"/>
+      <c r="AK107" s="132"/>
+      <c r="AL107" s="132"/>
+      <c r="AM107" s="132"/>
+      <c r="AN107" s="132"/>
+    </row>
+    <row r="108" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="217"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="42"/>
+      <c r="W108" s="42"/>
+      <c r="X108" s="42"/>
+      <c r="Y108" s="42"/>
+      <c r="Z108" s="42"/>
+      <c r="AA108" s="42"/>
+      <c r="AB108" s="42"/>
+      <c r="AC108" s="42"/>
+      <c r="AD108" s="42"/>
+      <c r="AE108" s="42"/>
+      <c r="AF108" s="42"/>
+      <c r="AG108" s="42"/>
+      <c r="AH108" s="133"/>
+      <c r="AI108" s="132"/>
+      <c r="AJ108" s="132"/>
+      <c r="AK108" s="132"/>
+      <c r="AL108" s="132"/>
+      <c r="AM108" s="132"/>
+      <c r="AN108" s="132"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23653,11 +24007,21 @@
     <row r="123" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="124" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="125" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A102:AG102"/>
     <mergeCell ref="A19:AG19"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A52:AG52"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
   <si>
     <t>Activity</t>
   </si>
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y99" activeCellId="2" sqref="W98:AA98 W101:AA101 Y99:AA99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -23481,11 +23481,11 @@
       <c r="T98" s="230"/>
       <c r="U98" s="109"/>
       <c r="V98" s="109"/>
-      <c r="W98" s="217"/>
-      <c r="X98" s="217"/>
-      <c r="Y98" s="217"/>
-      <c r="Z98" s="41"/>
-      <c r="AA98" s="41"/>
+      <c r="W98" s="226"/>
+      <c r="X98" s="226"/>
+      <c r="Y98" s="226"/>
+      <c r="Z98" s="226"/>
+      <c r="AA98" s="226"/>
       <c r="AB98" s="109"/>
       <c r="AC98" s="109"/>
       <c r="AD98" s="41"/>
@@ -23522,9 +23522,9 @@
       <c r="V99" s="109"/>
       <c r="W99" s="156"/>
       <c r="X99" s="156"/>
-      <c r="Y99" s="217"/>
-      <c r="Z99" s="217"/>
-      <c r="AA99" s="217"/>
+      <c r="Y99" s="226"/>
+      <c r="Z99" s="226"/>
+      <c r="AA99" s="226"/>
       <c r="AB99" s="44"/>
       <c r="AC99" s="109"/>
       <c r="AD99" s="217"/>
@@ -23612,11 +23612,11 @@
       <c r="T101" s="230"/>
       <c r="U101" s="109"/>
       <c r="V101" s="109"/>
-      <c r="W101" s="217"/>
-      <c r="X101" s="217"/>
-      <c r="Y101" s="217"/>
-      <c r="Z101" s="217"/>
-      <c r="AA101" s="217"/>
+      <c r="W101" s="226"/>
+      <c r="X101" s="226"/>
+      <c r="Y101" s="226"/>
+      <c r="Z101" s="226"/>
+      <c r="AA101" s="226"/>
       <c r="AB101" s="109"/>
       <c r="AC101" s="109"/>
       <c r="AD101" s="217"/>
@@ -23774,14 +23774,14 @@
       <c r="B104" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="112"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="44"/>
       <c r="E104" s="109"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
       <c r="K104" s="42"/>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
@@ -23815,19 +23815,19 @@
     </row>
     <row r="105" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="109"/>
+        <v>68</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="217"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="109"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
+      <c r="F105" s="217"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
       <c r="K105" s="42"/>
       <c r="L105" s="42"/>
       <c r="M105" s="42"/>
@@ -23850,23 +23850,30 @@
       <c r="AD105" s="42"/>
       <c r="AE105" s="42"/>
       <c r="AF105" s="42"/>
-      <c r="AG105" s="110"/>
+      <c r="AG105" s="42"/>
+      <c r="AH105" s="133"/>
+      <c r="AI105" s="132"/>
+      <c r="AJ105" s="132"/>
+      <c r="AK105" s="132"/>
+      <c r="AL105" s="132"/>
+      <c r="AM105" s="132"/>
+      <c r="AN105" s="132"/>
     </row>
     <row r="106" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106" s="217"/>
       <c r="D106" s="44"/>
       <c r="E106" s="109"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
+      <c r="F106" s="217"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
       <c r="K106" s="42"/>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
@@ -23900,19 +23907,19 @@
     </row>
     <row r="107" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C107" s="217"/>
       <c r="D107" s="44"/>
       <c r="E107" s="109"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
+      <c r="F107" s="217"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
       <c r="K107" s="42"/>
       <c r="L107" s="42"/>
       <c r="M107" s="42"/>
@@ -23944,53 +23951,8 @@
       <c r="AM107" s="132"/>
       <c r="AN107" s="132"/>
     </row>
-    <row r="108" spans="1:40" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="217"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="42"/>
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="42"/>
-      <c r="S108" s="42"/>
-      <c r="T108" s="42"/>
-      <c r="U108" s="42"/>
-      <c r="V108" s="42"/>
-      <c r="W108" s="42"/>
-      <c r="X108" s="42"/>
-      <c r="Y108" s="42"/>
-      <c r="Z108" s="42"/>
-      <c r="AA108" s="42"/>
-      <c r="AB108" s="42"/>
-      <c r="AC108" s="42"/>
-      <c r="AD108" s="42"/>
-      <c r="AE108" s="42"/>
-      <c r="AF108" s="42"/>
-      <c r="AG108" s="42"/>
-      <c r="AH108" s="133"/>
-      <c r="AI108" s="132"/>
-      <c r="AJ108" s="132"/>
-      <c r="AK108" s="132"/>
-      <c r="AL108" s="132"/>
-      <c r="AM108" s="132"/>
-      <c r="AN108" s="132"/>
-    </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24013,7 +23975,7 @@
     <row r="129" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="131" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Working Schedule.xlsx
+++ b/Working Schedule.xlsx
@@ -418,7 +418,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,12 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1959,13 +1953,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1974,11 +1968,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1986,11 +1980,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2022,7 +2016,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2031,34 +2025,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,20 +2079,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2113,49 +2107,49 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2174,10 +2168,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2196,30 +2190,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2232,7 +2226,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2242,144 +2235,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2398,19 +2402,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2726,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S85" sqref="S85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC89" sqref="AC89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2742,41 +2733,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="249"/>
+      <c r="AE1" s="249"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="249"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2946,11 +2937,11 @@
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="177"/>
+      <c r="AB4" s="177"/>
+      <c r="AC4" s="177"/>
+      <c r="AD4" s="177"/>
       <c r="AE4" s="36"/>
       <c r="AF4" s="108"/>
       <c r="AG4" s="46"/>
@@ -2985,11 +2976,11 @@
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
       <c r="Y5" s="46"/>
-      <c r="Z5" s="177"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
       <c r="AE5" s="36"/>
       <c r="AF5" s="108"/>
       <c r="AG5" s="46"/>
@@ -3102,11 +3093,11 @@
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="126"/>
       <c r="AG8" s="46"/>
@@ -3180,11 +3171,11 @@
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
       <c r="Y10" s="46"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="179"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="178"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="127"/>
       <c r="AG10" s="46"/>
@@ -3219,11 +3210,11 @@
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
       <c r="Y11" s="46"/>
-      <c r="Z11" s="177"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="179"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="178"/>
       <c r="AE11" s="48"/>
       <c r="AF11" s="127"/>
       <c r="AG11" s="46"/>
@@ -3258,11 +3249,11 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
-      <c r="Z12" s="177"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="179"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="178"/>
       <c r="AE12" s="48"/>
       <c r="AF12" s="127"/>
       <c r="AG12" s="46"/>
@@ -3297,11 +3288,11 @@
       <c r="W13" s="46"/>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
-      <c r="Z13" s="177"/>
-      <c r="AA13" s="178"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="179"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="178"/>
       <c r="AE13" s="48"/>
       <c r="AF13" s="127"/>
       <c r="AG13" s="46"/>
@@ -3336,11 +3327,11 @@
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
-      <c r="Z14" s="177"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="179"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="178"/>
       <c r="AE14" s="48"/>
       <c r="AF14" s="127"/>
       <c r="AG14" s="46"/>
@@ -3375,11 +3366,11 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="46"/>
-      <c r="Z15" s="177"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="178"/>
-      <c r="AC15" s="178"/>
-      <c r="AD15" s="179"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="178"/>
       <c r="AE15" s="48"/>
       <c r="AF15" s="127"/>
       <c r="AG15" s="46"/>
@@ -3492,51 +3483,51 @@
       <c r="W18" s="46"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="179"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="178"/>
       <c r="AE18" s="48"/>
       <c r="AF18" s="127"/>
       <c r="AG18" s="46"/>
     </row>
     <row r="19" spans="1:16384" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="244" t="s">
+      <c r="A19" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="245"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="245"/>
-      <c r="N19" s="245"/>
-      <c r="O19" s="245"/>
-      <c r="P19" s="245"/>
-      <c r="Q19" s="245"/>
-      <c r="R19" s="245"/>
-      <c r="S19" s="245"/>
-      <c r="T19" s="245"/>
-      <c r="U19" s="245"/>
-      <c r="V19" s="245"/>
-      <c r="W19" s="245"/>
-      <c r="X19" s="245"/>
-      <c r="Y19" s="245"/>
-      <c r="Z19" s="245"/>
-      <c r="AA19" s="245"/>
-      <c r="AB19" s="245"/>
-      <c r="AC19" s="245"/>
-      <c r="AD19" s="245"/>
-      <c r="AE19" s="245"/>
-      <c r="AF19" s="245"/>
-      <c r="AG19" s="245"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="249"/>
+      <c r="N19" s="249"/>
+      <c r="O19" s="249"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="249"/>
+      <c r="R19" s="249"/>
+      <c r="S19" s="249"/>
+      <c r="T19" s="249"/>
+      <c r="U19" s="249"/>
+      <c r="V19" s="249"/>
+      <c r="W19" s="249"/>
+      <c r="X19" s="249"/>
+      <c r="Y19" s="249"/>
+      <c r="Z19" s="249"/>
+      <c r="AA19" s="249"/>
+      <c r="AB19" s="249"/>
+      <c r="AC19" s="249"/>
+      <c r="AD19" s="249"/>
+      <c r="AE19" s="249"/>
+      <c r="AF19" s="249"/>
+      <c r="AG19" s="249"/>
     </row>
     <row r="20" spans="1:16384" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -20014,11 +20005,11 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="196"/>
+      <c r="T21" s="195"/>
       <c r="U21" s="30"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
-      <c r="X21" s="200"/>
+      <c r="X21" s="199"/>
       <c r="Y21" s="63"/>
       <c r="Z21" s="30"/>
       <c r="AA21" s="30"/>
@@ -20043,21 +20034,21 @@
       <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="178"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="184"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
-      <c r="Q22" s="177"/>
+      <c r="Q22" s="176"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="42"/>
@@ -20089,21 +20080,21 @@
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="178"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="184"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="183"/>
       <c r="O23" s="48"/>
       <c r="P23" s="48"/>
-      <c r="Q23" s="177"/>
+      <c r="Q23" s="176"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="42"/>
@@ -20146,17 +20137,17 @@
       <c r="K24" s="15"/>
       <c r="L24" s="42"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="184"/>
+      <c r="N24" s="183"/>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="194"/>
-      <c r="U24" s="197"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="196"/>
       <c r="V24" s="48"/>
       <c r="W24" s="48"/>
-      <c r="X24" s="197"/>
+      <c r="X24" s="196"/>
       <c r="Y24" s="63"/>
       <c r="Z24" s="30"/>
       <c r="AA24" s="30"/>
@@ -20197,12 +20188,12 @@
       <c r="P25" s="48"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="194"/>
-      <c r="U25" s="197"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="196"/>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
-      <c r="X25" s="197"/>
+      <c r="X25" s="196"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="30"/>
       <c r="AA25" s="30"/>
@@ -20227,28 +20218,28 @@
       <c r="B26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="182"/>
+      <c r="G26" s="181"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="185"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="186"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="185"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="198"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="197"/>
       <c r="V26" s="70"/>
       <c r="W26" s="70"/>
-      <c r="X26" s="198"/>
+      <c r="X26" s="197"/>
       <c r="Y26" s="63"/>
       <c r="Z26" s="71"/>
       <c r="AA26" s="71"/>
@@ -20270,10 +20261,10 @@
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="172"/>
+      <c r="C27" s="171"/>
       <c r="D27" s="131"/>
       <c r="E27" s="131"/>
       <c r="F27" s="48"/>
@@ -20284,7 +20275,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="42"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="176"/>
+      <c r="N27" s="175"/>
       <c r="O27" s="57"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="44"/>
@@ -20319,16 +20310,16 @@
       <c r="B28" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="179"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="187"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="186"/>
       <c r="M28" s="136"/>
       <c r="N28" s="55"/>
       <c r="O28" s="58"/>
@@ -20365,16 +20356,16 @@
       <c r="B29" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
       <c r="F29" s="48"/>
-      <c r="G29" s="179"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="187"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="136"/>
       <c r="N29" s="55"/>
       <c r="O29" s="58"/>
@@ -20411,16 +20402,16 @@
       <c r="B30" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="179"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="187"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="186"/>
       <c r="M30" s="136"/>
       <c r="N30" s="55"/>
       <c r="O30" s="58"/>
@@ -20457,16 +20448,16 @@
       <c r="B31" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="179"/>
+      <c r="G31" s="178"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="187"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="186"/>
       <c r="M31" s="137"/>
       <c r="N31" s="50"/>
       <c r="O31" s="57"/>
@@ -20503,16 +20494,16 @@
       <c r="B32" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="179"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="187"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="186"/>
       <c r="M32" s="137"/>
       <c r="N32" s="50"/>
       <c r="O32" s="57"/>
@@ -20549,16 +20540,16 @@
       <c r="B33" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="179"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="187"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="186"/>
       <c r="M33" s="137"/>
       <c r="N33" s="50"/>
       <c r="O33" s="57"/>
@@ -20595,18 +20586,18 @@
       <c r="B34" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="125"/>
       <c r="F34" s="48"/>
       <c r="G34" s="42"/>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="184"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="57"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="44"/>
@@ -20641,18 +20632,18 @@
       <c r="B35" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="125"/>
       <c r="F35" s="48"/>
       <c r="G35" s="42"/>
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="184"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="57"/>
       <c r="P35" s="57"/>
       <c r="Q35" s="44"/>
@@ -20687,18 +20678,18 @@
       <c r="B36" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="179"/>
+      <c r="G36" s="178"/>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="184"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="183"/>
       <c r="O36" s="57"/>
       <c r="P36" s="57"/>
       <c r="Q36" s="56"/>
@@ -20730,12 +20721,12 @@
       <c r="A37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
       <c r="F37" s="73"/>
       <c r="G37" s="43"/>
       <c r="H37" s="139"/>
@@ -20758,7 +20749,7 @@
       <c r="Y37" s="72"/>
       <c r="Z37" s="72"/>
       <c r="AA37" s="72"/>
-      <c r="AB37" s="201"/>
+      <c r="AB37" s="200"/>
       <c r="AC37" s="82"/>
       <c r="AD37" s="82"/>
       <c r="AE37" s="72"/>
@@ -20793,7 +20784,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="79"/>
       <c r="P38" s="79"/>
-      <c r="Q38" s="188"/>
+      <c r="Q38" s="187"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -20839,7 +20830,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="79"/>
       <c r="P39" s="79"/>
-      <c r="Q39" s="188"/>
+      <c r="Q39" s="187"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -20885,18 +20876,18 @@
       <c r="N40" s="8"/>
       <c r="O40" s="80"/>
       <c r="P40" s="80"/>
-      <c r="Q40" s="189"/>
-      <c r="R40" s="189"/>
-      <c r="S40" s="189"/>
-      <c r="T40" s="189"/>
-      <c r="U40" s="190"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="188"/>
+      <c r="T40" s="188"/>
+      <c r="U40" s="189"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
-      <c r="X40" s="199"/>
-      <c r="Y40" s="199"/>
-      <c r="Z40" s="199"/>
-      <c r="AA40" s="199"/>
-      <c r="AB40" s="199"/>
+      <c r="X40" s="198"/>
+      <c r="Y40" s="198"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
       <c r="AC40" s="48"/>
       <c r="AD40" s="48"/>
       <c r="AE40" s="63"/>
@@ -20931,18 +20922,18 @@
       <c r="N41" s="8"/>
       <c r="O41" s="80"/>
       <c r="P41" s="80"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="189"/>
-      <c r="T41" s="189"/>
-      <c r="U41" s="190"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="188"/>
+      <c r="S41" s="188"/>
+      <c r="T41" s="188"/>
+      <c r="U41" s="189"/>
       <c r="V41" s="48"/>
       <c r="W41" s="48"/>
-      <c r="X41" s="199"/>
-      <c r="Y41" s="199"/>
-      <c r="Z41" s="199"/>
-      <c r="AA41" s="199"/>
-      <c r="AB41" s="199"/>
+      <c r="X41" s="198"/>
+      <c r="Y41" s="198"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
       <c r="AC41" s="48"/>
       <c r="AD41" s="48"/>
       <c r="AE41" s="63"/>
@@ -20977,18 +20968,18 @@
       <c r="N42" s="8"/>
       <c r="O42" s="80"/>
       <c r="P42" s="80"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
-      <c r="S42" s="189"/>
-      <c r="T42" s="189"/>
-      <c r="U42" s="190"/>
+      <c r="Q42" s="188"/>
+      <c r="R42" s="188"/>
+      <c r="S42" s="188"/>
+      <c r="T42" s="188"/>
+      <c r="U42" s="189"/>
       <c r="V42" s="48"/>
       <c r="W42" s="48"/>
-      <c r="X42" s="199"/>
-      <c r="Y42" s="199"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="199"/>
-      <c r="AB42" s="199"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="198"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
       <c r="AC42" s="48"/>
       <c r="AD42" s="48"/>
       <c r="AE42" s="63"/>
@@ -21034,7 +21025,7 @@
       <c r="Y43" s="63"/>
       <c r="Z43" s="63"/>
       <c r="AA43" s="63"/>
-      <c r="AB43" s="199"/>
+      <c r="AB43" s="198"/>
       <c r="AC43" s="48"/>
       <c r="AD43" s="48"/>
       <c r="AE43" s="63"/>
@@ -21080,7 +21071,7 @@
       <c r="Y44" s="63"/>
       <c r="Z44" s="63"/>
       <c r="AA44" s="63"/>
-      <c r="AB44" s="199"/>
+      <c r="AB44" s="198"/>
       <c r="AC44" s="48"/>
       <c r="AD44" s="48"/>
       <c r="AE44" s="63"/>
@@ -21115,18 +21106,18 @@
       <c r="N45" s="11"/>
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="191"/>
-      <c r="S45" s="191"/>
-      <c r="T45" s="191"/>
-      <c r="U45" s="192"/>
+      <c r="Q45" s="190"/>
+      <c r="R45" s="190"/>
+      <c r="S45" s="190"/>
+      <c r="T45" s="190"/>
+      <c r="U45" s="191"/>
       <c r="V45" s="48"/>
       <c r="W45" s="48"/>
-      <c r="X45" s="199"/>
-      <c r="Y45" s="199"/>
-      <c r="Z45" s="199"/>
-      <c r="AA45" s="199"/>
-      <c r="AB45" s="199"/>
+      <c r="X45" s="198"/>
+      <c r="Y45" s="198"/>
+      <c r="Z45" s="198"/>
+      <c r="AA45" s="198"/>
+      <c r="AB45" s="198"/>
       <c r="AC45" s="48"/>
       <c r="AD45" s="48"/>
       <c r="AE45" s="63"/>
@@ -21221,7 +21212,7 @@
       <c r="AB47" s="63"/>
       <c r="AC47" s="48"/>
       <c r="AD47" s="48"/>
-      <c r="AE47" s="206"/>
+      <c r="AE47" s="205"/>
       <c r="AF47" s="60"/>
       <c r="AG47" s="87"/>
       <c r="AH47" s="144"/>
@@ -21267,9 +21258,9 @@
       <c r="AB48" s="63"/>
       <c r="AC48" s="48"/>
       <c r="AD48" s="48"/>
-      <c r="AE48" s="204"/>
-      <c r="AF48" s="204"/>
-      <c r="AG48" s="205"/>
+      <c r="AE48" s="203"/>
+      <c r="AF48" s="203"/>
+      <c r="AG48" s="204"/>
       <c r="AH48" s="144"/>
       <c r="AI48" s="143"/>
       <c r="AJ48" s="143"/>
@@ -21313,9 +21304,9 @@
       <c r="AB49" s="63"/>
       <c r="AC49" s="48"/>
       <c r="AD49" s="48"/>
-      <c r="AE49" s="204"/>
-      <c r="AF49" s="204"/>
-      <c r="AG49" s="205"/>
+      <c r="AE49" s="203"/>
+      <c r="AF49" s="203"/>
+      <c r="AG49" s="204"/>
       <c r="AH49" s="144"/>
       <c r="AI49" s="143"/>
       <c r="AJ49" s="143"/>
@@ -21405,9 +21396,9 @@
       <c r="AB51" s="63"/>
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
-      <c r="AE51" s="207"/>
-      <c r="AF51" s="207"/>
-      <c r="AG51" s="208"/>
+      <c r="AE51" s="206"/>
+      <c r="AF51" s="206"/>
+      <c r="AG51" s="207"/>
       <c r="AH51" s="144"/>
       <c r="AI51" s="143"/>
       <c r="AJ51" s="143"/>
@@ -21417,41 +21408,41 @@
       <c r="AN51" s="143"/>
     </row>
     <row r="52" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="246" t="s">
+      <c r="A52" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="247"/>
-      <c r="C52" s="247"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="247"/>
-      <c r="F52" s="247"/>
-      <c r="G52" s="247"/>
-      <c r="H52" s="247"/>
-      <c r="I52" s="247"/>
-      <c r="J52" s="247"/>
-      <c r="K52" s="247"/>
-      <c r="L52" s="247"/>
-      <c r="M52" s="247"/>
-      <c r="N52" s="247"/>
-      <c r="O52" s="247"/>
-      <c r="P52" s="247"/>
-      <c r="Q52" s="247"/>
-      <c r="R52" s="247"/>
-      <c r="S52" s="247"/>
-      <c r="T52" s="247"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="247"/>
-      <c r="W52" s="247"/>
-      <c r="X52" s="247"/>
-      <c r="Y52" s="247"/>
-      <c r="Z52" s="247"/>
-      <c r="AA52" s="247"/>
-      <c r="AB52" s="247"/>
-      <c r="AC52" s="247"/>
-      <c r="AD52" s="247"/>
-      <c r="AE52" s="247"/>
-      <c r="AF52" s="247"/>
-      <c r="AG52" s="247"/>
+      <c r="B52" s="251"/>
+      <c r="C52" s="251"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="251"/>
+      <c r="G52" s="251"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="251"/>
+      <c r="J52" s="251"/>
+      <c r="K52" s="251"/>
+      <c r="L52" s="251"/>
+      <c r="M52" s="251"/>
+      <c r="N52" s="251"/>
+      <c r="O52" s="251"/>
+      <c r="P52" s="251"/>
+      <c r="Q52" s="251"/>
+      <c r="R52" s="251"/>
+      <c r="S52" s="251"/>
+      <c r="T52" s="251"/>
+      <c r="U52" s="251"/>
+      <c r="V52" s="251"/>
+      <c r="W52" s="251"/>
+      <c r="X52" s="251"/>
+      <c r="Y52" s="251"/>
+      <c r="Z52" s="251"/>
+      <c r="AA52" s="251"/>
+      <c r="AB52" s="251"/>
+      <c r="AC52" s="251"/>
+      <c r="AD52" s="251"/>
+      <c r="AE52" s="251"/>
+      <c r="AF52" s="251"/>
+      <c r="AG52" s="251"/>
     </row>
     <row r="53" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -21569,7 +21560,7 @@
       <c r="H54" s="72"/>
       <c r="I54" s="133"/>
       <c r="J54" s="72"/>
-      <c r="K54" s="214"/>
+      <c r="K54" s="213"/>
       <c r="L54" s="73"/>
       <c r="M54" s="73"/>
       <c r="N54" s="59"/>
@@ -21653,15 +21644,15 @@
       <c r="B56" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="204"/>
-      <c r="D56" s="205"/>
+      <c r="C56" s="203"/>
+      <c r="D56" s="204"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
-      <c r="G56" s="212"/>
-      <c r="H56" s="212"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="212"/>
-      <c r="K56" s="212"/>
+      <c r="G56" s="211"/>
+      <c r="H56" s="211"/>
+      <c r="I56" s="212"/>
+      <c r="J56" s="211"/>
+      <c r="K56" s="211"/>
       <c r="L56" s="75"/>
       <c r="M56" s="75"/>
       <c r="N56" s="61"/>
@@ -21699,15 +21690,15 @@
       <c r="B57" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="204"/>
-      <c r="D57" s="205"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="204"/>
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
-      <c r="G57" s="212"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="212"/>
-      <c r="K57" s="212"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="211"/>
+      <c r="I57" s="212"/>
+      <c r="J57" s="211"/>
+      <c r="K57" s="211"/>
       <c r="L57" s="75"/>
       <c r="M57" s="75"/>
       <c r="N57" s="61"/>
@@ -21753,7 +21744,7 @@
       <c r="H58" s="63"/>
       <c r="I58" s="89"/>
       <c r="J58" s="63"/>
-      <c r="K58" s="212"/>
+      <c r="K58" s="211"/>
       <c r="L58" s="76"/>
       <c r="M58" s="76"/>
       <c r="N58" s="62"/>
@@ -21791,15 +21782,15 @@
       <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="202"/>
-      <c r="D59" s="203"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="202"/>
       <c r="E59" s="70"/>
       <c r="F59" s="70"/>
-      <c r="G59" s="209"/>
-      <c r="H59" s="209"/>
-      <c r="I59" s="210"/>
-      <c r="J59" s="209"/>
-      <c r="K59" s="211"/>
+      <c r="G59" s="208"/>
+      <c r="H59" s="208"/>
+      <c r="I59" s="209"/>
+      <c r="J59" s="208"/>
+      <c r="K59" s="210"/>
       <c r="L59" s="77"/>
       <c r="M59" s="77"/>
       <c r="N59" s="64"/>
@@ -21859,7 +21850,7 @@
       <c r="V60" s="72"/>
       <c r="W60" s="72"/>
       <c r="X60" s="72"/>
-      <c r="Y60" s="201"/>
+      <c r="Y60" s="200"/>
       <c r="Z60" s="82"/>
       <c r="AA60" s="82"/>
       <c r="AB60" s="72"/>
@@ -21894,7 +21885,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="74"/>
       <c r="M61" s="74"/>
-      <c r="N61" s="206"/>
+      <c r="N61" s="205"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
@@ -21940,18 +21931,18 @@
       <c r="K62" s="7"/>
       <c r="L62" s="75"/>
       <c r="M62" s="75"/>
-      <c r="N62" s="204"/>
-      <c r="O62" s="204"/>
-      <c r="P62" s="204"/>
-      <c r="Q62" s="204"/>
-      <c r="R62" s="205"/>
+      <c r="N62" s="203"/>
+      <c r="O62" s="203"/>
+      <c r="P62" s="203"/>
+      <c r="Q62" s="203"/>
+      <c r="R62" s="204"/>
       <c r="S62" s="48"/>
       <c r="T62" s="48"/>
-      <c r="U62" s="212"/>
-      <c r="V62" s="212"/>
-      <c r="W62" s="212"/>
-      <c r="X62" s="212"/>
-      <c r="Y62" s="212"/>
+      <c r="U62" s="211"/>
+      <c r="V62" s="211"/>
+      <c r="W62" s="211"/>
+      <c r="X62" s="211"/>
+      <c r="Y62" s="211"/>
       <c r="Z62" s="48"/>
       <c r="AA62" s="48"/>
       <c r="AB62" s="63"/>
@@ -21986,18 +21977,18 @@
       <c r="K63" s="7"/>
       <c r="L63" s="75"/>
       <c r="M63" s="75"/>
-      <c r="N63" s="204"/>
-      <c r="O63" s="204"/>
-      <c r="P63" s="204"/>
-      <c r="Q63" s="204"/>
-      <c r="R63" s="205"/>
+      <c r="N63" s="203"/>
+      <c r="O63" s="203"/>
+      <c r="P63" s="203"/>
+      <c r="Q63" s="203"/>
+      <c r="R63" s="204"/>
       <c r="S63" s="48"/>
       <c r="T63" s="48"/>
-      <c r="U63" s="212"/>
-      <c r="V63" s="212"/>
-      <c r="W63" s="212"/>
-      <c r="X63" s="212"/>
-      <c r="Y63" s="212"/>
+      <c r="U63" s="211"/>
+      <c r="V63" s="211"/>
+      <c r="W63" s="211"/>
+      <c r="X63" s="211"/>
+      <c r="Y63" s="211"/>
       <c r="Z63" s="48"/>
       <c r="AA63" s="48"/>
       <c r="AB63" s="63"/>
@@ -22043,7 +22034,7 @@
       <c r="V64" s="63"/>
       <c r="W64" s="63"/>
       <c r="X64" s="63"/>
-      <c r="Y64" s="212"/>
+      <c r="Y64" s="211"/>
       <c r="Z64" s="48"/>
       <c r="AA64" s="48"/>
       <c r="AB64" s="63"/>
@@ -22078,18 +22069,18 @@
       <c r="K65" s="11"/>
       <c r="L65" s="77"/>
       <c r="M65" s="77"/>
-      <c r="N65" s="207"/>
-      <c r="O65" s="207"/>
-      <c r="P65" s="207"/>
-      <c r="Q65" s="207"/>
-      <c r="R65" s="208"/>
+      <c r="N65" s="206"/>
+      <c r="O65" s="206"/>
+      <c r="P65" s="206"/>
+      <c r="Q65" s="206"/>
+      <c r="R65" s="207"/>
       <c r="S65" s="48"/>
       <c r="T65" s="48"/>
-      <c r="U65" s="212"/>
-      <c r="V65" s="212"/>
-      <c r="W65" s="212"/>
-      <c r="X65" s="212"/>
-      <c r="Y65" s="212"/>
+      <c r="U65" s="211"/>
+      <c r="V65" s="211"/>
+      <c r="W65" s="211"/>
+      <c r="X65" s="211"/>
+      <c r="Y65" s="211"/>
       <c r="Z65" s="48"/>
       <c r="AA65" s="48"/>
       <c r="AB65" s="63"/>
@@ -22184,7 +22175,7 @@
       <c r="Y67" s="30"/>
       <c r="Z67" s="48"/>
       <c r="AA67" s="48"/>
-      <c r="AB67" s="217"/>
+      <c r="AB67" s="216"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -22230,11 +22221,11 @@
       <c r="Y68" s="30"/>
       <c r="Z68" s="48"/>
       <c r="AA68" s="48"/>
-      <c r="AB68" s="204"/>
-      <c r="AC68" s="218"/>
-      <c r="AD68" s="218"/>
-      <c r="AE68" s="218"/>
-      <c r="AF68" s="219"/>
+      <c r="AB68" s="203"/>
+      <c r="AC68" s="217"/>
+      <c r="AD68" s="217"/>
+      <c r="AE68" s="217"/>
+      <c r="AF68" s="218"/>
       <c r="AG68" s="127"/>
       <c r="AH68" s="144"/>
       <c r="AI68" s="143"/>
@@ -22276,11 +22267,11 @@
       <c r="Y69" s="30"/>
       <c r="Z69" s="48"/>
       <c r="AA69" s="48"/>
-      <c r="AB69" s="204"/>
-      <c r="AC69" s="218"/>
-      <c r="AD69" s="218"/>
-      <c r="AE69" s="218"/>
-      <c r="AF69" s="219"/>
+      <c r="AB69" s="203"/>
+      <c r="AC69" s="217"/>
+      <c r="AD69" s="217"/>
+      <c r="AE69" s="217"/>
+      <c r="AF69" s="218"/>
       <c r="AG69" s="127"/>
       <c r="AH69" s="144"/>
       <c r="AI69" s="143"/>
@@ -22368,11 +22359,11 @@
       <c r="Y71" s="30"/>
       <c r="Z71" s="48"/>
       <c r="AA71" s="48"/>
-      <c r="AB71" s="215"/>
-      <c r="AC71" s="207"/>
-      <c r="AD71" s="207"/>
-      <c r="AE71" s="207"/>
-      <c r="AF71" s="216"/>
+      <c r="AB71" s="214"/>
+      <c r="AC71" s="206"/>
+      <c r="AD71" s="206"/>
+      <c r="AE71" s="206"/>
+      <c r="AF71" s="215"/>
       <c r="AG71" s="127"/>
       <c r="AH71" s="144"/>
       <c r="AI71" s="143"/>
@@ -22383,41 +22374,41 @@
       <c r="AN71" s="143"/>
     </row>
     <row r="72" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="246" t="s">
+      <c r="A72" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="247"/>
-      <c r="C72" s="247"/>
-      <c r="D72" s="247"/>
-      <c r="E72" s="247"/>
-      <c r="F72" s="247"/>
-      <c r="G72" s="247"/>
-      <c r="H72" s="247"/>
-      <c r="I72" s="247"/>
-      <c r="J72" s="247"/>
-      <c r="K72" s="247"/>
-      <c r="L72" s="247"/>
-      <c r="M72" s="247"/>
-      <c r="N72" s="247"/>
-      <c r="O72" s="247"/>
-      <c r="P72" s="247"/>
-      <c r="Q72" s="247"/>
-      <c r="R72" s="247"/>
-      <c r="S72" s="247"/>
-      <c r="T72" s="247"/>
-      <c r="U72" s="247"/>
-      <c r="V72" s="247"/>
-      <c r="W72" s="247"/>
-      <c r="X72" s="247"/>
-      <c r="Y72" s="247"/>
-      <c r="Z72" s="247"/>
-      <c r="AA72" s="247"/>
-      <c r="AB72" s="247"/>
-      <c r="AC72" s="247"/>
-      <c r="AD72" s="247"/>
-      <c r="AE72" s="247"/>
-      <c r="AF72" s="247"/>
-      <c r="AG72" s="247"/>
+      <c r="B72" s="251"/>
+      <c r="C72" s="251"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="251"/>
+      <c r="F72" s="251"/>
+      <c r="G72" s="251"/>
+      <c r="H72" s="251"/>
+      <c r="I72" s="251"/>
+      <c r="J72" s="251"/>
+      <c r="K72" s="251"/>
+      <c r="L72" s="251"/>
+      <c r="M72" s="251"/>
+      <c r="N72" s="251"/>
+      <c r="O72" s="251"/>
+      <c r="P72" s="251"/>
+      <c r="Q72" s="251"/>
+      <c r="R72" s="251"/>
+      <c r="S72" s="251"/>
+      <c r="T72" s="251"/>
+      <c r="U72" s="251"/>
+      <c r="V72" s="251"/>
+      <c r="W72" s="251"/>
+      <c r="X72" s="251"/>
+      <c r="Y72" s="251"/>
+      <c r="Z72" s="251"/>
+      <c r="AA72" s="251"/>
+      <c r="AB72" s="251"/>
+      <c r="AC72" s="251"/>
+      <c r="AD72" s="251"/>
+      <c r="AE72" s="251"/>
+      <c r="AF72" s="251"/>
+      <c r="AG72" s="251"/>
     </row>
     <row r="73" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -22533,9 +22524,9 @@
       <c r="H74" s="72"/>
       <c r="I74" s="48"/>
       <c r="J74" s="47"/>
-      <c r="K74" s="223"/>
+      <c r="K74" s="222"/>
       <c r="L74" s="147"/>
-      <c r="M74" s="224"/>
+      <c r="M74" s="223"/>
       <c r="N74" s="95"/>
       <c r="O74" s="96"/>
       <c r="P74" s="47"/>
@@ -22605,15 +22596,15 @@
       </c>
       <c r="C76" s="48"/>
       <c r="D76" s="48"/>
-      <c r="E76" s="220"/>
-      <c r="F76" s="220"/>
-      <c r="G76" s="220"/>
-      <c r="H76" s="220"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="219"/>
+      <c r="G76" s="219"/>
+      <c r="H76" s="219"/>
       <c r="I76" s="48"/>
       <c r="J76" s="47"/>
-      <c r="K76" s="220"/>
-      <c r="L76" s="221"/>
-      <c r="M76" s="221"/>
+      <c r="K76" s="219"/>
+      <c r="L76" s="220"/>
+      <c r="M76" s="220"/>
       <c r="N76" s="95"/>
       <c r="O76" s="96"/>
       <c r="P76" s="47"/>
@@ -22644,15 +22635,15 @@
       </c>
       <c r="C77" s="48"/>
       <c r="D77" s="48"/>
-      <c r="E77" s="220"/>
-      <c r="F77" s="220"/>
-      <c r="G77" s="220"/>
-      <c r="H77" s="220"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="219"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="219"/>
       <c r="I77" s="48"/>
       <c r="J77" s="47"/>
-      <c r="K77" s="220"/>
-      <c r="L77" s="221"/>
-      <c r="M77" s="221"/>
+      <c r="K77" s="219"/>
+      <c r="L77" s="220"/>
+      <c r="M77" s="220"/>
       <c r="N77" s="95"/>
       <c r="O77" s="96"/>
       <c r="P77" s="47"/>
@@ -22689,9 +22680,9 @@
       <c r="H78" s="63"/>
       <c r="I78" s="48"/>
       <c r="J78" s="47"/>
-      <c r="K78" s="222"/>
+      <c r="K78" s="221"/>
       <c r="L78" s="147"/>
-      <c r="M78" s="221"/>
+      <c r="M78" s="220"/>
       <c r="N78" s="95"/>
       <c r="O78" s="96"/>
       <c r="P78" s="47"/>
@@ -22722,15 +22713,15 @@
       </c>
       <c r="C79" s="48"/>
       <c r="D79" s="48"/>
-      <c r="E79" s="220"/>
-      <c r="F79" s="220"/>
-      <c r="G79" s="220"/>
-      <c r="H79" s="220"/>
+      <c r="E79" s="219"/>
+      <c r="F79" s="219"/>
+      <c r="G79" s="219"/>
+      <c r="H79" s="219"/>
       <c r="I79" s="48"/>
       <c r="J79" s="47"/>
-      <c r="K79" s="220"/>
-      <c r="L79" s="221"/>
-      <c r="M79" s="221"/>
+      <c r="K79" s="219"/>
+      <c r="L79" s="220"/>
+      <c r="M79" s="220"/>
       <c r="N79" s="96"/>
       <c r="O79" s="92"/>
       <c r="P79" s="159"/>
@@ -22770,9 +22761,9 @@
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="230"/>
-      <c r="O80" s="231"/>
-      <c r="P80" s="228"/>
+      <c r="N80" s="229"/>
+      <c r="O80" s="230"/>
+      <c r="P80" s="227"/>
       <c r="Q80" s="150"/>
       <c r="R80" s="44"/>
       <c r="S80" s="15"/>
@@ -22795,7 +22786,7 @@
       <c r="A81" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="237" t="s">
+      <c r="B81" s="234" t="s">
         <v>101</v>
       </c>
       <c r="C81" s="156"/>
@@ -22809,15 +22800,15 @@
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
-      <c r="N81" s="242"/>
+      <c r="N81" s="239"/>
       <c r="O81" s="87"/>
       <c r="P81" s="57"/>
       <c r="Q81" s="150"/>
       <c r="R81" s="167"/>
-      <c r="S81" s="235"/>
-      <c r="T81" s="235"/>
+      <c r="S81" s="232"/>
+      <c r="T81" s="232"/>
       <c r="U81" s="40"/>
-      <c r="V81" s="236"/>
+      <c r="V81" s="233"/>
       <c r="W81" s="48"/>
       <c r="X81" s="151"/>
       <c r="Y81" s="119"/>
@@ -22834,7 +22825,7 @@
       <c r="A82" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="237" t="s">
+      <c r="B82" s="234" t="s">
         <v>104</v>
       </c>
       <c r="C82" s="156"/>
@@ -22848,15 +22839,15 @@
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
       <c r="M82" s="29"/>
-      <c r="N82" s="242"/>
-      <c r="O82" s="243"/>
+      <c r="N82" s="239"/>
+      <c r="O82" s="240"/>
       <c r="P82" s="57"/>
       <c r="Q82" s="150"/>
-      <c r="R82" s="251"/>
-      <c r="S82" s="242"/>
-      <c r="T82" s="242"/>
-      <c r="U82" s="252"/>
-      <c r="V82" s="197"/>
+      <c r="R82" s="242"/>
+      <c r="S82" s="239"/>
+      <c r="T82" s="239"/>
+      <c r="U82" s="243"/>
+      <c r="V82" s="196"/>
       <c r="W82" s="48"/>
       <c r="X82" s="151"/>
       <c r="Y82" s="119"/>
@@ -22873,7 +22864,7 @@
       <c r="A83" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="237" t="s">
+      <c r="B83" s="234" t="s">
         <v>106</v>
       </c>
       <c r="C83" s="156"/>
@@ -22887,15 +22878,15 @@
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
-      <c r="N83" s="235"/>
+      <c r="N83" s="232"/>
       <c r="O83" s="87"/>
       <c r="P83" s="57"/>
       <c r="Q83" s="150"/>
       <c r="R83" s="167"/>
-      <c r="S83" s="235"/>
-      <c r="T83" s="235"/>
+      <c r="S83" s="232"/>
+      <c r="T83" s="232"/>
       <c r="U83" s="40"/>
-      <c r="V83" s="197"/>
+      <c r="V83" s="196"/>
       <c r="W83" s="48"/>
       <c r="X83" s="151"/>
       <c r="Y83" s="119"/>
@@ -22912,7 +22903,7 @@
       <c r="A84" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="237" t="s">
+      <c r="B84" s="234" t="s">
         <v>112</v>
       </c>
       <c r="C84" s="156"/>
@@ -22926,18 +22917,18 @@
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
-      <c r="N84" s="236"/>
-      <c r="O84" s="250"/>
+      <c r="N84" s="233"/>
+      <c r="O84" s="241"/>
       <c r="P84" s="57"/>
       <c r="Q84" s="150"/>
       <c r="R84" s="167"/>
-      <c r="S84" s="235"/>
-      <c r="T84" s="235"/>
+      <c r="S84" s="232"/>
+      <c r="T84" s="232"/>
       <c r="U84" s="40"/>
-      <c r="V84" s="253"/>
+      <c r="V84" s="244"/>
       <c r="W84" s="48"/>
       <c r="X84" s="151"/>
-      <c r="Y84" s="234"/>
+      <c r="Y84" s="239"/>
       <c r="Z84" s="29"/>
       <c r="AA84" s="29"/>
       <c r="AB84" s="42"/>
@@ -22951,7 +22942,7 @@
       <c r="A85" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="237" t="s">
+      <c r="B85" s="234" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="156"/>
@@ -22965,32 +22956,32 @@
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
-      <c r="N85" s="236"/>
-      <c r="O85" s="250"/>
+      <c r="N85" s="233"/>
+      <c r="O85" s="241"/>
       <c r="P85" s="57"/>
       <c r="Q85" s="150"/>
       <c r="R85" s="167"/>
-      <c r="S85" s="235"/>
-      <c r="T85" s="235"/>
+      <c r="S85" s="232"/>
+      <c r="T85" s="232"/>
       <c r="U85" s="40"/>
-      <c r="V85" s="236"/>
+      <c r="V85" s="233"/>
       <c r="W85" s="48"/>
       <c r="X85" s="151"/>
-      <c r="Y85" s="234"/>
-      <c r="Z85" s="232"/>
-      <c r="AA85" s="232"/>
-      <c r="AB85" s="229"/>
-      <c r="AC85" s="229"/>
+      <c r="Y85" s="239"/>
+      <c r="Z85" s="239"/>
+      <c r="AA85" s="239"/>
+      <c r="AB85" s="243"/>
+      <c r="AC85" s="243"/>
       <c r="AD85" s="48"/>
       <c r="AE85" s="48"/>
-      <c r="AF85" s="229"/>
+      <c r="AF85" s="228"/>
       <c r="AG85" s="117"/>
     </row>
     <row r="86" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="237" t="s">
+      <c r="B86" s="234" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="156"/>
@@ -23004,15 +22995,15 @@
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
       <c r="M86" s="29"/>
-      <c r="N86" s="236"/>
-      <c r="O86" s="250"/>
+      <c r="N86" s="233"/>
+      <c r="O86" s="241"/>
       <c r="P86" s="57"/>
       <c r="Q86" s="150"/>
       <c r="R86" s="167"/>
-      <c r="S86" s="235"/>
-      <c r="T86" s="235"/>
+      <c r="S86" s="232"/>
+      <c r="T86" s="232"/>
       <c r="U86" s="40"/>
-      <c r="V86" s="236"/>
+      <c r="V86" s="233"/>
       <c r="W86" s="48"/>
       <c r="X86" s="151"/>
       <c r="Y86" s="119"/>
@@ -23022,7 +23013,7 @@
       <c r="AC86" s="42"/>
       <c r="AD86" s="48"/>
       <c r="AE86" s="48"/>
-      <c r="AF86" s="229"/>
+      <c r="AF86" s="228"/>
       <c r="AG86" s="117"/>
     </row>
     <row r="87" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -23041,13 +23032,13 @@
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
       <c r="K87" s="136"/>
-      <c r="L87" s="226"/>
-      <c r="M87" s="226"/>
-      <c r="N87" s="238"/>
-      <c r="O87" s="239"/>
+      <c r="L87" s="225"/>
+      <c r="M87" s="225"/>
+      <c r="N87" s="235"/>
+      <c r="O87" s="236"/>
       <c r="P87" s="48"/>
       <c r="Q87" s="48"/>
-      <c r="R87" s="193"/>
+      <c r="R87" s="192"/>
       <c r="S87" s="15"/>
       <c r="T87" s="21"/>
       <c r="U87" s="42"/>
@@ -23084,16 +23075,16 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="63"/>
-      <c r="P88" s="233"/>
+      <c r="P88" s="231"/>
       <c r="Q88" s="48"/>
       <c r="R88" s="167"/>
-      <c r="S88" s="193"/>
-      <c r="T88" s="193"/>
-      <c r="U88" s="256"/>
-      <c r="V88" s="193"/>
+      <c r="S88" s="192"/>
+      <c r="T88" s="192"/>
+      <c r="U88" s="247"/>
+      <c r="V88" s="192"/>
       <c r="W88" s="114"/>
       <c r="X88" s="111"/>
-      <c r="Y88" s="232"/>
+      <c r="Y88" s="239"/>
       <c r="Z88" s="56"/>
       <c r="AA88" s="21"/>
       <c r="AB88" s="66"/>
@@ -23129,14 +23120,14 @@
       <c r="S89" s="21"/>
       <c r="T89" s="15"/>
       <c r="U89" s="40"/>
-      <c r="V89" s="225"/>
+      <c r="V89" s="224"/>
       <c r="W89" s="48"/>
       <c r="X89" s="111"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
-      <c r="AB89" s="168"/>
-      <c r="AC89" s="21"/>
+      <c r="Y89" s="187"/>
+      <c r="Z89" s="187"/>
+      <c r="AA89" s="187"/>
+      <c r="AB89" s="187"/>
+      <c r="AC89" s="187"/>
       <c r="AD89" s="48"/>
       <c r="AE89" s="114"/>
       <c r="AF89" s="66"/>
@@ -23175,7 +23166,7 @@
       <c r="Z90" s="15"/>
       <c r="AA90" s="15"/>
       <c r="AB90" s="136"/>
-      <c r="AC90" s="17"/>
+      <c r="AC90" s="224"/>
       <c r="AD90" s="48"/>
       <c r="AE90" s="114"/>
       <c r="AF90" s="41"/>
@@ -23236,65 +23227,65 @@
       <c r="I92" s="100"/>
       <c r="J92" s="100"/>
       <c r="K92" s="166"/>
-      <c r="L92" s="227"/>
-      <c r="M92" s="227"/>
-      <c r="N92" s="240"/>
-      <c r="O92" s="241"/>
+      <c r="L92" s="226"/>
+      <c r="M92" s="226"/>
+      <c r="N92" s="237"/>
+      <c r="O92" s="238"/>
       <c r="P92" s="110"/>
       <c r="Q92" s="48"/>
-      <c r="R92" s="254"/>
-      <c r="S92" s="240"/>
-      <c r="T92" s="188"/>
-      <c r="U92" s="255"/>
-      <c r="V92" s="188"/>
+      <c r="R92" s="245"/>
+      <c r="S92" s="237"/>
+      <c r="T92" s="187"/>
+      <c r="U92" s="246"/>
+      <c r="V92" s="187"/>
       <c r="W92" s="48"/>
       <c r="X92" s="113"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
+      <c r="Y92" s="187"/>
+      <c r="Z92" s="187"/>
+      <c r="AA92" s="187"/>
+      <c r="AB92" s="187"/>
+      <c r="AC92" s="187"/>
       <c r="AD92" s="48"/>
       <c r="AE92" s="114"/>
       <c r="AF92" s="106"/>
       <c r="AG92" s="117"/>
     </row>
     <row r="93" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="248" t="s">
+      <c r="A93" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="249"/>
-      <c r="C93" s="249"/>
-      <c r="D93" s="249"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="249"/>
-      <c r="G93" s="249"/>
-      <c r="H93" s="249"/>
-      <c r="I93" s="249"/>
-      <c r="J93" s="249"/>
-      <c r="K93" s="249"/>
-      <c r="L93" s="249"/>
-      <c r="M93" s="249"/>
-      <c r="N93" s="249"/>
-      <c r="O93" s="249"/>
-      <c r="P93" s="249"/>
-      <c r="Q93" s="249"/>
-      <c r="R93" s="249"/>
-      <c r="S93" s="249"/>
-      <c r="T93" s="249"/>
-      <c r="U93" s="249"/>
-      <c r="V93" s="249"/>
-      <c r="W93" s="249"/>
-      <c r="X93" s="249"/>
-      <c r="Y93" s="249"/>
-      <c r="Z93" s="249"/>
-      <c r="AA93" s="249"/>
-      <c r="AB93" s="249"/>
-      <c r="AC93" s="249"/>
-      <c r="AD93" s="249"/>
-      <c r="AE93" s="249"/>
-      <c r="AF93" s="249"/>
-      <c r="AG93" s="249"/>
+      <c r="B93" s="253"/>
+      <c r="C93" s="253"/>
+      <c r="D93" s="253"/>
+      <c r="E93" s="253"/>
+      <c r="F93" s="253"/>
+      <c r="G93" s="253"/>
+      <c r="H93" s="253"/>
+      <c r="I93" s="253"/>
+      <c r="J93" s="253"/>
+      <c r="K93" s="253"/>
+      <c r="L93" s="253"/>
+      <c r="M93" s="253"/>
+      <c r="N93" s="253"/>
+      <c r="O93" s="253"/>
+      <c r="P93" s="253"/>
+      <c r="Q93" s="253"/>
+      <c r="R93" s="253"/>
+      <c r="S93" s="253"/>
+      <c r="T93" s="253"/>
+      <c r="U93" s="253"/>
+      <c r="V93" s="253"/>
+      <c r="W93" s="253"/>
+      <c r="X93" s="253"/>
+      <c r="Y93" s="253"/>
+      <c r="Z93" s="253"/>
+      <c r="AA93" s="253"/>
+      <c r="AB93" s="253"/>
+      <c r="AC93" s="253"/>
+      <c r="AD93" s="253"/>
+      <c r="AE93" s="253"/>
+      <c r="AF93" s="253"/>
+      <c r="AG93" s="253"/>
     </row>
     <row r="94" spans="1:40" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
@@ -23413,7 +23404,7 @@
       <c r="I95" s="125"/>
       <c r="J95" s="125"/>
       <c r="K95" s="160"/>
-      <c r="L95" s="169"/>
+      <c r="L95" s="168"/>
       <c r="M95" s="120"/>
       <c r="N95" s="121"/>
       <c r="O95" s="122"/>
@@ -23499,7 +23490,7 @@
       <c r="C97" s="105"/>
       <c r="D97" s="4"/>
       <c r="E97" s="87"/>
-      <c r="F97" s="170"/>
+      <c r="F97" s="169"/>
       <c r="G97" s="48"/>
       <c r="H97" s="114"/>
       <c r="I97" s="164"/>
